--- a/reports/For The Day (Prior Year)_Payroll.xlsx
+++ b/reports/For The Day (Prior Year)_Payroll.xlsx
@@ -40,219 +40,219 @@
     <t>DepartmentTitle</t>
   </si>
   <si>
+    <t>A2MZ</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>Lift Operations</t>
+  </si>
+  <si>
+    <t>A29U</t>
+  </si>
+  <si>
+    <t>A0G8</t>
+  </si>
+  <si>
+    <t>A20Y</t>
+  </si>
+  <si>
+    <t>A0VU</t>
+  </si>
+  <si>
+    <t>A0QF</t>
+  </si>
+  <si>
+    <t>H665</t>
+  </si>
+  <si>
+    <t>F701</t>
+  </si>
+  <si>
+    <t>A2TV</t>
+  </si>
+  <si>
+    <t>G125</t>
+  </si>
+  <si>
+    <t>A2MY</t>
+  </si>
+  <si>
+    <t>A28F</t>
+  </si>
+  <si>
+    <t>F716</t>
+  </si>
+  <si>
+    <t>A29S</t>
+  </si>
+  <si>
+    <t>A0P4</t>
+  </si>
+  <si>
+    <t>G149</t>
+  </si>
+  <si>
+    <t>B746</t>
+  </si>
+  <si>
+    <t>B778</t>
+  </si>
+  <si>
+    <t>B197</t>
+  </si>
+  <si>
+    <t>A2G0</t>
+  </si>
+  <si>
+    <t>A2FY</t>
+  </si>
+  <si>
+    <t>A2AN</t>
+  </si>
+  <si>
+    <t>A28E</t>
+  </si>
+  <si>
+    <t>A27C</t>
+  </si>
+  <si>
+    <t>A29T</t>
+  </si>
+  <si>
+    <t>A25Z</t>
+  </si>
+  <si>
+    <t>A1ZJ</t>
+  </si>
+  <si>
+    <t>A0DO</t>
+  </si>
+  <si>
+    <t>A2FN</t>
+  </si>
+  <si>
+    <t>I342</t>
+  </si>
+  <si>
+    <t>A2G4</t>
+  </si>
+  <si>
+    <t>A2G2</t>
+  </si>
+  <si>
+    <t>A26C</t>
+  </si>
+  <si>
+    <t>A0U5</t>
+  </si>
+  <si>
+    <t>D399</t>
+  </si>
+  <si>
+    <t>A556</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>A2G3</t>
+  </si>
+  <si>
+    <t>A2FO</t>
+  </si>
+  <si>
+    <t>A2BF</t>
+  </si>
+  <si>
+    <t>A2A6</t>
+  </si>
+  <si>
+    <t>I820</t>
+  </si>
+  <si>
+    <t>A29V</t>
+  </si>
+  <si>
+    <t>A28L</t>
+  </si>
+  <si>
     <t>A0CP</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>OD</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>Lift Operations</t>
-  </si>
-  <si>
-    <t>A28L</t>
-  </si>
-  <si>
-    <t>A29V</t>
-  </si>
-  <si>
-    <t>A0U5</t>
-  </si>
-  <si>
-    <t>A26C</t>
+    <t>A2JJ</t>
+  </si>
+  <si>
+    <t>A2JG</t>
+  </si>
+  <si>
+    <t>A27B</t>
+  </si>
+  <si>
+    <t>A0B1</t>
   </si>
   <si>
     <t>A26V</t>
   </si>
   <si>
-    <t>A29S</t>
-  </si>
-  <si>
-    <t>A29U</t>
-  </si>
-  <si>
-    <t>A27B</t>
-  </si>
-  <si>
-    <t>G125</t>
-  </si>
-  <si>
-    <t>I342</t>
-  </si>
-  <si>
-    <t>A28F</t>
-  </si>
-  <si>
-    <t>A2MY</t>
-  </si>
-  <si>
-    <t>G149</t>
-  </si>
-  <si>
-    <t>A2MZ</t>
-  </si>
-  <si>
-    <t>F701</t>
-  </si>
-  <si>
-    <t>H665</t>
-  </si>
-  <si>
-    <t>A0P4</t>
-  </si>
-  <si>
-    <t>A2FO</t>
-  </si>
-  <si>
-    <t>A2G3</t>
-  </si>
-  <si>
-    <t>A2A6</t>
-  </si>
-  <si>
-    <t>A2BF</t>
-  </si>
-  <si>
-    <t>A556</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>D399</t>
-  </si>
-  <si>
-    <t>A0B1</t>
+    <t>A2IQ</t>
+  </si>
+  <si>
+    <t>E944</t>
   </si>
   <si>
     <t>A28O</t>
   </si>
   <si>
-    <t>A2IQ</t>
-  </si>
-  <si>
-    <t>A2TV</t>
-  </si>
-  <si>
-    <t>A2JJ</t>
-  </si>
-  <si>
-    <t>B746</t>
-  </si>
-  <si>
-    <t>A25Z</t>
-  </si>
-  <si>
-    <t>I820</t>
-  </si>
-  <si>
-    <t>E944</t>
-  </si>
-  <si>
-    <t>A2JG</t>
-  </si>
-  <si>
-    <t>A2G4</t>
-  </si>
-  <si>
-    <t>A2G2</t>
-  </si>
-  <si>
-    <t>A29T</t>
-  </si>
-  <si>
-    <t>A20Y</t>
-  </si>
-  <si>
-    <t>A0VU</t>
-  </si>
-  <si>
-    <t>A0QF</t>
-  </si>
-  <si>
-    <t>A2FN</t>
-  </si>
-  <si>
-    <t>B778</t>
-  </si>
-  <si>
-    <t>F716</t>
-  </si>
-  <si>
-    <t>A0G8</t>
-  </si>
-  <si>
-    <t>A27C</t>
-  </si>
-  <si>
-    <t>A28E</t>
-  </si>
-  <si>
-    <t>A1ZJ</t>
-  </si>
-  <si>
-    <t>A2FY</t>
-  </si>
-  <si>
-    <t>A2G0</t>
-  </si>
-  <si>
-    <t>B197</t>
-  </si>
-  <si>
-    <t>A2AN</t>
-  </si>
-  <si>
-    <t>A0DO</t>
+    <t>C492</t>
+  </si>
+  <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>Lift Maintenance</t>
+  </si>
+  <si>
+    <t>A22D</t>
+  </si>
+  <si>
+    <t>D519</t>
   </si>
   <si>
     <t>E270</t>
   </si>
   <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>Lift Maintenance</t>
-  </si>
-  <si>
     <t>E302</t>
   </si>
   <si>
-    <t>D519</t>
-  </si>
-  <si>
-    <t>C492</t>
-  </si>
-  <si>
-    <t>A22D</t>
+    <t>F787</t>
+  </si>
+  <si>
+    <t>D1030</t>
+  </si>
+  <si>
+    <t>Snowmaking</t>
+  </si>
+  <si>
+    <t>A1ZX</t>
+  </si>
+  <si>
+    <t>B250</t>
+  </si>
+  <si>
+    <t>H931</t>
   </si>
   <si>
     <t>A23C</t>
   </si>
   <si>
-    <t>D1030</t>
-  </si>
-  <si>
-    <t>Snowmaking</t>
-  </si>
-  <si>
-    <t>F787</t>
-  </si>
-  <si>
-    <t>A1ZX</t>
-  </si>
-  <si>
-    <t>B250</t>
-  </si>
-  <si>
-    <t>H931</t>
-  </si>
-  <si>
     <t>C666</t>
   </si>
   <si>
@@ -265,231 +265,231 @@
     <t>Terrain Park</t>
   </si>
   <si>
+    <t>H731</t>
+  </si>
+  <si>
     <t>F499</t>
   </si>
   <si>
-    <t>H731</t>
+    <t>A0H1</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>Trail Maintenance</t>
+  </si>
+  <si>
+    <t>A23D</t>
   </si>
   <si>
     <t>D941</t>
   </si>
   <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>Trail Maintenance</t>
+    <t>A1T8</t>
+  </si>
+  <si>
+    <t>C653</t>
+  </si>
+  <si>
+    <t>J169</t>
   </si>
   <si>
     <t>C074</t>
   </si>
   <si>
-    <t>J169</t>
-  </si>
-  <si>
-    <t>C653</t>
-  </si>
-  <si>
-    <t>A1T8</t>
-  </si>
-  <si>
-    <t>A0H1</t>
-  </si>
-  <si>
     <t>A2UN</t>
   </si>
   <si>
-    <t>A23D</t>
+    <t>A0RD</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>D1100</t>
+  </si>
+  <si>
+    <t>Vehicle Maintenance</t>
   </si>
   <si>
     <t>A22N</t>
   </si>
   <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>Vehicle Maintenance</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>A0RD</t>
+    <t>A2H9</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>Ski Patrol</t>
+  </si>
+  <si>
+    <t>A0JE</t>
+  </si>
+  <si>
+    <t>I403</t>
+  </si>
+  <si>
+    <t>A0JG</t>
+  </si>
+  <si>
+    <t>B878</t>
+  </si>
+  <si>
+    <t>A889</t>
+  </si>
+  <si>
+    <t>H474</t>
+  </si>
+  <si>
+    <t>J471</t>
+  </si>
+  <si>
+    <t>J024</t>
+  </si>
+  <si>
+    <t>B898</t>
+  </si>
+  <si>
+    <t>J576</t>
+  </si>
+  <si>
+    <t>F946</t>
+  </si>
+  <si>
+    <t>E950</t>
   </si>
   <si>
     <t>A2H8</t>
   </si>
   <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>Ski Patrol</t>
-  </si>
-  <si>
-    <t>E950</t>
-  </si>
-  <si>
-    <t>J576</t>
-  </si>
-  <si>
-    <t>B898</t>
-  </si>
-  <si>
-    <t>J024</t>
-  </si>
-  <si>
-    <t>J471</t>
-  </si>
-  <si>
-    <t>A889</t>
-  </si>
-  <si>
-    <t>F946</t>
-  </si>
-  <si>
-    <t>A0JE</t>
-  </si>
-  <si>
-    <t>H474</t>
-  </si>
-  <si>
-    <t>A2H9</t>
-  </si>
-  <si>
-    <t>A0JG</t>
-  </si>
-  <si>
-    <t>I403</t>
-  </si>
-  <si>
-    <t>B878</t>
-  </si>
-  <si>
     <t>D843</t>
   </si>
   <si>
+    <t>A511</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t>A1BR</t>
+  </si>
+  <si>
+    <t>A2N2</t>
+  </si>
+  <si>
+    <t>A2O6</t>
+  </si>
+  <si>
+    <t>A2RO</t>
+  </si>
+  <si>
     <t>A0DP</t>
   </si>
   <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>Tickets</t>
-  </si>
-  <si>
-    <t>A1BR</t>
-  </si>
-  <si>
-    <t>A511</t>
-  </si>
-  <si>
-    <t>A2RO</t>
-  </si>
-  <si>
     <t>A27F</t>
   </si>
   <si>
-    <t>A2O6</t>
-  </si>
-  <si>
-    <t>A2N2</t>
+    <t>E910</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Ski School</t>
+  </si>
+  <si>
+    <t>E973</t>
+  </si>
+  <si>
+    <t>F365</t>
+  </si>
+  <si>
+    <t>F596</t>
+  </si>
+  <si>
+    <t>G652</t>
+  </si>
+  <si>
+    <t>J149</t>
+  </si>
+  <si>
+    <t>J352</t>
+  </si>
+  <si>
+    <t>G179</t>
+  </si>
+  <si>
+    <t>C655</t>
+  </si>
+  <si>
+    <t>F720</t>
+  </si>
+  <si>
+    <t>A0HC</t>
+  </si>
+  <si>
+    <t>A0QT</t>
+  </si>
+  <si>
+    <t>A0FQ</t>
   </si>
   <si>
     <t>F403</t>
   </si>
   <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Ski School</t>
-  </si>
-  <si>
-    <t>E910</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>A0FQ</t>
-  </si>
-  <si>
-    <t>E973</t>
-  </si>
-  <si>
-    <t>C655</t>
-  </si>
-  <si>
-    <t>G652</t>
-  </si>
-  <si>
-    <t>F596</t>
-  </si>
-  <si>
-    <t>G179</t>
-  </si>
-  <si>
-    <t>A0QT</t>
-  </si>
-  <si>
-    <t>A0HC</t>
-  </si>
-  <si>
-    <t>J352</t>
-  </si>
-  <si>
-    <t>F365</t>
-  </si>
-  <si>
-    <t>F720</t>
-  </si>
-  <si>
-    <t>J149</t>
+    <t>A2VZ</t>
+  </si>
+  <si>
+    <t>D2200</t>
+  </si>
+  <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>A2W0</t>
   </si>
   <si>
     <t>A2W1</t>
   </si>
   <si>
-    <t>D2200</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>A2VZ</t>
-  </si>
-  <si>
-    <t>A2W0</t>
+    <t>B637</t>
+  </si>
+  <si>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Rentals</t>
+  </si>
+  <si>
+    <t>A1Y7</t>
+  </si>
+  <si>
+    <t>A2AA</t>
+  </si>
+  <si>
+    <t>E547</t>
+  </si>
+  <si>
+    <t>D126</t>
+  </si>
+  <si>
+    <t>E582</t>
+  </si>
+  <si>
+    <t>A904</t>
   </si>
   <si>
     <t>A0SZ</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Rentals</t>
-  </si>
-  <si>
-    <t>D126</t>
-  </si>
-  <si>
-    <t>A904</t>
-  </si>
-  <si>
-    <t>A2AA</t>
-  </si>
-  <si>
-    <t>A1Y7</t>
-  </si>
-  <si>
-    <t>E582</t>
-  </si>
-  <si>
-    <t>B637</t>
-  </si>
-  <si>
-    <t>E547</t>
-  </si>
-  <si>
     <t>J071</t>
   </si>
   <si>
@@ -511,28 +511,31 @@
     <t>E962</t>
   </si>
   <si>
+    <t>G111</t>
+  </si>
+  <si>
+    <t>D510</t>
+  </si>
+  <si>
     <t>C173</t>
   </si>
   <si>
-    <t>D510</t>
-  </si>
-  <si>
-    <t>G111</t>
+    <t>I003</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>Purg Sports Main Ave</t>
+  </si>
+  <si>
+    <t>I552</t>
   </si>
   <si>
     <t>A15G</t>
   </si>
   <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>I552</t>
-  </si>
-  <si>
-    <t>I003</t>
+    <t>I518</t>
   </si>
   <si>
     <t>D5000</t>
@@ -541,9 +544,6 @@
     <t>F&amp;B Admin</t>
   </si>
   <si>
-    <t>I518</t>
-  </si>
-  <si>
     <t>E655</t>
   </si>
   <si>
@@ -553,15 +553,15 @@
     <t>Powderhouse</t>
   </si>
   <si>
+    <t>A1KM</t>
+  </si>
+  <si>
+    <t>A2I0</t>
+  </si>
+  <si>
     <t>I308</t>
   </si>
   <si>
-    <t>A2I0</t>
-  </si>
-  <si>
-    <t>A1KM</t>
-  </si>
-  <si>
     <t>F997</t>
   </si>
   <si>
@@ -589,45 +589,45 @@
     <t>Paradise</t>
   </si>
   <si>
+    <t>A20D</t>
+  </si>
+  <si>
     <t>J434</t>
   </si>
   <si>
-    <t>A20D</t>
-  </si>
-  <si>
     <t>A2I2</t>
   </si>
   <si>
+    <t>B207</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>A2UR</t>
+  </si>
+  <si>
+    <t>D499</t>
+  </si>
+  <si>
     <t>A2JB</t>
   </si>
   <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
+    <t>J292</t>
   </si>
   <si>
     <t>A2US</t>
   </si>
   <si>
+    <t>A0T1</t>
+  </si>
+  <si>
     <t>C516</t>
   </si>
   <si>
-    <t>A0T1</t>
-  </si>
-  <si>
-    <t>J292</t>
-  </si>
-  <si>
-    <t>A2UR</t>
-  </si>
-  <si>
-    <t>B207</t>
-  </si>
-  <si>
-    <t>D499</t>
-  </si>
-  <si>
     <t>H608</t>
   </si>
   <si>
@@ -652,36 +652,36 @@
     <t>A1N1</t>
   </si>
   <si>
+    <t>F423</t>
+  </si>
+  <si>
+    <t>B276</t>
+  </si>
+  <si>
     <t>A22R</t>
   </si>
   <si>
-    <t>B276</t>
-  </si>
-  <si>
-    <t>F423</t>
+    <t>J492</t>
+  </si>
+  <si>
+    <t>D6215</t>
+  </si>
+  <si>
+    <t>Housekeeping</t>
+  </si>
+  <si>
+    <t>J489</t>
+  </si>
+  <si>
+    <t>I060</t>
+  </si>
+  <si>
+    <t>G956</t>
   </si>
   <si>
     <t>H341</t>
   </si>
   <si>
-    <t>D6215</t>
-  </si>
-  <si>
-    <t>Housekeeping</t>
-  </si>
-  <si>
-    <t>J492</t>
-  </si>
-  <si>
-    <t>G956</t>
-  </si>
-  <si>
-    <t>I060</t>
-  </si>
-  <si>
-    <t>J489</t>
-  </si>
-  <si>
     <t>C825</t>
   </si>
   <si>
@@ -691,15 +691,15 @@
     <t>Resort Services G&amp;A</t>
   </si>
   <si>
+    <t>A2UO</t>
+  </si>
+  <si>
     <t>D6720</t>
   </si>
   <si>
     <t>Guest Services</t>
   </si>
   <si>
-    <t>A2UO</t>
-  </si>
-  <si>
     <t>A1WB</t>
   </si>
   <si>
@@ -745,6 +745,9 @@
     <t>E609</t>
   </si>
   <si>
+    <t>A0HT</t>
+  </si>
+  <si>
     <t>A2JA</t>
   </si>
   <si>
@@ -754,9 +757,6 @@
     <t>G859</t>
   </si>
   <si>
-    <t>A0HT</t>
-  </si>
-  <si>
     <t>J483</t>
   </si>
   <si>
@@ -769,12 +769,12 @@
     <t>E322</t>
   </si>
   <si>
+    <t>A03K</t>
+  </si>
+  <si>
     <t>B125</t>
   </si>
   <si>
-    <t>A03K</t>
-  </si>
-  <si>
     <t>A1Z8</t>
   </si>
   <si>
@@ -805,13 +805,13 @@
     <t>J079</t>
   </si>
   <si>
+    <t>A02N</t>
+  </si>
+  <si>
+    <t>D8040</t>
+  </si>
+  <si>
     <t>A2KR</t>
-  </si>
-  <si>
-    <t>D8040</t>
-  </si>
-  <si>
-    <t>A02N</t>
   </si>
   <si>
     <t>A0Q0</t>
@@ -1224,7 +1224,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>45629.36511574074</v>
+        <v>45629.375</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1239,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="2">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1265,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="2">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1282,7 +1282,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>45629.625</v>
+        <v>45629.64583333334</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -1291,7 +1291,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="2">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -1308,7 +1308,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>45629.64583333334</v>
+        <v>45629.625</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -1317,7 +1317,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="2">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
@@ -1328,13 +1328,13 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>45629.375</v>
+        <v>45629.37311342593</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>45629.625</v>
+        <v>45629.66666666666</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -1354,13 +1354,13 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>45629.375</v>
+        <v>45629.31613425926</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>45629.625</v>
+        <v>45629.6875</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -1369,7 +1369,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="2">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
@@ -1380,13 +1380,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>45629.375</v>
+        <v>45629.30206018518</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>45629.60416666666</v>
+        <v>45629.68146990741</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -1395,7 +1395,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="2">
-        <v>14.5</v>
+        <v>20.57</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>12</v>
@@ -1412,7 +1412,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>45629.625</v>
+        <v>45629.66666666666</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -1421,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="2">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>12</v>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>45629.64583333334</v>
+        <v>45629.625</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="2">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>12</v>
@@ -1484,13 +1484,13 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>45629.30259259259</v>
+        <v>45629.375</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2">
-        <v>45629.69074074074</v>
+        <v>45629.65795138889</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
@@ -1499,7 +1499,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>12</v>
@@ -1542,7 +1542,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="2">
-        <v>45629.65795138889</v>
+        <v>45629.625</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -1551,7 +1551,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>12</v>
@@ -1568,7 +1568,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>45629.625</v>
+        <v>45629.60416666666</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="2">
-        <v>14.63</v>
+        <v>14.5</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>12</v>
@@ -1588,13 +1588,13 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <v>45629.375</v>
+        <v>45629.32344907407</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2">
-        <v>45629.64583333334</v>
+        <v>45629.68893518519</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -1603,7 +1603,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="2">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>12</v>
@@ -1620,7 +1620,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2">
-        <v>45629.66666666666</v>
+        <v>45629.625</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>14.63</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>12</v>
@@ -1640,13 +1640,13 @@
         <v>28</v>
       </c>
       <c r="B18" s="2">
-        <v>45629.30206018518</v>
+        <v>45629.30138888889</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2">
-        <v>45629.68146990741</v>
+        <v>45629.68699074074</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
@@ -1655,7 +1655,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="2">
-        <v>20.57</v>
+        <v>19</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>12</v>
@@ -1666,13 +1666,13 @@
         <v>29</v>
       </c>
       <c r="B19" s="2">
-        <v>45629.32344907407</v>
+        <v>45629.31400462963</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2">
-        <v>45629.68893518519</v>
+        <v>45629.67361111111</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>
@@ -1692,13 +1692,13 @@
         <v>30</v>
       </c>
       <c r="B20" s="2">
-        <v>45629.375</v>
+        <v>45629.3021875</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2">
-        <v>45629.63541666666</v>
+        <v>45629.69054398148</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
@@ -1707,7 +1707,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="2">
-        <v>15.5</v>
+        <v>19.57</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>12</v>
@@ -1718,13 +1718,13 @@
         <v>31</v>
       </c>
       <c r="B21" s="2">
-        <v>45629.36534722222</v>
+        <v>45629.375</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2">
-        <v>45629.63064814815</v>
+        <v>45629.625</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -1733,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="2">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>12</v>
@@ -1750,7 +1750,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="2">
-        <v>45629.64583333334</v>
+        <v>45629.625</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
@@ -1759,7 +1759,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="2">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>12</v>
@@ -1776,7 +1776,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>45629.625</v>
+        <v>45629.64583333334</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -1785,7 +1785,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="2">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>12</v>
@@ -1796,13 +1796,13 @@
         <v>34</v>
       </c>
       <c r="B24" s="2">
-        <v>45629.54548611111</v>
+        <v>45629.36924768519</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2">
-        <v>45629.67592592593</v>
+        <v>45629.6303125</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -1811,7 +1811,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="2">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>12</v>
@@ -1819,16 +1819,16 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2">
-        <v>45629.30271990741</v>
+        <v>45629.38541666666</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2">
-        <v>45629.69084490741</v>
+        <v>45629.625</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
@@ -1837,7 +1837,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="2">
-        <v>21.68</v>
+        <v>14.5</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>12</v>
@@ -1845,16 +1845,16 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2">
-        <v>45629.38831018518</v>
+        <v>45629.375</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2">
-        <v>45629.67238425926</v>
+        <v>45629.625</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2">
         <v>45629.375</v>
@@ -1889,7 +1889,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="2">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>12</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2">
         <v>45629.375</v>
@@ -1906,7 +1906,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2">
-        <v>45629.625</v>
+        <v>45629.63541666666</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -1915,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="2">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>12</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2">
         <v>45629.375</v>
@@ -1932,7 +1932,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2">
-        <v>45629.625</v>
+        <v>45629.64583333334</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>10</v>
@@ -1941,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="2">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>12</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2">
         <v>45629.375</v>
@@ -1958,7 +1958,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2">
-        <v>45629.6280787037</v>
+        <v>45629.625</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
@@ -1967,7 +1967,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>12</v>
@@ -1975,16 +1975,16 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2">
-        <v>45629.30138888889</v>
+        <v>45629.30259259259</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2">
-        <v>45629.68699074074</v>
+        <v>45629.69074074074</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2">
         <v>45629.375</v>
@@ -2027,16 +2027,16 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2">
-        <v>45629.32304398148</v>
+        <v>45629.37449074074</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2">
-        <v>45629.56631944444</v>
+        <v>45629.63193287037</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -2045,7 +2045,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>12</v>
@@ -2053,16 +2053,16 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2">
-        <v>45629.4375</v>
+        <v>45629.375</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2">
-        <v>45629.63541666666</v>
+        <v>45629.625</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
@@ -2071,7 +2071,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="2">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>12</v>
@@ -2079,16 +2079,16 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2">
-        <v>45629.36818287037</v>
+        <v>45629.375</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2">
-        <v>45629.62623842592</v>
+        <v>45629.64583333334</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
@@ -2097,7 +2097,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>12</v>
@@ -2105,16 +2105,16 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2">
-        <v>45629.375</v>
+        <v>45629.30271990741</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2">
-        <v>45629.625</v>
+        <v>45629.69084490741</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>10</v>
@@ -2123,7 +2123,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="2">
-        <v>15.5</v>
+        <v>21.68</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>12</v>
@@ -2131,16 +2131,16 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45629.54548611111</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="2">
-        <v>45629.37449074074</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D37" s="2">
-        <v>45629.63193287037</v>
+        <v>45629.67592592593</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
@@ -2149,7 +2149,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>12</v>
@@ -2160,13 +2160,13 @@
         <v>49</v>
       </c>
       <c r="B38" s="2">
-        <v>45629.375</v>
+        <v>45629.36534722222</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2">
-        <v>45629.625</v>
+        <v>45629.63064814815</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
@@ -2175,7 +2175,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="2">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>12</v>
@@ -2192,7 +2192,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2">
-        <v>45629.625</v>
+        <v>45629.63541666666</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -2212,13 +2212,13 @@
         <v>51</v>
       </c>
       <c r="B40" s="2">
-        <v>45629.37311342593</v>
+        <v>45629.375</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2">
-        <v>45629.66666666666</v>
+        <v>45629.625</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -2238,13 +2238,13 @@
         <v>52</v>
       </c>
       <c r="B41" s="2">
-        <v>45629.31613425926</v>
+        <v>45629.375</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2">
-        <v>45629.6875</v>
+        <v>45629.64583333334</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
@@ -2253,7 +2253,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="2">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>12</v>
@@ -2264,13 +2264,13 @@
         <v>53</v>
       </c>
       <c r="B42" s="2">
-        <v>45629.375</v>
+        <v>45629.32304398148</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2">
-        <v>45629.625</v>
+        <v>45629.56631944444</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
@@ -2279,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>12</v>
@@ -2290,13 +2290,13 @@
         <v>54</v>
       </c>
       <c r="B43" s="2">
-        <v>45629.31400462963</v>
+        <v>45629.375</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2">
-        <v>45629.67361111111</v>
+        <v>45629.625</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
@@ -2331,7 +2331,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="2">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>12</v>
@@ -2342,7 +2342,7 @@
         <v>56</v>
       </c>
       <c r="B45" s="2">
-        <v>45629.375</v>
+        <v>45629.36511574074</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -2368,13 +2368,13 @@
         <v>57</v>
       </c>
       <c r="B46" s="2">
-        <v>45629.38541666666</v>
+        <v>45629.375</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2">
-        <v>45629.625</v>
+        <v>45629.6280787037</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
@@ -2383,7 +2383,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="2">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>12</v>
@@ -2394,13 +2394,13 @@
         <v>58</v>
       </c>
       <c r="B47" s="2">
-        <v>45629.36924768519</v>
+        <v>45629.36818287037</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2">
-        <v>45629.6303125</v>
+        <v>45629.62623842592</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -2409,7 +2409,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="2">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>12</v>
@@ -2426,7 +2426,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2">
-        <v>45629.63541666666</v>
+        <v>45629.64583333334</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
@@ -2435,7 +2435,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="2">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>12</v>
@@ -2446,13 +2446,13 @@
         <v>60</v>
       </c>
       <c r="B49" s="2">
-        <v>45629.375</v>
+        <v>45629.38831018518</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2">
-        <v>45629.625</v>
+        <v>45629.67238425926</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -2461,7 +2461,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="2">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>12</v>
@@ -2487,7 +2487,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="2">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>12</v>
@@ -2498,13 +2498,13 @@
         <v>62</v>
       </c>
       <c r="B51" s="2">
-        <v>45629.3021875</v>
+        <v>45629.375</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2">
-        <v>45629.69054398148</v>
+        <v>45629.625</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
@@ -2513,7 +2513,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="2">
-        <v>19.57</v>
+        <v>15.5</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>12</v>
@@ -2524,13 +2524,13 @@
         <v>63</v>
       </c>
       <c r="B52" s="2">
-        <v>45629.375</v>
+        <v>45629.4375</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2">
-        <v>45629.64583333334</v>
+        <v>45629.63541666666</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
@@ -2539,7 +2539,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="2">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>12</v>
@@ -2556,7 +2556,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2">
-        <v>45629.64583333334</v>
+        <v>45629.625</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
@@ -2565,7 +2565,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="2">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>12</v>
@@ -2576,22 +2576,18 @@
         <v>65</v>
       </c>
       <c r="B54" s="2">
-        <v>45629.23631944445</v>
+        <v>45629.69567129629</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="2">
-        <v>45629.69994212963</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G54" s="2">
-        <v>35.43</v>
+        <v>21.56</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>67</v>
@@ -2599,25 +2595,21 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B55" s="2">
-        <v>45629.28421296296</v>
+        <v>45629.25</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="2">
-        <v>45629.6997337963</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G55" s="2">
-        <v>29.87</v>
+        <v>21.56</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>67</v>
@@ -2625,16 +2617,16 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B56" s="2">
-        <v>45629.25291666666</v>
+        <v>45629.30259259259</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2">
-        <v>45629.69877314815</v>
+        <v>45629.68922453704</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
@@ -2643,7 +2635,7 @@
         <v>66</v>
       </c>
       <c r="G56" s="2">
-        <v>21.57</v>
+        <v>18.5</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>67</v>
@@ -2651,21 +2643,25 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" s="2">
-        <v>45629.25</v>
+        <v>45629.25291666666</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="D57" s="2">
+        <v>45629.69877314815</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F57" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G57" s="2">
-        <v>21.56</v>
+        <v>21.57</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>67</v>
@@ -2676,18 +2672,22 @@
         <v>70</v>
       </c>
       <c r="B58" s="2">
-        <v>45629.69567129629</v>
+        <v>45629.23631944445</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="D58" s="2">
+        <v>45629.69994212963</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F58" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G58" s="2">
-        <v>21.56</v>
+        <v>35.43</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>67</v>
@@ -2698,13 +2698,13 @@
         <v>71</v>
       </c>
       <c r="B59" s="2">
-        <v>45629.30259259259</v>
+        <v>45629.28421296296</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2">
-        <v>45629.68922453704</v>
+        <v>45629.6997337963</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
@@ -2713,7 +2713,7 @@
         <v>66</v>
       </c>
       <c r="G59" s="2">
-        <v>18.5</v>
+        <v>29.87</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>67</v>
@@ -2724,13 +2724,13 @@
         <v>72</v>
       </c>
       <c r="B60" s="2">
-        <v>45629.69834490741</v>
+        <v>45629.96458333333</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2">
-        <v>45629.81928240741</v>
+        <v>45630.55833333333</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
@@ -2739,7 +2739,7 @@
         <v>73</v>
       </c>
       <c r="G60" s="2">
-        <v>18.36</v>
+        <v>24.72</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>74</v>
@@ -2750,13 +2750,13 @@
         <v>75</v>
       </c>
       <c r="B61" s="2">
-        <v>45629.46451388889</v>
+        <v>45629.9343287037</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2">
-        <v>45629.58333333334</v>
+        <v>45630.45833333334</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>10</v>
@@ -2765,7 +2765,7 @@
         <v>73</v>
       </c>
       <c r="G61" s="2">
-        <v>24.72</v>
+        <v>18</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>74</v>
@@ -2776,13 +2776,13 @@
         <v>76</v>
       </c>
       <c r="B62" s="2">
-        <v>45629.9343287037</v>
+        <v>45629.00347222222</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2">
-        <v>45630.45833333334</v>
+        <v>45629.38541666666</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
@@ -2791,7 +2791,7 @@
         <v>73</v>
       </c>
       <c r="G62" s="2">
-        <v>18</v>
+        <v>24.26</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>74</v>
@@ -2802,13 +2802,13 @@
         <v>77</v>
       </c>
       <c r="B63" s="2">
-        <v>45629.00347222222</v>
+        <v>45629.44174768519</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2">
-        <v>45629.38541666666</v>
+        <v>45629.9665625</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -2817,7 +2817,7 @@
         <v>73</v>
       </c>
       <c r="G63" s="2">
-        <v>24.26</v>
+        <v>23.75</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>74</v>
@@ -2828,13 +2828,13 @@
         <v>78</v>
       </c>
       <c r="B64" s="2">
-        <v>45629.44174768519</v>
+        <v>45629.69834490741</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2">
-        <v>45629.9665625</v>
+        <v>45629.81928240741</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
@@ -2843,7 +2843,7 @@
         <v>73</v>
       </c>
       <c r="G64" s="2">
-        <v>23.75</v>
+        <v>18.36</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>74</v>
@@ -2851,16 +2851,16 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B65" s="2">
-        <v>45629.96458333333</v>
+        <v>45629.93825231482</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2">
-        <v>45630.55833333333</v>
+        <v>45630.49101851852</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
@@ -2869,7 +2869,7 @@
         <v>73</v>
       </c>
       <c r="G65" s="2">
-        <v>24.72</v>
+        <v>22.7</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>74</v>
@@ -2877,16 +2877,16 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B66" s="2">
-        <v>45629.93825231482</v>
+        <v>45629.46451388889</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2">
-        <v>45630.49101851852</v>
+        <v>45629.58333333334</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
@@ -2895,7 +2895,7 @@
         <v>73</v>
       </c>
       <c r="G66" s="2">
-        <v>22.7</v>
+        <v>24.72</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>74</v>
@@ -2958,13 +2958,13 @@
         <v>83</v>
       </c>
       <c r="B69" s="2">
-        <v>45629.31052083334</v>
+        <v>45629.31210648148</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2">
-        <v>45629.73262731481</v>
+        <v>45629.73296296296</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
@@ -2973,7 +2973,7 @@
         <v>81</v>
       </c>
       <c r="G69" s="2">
-        <v>16.5</v>
+        <v>22.66</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>82</v>
@@ -2984,13 +2984,13 @@
         <v>84</v>
       </c>
       <c r="B70" s="2">
-        <v>45629.31210648148</v>
+        <v>45629.31052083334</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2">
-        <v>45629.73296296296</v>
+        <v>45629.73262731481</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
@@ -2999,7 +2999,7 @@
         <v>81</v>
       </c>
       <c r="G70" s="2">
-        <v>22.66</v>
+        <v>16.5</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>82</v>
@@ -3010,13 +3010,13 @@
         <v>85</v>
       </c>
       <c r="B71" s="2">
-        <v>45629.45818287037</v>
+        <v>45629.65011574074</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2">
-        <v>45629.98103009259</v>
+        <v>45629.76202546297</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
@@ -3025,7 +3025,7 @@
         <v>86</v>
       </c>
       <c r="G71" s="2">
-        <v>18.55</v>
+        <v>25</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>87</v>
@@ -3036,13 +3036,13 @@
         <v>88</v>
       </c>
       <c r="B72" s="2">
-        <v>45629.64739583333</v>
+        <v>45629.33333333334</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2">
-        <v>45629.84885416667</v>
+        <v>45629.72342592593</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
@@ -3051,7 +3051,7 @@
         <v>86</v>
       </c>
       <c r="G72" s="2">
-        <v>18.55</v>
+        <v>18.36</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>87</v>
@@ -3062,13 +3062,13 @@
         <v>89</v>
       </c>
       <c r="B73" s="2">
-        <v>45629.45262731481</v>
+        <v>45629.45818287037</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2">
-        <v>45629.97631944445</v>
+        <v>45629.98103009259</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
@@ -3088,13 +3088,13 @@
         <v>90</v>
       </c>
       <c r="B74" s="2">
-        <v>45629.63984953704</v>
+        <v>45629.62273148148</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2">
-        <v>45630.02265046296</v>
+        <v>45629.99348379629</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -3103,7 +3103,7 @@
         <v>86</v>
       </c>
       <c r="G74" s="2">
-        <v>21</v>
+        <v>22.66</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>87</v>
@@ -3114,13 +3114,13 @@
         <v>91</v>
       </c>
       <c r="B75" s="2">
-        <v>45629.62273148148</v>
+        <v>45629.63984953704</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2">
-        <v>45629.99348379629</v>
+        <v>45630.02265046296</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>10</v>
@@ -3129,7 +3129,7 @@
         <v>86</v>
       </c>
       <c r="G75" s="2">
-        <v>22.66</v>
+        <v>21</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>87</v>
@@ -3140,13 +3140,13 @@
         <v>92</v>
       </c>
       <c r="B76" s="2">
-        <v>45629.65011574074</v>
+        <v>45629.45262731481</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2">
-        <v>45629.76202546297</v>
+        <v>45629.97631944445</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>10</v>
@@ -3155,7 +3155,7 @@
         <v>86</v>
       </c>
       <c r="G76" s="2">
-        <v>25</v>
+        <v>18.55</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>87</v>
@@ -3166,13 +3166,13 @@
         <v>93</v>
       </c>
       <c r="B77" s="2">
-        <v>45629.97678240741</v>
+        <v>45629.64739583333</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2">
-        <v>45630.35515046296</v>
+        <v>45629.84885416667</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>10</v>
@@ -3181,7 +3181,7 @@
         <v>86</v>
       </c>
       <c r="G77" s="2">
-        <v>23.33</v>
+        <v>18.55</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>87</v>
@@ -3192,13 +3192,13 @@
         <v>94</v>
       </c>
       <c r="B78" s="2">
-        <v>45629.33333333334</v>
+        <v>45629.97678240741</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2">
-        <v>45629.72342592593</v>
+        <v>45630.35515046296</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         <v>86</v>
       </c>
       <c r="G78" s="2">
-        <v>18.36</v>
+        <v>23.33</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>87</v>
@@ -3218,25 +3218,25 @@
         <v>95</v>
       </c>
       <c r="B79" s="2">
-        <v>45629.525625</v>
+        <v>45629.26993055556</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2">
-        <v>45629.72971064815</v>
+        <v>45629.51872685185</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G79" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3244,25 +3244,25 @@
         <v>95</v>
       </c>
       <c r="B80" s="2">
-        <v>45629.29246527778</v>
+        <v>45629.56407407407</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D80" s="2">
-        <v>45629.50649305555</v>
+        <v>45629.73011574074</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G80" s="2">
+        <v>17</v>
+      </c>
+      <c r="H80" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G80" s="2">
-        <v>29</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3270,25 +3270,25 @@
         <v>99</v>
       </c>
       <c r="B81" s="2">
-        <v>45629.56407407407</v>
+        <v>45629.29246527778</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2">
-        <v>45629.73011574074</v>
+        <v>45629.50649305555</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G81" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3296,25 +3296,25 @@
         <v>99</v>
       </c>
       <c r="B82" s="2">
-        <v>45629.26993055556</v>
+        <v>45629.525625</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D82" s="2">
-        <v>45629.51872685185</v>
+        <v>45629.72971064815</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G82" s="2">
+        <v>29</v>
+      </c>
+      <c r="H82" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G82" s="2">
-        <v>17</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3322,13 +3322,13 @@
         <v>100</v>
       </c>
       <c r="B83" s="2">
-        <v>45629.375</v>
+        <v>45629.38871527778</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2">
-        <v>45629.65625</v>
+        <v>45629.67194444445</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>10</v>
@@ -3337,7 +3337,7 @@
         <v>101</v>
       </c>
       <c r="G83" s="2">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>102</v>
@@ -3348,13 +3348,13 @@
         <v>103</v>
       </c>
       <c r="B84" s="2">
-        <v>45629.31184027778</v>
+        <v>45629.375</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2">
-        <v>45629.70354166667</v>
+        <v>45629.67222222222</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>10</v>
@@ -3363,7 +3363,7 @@
         <v>101</v>
       </c>
       <c r="G84" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>102</v>
@@ -3374,13 +3374,13 @@
         <v>104</v>
       </c>
       <c r="B85" s="2">
-        <v>45629.31537037037</v>
+        <v>45629.31151620371</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2">
-        <v>45629.70399305555</v>
+        <v>45629.70336805555</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>10</v>
@@ -3389,7 +3389,7 @@
         <v>101</v>
       </c>
       <c r="G85" s="2">
-        <v>21.56</v>
+        <v>20.06</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>102</v>
@@ -3400,13 +3400,13 @@
         <v>105</v>
       </c>
       <c r="B86" s="2">
-        <v>45629.31332175926</v>
+        <v>45629.31320601852</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2">
-        <v>45629.70378472222</v>
+        <v>45629.70325231482</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>10</v>
@@ -3415,7 +3415,7 @@
         <v>101</v>
       </c>
       <c r="G86" s="2">
-        <v>25.09</v>
+        <v>19</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>102</v>
@@ -3426,13 +3426,13 @@
         <v>106</v>
       </c>
       <c r="B87" s="2">
-        <v>45629.31600694444</v>
+        <v>45629.31195601852</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2">
-        <v>45629.7053125</v>
+        <v>45629.70364583333</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>10</v>
@@ -3441,7 +3441,7 @@
         <v>101</v>
       </c>
       <c r="G87" s="2">
-        <v>24.09</v>
+        <v>25.84</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>102</v>
@@ -3452,13 +3452,13 @@
         <v>107</v>
       </c>
       <c r="B88" s="2">
-        <v>45629.35693287037</v>
+        <v>45629.375</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2">
-        <v>45629.6669212963</v>
+        <v>45629.66666666666</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>10</v>
@@ -3467,7 +3467,7 @@
         <v>101</v>
       </c>
       <c r="G88" s="2">
-        <v>22</v>
+        <v>12.56</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>102</v>
@@ -3478,13 +3478,13 @@
         <v>108</v>
       </c>
       <c r="B89" s="2">
-        <v>45629.375</v>
+        <v>45629.3125</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2">
-        <v>45629.66666666666</v>
+        <v>45629.70833333334</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>10</v>
@@ -3493,7 +3493,7 @@
         <v>101</v>
       </c>
       <c r="G89" s="2">
-        <v>12.56</v>
+        <v>21.34</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>102</v>
@@ -3504,13 +3504,13 @@
         <v>109</v>
       </c>
       <c r="B90" s="2">
-        <v>45629.31209490741</v>
+        <v>45629.35693287037</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2">
-        <v>45629.70236111111</v>
+        <v>45629.6669212963</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>10</v>
@@ -3519,7 +3519,7 @@
         <v>101</v>
       </c>
       <c r="G90" s="2">
-        <v>19.27</v>
+        <v>22</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>102</v>
@@ -3530,13 +3530,13 @@
         <v>110</v>
       </c>
       <c r="B91" s="2">
-        <v>45629.375</v>
+        <v>45629.31600694444</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2">
-        <v>45629.67222222222</v>
+        <v>45629.7053125</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>10</v>
@@ -3545,7 +3545,7 @@
         <v>101</v>
       </c>
       <c r="G91" s="2">
-        <v>17</v>
+        <v>24.09</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>102</v>
@@ -3556,13 +3556,13 @@
         <v>111</v>
       </c>
       <c r="B92" s="2">
-        <v>45629.3125</v>
+        <v>45629.31332175926</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2">
-        <v>45629.70833333334</v>
+        <v>45629.70378472222</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>10</v>
@@ -3571,7 +3571,7 @@
         <v>101</v>
       </c>
       <c r="G92" s="2">
-        <v>21.34</v>
+        <v>25.09</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>102</v>
@@ -3582,13 +3582,13 @@
         <v>112</v>
       </c>
       <c r="B93" s="2">
-        <v>45629.38871527778</v>
+        <v>45629.31537037037</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2">
-        <v>45629.67194444445</v>
+        <v>45629.70399305555</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>10</v>
@@ -3597,7 +3597,7 @@
         <v>101</v>
       </c>
       <c r="G93" s="2">
-        <v>17.5</v>
+        <v>21.56</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>102</v>
@@ -3608,13 +3608,13 @@
         <v>113</v>
       </c>
       <c r="B94" s="2">
-        <v>45629.31320601852</v>
+        <v>45629.31209490741</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2">
-        <v>45629.70325231482</v>
+        <v>45629.70236111111</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>10</v>
@@ -3623,7 +3623,7 @@
         <v>101</v>
       </c>
       <c r="G94" s="2">
-        <v>19</v>
+        <v>19.27</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>102</v>
@@ -3634,13 +3634,13 @@
         <v>114</v>
       </c>
       <c r="B95" s="2">
-        <v>45629.31151620371</v>
+        <v>45629.31184027778</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2">
-        <v>45629.70336805555</v>
+        <v>45629.70354166667</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>10</v>
@@ -3649,7 +3649,7 @@
         <v>101</v>
       </c>
       <c r="G95" s="2">
-        <v>20.06</v>
+        <v>19</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>102</v>
@@ -3660,13 +3660,13 @@
         <v>115</v>
       </c>
       <c r="B96" s="2">
-        <v>45629.31195601852</v>
+        <v>45629.375</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2">
-        <v>45629.70364583333</v>
+        <v>45629.65625</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>10</v>
@@ -3675,7 +3675,7 @@
         <v>101</v>
       </c>
       <c r="G96" s="2">
-        <v>25.84</v>
+        <v>18.5</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>102</v>
@@ -3712,13 +3712,13 @@
         <v>117</v>
       </c>
       <c r="B98" s="2">
-        <v>45629.33743055556</v>
+        <v>45629.33957175926</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2">
-        <v>45629.71221064815</v>
+        <v>45629.65181712963</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>10</v>
@@ -3727,7 +3727,7 @@
         <v>118</v>
       </c>
       <c r="G98" s="2">
-        <v>18.5</v>
+        <v>21.44</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>119</v>
@@ -3764,13 +3764,13 @@
         <v>121</v>
       </c>
       <c r="B100" s="2">
-        <v>45629.33957175926</v>
+        <v>45629.62121527778</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2">
-        <v>45629.65181712963</v>
+        <v>45629.66664351852</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>10</v>
@@ -3779,7 +3779,7 @@
         <v>118</v>
       </c>
       <c r="G100" s="2">
-        <v>21.44</v>
+        <v>15.5</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>119</v>
@@ -3790,22 +3790,22 @@
         <v>122</v>
       </c>
       <c r="B101" s="2">
-        <v>45629.29166666666</v>
+        <v>45629.33001157407</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2">
-        <v>45629.5</v>
+        <v>45629.50412037037</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G101" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>119</v>
@@ -3813,16 +3813,16 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B102" s="2">
-        <v>45629.33717592592</v>
+        <v>45629.51239583334</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D102" s="2">
-        <v>45629.63621527778</v>
+        <v>45629.66841435185</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>10</v>
@@ -3831,7 +3831,7 @@
         <v>118</v>
       </c>
       <c r="G102" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>119</v>
@@ -3839,25 +3839,25 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2">
-        <v>45629.33001157407</v>
+        <v>45629.34408564815</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2">
-        <v>45629.50412037037</v>
+        <v>45629.47988425926</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G103" s="2">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>119</v>
@@ -3865,25 +3865,25 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B104" s="2">
-        <v>45629.51239583334</v>
+        <v>45629.29166666666</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2">
-        <v>45629.66841435185</v>
+        <v>45629.5</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G104" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>119</v>
@@ -3891,25 +3891,25 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B105" s="2">
-        <v>45629.34408564815</v>
+        <v>45629.33743055556</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2">
-        <v>45629.47988425926</v>
+        <v>45629.71221064815</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G105" s="2">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>119</v>
@@ -3920,13 +3920,13 @@
         <v>125</v>
       </c>
       <c r="B106" s="2">
-        <v>45629.62121527778</v>
+        <v>45629.33717592592</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2">
-        <v>45629.66664351852</v>
+        <v>45629.63621527778</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>10</v>
@@ -3935,7 +3935,7 @@
         <v>118</v>
       </c>
       <c r="G106" s="2">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>119</v>
@@ -3946,51 +3946,51 @@
         <v>126</v>
       </c>
       <c r="B107" s="2">
-        <v>45629.37395833333</v>
+        <v>45629</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D107" s="2">
-        <v>45629.7115625</v>
+        <v>45629</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G107" s="2">
-        <v>18.72</v>
+        <v>17.3</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108" s="2">
         <v>45629</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D108" s="2">
         <v>45629</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G108" s="2">
-        <v>17.3</v>
+        <v>14.5</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4001,22 +4001,22 @@
         <v>45629</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D109" s="2">
         <v>45629</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G109" s="2">
-        <v>16.5</v>
+        <v>17.84</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4027,22 +4027,22 @@
         <v>45629</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D110" s="2">
         <v>45629</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G110" s="2">
-        <v>14.5</v>
+        <v>18.72</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4053,22 +4053,22 @@
         <v>45629</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D111" s="2">
         <v>45629</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G111" s="2">
-        <v>17.3</v>
+        <v>16.1</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4079,22 +4079,22 @@
         <v>45629</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D112" s="2">
         <v>45629</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G112" s="2">
-        <v>16.1</v>
+        <v>18.93</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4105,22 +4105,22 @@
         <v>45629</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D113" s="2">
         <v>45629</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G113" s="2">
-        <v>18.72</v>
+        <v>16.83</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4131,22 +4131,22 @@
         <v>45629</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D114" s="2">
         <v>45629</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G114" s="2">
         <v>24.16</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4157,22 +4157,22 @@
         <v>45629</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D115" s="2">
         <v>45629</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G115" s="2">
-        <v>16.5</v>
+        <v>17.3</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4183,22 +4183,22 @@
         <v>45629</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D116" s="2">
         <v>45629</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G116" s="2">
-        <v>15.5</v>
+        <v>16.53</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4209,22 +4209,22 @@
         <v>45629</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D117" s="2">
         <v>45629</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G117" s="2">
-        <v>16.83</v>
+        <v>15.5</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4235,22 +4235,22 @@
         <v>45629</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D118" s="2">
         <v>45629</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G118" s="2">
-        <v>17.84</v>
+        <v>16.5</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4261,22 +4261,22 @@
         <v>45629</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D119" s="2">
         <v>45629</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G119" s="2">
-        <v>16.53</v>
+        <v>16.5</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4284,25 +4284,25 @@
         <v>142</v>
       </c>
       <c r="B120" s="2">
-        <v>45629</v>
+        <v>45629.37395833333</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2">
-        <v>45629</v>
+        <v>45629.7115625</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G120" s="2">
-        <v>18.93</v>
+        <v>18.72</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4310,13 +4310,13 @@
         <v>143</v>
       </c>
       <c r="B121" s="2">
-        <v>45629.35416666666</v>
+        <v>45629.56877314814</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2">
-        <v>45629.54166666666</v>
+        <v>45629.56881944444</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>10</v>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B122" s="2">
         <v>45629.38541666666</v>
@@ -4362,13 +4362,13 @@
         <v>146</v>
       </c>
       <c r="B123" s="2">
-        <v>45629.56877314814</v>
+        <v>45629.40261574074</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2">
-        <v>45629.56881944444</v>
+        <v>45629.58407407408</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>10</v>
@@ -4377,7 +4377,7 @@
         <v>144</v>
       </c>
       <c r="G123" s="2">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>145</v>
@@ -4388,13 +4388,13 @@
         <v>147</v>
       </c>
       <c r="B124" s="2">
-        <v>45629.40261574074</v>
+        <v>45629.35416666666</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2">
-        <v>45629.58407407408</v>
+        <v>45629.54166666666</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>10</v>
@@ -4403,7 +4403,7 @@
         <v>144</v>
       </c>
       <c r="G124" s="2">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>145</v>
@@ -4414,22 +4414,22 @@
         <v>148</v>
       </c>
       <c r="B125" s="2">
-        <v>45629.3315162037</v>
+        <v>45629.66288194444</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2">
-        <v>45629.4259837963</v>
+        <v>45629.70346064815</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G125" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>150</v>
@@ -4437,16 +4437,16 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B126" s="2">
-        <v>45629.52076388889</v>
+        <v>45629.63890046296</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D126" s="2">
-        <v>45629.70253472222</v>
+        <v>45629.70313657408</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>10</v>
@@ -4463,25 +4463,25 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B127" s="2">
-        <v>45629.32476851852</v>
+        <v>45629.32070601852</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2">
-        <v>45629.58487268518</v>
+        <v>45629.5428125</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G127" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>150</v>
@@ -4492,22 +4492,22 @@
         <v>152</v>
       </c>
       <c r="B128" s="2">
-        <v>45629.32984953704</v>
+        <v>45629.63631944444</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D128" s="2">
-        <v>45629.41873842593</v>
+        <v>45629.70918981481</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G128" s="2">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>150</v>
@@ -4515,25 +4515,25 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B129" s="2">
-        <v>45629.32070601852</v>
+        <v>45629.33616898148</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2">
-        <v>45629.5428125</v>
+        <v>45629.54679398148</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G129" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>150</v>
@@ -4541,25 +4541,25 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B130" s="2">
-        <v>45629.63890046296</v>
+        <v>45629.33333333334</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2">
-        <v>45629.70313657408</v>
+        <v>45629.41666666666</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G130" s="2">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>150</v>
@@ -4570,13 +4570,13 @@
         <v>153</v>
       </c>
       <c r="B131" s="2">
-        <v>45629.63631944444</v>
+        <v>45629.49884259259</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D131" s="2">
-        <v>45629.70918981481</v>
+        <v>45629.69101851852</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>10</v>
@@ -4585,7 +4585,7 @@
         <v>149</v>
       </c>
       <c r="G131" s="2">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>150</v>
@@ -4593,25 +4593,25 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B132" s="2">
-        <v>45629.32069444445</v>
+        <v>45629.32476851852</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2">
-        <v>45629.52890046296</v>
+        <v>45629.58487268518</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G132" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>150</v>
@@ -4619,19 +4619,19 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B133" s="2">
-        <v>45629.54982638889</v>
+        <v>45629.32619212963</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2">
-        <v>45629.70358796296</v>
+        <v>45629.54524305555</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>149</v>
@@ -4645,16 +4645,16 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B134" s="2">
-        <v>45629.66288194444</v>
+        <v>45629.54982638889</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D134" s="2">
-        <v>45629.70346064815</v>
+        <v>45629.70358796296</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>10</v>
@@ -4663,7 +4663,7 @@
         <v>149</v>
       </c>
       <c r="G134" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>150</v>
@@ -4674,22 +4674,22 @@
         <v>156</v>
       </c>
       <c r="B135" s="2">
-        <v>45629.33616898148</v>
+        <v>45629.32984953704</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2">
-        <v>45629.54679398148</v>
+        <v>45629.41873842593</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G135" s="2">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>150</v>
@@ -4700,22 +4700,22 @@
         <v>157</v>
       </c>
       <c r="B136" s="2">
-        <v>45629.49884259259</v>
+        <v>45629.3315162037</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2">
-        <v>45629.69101851852</v>
+        <v>45629.4259837963</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G136" s="2">
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>150</v>
@@ -4726,22 +4726,22 @@
         <v>157</v>
       </c>
       <c r="B137" s="2">
-        <v>45629.33333333334</v>
+        <v>45629.52076388889</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D137" s="2">
-        <v>45629.41666666666</v>
+        <v>45629.70253472222</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G137" s="2">
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>150</v>
@@ -4749,19 +4749,19 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B138" s="2">
-        <v>45629.32619212963</v>
+        <v>45629.32069444445</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2">
-        <v>45629.54524305555</v>
+        <v>45629.52890046296</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>149</v>
@@ -4778,16 +4778,16 @@
         <v>158</v>
       </c>
       <c r="B139" s="2">
-        <v>45629.33829861111</v>
+        <v>45629.57528935185</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D139" s="2">
-        <v>45629.53318287037</v>
+        <v>45629.68400462963</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>159</v>
@@ -4804,16 +4804,16 @@
         <v>158</v>
       </c>
       <c r="B140" s="2">
-        <v>45629.57528935185</v>
+        <v>45629.33829861111</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2">
-        <v>45629.68400462963</v>
+        <v>45629.53318287037</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>159</v>
@@ -4839,7 +4839,7 @@
         <v>45629.58081018519</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>162</v>
@@ -4859,7 +4859,7 @@
         <v>45629.60297453704</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D142" s="2">
         <v>45629.61240740741</v>
@@ -4879,25 +4879,25 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B143" s="2">
-        <v>45629.33709490741</v>
+        <v>45629.34231481481</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2">
-        <v>45629.41666666666</v>
+        <v>45629.5600462963</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G143" s="2">
-        <v>22.5</v>
+        <v>18.5</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>163</v>
@@ -4905,25 +4905,25 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B144" s="2">
-        <v>45629.33445601852</v>
+        <v>45629.34375</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2">
-        <v>45629.54358796297</v>
+        <v>45629.47916666666</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G144" s="2">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>163</v>
@@ -4931,25 +4931,25 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B145" s="2">
-        <v>45629.34375</v>
+        <v>45629.33445601852</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2">
-        <v>45629.47916666666</v>
+        <v>45629.54358796297</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G145" s="2">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>163</v>
@@ -4957,25 +4957,25 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B146" s="2">
-        <v>45629.57854166667</v>
+        <v>45629.33709490741</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2">
-        <v>45629.70986111111</v>
+        <v>45629.41666666666</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G146" s="2">
-        <v>16.5</v>
+        <v>22.5</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>163</v>
@@ -4983,16 +4983,16 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B147" s="2">
-        <v>45629.53125</v>
+        <v>45629.59408564815</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D147" s="2">
-        <v>45629.68131944445</v>
+        <v>45629.68461805556</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>10</v>
@@ -5001,7 +5001,7 @@
         <v>162</v>
       </c>
       <c r="G147" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>163</v>
@@ -5009,16 +5009,16 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B148" s="2">
-        <v>45629.59408564815</v>
+        <v>45629.57854166667</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2">
-        <v>45629.68461805556</v>
+        <v>45629.70986111111</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>10</v>
@@ -5027,7 +5027,7 @@
         <v>162</v>
       </c>
       <c r="G148" s="2">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>163</v>
@@ -5035,25 +5035,25 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B149" s="2">
-        <v>45629.34231481481</v>
+        <v>45629.53125</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D149" s="2">
-        <v>45629.5600462963</v>
+        <v>45629.68131944445</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G149" s="2">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>163</v>
@@ -5064,13 +5064,13 @@
         <v>168</v>
       </c>
       <c r="B150" s="2">
-        <v>45629.33680555555</v>
+        <v>45629.41768518519</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2">
-        <v>45629.66792824074</v>
+        <v>45629.75</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>10</v>
@@ -5079,7 +5079,7 @@
         <v>169</v>
       </c>
       <c r="G150" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>170</v>
@@ -5087,16 +5087,16 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B151" s="2">
-        <v>45629.66780092593</v>
+        <v>45629.5</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D151" s="2">
-        <v>45629.66792824074</v>
+        <v>45629.68739583333</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>10</v>
@@ -5105,7 +5105,7 @@
         <v>169</v>
       </c>
       <c r="G151" s="2">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>170</v>
@@ -5139,16 +5139,16 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B153" s="2">
-        <v>45629.5</v>
+        <v>45629.66780092593</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2">
-        <v>45629.68739583333</v>
+        <v>45629.66792824074</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>10</v>
@@ -5157,7 +5157,7 @@
         <v>169</v>
       </c>
       <c r="G153" s="2">
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>170</v>
@@ -5168,13 +5168,13 @@
         <v>172</v>
       </c>
       <c r="B154" s="2">
-        <v>45629.41768518519</v>
+        <v>45629.33680555555</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2">
-        <v>45629.75</v>
+        <v>45629.66792824074</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>10</v>
@@ -5183,7 +5183,7 @@
         <v>169</v>
       </c>
       <c r="G154" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>170</v>
@@ -5191,54 +5191,54 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="2" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="B155" s="2">
-        <v>45629.55667824074</v>
+        <v>45629.33333333334</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="D155" s="2">
-        <v>45629.66209490741</v>
+        <v>45629.33333333334</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G155" s="2">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" s="2">
+        <v>45629.55667824074</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D156" s="2">
+        <v>45629.66209490741</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G156" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="H156" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B156" s="2">
-        <v>45629.33333333334</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D156" s="2">
-        <v>45629.33333333334</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G156" s="2">
-        <v>0</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5246,16 +5246,16 @@
         <v>176</v>
       </c>
       <c r="B157" s="2">
-        <v>45629.61175925926</v>
+        <v>45629.36105324074</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2">
-        <v>45629.66717592593</v>
+        <v>45629.58984953703</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>177</v>
@@ -5272,16 +5272,16 @@
         <v>176</v>
       </c>
       <c r="B158" s="2">
-        <v>45629.36105324074</v>
+        <v>45629.61175925926</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D158" s="2">
-        <v>45629.58984953703</v>
+        <v>45629.66717592593</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>177</v>
@@ -5298,13 +5298,13 @@
         <v>179</v>
       </c>
       <c r="B159" s="2">
-        <v>45629.34016203704</v>
+        <v>45629.35189814815</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2">
-        <v>45629.69048611111</v>
+        <v>45629.65311342593</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>10</v>
@@ -5313,7 +5313,7 @@
         <v>177</v>
       </c>
       <c r="G159" s="2">
-        <v>18</v>
+        <v>20.5</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>178</v>
@@ -5350,13 +5350,13 @@
         <v>181</v>
       </c>
       <c r="B161" s="2">
-        <v>45629.35189814815</v>
+        <v>45629.34016203704</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2">
-        <v>45629.65311342593</v>
+        <v>45629.69048611111</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>10</v>
@@ -5365,7 +5365,7 @@
         <v>177</v>
       </c>
       <c r="G161" s="2">
-        <v>20.5</v>
+        <v>18</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>178</v>
@@ -5431,7 +5431,7 @@
         <v>45629.53819444445</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D164" s="2">
         <v>45629.65527777778</v>
@@ -5451,25 +5451,25 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B165" s="2">
-        <v>45629.37833333333</v>
+        <v>45629.40662037037</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2">
-        <v>45629.64505787037</v>
+        <v>45629.53141203704</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>189</v>
       </c>
       <c r="G165" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>190</v>
@@ -5477,7 +5477,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B166" s="2">
         <v>45629.33864583333</v>
@@ -5503,16 +5503,16 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B167" s="2">
-        <v>45629.37283564815</v>
+        <v>45629.37833333333</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2">
-        <v>45629.62540509259</v>
+        <v>45629.64505787037</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>10</v>
@@ -5521,7 +5521,7 @@
         <v>189</v>
       </c>
       <c r="G167" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>190</v>
@@ -5529,25 +5529,25 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B168" s="2">
-        <v>45629.40662037037</v>
+        <v>45629.37283564815</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2">
-        <v>45629.53141203704</v>
+        <v>45629.62540509259</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>189</v>
       </c>
       <c r="G168" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>190</v>
@@ -5558,13 +5558,13 @@
         <v>194</v>
       </c>
       <c r="B169" s="2">
-        <v>45629.62159722222</v>
+        <v>45629.37378472222</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2">
-        <v>45629.74519675926</v>
+        <v>45629.43315972222</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>10</v>
@@ -5573,7 +5573,7 @@
         <v>195</v>
       </c>
       <c r="G169" s="2">
-        <v>13.65</v>
+        <v>20</v>
       </c>
       <c r="H169" s="2" t="s">
         <v>196</v>
@@ -5584,13 +5584,13 @@
         <v>197</v>
       </c>
       <c r="B170" s="2">
-        <v>45629.40144675926</v>
+        <v>45629.60532407407</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D170" s="2">
-        <v>45629.66671296296</v>
+        <v>45629.66614583333</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>10</v>
@@ -5610,13 +5610,13 @@
         <v>198</v>
       </c>
       <c r="B171" s="2">
-        <v>45629.57829861111</v>
+        <v>45629.37258101852</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2">
-        <v>45629.87193287037</v>
+        <v>45629.68666666667</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>10</v>
@@ -5625,7 +5625,7 @@
         <v>195</v>
       </c>
       <c r="G171" s="2">
-        <v>22</v>
+        <v>13.65</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>196</v>
@@ -5636,13 +5636,13 @@
         <v>199</v>
       </c>
       <c r="B172" s="2">
-        <v>45629.37265046296</v>
+        <v>45629.62159722222</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2">
-        <v>45629.6875462963</v>
+        <v>45629.74519675926</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>10</v>
@@ -5651,7 +5651,7 @@
         <v>195</v>
       </c>
       <c r="G172" s="2">
-        <v>15</v>
+        <v>13.65</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>196</v>
@@ -5659,19 +5659,19 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B173" s="2">
-        <v>45629.62081018519</v>
+        <v>45629.33333333334</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D173" s="2">
-        <v>45629.6208449074</v>
+        <v>45629.33333333334</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>195</v>
@@ -5714,16 +5714,16 @@
         <v>201</v>
       </c>
       <c r="B175" s="2">
-        <v>45629.41784722222</v>
+        <v>45629.40144675926</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2">
-        <v>45629.58401620371</v>
+        <v>45629.66671296296</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>195</v>
@@ -5740,22 +5740,22 @@
         <v>202</v>
       </c>
       <c r="B176" s="2">
-        <v>45629.33333333334</v>
+        <v>45629.37265046296</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2">
-        <v>45629.33333333334</v>
+        <v>45629.6875462963</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>195</v>
       </c>
       <c r="G176" s="2">
-        <v>13.65</v>
+        <v>15</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>196</v>
@@ -5763,16 +5763,16 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B177" s="2">
-        <v>45629.37378472222</v>
+        <v>45629.57829861111</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2">
-        <v>45629.43315972222</v>
+        <v>45629.87193287037</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>10</v>
@@ -5781,7 +5781,7 @@
         <v>195</v>
       </c>
       <c r="G177" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>196</v>
@@ -5789,25 +5789,25 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B178" s="2">
-        <v>45629.37258101852</v>
+        <v>45629.41784722222</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2">
-        <v>45629.68666666667</v>
+        <v>45629.58401620371</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>195</v>
       </c>
       <c r="G178" s="2">
-        <v>13.65</v>
+        <v>15</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>196</v>
@@ -5815,16 +5815,16 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B179" s="2">
-        <v>45629.60532407407</v>
+        <v>45629.62081018519</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2">
-        <v>45629.66614583333</v>
+        <v>45629.6208449074</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>10</v>
@@ -5833,7 +5833,7 @@
         <v>195</v>
       </c>
       <c r="G179" s="2">
-        <v>15</v>
+        <v>13.65</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>196</v>
@@ -5948,13 +5948,13 @@
         <v>212</v>
       </c>
       <c r="B184" s="2">
-        <v>45629.47719907408</v>
+        <v>45629.34673611111</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2">
-        <v>45629.80982638889</v>
+        <v>45629.66907407407</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>10</v>
@@ -5963,7 +5963,7 @@
         <v>209</v>
       </c>
       <c r="G184" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H184" s="2" t="s">
         <v>210</v>
@@ -6000,13 +6000,13 @@
         <v>214</v>
       </c>
       <c r="B186" s="2">
-        <v>45629.34673611111</v>
+        <v>45629.47719907408</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2">
-        <v>45629.66907407407</v>
+        <v>45629.80982638889</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>10</v>
@@ -6015,7 +6015,7 @@
         <v>209</v>
       </c>
       <c r="G186" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H186" s="2" t="s">
         <v>210</v>
@@ -6026,13 +6026,13 @@
         <v>215</v>
       </c>
       <c r="B187" s="2">
-        <v>45629.31221064815</v>
+        <v>45629.39275462963</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2">
-        <v>45629.55863425926</v>
+        <v>45629.63232638889</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>10</v>
@@ -6041,7 +6041,7 @@
         <v>216</v>
       </c>
       <c r="G187" s="2">
-        <v>16</v>
+        <v>16.61</v>
       </c>
       <c r="H187" s="2" t="s">
         <v>217</v>
@@ -6049,19 +6049,19 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B188" s="2">
         <v>45629.66666666666</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D188" s="2">
         <v>45629.66666666666</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>216</v>
@@ -6075,25 +6075,25 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B189" s="2">
-        <v>45629.40035879629</v>
+        <v>45629.33333333334</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D189" s="2">
-        <v>45629.56696759259</v>
+        <v>45629.33333333334</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G189" s="2">
-        <v>15</v>
+        <v>16.61</v>
       </c>
       <c r="H189" s="2" t="s">
         <v>217</v>
@@ -6101,7 +6101,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B190" s="2">
         <v>45629.3308912037</v>
@@ -6127,16 +6127,16 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B191" s="2">
-        <v>45629.39275462963</v>
+        <v>45629.40035879629</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2">
-        <v>45629.63232638889</v>
+        <v>45629.56696759259</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>10</v>
@@ -6145,7 +6145,7 @@
         <v>216</v>
       </c>
       <c r="G191" s="2">
-        <v>16.61</v>
+        <v>15</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>217</v>
@@ -6156,22 +6156,22 @@
         <v>221</v>
       </c>
       <c r="B192" s="2">
-        <v>45629.33333333334</v>
+        <v>45629.31221064815</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2">
-        <v>45629.33333333334</v>
+        <v>45629.55863425926</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G192" s="2">
-        <v>16.61</v>
+        <v>16</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>217</v>
@@ -6205,54 +6205,54 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="2" t="s">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="B194" s="2">
-        <v>45629.50883101852</v>
+        <v>45629.33333333334</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2">
-        <v>45629.58449074074</v>
+        <v>45629.5</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G194" s="2">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B195" s="2">
+        <v>45629.50883101852</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D195" s="2">
+        <v>45629.58449074074</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G195" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="H195" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="B195" s="2">
-        <v>45629.33333333334</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="2">
-        <v>45629.5</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G195" s="2">
-        <v>18</v>
-      </c>
-      <c r="H195" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6367,13 +6367,13 @@
         <v>45629.33333333334</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D200" s="2">
         <v>45629.33333333334</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>235</v>
@@ -6387,16 +6387,16 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="2" t="s">
-        <v>227</v>
+        <v>123</v>
       </c>
       <c r="B201" s="2">
         <v>45629.52083333334</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D201" s="2">
-        <v>45629.69791666666</v>
+        <v>45629.69444444445</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>10</v>
@@ -6405,7 +6405,7 @@
         <v>239</v>
       </c>
       <c r="G201" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H201" s="2" t="s">
         <v>240</v>
@@ -6416,16 +6416,16 @@
         <v>241</v>
       </c>
       <c r="B202" s="2">
-        <v>45629.50064814815</v>
+        <v>45629.32603009259</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2">
-        <v>45629.67574074074</v>
+        <v>45629.48259259259</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>239</v>
@@ -6439,25 +6439,25 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="2" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="B203" s="2">
-        <v>45629.33810185185</v>
+        <v>45629.32215277778</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2">
-        <v>45629.50878472222</v>
+        <v>45629.70288194445</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>239</v>
       </c>
       <c r="G203" s="2">
-        <v>16</v>
+        <v>20.5</v>
       </c>
       <c r="H203" s="2" t="s">
         <v>240</v>
@@ -6465,16 +6465,16 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="2" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="B204" s="2">
-        <v>45629.52083333334</v>
+        <v>45629.31268518518</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2">
-        <v>45629.69444444445</v>
+        <v>45629.47756944445</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>10</v>
@@ -6483,7 +6483,7 @@
         <v>239</v>
       </c>
       <c r="G204" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H204" s="2" t="s">
         <v>240</v>
@@ -6491,25 +6491,25 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B205" s="2">
-        <v>45629.32215277778</v>
+        <v>45629.32731481481</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2">
-        <v>45629.70288194445</v>
+        <v>45629.51201388889</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>239</v>
       </c>
       <c r="G205" s="2">
-        <v>20.5</v>
+        <v>17</v>
       </c>
       <c r="H205" s="2" t="s">
         <v>240</v>
@@ -6517,19 +6517,19 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B206" s="2">
-        <v>45629.32731481481</v>
+        <v>45629.55542824074</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D206" s="2">
-        <v>45629.51201388889</v>
+        <v>45629.67590277778</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>239</v>
@@ -6543,16 +6543,16 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B207" s="2">
-        <v>45629.55542824074</v>
+        <v>45629.31773148148</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2">
-        <v>45629.67590277778</v>
+        <v>45629.63546296296</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>10</v>
@@ -6561,7 +6561,7 @@
         <v>239</v>
       </c>
       <c r="G207" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H207" s="2" t="s">
         <v>240</v>
@@ -6569,16 +6569,16 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B208" s="2">
-        <v>45629.31773148148</v>
+        <v>45629.33283564815</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2">
-        <v>45629.63546296296</v>
+        <v>45629.50179398148</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>10</v>
@@ -6587,7 +6587,7 @@
         <v>239</v>
       </c>
       <c r="G208" s="2">
-        <v>18</v>
+        <v>18.55</v>
       </c>
       <c r="H208" s="2" t="s">
         <v>240</v>
@@ -6595,25 +6595,25 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="2" t="s">
-        <v>245</v>
+        <v>47</v>
       </c>
       <c r="B209" s="2">
-        <v>45629.33283564815</v>
+        <v>45629.33810185185</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2">
-        <v>45629.50179398148</v>
+        <v>45629.50878472222</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>239</v>
       </c>
       <c r="G209" s="2">
-        <v>18.55</v>
+        <v>16</v>
       </c>
       <c r="H209" s="2" t="s">
         <v>240</v>
@@ -6624,16 +6624,16 @@
         <v>241</v>
       </c>
       <c r="B210" s="2">
-        <v>45629.32603009259</v>
+        <v>45629.50064814815</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D210" s="2">
-        <v>45629.48259259259</v>
+        <v>45629.67574074074</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>239</v>
@@ -6647,16 +6647,16 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="2" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="B211" s="2">
-        <v>45629.31268518518</v>
+        <v>45629.52083333334</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D211" s="2">
-        <v>45629.47756944445</v>
+        <v>45629.69791666666</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>10</v>
@@ -6665,7 +6665,7 @@
         <v>239</v>
       </c>
       <c r="G211" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H211" s="2" t="s">
         <v>240</v>
@@ -6685,7 +6685,7 @@
         <v>45629.5456712963</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>248</v>
@@ -6699,16 +6699,16 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B213" s="2">
-        <v>45629.40923611111</v>
+        <v>45629.56255787037</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D213" s="2">
-        <v>45629.51766203704</v>
+        <v>45629.76052083333</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>10</v>
@@ -6717,7 +6717,7 @@
         <v>248</v>
       </c>
       <c r="G213" s="2">
-        <v>20</v>
+        <v>17.72</v>
       </c>
       <c r="H213" s="2" t="s">
         <v>249</v>
@@ -6728,16 +6728,16 @@
         <v>250</v>
       </c>
       <c r="B214" s="2">
-        <v>45629.27158564814</v>
+        <v>45629.40923611111</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D214" s="2">
-        <v>45629.37204861111</v>
+        <v>45629.51766203704</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>248</v>
@@ -6754,22 +6754,22 @@
         <v>251</v>
       </c>
       <c r="B215" s="2">
-        <v>45629.50074074074</v>
+        <v>45629.34896990741</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2">
-        <v>45629.6700462963</v>
+        <v>45629.56137731481</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>248</v>
       </c>
       <c r="G215" s="2">
-        <v>9.300000000000001</v>
+        <v>23</v>
       </c>
       <c r="H215" s="2" t="s">
         <v>249</v>
@@ -6780,13 +6780,13 @@
         <v>252</v>
       </c>
       <c r="B216" s="2">
-        <v>45629.5822337963</v>
+        <v>45629.50074074074</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2">
-        <v>45629.69362268518</v>
+        <v>45629.6700462963</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>10</v>
@@ -6795,7 +6795,7 @@
         <v>248</v>
       </c>
       <c r="G216" s="2">
-        <v>23</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H216" s="2" t="s">
         <v>249</v>
@@ -6803,25 +6803,25 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B217" s="2">
-        <v>45629.56255787037</v>
+        <v>45629.27158564814</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D217" s="2">
-        <v>45629.76052083333</v>
+        <v>45629.37204861111</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>248</v>
       </c>
       <c r="G217" s="2">
-        <v>17.72</v>
+        <v>20</v>
       </c>
       <c r="H217" s="2" t="s">
         <v>249</v>
@@ -6829,19 +6829,19 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B218" s="2">
-        <v>45629.34896990741</v>
+        <v>45629.5822337963</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D218" s="2">
-        <v>45629.56137731481</v>
+        <v>45629.69362268518</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>248</v>
@@ -6884,7 +6884,7 @@
         <v>256</v>
       </c>
       <c r="B220" s="2">
-        <v>45629.22418981481</v>
+        <v>45629.20833333334</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
@@ -6910,7 +6910,7 @@
         <v>256</v>
       </c>
       <c r="B221" s="2">
-        <v>45629.20833333334</v>
+        <v>45629.22418981481</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
@@ -6936,16 +6936,16 @@
         <v>259</v>
       </c>
       <c r="B222" s="2">
-        <v>45629.53954861111</v>
+        <v>45629.34887731481</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2">
-        <v>45629.71548611111</v>
+        <v>45629.50576388889</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>260</v>
@@ -6959,25 +6959,25 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B223" s="2">
-        <v>45629.34887731481</v>
+        <v>45629.33333333334</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D223" s="2">
-        <v>45629.50576388889</v>
+        <v>45629.33333333334</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>260</v>
       </c>
       <c r="G223" s="2">
-        <v>23.27</v>
+        <v>0</v>
       </c>
       <c r="H223" s="2" t="s">
         <v>261</v>
@@ -6985,25 +6985,25 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B224" s="2">
-        <v>45629.33333333334</v>
+        <v>45629.53954861111</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="D224" s="2">
-        <v>45629.33333333334</v>
+        <v>45629.71548611111</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>260</v>
       </c>
       <c r="G224" s="2">
-        <v>0</v>
+        <v>23.27</v>
       </c>
       <c r="H224" s="2" t="s">
         <v>261</v>
@@ -7014,7 +7014,7 @@
         <v>263</v>
       </c>
       <c r="B225" s="2">
-        <v>45629.4172337963</v>
+        <v>45629.375</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
@@ -7029,10 +7029,10 @@
         <v>264</v>
       </c>
       <c r="G225" s="2">
-        <v>16</v>
+        <v>24.04</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7040,7 +7040,7 @@
         <v>265</v>
       </c>
       <c r="B226" s="2">
-        <v>45629.375</v>
+        <v>45629.4172337963</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
@@ -7055,10 +7055,10 @@
         <v>264</v>
       </c>
       <c r="G226" s="2">
-        <v>24.04</v>
+        <v>16</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7084,7 +7084,7 @@
         <v>26.45</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Prior Year)_Payroll.xlsx
+++ b/reports/For The Day (Prior Year)_Payroll.xlsx
@@ -40,411 +40,411 @@
     <t>DepartmentTitle</t>
   </si>
   <si>
+    <t>A2G4</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>Lift Operations</t>
+  </si>
+  <si>
+    <t>A27C</t>
+  </si>
+  <si>
+    <t>A556</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>A2BF</t>
+  </si>
+  <si>
+    <t>A2A6</t>
+  </si>
+  <si>
+    <t>A2G3</t>
+  </si>
+  <si>
+    <t>A2FO</t>
+  </si>
+  <si>
+    <t>A0CP</t>
+  </si>
+  <si>
+    <t>A2JJ</t>
+  </si>
+  <si>
+    <t>A2IQ</t>
+  </si>
+  <si>
+    <t>A28O</t>
+  </si>
+  <si>
+    <t>A0B1</t>
+  </si>
+  <si>
+    <t>I342</t>
+  </si>
+  <si>
+    <t>G125</t>
+  </si>
+  <si>
+    <t>A29U</t>
+  </si>
+  <si>
+    <t>A29S</t>
+  </si>
+  <si>
+    <t>A26V</t>
+  </si>
+  <si>
+    <t>A26C</t>
+  </si>
+  <si>
+    <t>A0U5</t>
+  </si>
+  <si>
+    <t>G149</t>
+  </si>
+  <si>
+    <t>B746</t>
+  </si>
+  <si>
+    <t>A27B</t>
+  </si>
+  <si>
+    <t>A29T</t>
+  </si>
+  <si>
+    <t>A25Z</t>
+  </si>
+  <si>
+    <t>A1ZJ</t>
+  </si>
+  <si>
+    <t>A0G8</t>
+  </si>
+  <si>
+    <t>A28E</t>
+  </si>
+  <si>
+    <t>A2AN</t>
+  </si>
+  <si>
+    <t>A2FY</t>
+  </si>
+  <si>
     <t>A2G0</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>OD</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>Lift Operations</t>
+    <t>I820</t>
+  </si>
+  <si>
+    <t>E944</t>
+  </si>
+  <si>
+    <t>A2JG</t>
+  </si>
+  <si>
+    <t>A2G2</t>
+  </si>
+  <si>
+    <t>A2FN</t>
+  </si>
+  <si>
+    <t>A20Y</t>
+  </si>
+  <si>
+    <t>A29V</t>
+  </si>
+  <si>
+    <t>A0QF</t>
+  </si>
+  <si>
+    <t>H665</t>
+  </si>
+  <si>
+    <t>F701</t>
+  </si>
+  <si>
+    <t>A0VU</t>
+  </si>
+  <si>
+    <t>A2MZ</t>
   </si>
   <si>
     <t>A2TV</t>
   </si>
   <si>
-    <t>A2MZ</t>
+    <t>B778</t>
+  </si>
+  <si>
+    <t>D399</t>
+  </si>
+  <si>
+    <t>F716</t>
+  </si>
+  <si>
+    <t>B197</t>
+  </si>
+  <si>
+    <t>A0P4</t>
+  </si>
+  <si>
+    <t>A28F</t>
   </si>
   <si>
     <t>A2MY</t>
   </si>
   <si>
-    <t>A28F</t>
-  </si>
-  <si>
-    <t>A27B</t>
-  </si>
-  <si>
-    <t>A29V</t>
+    <t>A0DO</t>
   </si>
   <si>
     <t>A28L</t>
   </si>
   <si>
-    <t>G149</t>
-  </si>
-  <si>
-    <t>B746</t>
-  </si>
-  <si>
-    <t>A2JJ</t>
-  </si>
-  <si>
-    <t>F701</t>
-  </si>
-  <si>
-    <t>A2IQ</t>
-  </si>
-  <si>
-    <t>A0B1</t>
-  </si>
-  <si>
-    <t>A29U</t>
-  </si>
-  <si>
-    <t>A29S</t>
-  </si>
-  <si>
-    <t>A26V</t>
-  </si>
-  <si>
-    <t>A26C</t>
-  </si>
-  <si>
-    <t>A0U5</t>
-  </si>
-  <si>
-    <t>A29T</t>
-  </si>
-  <si>
-    <t>A25Z</t>
-  </si>
-  <si>
-    <t>A1ZJ</t>
-  </si>
-  <si>
-    <t>A0G8</t>
-  </si>
-  <si>
-    <t>A28O</t>
-  </si>
-  <si>
-    <t>I342</t>
-  </si>
-  <si>
-    <t>H665</t>
-  </si>
-  <si>
-    <t>A2FO</t>
-  </si>
-  <si>
-    <t>F716</t>
-  </si>
-  <si>
-    <t>B778</t>
-  </si>
-  <si>
-    <t>B197</t>
-  </si>
-  <si>
-    <t>A2FY</t>
-  </si>
-  <si>
-    <t>A2AN</t>
-  </si>
-  <si>
-    <t>A28E</t>
-  </si>
-  <si>
-    <t>A27C</t>
-  </si>
-  <si>
-    <t>A0P4</t>
-  </si>
-  <si>
-    <t>A0DO</t>
-  </si>
-  <si>
-    <t>I820</t>
-  </si>
-  <si>
-    <t>A0CP</t>
-  </si>
-  <si>
-    <t>E944</t>
-  </si>
-  <si>
-    <t>A2G4</t>
-  </si>
-  <si>
-    <t>A2G2</t>
-  </si>
-  <si>
-    <t>A2FN</t>
-  </si>
-  <si>
-    <t>A0VU</t>
-  </si>
-  <si>
-    <t>A0QF</t>
-  </si>
-  <si>
-    <t>D399</t>
-  </si>
-  <si>
-    <t>A556</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>A2BF</t>
-  </si>
-  <si>
-    <t>A2A6</t>
-  </si>
-  <si>
-    <t>A2G3</t>
-  </si>
-  <si>
-    <t>A2JG</t>
-  </si>
-  <si>
-    <t>G125</t>
-  </si>
-  <si>
-    <t>A20Y</t>
+    <t>E270</t>
+  </si>
+  <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>Lift Maintenance</t>
+  </si>
+  <si>
+    <t>E302</t>
+  </si>
+  <si>
+    <t>A22D</t>
+  </si>
+  <si>
+    <t>D519</t>
   </si>
   <si>
     <t>C492</t>
   </si>
   <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>Lift Maintenance</t>
-  </si>
-  <si>
-    <t>E270</t>
-  </si>
-  <si>
-    <t>E302</t>
-  </si>
-  <si>
-    <t>D519</t>
-  </si>
-  <si>
-    <t>A22D</t>
+    <t>F787</t>
+  </si>
+  <si>
+    <t>D1030</t>
+  </si>
+  <si>
+    <t>Snowmaking</t>
+  </si>
+  <si>
+    <t>C666</t>
+  </si>
+  <si>
+    <t>H931</t>
+  </si>
+  <si>
+    <t>B250</t>
   </si>
   <si>
     <t>A1ZX</t>
   </si>
   <si>
-    <t>D1030</t>
-  </si>
-  <si>
-    <t>Snowmaking</t>
-  </si>
-  <si>
-    <t>B250</t>
-  </si>
-  <si>
-    <t>F787</t>
-  </si>
-  <si>
-    <t>C666</t>
-  </si>
-  <si>
     <t>A23C</t>
   </si>
   <si>
-    <t>H931</t>
+    <t>I238</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>Terrain Park</t>
+  </si>
+  <si>
+    <t>F499</t>
   </si>
   <si>
     <t>H731</t>
   </si>
   <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>Terrain Park</t>
-  </si>
-  <si>
-    <t>F499</t>
-  </si>
-  <si>
-    <t>I238</t>
+    <t>A1T8</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>Trail Maintenance</t>
+  </si>
+  <si>
+    <t>D941</t>
   </si>
   <si>
     <t>A23D</t>
   </si>
   <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>Trail Maintenance</t>
-  </si>
-  <si>
     <t>A2UN</t>
   </si>
   <si>
-    <t>D941</t>
+    <t>A0H1</t>
+  </si>
+  <si>
+    <t>C653</t>
+  </si>
+  <si>
+    <t>J169</t>
   </si>
   <si>
     <t>C074</t>
   </si>
   <si>
-    <t>A1T8</t>
-  </si>
-  <si>
-    <t>J169</t>
-  </si>
-  <si>
-    <t>A0H1</t>
-  </si>
-  <si>
-    <t>C653</t>
-  </si>
-  <si>
     <t>A22N</t>
   </si>
   <si>
+    <t>OL</t>
+  </si>
+  <si>
     <t>D1100</t>
   </si>
   <si>
     <t>Vehicle Maintenance</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
     <t>A0RD</t>
   </si>
   <si>
+    <t>J471</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>Ski Patrol</t>
+  </si>
+  <si>
+    <t>A889</t>
+  </si>
+  <si>
+    <t>B878</t>
+  </si>
+  <si>
+    <t>A2H9</t>
+  </si>
+  <si>
+    <t>J576</t>
+  </si>
+  <si>
+    <t>J024</t>
+  </si>
+  <si>
+    <t>A0JG</t>
+  </si>
+  <si>
+    <t>D843</t>
+  </si>
+  <si>
+    <t>F946</t>
+  </si>
+  <si>
+    <t>B898</t>
+  </si>
+  <si>
     <t>E950</t>
   </si>
   <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>Ski Patrol</t>
+    <t>A2H8</t>
+  </si>
+  <si>
+    <t>H474</t>
   </si>
   <si>
     <t>A0JE</t>
   </si>
   <si>
-    <t>A2H9</t>
-  </si>
-  <si>
-    <t>B898</t>
-  </si>
-  <si>
-    <t>A889</t>
-  </si>
-  <si>
-    <t>F946</t>
-  </si>
-  <si>
-    <t>D843</t>
-  </si>
-  <si>
-    <t>J024</t>
-  </si>
-  <si>
-    <t>J576</t>
-  </si>
-  <si>
-    <t>J471</t>
-  </si>
-  <si>
-    <t>H474</t>
-  </si>
-  <si>
-    <t>A0JG</t>
-  </si>
-  <si>
-    <t>B878</t>
-  </si>
-  <si>
-    <t>A2H8</t>
-  </si>
-  <si>
     <t>I403</t>
   </si>
   <si>
+    <t>A2N2</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
     <t>A2O6</t>
   </si>
   <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>Tickets</t>
+    <t>A0DP</t>
   </si>
   <si>
     <t>A2RO</t>
   </si>
   <si>
-    <t>A2N2</t>
-  </si>
-  <si>
     <t>A1BR</t>
   </si>
   <si>
+    <t>A27F</t>
+  </si>
+  <si>
     <t>A511</t>
   </si>
   <si>
-    <t>A0DP</t>
-  </si>
-  <si>
-    <t>A27F</t>
+    <t>J352</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>Ski School</t>
+  </si>
+  <si>
+    <t>F720</t>
+  </si>
+  <si>
+    <t>A0HC</t>
+  </si>
+  <si>
+    <t>G179</t>
+  </si>
+  <si>
+    <t>J149</t>
+  </si>
+  <si>
+    <t>F403</t>
+  </si>
+  <si>
+    <t>F596</t>
+  </si>
+  <si>
+    <t>G652</t>
+  </si>
+  <si>
+    <t>F365</t>
+  </si>
+  <si>
+    <t>C655</t>
+  </si>
+  <si>
+    <t>E973</t>
+  </si>
+  <si>
+    <t>A0QT</t>
+  </si>
+  <si>
+    <t>A0FQ</t>
   </si>
   <si>
     <t>E910</t>
   </si>
   <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>Ski School</t>
-  </si>
-  <si>
-    <t>A0HC</t>
-  </si>
-  <si>
-    <t>F596</t>
-  </si>
-  <si>
-    <t>G652</t>
-  </si>
-  <si>
-    <t>J149</t>
-  </si>
-  <si>
-    <t>J352</t>
-  </si>
-  <si>
-    <t>F403</t>
-  </si>
-  <si>
-    <t>E973</t>
-  </si>
-  <si>
-    <t>A0FQ</t>
-  </si>
-  <si>
-    <t>F720</t>
-  </si>
-  <si>
-    <t>C655</t>
-  </si>
-  <si>
-    <t>A0QT</t>
-  </si>
-  <si>
-    <t>F365</t>
-  </si>
-  <si>
-    <t>G179</t>
-  </si>
-  <si>
     <t>A2VZ</t>
   </si>
   <si>
@@ -454,39 +454,39 @@
     <t>Child Care</t>
   </si>
   <si>
+    <t>A2W0</t>
+  </si>
+  <si>
     <t>A2W1</t>
   </si>
   <si>
-    <t>A2W0</t>
+    <t>B637</t>
+  </si>
+  <si>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Rentals</t>
+  </si>
+  <si>
+    <t>A1Y7</t>
+  </si>
+  <si>
+    <t>A2AA</t>
   </si>
   <si>
     <t>E547</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Rentals</t>
-  </si>
-  <si>
-    <t>A1Y7</t>
-  </si>
-  <si>
-    <t>B637</t>
-  </si>
-  <si>
-    <t>A2AA</t>
+    <t>E582</t>
+  </si>
+  <si>
+    <t>A0SZ</t>
   </si>
   <si>
     <t>A904</t>
   </si>
   <si>
-    <t>A0SZ</t>
-  </si>
-  <si>
-    <t>E582</t>
-  </si>
-  <si>
     <t>D126</t>
   </si>
   <si>
@@ -499,40 +499,43 @@
     <t>Expert Edge</t>
   </si>
   <si>
+    <t>A28K</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>Purg Sports Resort</t>
+  </si>
+  <si>
+    <t>G111</t>
+  </si>
+  <si>
+    <t>D510</t>
+  </si>
+  <si>
+    <t>C173</t>
+  </si>
+  <si>
     <t>E962</t>
   </si>
   <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>G111</t>
-  </si>
-  <si>
-    <t>D510</t>
-  </si>
-  <si>
-    <t>A28K</t>
-  </si>
-  <si>
-    <t>C173</t>
+    <t>A15G</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>Purg Sports Main Ave</t>
+  </si>
+  <si>
+    <t>I552</t>
   </si>
   <si>
     <t>I003</t>
   </si>
   <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>A15G</t>
-  </si>
-  <si>
-    <t>I552</t>
+    <t>I518</t>
   </si>
   <si>
     <t>D5000</t>
@@ -541,9 +544,6 @@
     <t>F&amp;B Admin</t>
   </si>
   <si>
-    <t>I518</t>
-  </si>
-  <si>
     <t>E655</t>
   </si>
   <si>
@@ -556,12 +556,12 @@
     <t>A1KM</t>
   </si>
   <si>
+    <t>I308</t>
+  </si>
+  <si>
     <t>A2I0</t>
   </si>
   <si>
-    <t>I308</t>
-  </si>
-  <si>
     <t>F997</t>
   </si>
   <si>
@@ -580,108 +580,108 @@
     <t>Hoody's</t>
   </si>
   <si>
+    <t>A2I2</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>Paradise</t>
+  </si>
+  <si>
+    <t>J434</t>
+  </si>
+  <si>
     <t>A20D</t>
   </si>
   <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>Paradise</t>
-  </si>
-  <si>
-    <t>A2I2</t>
-  </si>
-  <si>
-    <t>J434</t>
-  </si>
-  <si>
     <t>I517</t>
   </si>
   <si>
+    <t>D499</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
     <t>A2JB</t>
   </si>
   <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
+    <t>B207</t>
   </si>
   <si>
     <t>A2UR</t>
   </si>
   <si>
+    <t>A2US</t>
+  </si>
+  <si>
     <t>J292</t>
   </si>
   <si>
-    <t>B207</t>
-  </si>
-  <si>
-    <t>D499</t>
-  </si>
-  <si>
     <t>C516</t>
   </si>
   <si>
-    <t>A2US</t>
-  </si>
-  <si>
     <t>A0T1</t>
   </si>
   <si>
+    <t>H608</t>
+  </si>
+  <si>
+    <t>D5209</t>
+  </si>
+  <si>
+    <t>Village Market Deli</t>
+  </si>
+  <si>
     <t>A1NI</t>
   </si>
   <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>H608</t>
+    <t>A1N1</t>
+  </si>
+  <si>
+    <t>D6212</t>
+  </si>
+  <si>
+    <t>Purgatory</t>
   </si>
   <si>
     <t>F423</t>
   </si>
   <si>
-    <t>D6212</t>
-  </si>
-  <si>
-    <t>Purgatory</t>
-  </si>
-  <si>
     <t>D283</t>
   </si>
   <si>
+    <t>A22R</t>
+  </si>
+  <si>
     <t>B276</t>
   </si>
   <si>
-    <t>A22R</t>
-  </si>
-  <si>
-    <t>A1N1</t>
+    <t>I060</t>
+  </si>
+  <si>
+    <t>D6215</t>
+  </si>
+  <si>
+    <t>Housekeeping</t>
+  </si>
+  <si>
+    <t>J492</t>
+  </si>
+  <si>
+    <t>H341</t>
   </si>
   <si>
     <t>G956</t>
   </si>
   <si>
-    <t>D6215</t>
-  </si>
-  <si>
-    <t>Housekeeping</t>
-  </si>
-  <si>
-    <t>J492</t>
-  </si>
-  <si>
     <t>J489</t>
   </si>
   <si>
-    <t>I060</t>
-  </si>
-  <si>
-    <t>H341</t>
-  </si>
-  <si>
     <t>C825</t>
   </si>
   <si>
@@ -733,27 +733,27 @@
     <t>A976</t>
   </si>
   <si>
+    <t>A2JA</t>
+  </si>
+  <si>
+    <t>D6780</t>
+  </si>
+  <si>
+    <t>Grounds Maintenance</t>
+  </si>
+  <si>
+    <t>A605</t>
+  </si>
+  <si>
+    <t>G859</t>
+  </si>
+  <si>
+    <t>A2N0</t>
+  </si>
+  <si>
     <t>A0HT</t>
   </si>
   <si>
-    <t>D6780</t>
-  </si>
-  <si>
-    <t>Grounds Maintenance</t>
-  </si>
-  <si>
-    <t>A2N0</t>
-  </si>
-  <si>
-    <t>A2JA</t>
-  </si>
-  <si>
-    <t>A605</t>
-  </si>
-  <si>
-    <t>G859</t>
-  </si>
-  <si>
     <t>E609</t>
   </si>
   <si>
@@ -769,12 +769,12 @@
     <t>E322</t>
   </si>
   <si>
+    <t>B125</t>
+  </si>
+  <si>
     <t>A03K</t>
   </si>
   <si>
-    <t>B125</t>
-  </si>
-  <si>
     <t>A1Z8</t>
   </si>
   <si>
@@ -805,16 +805,16 @@
     <t>J079</t>
   </si>
   <si>
+    <t>A2KR</t>
+  </si>
+  <si>
+    <t>D8040</t>
+  </si>
+  <si>
     <t>A0Q0</t>
   </si>
   <si>
-    <t>D8040</t>
-  </si>
-  <si>
     <t>A02N</t>
-  </si>
-  <si>
-    <t>A2KR</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1250,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>45629.375</v>
+        <v>45629.38541666666</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1265,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="2">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1276,13 +1276,13 @@
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>45629.375</v>
+        <v>45629.54548611111</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
-        <v>45629.64583333334</v>
+        <v>45629.67592592593</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>45629.375</v>
@@ -1308,7 +1308,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>45629.65795138889</v>
+        <v>45629.625</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -1317,7 +1317,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="2">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
@@ -1325,16 +1325,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
-        <v>45629.3753125</v>
+        <v>45629.375</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>45629.67429398148</v>
+        <v>45629.64583333334</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -1343,7 +1343,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="2">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>12</v>
@@ -1351,16 +1351,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
-        <v>45629.375</v>
+        <v>45629.36534722222</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>45629.64583333334</v>
+        <v>45629.63064814815</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -1369,7 +1369,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="2">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
         <v>45629.375</v>
@@ -1386,7 +1386,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>45629.625</v>
+        <v>45629.63541666666</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -1403,16 +1403,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2">
-        <v>45629.375</v>
+        <v>45629.36511574074</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>45629.625</v>
+        <v>45629.64583333334</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -1421,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="2">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>12</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
         <v>45629.375</v>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>45629.625</v>
+        <v>45629.6280787037</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
@@ -1447,7 +1447,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="2">
-        <v>14.63</v>
+        <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>12</v>
@@ -1455,16 +1455,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2">
-        <v>45629.30138888889</v>
+        <v>45629.375</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>45629.68699074074</v>
+        <v>45629.625</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
@@ -1473,7 +1473,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="2">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>12</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
         <v>45629.375</v>
@@ -1490,7 +1490,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="2">
-        <v>45629.6280787037</v>
+        <v>45629.625</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
@@ -1499,7 +1499,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="2">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>12</v>
@@ -1507,16 +1507,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2">
-        <v>45629.375</v>
+        <v>45629.38831018518</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2">
-        <v>45629.66666666666</v>
+        <v>45629.67238425926</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
@@ -1525,7 +1525,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>12</v>
@@ -1533,16 +1533,16 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2">
-        <v>45629.375</v>
+        <v>45629.30259259259</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2">
-        <v>45629.625</v>
+        <v>45629.69074074074</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -1551,7 +1551,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="2">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>12</v>
@@ -1559,16 +1559,16 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2">
-        <v>45629.38831018518</v>
+        <v>45629.31753472222</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>45629.67238425926</v>
+        <v>45629.6875</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="2">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>12</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2">
         <v>45629.375</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2">
         <v>45629.375</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2">
         <v>45629.375</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2">
         <v>45629.375</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2">
         <v>45629.375</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2">
         <v>45629.375</v>
@@ -1733,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="2">
-        <v>14.5</v>
+        <v>14.63</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>12</v>
@@ -1741,16 +1741,16 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2">
-        <v>45629.375</v>
+        <v>45629.30138888889</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2">
-        <v>45629.625</v>
+        <v>45629.68699074074</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
@@ -1759,7 +1759,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="2">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>12</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2">
         <v>45629.375</v>
@@ -1776,7 +1776,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>45629.63541666666</v>
+        <v>45629.64583333334</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -1785,7 +1785,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="2">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>12</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2">
         <v>45629.375</v>
@@ -1802,7 +1802,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2">
-        <v>45629.64583333334</v>
+        <v>45629.625</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2">
         <v>45629.375</v>
@@ -1837,7 +1837,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="2">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>12</v>
@@ -1845,16 +1845,16 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2">
-        <v>45629.30259259259</v>
+        <v>45629.375</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2">
-        <v>45629.69074074074</v>
+        <v>45629.63541666666</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
@@ -1863,7 +1863,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="2">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>12</v>
@@ -1871,16 +1871,16 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2">
-        <v>45629.30206018518</v>
+        <v>45629.375</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2">
-        <v>45629.68146990741</v>
+        <v>45629.64583333334</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -1889,7 +1889,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="2">
-        <v>20.57</v>
+        <v>14.5</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>12</v>
@@ -1897,16 +1897,16 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2">
-        <v>45629.375</v>
+        <v>45629.36924768519</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2">
-        <v>45629.63541666666</v>
+        <v>45629.6303125</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -1915,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="2">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>12</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2">
         <v>45629.375</v>
@@ -1932,7 +1932,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2">
-        <v>45629.625</v>
+        <v>45629.64583333334</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>10</v>
@@ -1941,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="2">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>12</v>
@@ -1949,16 +1949,16 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2">
-        <v>45629.31400462963</v>
+        <v>45629.375</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2">
-        <v>45629.67361111111</v>
+        <v>45629.625</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
@@ -1975,16 +1975,16 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2">
-        <v>45629.3021875</v>
+        <v>45629.375</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2">
-        <v>45629.69054398148</v>
+        <v>45629.625</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -1993,7 +1993,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="2">
-        <v>19.57</v>
+        <v>15.5</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>12</v>
@@ -2001,16 +2001,16 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2">
-        <v>45629.375</v>
+        <v>45629.32304398148</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2">
-        <v>45629.625</v>
+        <v>45629.56631944444</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
@@ -2019,7 +2019,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="2">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>12</v>
@@ -2027,16 +2027,16 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2">
-        <v>45629.375</v>
+        <v>45629.4375</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2">
-        <v>45629.64583333334</v>
+        <v>45629.63541666666</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -2045,7 +2045,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="2">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>12</v>
@@ -2053,16 +2053,16 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2">
-        <v>45629.36924768519</v>
+        <v>45629.36818287037</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2">
-        <v>45629.6303125</v>
+        <v>45629.62623842592</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
@@ -2071,7 +2071,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="2">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>12</v>
@@ -2079,16 +2079,16 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2">
-        <v>45629.38541666666</v>
+        <v>45629.37449074074</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2">
-        <v>45629.625</v>
+        <v>45629.63193287037</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
@@ -2097,7 +2097,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="2">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>12</v>
@@ -2105,16 +2105,16 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2">
-        <v>45629.32344907407</v>
+        <v>45629.375</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2">
-        <v>45629.68893518519</v>
+        <v>45629.625</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>10</v>
@@ -2123,7 +2123,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="2">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>12</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2">
         <v>45629.375</v>
@@ -2140,7 +2140,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2">
-        <v>45629.64583333334</v>
+        <v>45629.625</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
@@ -2157,16 +2157,16 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2">
-        <v>45629.32304398148</v>
+        <v>45629.375</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2">
-        <v>45629.56631944444</v>
+        <v>45629.625</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
@@ -2175,7 +2175,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="2">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>12</v>
@@ -2183,16 +2183,16 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2">
-        <v>45629.36511574074</v>
+        <v>45629.31613425926</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2">
-        <v>45629.64583333334</v>
+        <v>45629.6875</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -2201,7 +2201,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="2">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>12</v>
@@ -2209,16 +2209,16 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2">
-        <v>45629.4375</v>
+        <v>45629.30206018518</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2">
-        <v>45629.63541666666</v>
+        <v>45629.68146990741</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -2227,7 +2227,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="2">
-        <v>16</v>
+        <v>20.57</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>12</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2">
         <v>45629.375</v>
@@ -2244,7 +2244,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2">
-        <v>45629.625</v>
+        <v>45629.66666666666</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
@@ -2253,7 +2253,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="2">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>12</v>
@@ -2261,16 +2261,16 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2">
-        <v>45629.37449074074</v>
+        <v>45629.37311342593</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2">
-        <v>45629.63193287037</v>
+        <v>45629.66666666666</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
@@ -2279,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="2">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>12</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2">
         <v>45629.375</v>
@@ -2296,7 +2296,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2">
-        <v>45629.625</v>
+        <v>45629.64583333334</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
@@ -2305,7 +2305,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>12</v>
@@ -2313,16 +2313,16 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2">
-        <v>45629.37311342593</v>
+        <v>45629.375</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2">
-        <v>45629.66666666666</v>
+        <v>45629.625</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -2331,7 +2331,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="2">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>12</v>
@@ -2339,16 +2339,16 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" s="2">
-        <v>45629.31613425926</v>
+        <v>45629.31400462963</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2">
-        <v>45629.6875</v>
+        <v>45629.67361111111</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2">
         <v>45629.30271990741</v>
@@ -2391,16 +2391,16 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" s="2">
-        <v>45629.54548611111</v>
+        <v>45629.375</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2">
-        <v>45629.67592592593</v>
+        <v>45629.625</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -2409,7 +2409,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>12</v>
@@ -2420,13 +2420,13 @@
         <v>59</v>
       </c>
       <c r="B48" s="2">
-        <v>45629.375</v>
+        <v>45629.3021875</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2">
-        <v>45629.625</v>
+        <v>45629.69054398148</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
@@ -2435,7 +2435,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="2">
-        <v>15.5</v>
+        <v>19.57</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>12</v>
@@ -2446,13 +2446,13 @@
         <v>60</v>
       </c>
       <c r="B49" s="2">
-        <v>45629.375</v>
+        <v>45629.32344907407</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2">
-        <v>45629.64583333334</v>
+        <v>45629.68893518519</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -2461,7 +2461,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="2">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>12</v>
@@ -2472,13 +2472,13 @@
         <v>61</v>
       </c>
       <c r="B50" s="2">
-        <v>45629.36534722222</v>
+        <v>45629.3753125</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2">
-        <v>45629.63064814815</v>
+        <v>45629.67429398148</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
@@ -2487,7 +2487,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="2">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>12</v>
@@ -2498,13 +2498,13 @@
         <v>62</v>
       </c>
       <c r="B51" s="2">
-        <v>45629.36818287037</v>
+        <v>45629.375</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2">
-        <v>45629.62623842592</v>
+        <v>45629.65795138889</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
@@ -2524,13 +2524,13 @@
         <v>63</v>
       </c>
       <c r="B52" s="2">
-        <v>45629.31753472222</v>
+        <v>45629.375</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2">
-        <v>45629.6875</v>
+        <v>45629.64583333334</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
@@ -2576,18 +2576,22 @@
         <v>65</v>
       </c>
       <c r="B54" s="2">
-        <v>45629.69567129629</v>
+        <v>45629.23631944445</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="D54" s="2">
+        <v>45629.69994212963</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F54" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G54" s="2">
-        <v>21.56</v>
+        <v>35.43</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>67</v>
@@ -2598,13 +2602,13 @@
         <v>68</v>
       </c>
       <c r="B55" s="2">
-        <v>45629.23631944445</v>
+        <v>45629.28421296296</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2">
-        <v>45629.69994212963</v>
+        <v>45629.6997337963</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -2613,7 +2617,7 @@
         <v>66</v>
       </c>
       <c r="G55" s="2">
-        <v>35.43</v>
+        <v>29.87</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>67</v>
@@ -2624,13 +2628,13 @@
         <v>69</v>
       </c>
       <c r="B56" s="2">
-        <v>45629.28421296296</v>
+        <v>45629.30259259259</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2">
-        <v>45629.6997337963</v>
+        <v>45629.68922453704</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
@@ -2639,7 +2643,7 @@
         <v>66</v>
       </c>
       <c r="G56" s="2">
-        <v>29.87</v>
+        <v>18.5</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>67</v>
@@ -2673,7 +2677,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B58" s="2">
         <v>45629.25</v>
@@ -2698,22 +2702,18 @@
         <v>71</v>
       </c>
       <c r="B59" s="2">
-        <v>45629.30259259259</v>
+        <v>45629.69567129629</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="2">
-        <v>45629.68922453704</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G59" s="2">
-        <v>18.5</v>
+        <v>21.56</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>67</v>
@@ -2724,13 +2724,13 @@
         <v>72</v>
       </c>
       <c r="B60" s="2">
-        <v>45629.9343287037</v>
+        <v>45629.46451388889</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2">
-        <v>45630.45833333334</v>
+        <v>45629.58333333334</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
@@ -2739,7 +2739,7 @@
         <v>73</v>
       </c>
       <c r="G60" s="2">
-        <v>18</v>
+        <v>24.72</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>74</v>
@@ -2750,13 +2750,13 @@
         <v>75</v>
       </c>
       <c r="B61" s="2">
-        <v>45629.00347222222</v>
+        <v>45629.93825231482</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2">
-        <v>45629.38541666666</v>
+        <v>45630.49101851852</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>10</v>
@@ -2765,7 +2765,7 @@
         <v>73</v>
       </c>
       <c r="G61" s="2">
-        <v>24.26</v>
+        <v>22.7</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>74</v>
@@ -2776,13 +2776,13 @@
         <v>76</v>
       </c>
       <c r="B62" s="2">
-        <v>45629.46451388889</v>
+        <v>45629.44174768519</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2">
-        <v>45629.58333333334</v>
+        <v>45629.9665625</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
@@ -2791,7 +2791,7 @@
         <v>73</v>
       </c>
       <c r="G62" s="2">
-        <v>24.72</v>
+        <v>23.75</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>74</v>
@@ -2802,13 +2802,13 @@
         <v>77</v>
       </c>
       <c r="B63" s="2">
-        <v>45629.93825231482</v>
+        <v>45629.00347222222</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2">
-        <v>45630.49101851852</v>
+        <v>45629.38541666666</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -2817,7 +2817,7 @@
         <v>73</v>
       </c>
       <c r="G63" s="2">
-        <v>22.7</v>
+        <v>24.26</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>74</v>
@@ -2825,16 +2825,16 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B64" s="2">
-        <v>45629.96458333333</v>
+        <v>45629.9343287037</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2">
-        <v>45630.55833333333</v>
+        <v>45630.45833333334</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
@@ -2843,7 +2843,7 @@
         <v>73</v>
       </c>
       <c r="G64" s="2">
-        <v>24.72</v>
+        <v>18</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>74</v>
@@ -2851,7 +2851,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B65" s="2">
         <v>45629.69834490741</v>
@@ -2877,16 +2877,16 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B66" s="2">
-        <v>45629.44174768519</v>
+        <v>45629.96458333333</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2">
-        <v>45629.9665625</v>
+        <v>45630.55833333333</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
@@ -2895,7 +2895,7 @@
         <v>73</v>
       </c>
       <c r="G66" s="2">
-        <v>23.75</v>
+        <v>24.72</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>74</v>
@@ -2906,13 +2906,13 @@
         <v>80</v>
       </c>
       <c r="B67" s="2">
-        <v>45629.31210648148</v>
+        <v>45629.30504629629</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2">
-        <v>45629.73296296296</v>
+        <v>45629.30510416667</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
@@ -2921,7 +2921,7 @@
         <v>81</v>
       </c>
       <c r="G67" s="2">
-        <v>22.66</v>
+        <v>16</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>82</v>
@@ -2929,16 +2929,16 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B68" s="2">
-        <v>45629.31052083334</v>
+        <v>45629.30512731482</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2">
-        <v>45629.73262731481</v>
+        <v>45629.72962962963</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>10</v>
@@ -2947,7 +2947,7 @@
         <v>81</v>
       </c>
       <c r="G68" s="2">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>82</v>
@@ -2955,16 +2955,16 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69" s="2">
-        <v>45629.30512731482</v>
+        <v>45629.31052083334</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2">
-        <v>45629.72962962963</v>
+        <v>45629.73262731481</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
@@ -2973,7 +2973,7 @@
         <v>81</v>
       </c>
       <c r="G69" s="2">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>82</v>
@@ -2984,13 +2984,13 @@
         <v>84</v>
       </c>
       <c r="B70" s="2">
-        <v>45629.30504629629</v>
+        <v>45629.31210648148</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2">
-        <v>45629.30510416667</v>
+        <v>45629.73296296296</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
@@ -2999,7 +2999,7 @@
         <v>81</v>
       </c>
       <c r="G70" s="2">
-        <v>16</v>
+        <v>22.66</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>82</v>
@@ -3010,13 +3010,13 @@
         <v>85</v>
       </c>
       <c r="B71" s="2">
-        <v>45629.33333333334</v>
+        <v>45629.62273148148</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2">
-        <v>45629.72342592593</v>
+        <v>45629.99348379629</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
@@ -3025,7 +3025,7 @@
         <v>86</v>
       </c>
       <c r="G71" s="2">
-        <v>18.36</v>
+        <v>22.66</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>87</v>
@@ -3036,13 +3036,13 @@
         <v>88</v>
       </c>
       <c r="B72" s="2">
-        <v>45629.97678240741</v>
+        <v>45629.45818287037</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2">
-        <v>45630.35515046296</v>
+        <v>45629.98103009259</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
@@ -3051,7 +3051,7 @@
         <v>86</v>
       </c>
       <c r="G72" s="2">
-        <v>23.33</v>
+        <v>18.55</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>87</v>
@@ -3062,13 +3062,13 @@
         <v>89</v>
       </c>
       <c r="B73" s="2">
-        <v>45629.45818287037</v>
+        <v>45629.33333333334</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2">
-        <v>45629.98103009259</v>
+        <v>45629.72342592593</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
@@ -3077,7 +3077,7 @@
         <v>86</v>
       </c>
       <c r="G73" s="2">
-        <v>18.55</v>
+        <v>18.36</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>87</v>
@@ -3088,13 +3088,13 @@
         <v>90</v>
       </c>
       <c r="B74" s="2">
-        <v>45629.64739583333</v>
+        <v>45629.97678240741</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2">
-        <v>45629.84885416667</v>
+        <v>45630.35515046296</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -3103,7 +3103,7 @@
         <v>86</v>
       </c>
       <c r="G74" s="2">
-        <v>18.55</v>
+        <v>23.33</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>87</v>
@@ -3114,13 +3114,13 @@
         <v>91</v>
       </c>
       <c r="B75" s="2">
-        <v>45629.62273148148</v>
+        <v>45629.65011574074</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2">
-        <v>45629.99348379629</v>
+        <v>45629.76202546297</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>10</v>
@@ -3129,7 +3129,7 @@
         <v>86</v>
       </c>
       <c r="G75" s="2">
-        <v>22.66</v>
+        <v>25</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>87</v>
@@ -3140,13 +3140,13 @@
         <v>92</v>
       </c>
       <c r="B76" s="2">
-        <v>45629.45262731481</v>
+        <v>45629.63984953704</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2">
-        <v>45629.97631944445</v>
+        <v>45630.02265046296</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>10</v>
@@ -3155,7 +3155,7 @@
         <v>86</v>
       </c>
       <c r="G76" s="2">
-        <v>18.55</v>
+        <v>21</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>87</v>
@@ -3166,13 +3166,13 @@
         <v>93</v>
       </c>
       <c r="B77" s="2">
-        <v>45629.65011574074</v>
+        <v>45629.45262731481</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2">
-        <v>45629.76202546297</v>
+        <v>45629.97631944445</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>10</v>
@@ -3181,7 +3181,7 @@
         <v>86</v>
       </c>
       <c r="G77" s="2">
-        <v>25</v>
+        <v>18.55</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>87</v>
@@ -3192,13 +3192,13 @@
         <v>94</v>
       </c>
       <c r="B78" s="2">
-        <v>45629.63984953704</v>
+        <v>45629.64739583333</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2">
-        <v>45630.02265046296</v>
+        <v>45629.84885416667</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         <v>86</v>
       </c>
       <c r="G78" s="2">
-        <v>21</v>
+        <v>18.55</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>87</v>
@@ -3218,51 +3218,51 @@
         <v>95</v>
       </c>
       <c r="B79" s="2">
-        <v>45629.525625</v>
+        <v>45629.29246527778</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2">
-        <v>45629.72971064815</v>
+        <v>45629.50649305555</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G79" s="2">
         <v>29</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B80" s="2">
-        <v>45629.29246527778</v>
+        <v>45629.56407407407</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2">
-        <v>45629.50649305555</v>
+        <v>45629.73011574074</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G80" s="2">
+        <v>17</v>
+      </c>
+      <c r="H80" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G80" s="2">
-        <v>29</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3270,51 +3270,51 @@
         <v>99</v>
       </c>
       <c r="B81" s="2">
-        <v>45629.56407407407</v>
+        <v>45629.26993055556</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2">
-        <v>45629.73011574074</v>
+        <v>45629.51872685185</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G81" s="2">
         <v>17</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2">
-        <v>45629.26993055556</v>
+        <v>45629.525625</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2">
-        <v>45629.51872685185</v>
+        <v>45629.72971064815</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G82" s="2">
+        <v>29</v>
+      </c>
+      <c r="H82" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G82" s="2">
-        <v>17</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3322,13 +3322,13 @@
         <v>100</v>
       </c>
       <c r="B83" s="2">
-        <v>45629.31184027778</v>
+        <v>45629.35693287037</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2">
-        <v>45629.70354166667</v>
+        <v>45629.6669212963</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>10</v>
@@ -3337,7 +3337,7 @@
         <v>101</v>
       </c>
       <c r="G83" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>102</v>
@@ -3354,7 +3354,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="2">
-        <v>45629.67222222222</v>
+        <v>45629.66666666666</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>10</v>
@@ -3363,7 +3363,7 @@
         <v>101</v>
       </c>
       <c r="G84" s="2">
-        <v>17</v>
+        <v>12.56</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>102</v>
@@ -3374,13 +3374,13 @@
         <v>104</v>
       </c>
       <c r="B85" s="2">
-        <v>45629.38871527778</v>
+        <v>45629.31195601852</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2">
-        <v>45629.67194444445</v>
+        <v>45629.70364583333</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>10</v>
@@ -3389,7 +3389,7 @@
         <v>101</v>
       </c>
       <c r="G85" s="2">
-        <v>17.5</v>
+        <v>25.84</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>102</v>
@@ -3400,13 +3400,13 @@
         <v>105</v>
       </c>
       <c r="B86" s="2">
-        <v>45629.31332175926</v>
+        <v>45629.38871527778</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2">
-        <v>45629.70378472222</v>
+        <v>45629.67194444445</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>10</v>
@@ -3415,7 +3415,7 @@
         <v>101</v>
       </c>
       <c r="G86" s="2">
-        <v>25.09</v>
+        <v>17.5</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>102</v>
@@ -3426,13 +3426,13 @@
         <v>106</v>
       </c>
       <c r="B87" s="2">
-        <v>45629.375</v>
+        <v>45629.31537037037</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2">
-        <v>45629.66666666666</v>
+        <v>45629.70399305555</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>10</v>
@@ -3441,7 +3441,7 @@
         <v>101</v>
       </c>
       <c r="G87" s="2">
-        <v>12.56</v>
+        <v>21.56</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>102</v>
@@ -3452,13 +3452,13 @@
         <v>107</v>
       </c>
       <c r="B88" s="2">
-        <v>45629.31209490741</v>
+        <v>45629.31600694444</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2">
-        <v>45629.70236111111</v>
+        <v>45629.7053125</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>10</v>
@@ -3467,7 +3467,7 @@
         <v>101</v>
       </c>
       <c r="G88" s="2">
-        <v>19.27</v>
+        <v>24.09</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>102</v>
@@ -3478,13 +3478,13 @@
         <v>108</v>
       </c>
       <c r="B89" s="2">
-        <v>45629.375</v>
+        <v>45629.31320601852</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2">
-        <v>45629.67222222222</v>
+        <v>45629.70325231482</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>10</v>
@@ -3493,7 +3493,7 @@
         <v>101</v>
       </c>
       <c r="G89" s="2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>102</v>
@@ -3504,13 +3504,13 @@
         <v>109</v>
       </c>
       <c r="B90" s="2">
-        <v>45629.31600694444</v>
+        <v>45629.375</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2">
-        <v>45629.7053125</v>
+        <v>45629.67222222222</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>10</v>
@@ -3519,7 +3519,7 @@
         <v>101</v>
       </c>
       <c r="G90" s="2">
-        <v>24.09</v>
+        <v>25</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>102</v>
@@ -3530,13 +3530,13 @@
         <v>110</v>
       </c>
       <c r="B91" s="2">
-        <v>45629.31537037037</v>
+        <v>45629.31209490741</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2">
-        <v>45629.70399305555</v>
+        <v>45629.70236111111</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>10</v>
@@ -3545,7 +3545,7 @@
         <v>101</v>
       </c>
       <c r="G91" s="2">
-        <v>21.56</v>
+        <v>19.27</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>102</v>
@@ -3556,13 +3556,13 @@
         <v>111</v>
       </c>
       <c r="B92" s="2">
-        <v>45629.35693287037</v>
+        <v>45629.31332175926</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2">
-        <v>45629.6669212963</v>
+        <v>45629.70378472222</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>10</v>
@@ -3571,7 +3571,7 @@
         <v>101</v>
       </c>
       <c r="G92" s="2">
-        <v>22</v>
+        <v>25.09</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>102</v>
@@ -3582,13 +3582,13 @@
         <v>112</v>
       </c>
       <c r="B93" s="2">
-        <v>45629.3125</v>
+        <v>45629.31184027778</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2">
-        <v>45629.70833333334</v>
+        <v>45629.70354166667</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>10</v>
@@ -3597,7 +3597,7 @@
         <v>101</v>
       </c>
       <c r="G93" s="2">
-        <v>21.34</v>
+        <v>19</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>102</v>
@@ -3608,13 +3608,13 @@
         <v>113</v>
       </c>
       <c r="B94" s="2">
-        <v>45629.31320601852</v>
+        <v>45629.375</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2">
-        <v>45629.70325231482</v>
+        <v>45629.65625</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>10</v>
@@ -3623,7 +3623,7 @@
         <v>101</v>
       </c>
       <c r="G94" s="2">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>102</v>
@@ -3634,13 +3634,13 @@
         <v>114</v>
       </c>
       <c r="B95" s="2">
-        <v>45629.31195601852</v>
+        <v>45629.3125</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2">
-        <v>45629.70364583333</v>
+        <v>45629.70833333334</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>10</v>
@@ -3649,7 +3649,7 @@
         <v>101</v>
       </c>
       <c r="G95" s="2">
-        <v>25.84</v>
+        <v>21.34</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>102</v>
@@ -3666,7 +3666,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2">
-        <v>45629.65625</v>
+        <v>45629.67222222222</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>10</v>
@@ -3675,7 +3675,7 @@
         <v>101</v>
       </c>
       <c r="G96" s="2">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>102</v>
@@ -3712,22 +3712,22 @@
         <v>117</v>
       </c>
       <c r="B98" s="2">
-        <v>45629.33001157407</v>
+        <v>45629.62121527778</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2">
-        <v>45629.50412037037</v>
+        <v>45629.66664351852</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G98" s="2">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>119</v>
@@ -3735,19 +3735,19 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2">
-        <v>45629.51239583334</v>
+        <v>45629.33001157407</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2">
-        <v>45629.66841435185</v>
+        <v>45629.50412037037</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>118</v>
@@ -3761,25 +3761,25 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2">
-        <v>45629.29166666666</v>
+        <v>45629.33743055556</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2">
-        <v>45629.5</v>
+        <v>45629.71221064815</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G100" s="2">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>119</v>
@@ -3787,25 +3787,25 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B101" s="2">
-        <v>45629.34408564815</v>
+        <v>45629.51239583334</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D101" s="2">
-        <v>45629.47988425926</v>
+        <v>45629.66841435185</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G101" s="2">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>119</v>
@@ -3813,25 +3813,25 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B102" s="2">
-        <v>45629.62121527778</v>
+        <v>45629.29166666666</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2">
-        <v>45629.66664351852</v>
+        <v>45629.5</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G102" s="2">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>119</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B103" s="2">
         <v>45629.36266203703</v>
@@ -3865,16 +3865,16 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B104" s="2">
-        <v>45629.33957175926</v>
+        <v>45629.33717592592</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2">
-        <v>45629.65181712963</v>
+        <v>45629.63621527778</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>10</v>
@@ -3883,7 +3883,7 @@
         <v>118</v>
       </c>
       <c r="G104" s="2">
-        <v>21.44</v>
+        <v>16</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>119</v>
@@ -3891,25 +3891,25 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B105" s="2">
-        <v>45629.33743055556</v>
+        <v>45629.34408564815</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2">
-        <v>45629.71221064815</v>
+        <v>45629.47988425926</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G105" s="2">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>119</v>
@@ -3920,13 +3920,13 @@
         <v>125</v>
       </c>
       <c r="B106" s="2">
-        <v>45629.33717592592</v>
+        <v>45629.33957175926</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2">
-        <v>45629.63621527778</v>
+        <v>45629.65181712963</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>10</v>
@@ -3935,7 +3935,7 @@
         <v>118</v>
       </c>
       <c r="G106" s="2">
-        <v>16</v>
+        <v>21.44</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>119</v>
@@ -3961,7 +3961,7 @@
         <v>128</v>
       </c>
       <c r="G107" s="2">
-        <v>17.3</v>
+        <v>16.83</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>129</v>
@@ -3987,7 +3987,7 @@
         <v>128</v>
       </c>
       <c r="G108" s="2">
-        <v>15.5</v>
+        <v>16.53</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>129</v>
@@ -4013,7 +4013,7 @@
         <v>128</v>
       </c>
       <c r="G109" s="2">
-        <v>18.72</v>
+        <v>15.5</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>129</v>
@@ -4039,7 +4039,7 @@
         <v>128</v>
       </c>
       <c r="G110" s="2">
-        <v>16.1</v>
+        <v>24.16</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>129</v>
@@ -4076,22 +4076,22 @@
         <v>134</v>
       </c>
       <c r="B112" s="2">
-        <v>45629</v>
+        <v>45629.37395833333</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2">
-        <v>45629</v>
+        <v>45629.7115625</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>128</v>
       </c>
       <c r="G112" s="2">
-        <v>16.83</v>
+        <v>18.72</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>129</v>
@@ -4102,16 +4102,16 @@
         <v>135</v>
       </c>
       <c r="B113" s="2">
-        <v>45629.37395833333</v>
+        <v>45629</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D113" s="2">
-        <v>45629.7115625</v>
+        <v>45629</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>128</v>
@@ -4143,7 +4143,7 @@
         <v>128</v>
       </c>
       <c r="G114" s="2">
-        <v>14.5</v>
+        <v>16.1</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>129</v>
@@ -4169,7 +4169,7 @@
         <v>128</v>
       </c>
       <c r="G115" s="2">
-        <v>16.5</v>
+        <v>17.84</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>129</v>
@@ -4195,7 +4195,7 @@
         <v>128</v>
       </c>
       <c r="G116" s="2">
-        <v>16.53</v>
+        <v>17.3</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>129</v>
@@ -4221,7 +4221,7 @@
         <v>128</v>
       </c>
       <c r="G117" s="2">
-        <v>17.3</v>
+        <v>14.5</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>129</v>
@@ -4273,7 +4273,7 @@
         <v>128</v>
       </c>
       <c r="G119" s="2">
-        <v>17.84</v>
+        <v>16.5</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>129</v>
@@ -4299,7 +4299,7 @@
         <v>128</v>
       </c>
       <c r="G120" s="2">
-        <v>24.16</v>
+        <v>17.3</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>129</v>
@@ -4310,7 +4310,7 @@
         <v>143</v>
       </c>
       <c r="B121" s="2">
-        <v>45629.38541666666</v>
+        <v>45629.56877314814</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
@@ -4336,7 +4336,7 @@
         <v>143</v>
       </c>
       <c r="B122" s="2">
-        <v>45629.56877314814</v>
+        <v>45629.38541666666</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -4362,13 +4362,13 @@
         <v>146</v>
       </c>
       <c r="B123" s="2">
-        <v>45629.35416666666</v>
+        <v>45629.40261574074</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2">
-        <v>45629.54166666666</v>
+        <v>45629.58407407408</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>10</v>
@@ -4377,7 +4377,7 @@
         <v>144</v>
       </c>
       <c r="G123" s="2">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>145</v>
@@ -4388,13 +4388,13 @@
         <v>147</v>
       </c>
       <c r="B124" s="2">
-        <v>45629.40261574074</v>
+        <v>45629.35416666666</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2">
-        <v>45629.58407407408</v>
+        <v>45629.54166666666</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>10</v>
@@ -4403,7 +4403,7 @@
         <v>144</v>
       </c>
       <c r="G124" s="2">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>145</v>
@@ -4414,22 +4414,22 @@
         <v>148</v>
       </c>
       <c r="B125" s="2">
-        <v>45629.33333333334</v>
+        <v>45629.66288194444</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2">
-        <v>45629.41666666666</v>
+        <v>45629.70346064815</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G125" s="2">
-        <v>22.5</v>
+        <v>18</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>150</v>
@@ -4449,7 +4449,7 @@
         <v>45629.54524305555</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>149</v>
@@ -4463,16 +4463,16 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B127" s="2">
-        <v>45629.33616898148</v>
+        <v>45629.63890046296</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D127" s="2">
-        <v>45629.54679398148</v>
+        <v>45629.70313657408</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>10</v>
@@ -4481,7 +4481,7 @@
         <v>149</v>
       </c>
       <c r="G127" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>150</v>
@@ -4489,19 +4489,19 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B128" s="2">
-        <v>45629.63890046296</v>
+        <v>45629.32070601852</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2">
-        <v>45629.70313657408</v>
+        <v>45629.5428125</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>149</v>
@@ -4518,22 +4518,22 @@
         <v>153</v>
       </c>
       <c r="B129" s="2">
-        <v>45629.32070601852</v>
+        <v>45629.49884259259</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D129" s="2">
-        <v>45629.5428125</v>
+        <v>45629.69101851852</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G129" s="2">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>150</v>
@@ -4541,13 +4541,13 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B130" s="2">
         <v>45629.63631944444</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D130" s="2">
         <v>45629.70918981481</v>
@@ -4567,25 +4567,25 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B131" s="2">
-        <v>45629.32984953704</v>
+        <v>45629.33616898148</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2">
-        <v>45629.41873842593</v>
+        <v>45629.54679398148</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G131" s="2">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>150</v>
@@ -4593,19 +4593,19 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B132" s="2">
-        <v>45629.3315162037</v>
+        <v>45629.54982638889</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D132" s="2">
-        <v>45629.4259837963</v>
+        <v>45629.70358796296</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>149</v>
@@ -4619,25 +4619,25 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B133" s="2">
-        <v>45629.52076388889</v>
+        <v>45629.33333333334</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2">
-        <v>45629.70253472222</v>
+        <v>45629.41666666666</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G133" s="2">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>150</v>
@@ -4645,19 +4645,19 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B134" s="2">
-        <v>45629.32069444445</v>
+        <v>45629.3315162037</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2">
-        <v>45629.52890046296</v>
+        <v>45629.4259837963</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>149</v>
@@ -4671,16 +4671,16 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B135" s="2">
-        <v>45629.54982638889</v>
+        <v>45629.52076388889</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D135" s="2">
-        <v>45629.70358796296</v>
+        <v>45629.70253472222</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>10</v>
@@ -4697,25 +4697,25 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B136" s="2">
-        <v>45629.66288194444</v>
+        <v>45629.32984953704</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2">
-        <v>45629.70346064815</v>
+        <v>45629.41873842593</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G136" s="2">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>150</v>
@@ -4723,16 +4723,16 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B137" s="2">
-        <v>45629.49884259259</v>
+        <v>45629.32476851852</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2">
-        <v>45629.69101851852</v>
+        <v>45629.58487268518</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>10</v>
@@ -4741,7 +4741,7 @@
         <v>149</v>
       </c>
       <c r="G137" s="2">
-        <v>22.5</v>
+        <v>18</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>150</v>
@@ -4749,25 +4749,25 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B138" s="2">
-        <v>45629.32476851852</v>
+        <v>45629.32069444445</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2">
-        <v>45629.58487268518</v>
+        <v>45629.52890046296</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>149</v>
       </c>
       <c r="G138" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>150</v>
@@ -4778,16 +4778,16 @@
         <v>158</v>
       </c>
       <c r="B139" s="2">
-        <v>45629.57528935185</v>
+        <v>45629.33829861111</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2">
-        <v>45629.68400462963</v>
+        <v>45629.53318287037</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>159</v>
@@ -4804,16 +4804,16 @@
         <v>158</v>
       </c>
       <c r="B140" s="2">
-        <v>45629.33829861111</v>
+        <v>45629.57528935185</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D140" s="2">
-        <v>45629.53318287037</v>
+        <v>45629.68400462963</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>159</v>
@@ -4830,22 +4830,22 @@
         <v>161</v>
       </c>
       <c r="B141" s="2">
-        <v>45629.60297453704</v>
+        <v>45629.34290509259</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2">
-        <v>45629.61240740741</v>
+        <v>45629.58081018519</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G141" s="2">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>163</v>
@@ -4865,7 +4865,7 @@
         <v>45629.47916666666</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>162</v>
@@ -4879,16 +4879,16 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143" s="2">
-        <v>45629.53125</v>
+        <v>45629.33445601852</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2">
-        <v>45629.68131944445</v>
+        <v>45629.54358796297</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>10</v>
@@ -4897,7 +4897,7 @@
         <v>162</v>
       </c>
       <c r="G143" s="2">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>163</v>
@@ -4905,25 +4905,25 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144" s="2">
-        <v>45629.33445601852</v>
+        <v>45629.33709490741</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2">
-        <v>45629.54358796297</v>
+        <v>45629.41666666666</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G144" s="2">
-        <v>16.5</v>
+        <v>22.5</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>163</v>
@@ -4931,16 +4931,16 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B145" s="2">
-        <v>45629.57854166667</v>
+        <v>45629.60297453704</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D145" s="2">
-        <v>45629.70986111111</v>
+        <v>45629.61240740741</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>10</v>
@@ -4949,7 +4949,7 @@
         <v>162</v>
       </c>
       <c r="G145" s="2">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>163</v>
@@ -4957,25 +4957,25 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B146" s="2">
-        <v>45629.34290509259</v>
+        <v>45629.34231481481</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2">
-        <v>45629.58081018519</v>
+        <v>45629.5600462963</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G146" s="2">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>163</v>
@@ -4983,25 +4983,25 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B147" s="2">
-        <v>45629.33709490741</v>
+        <v>45629.59408564815</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D147" s="2">
-        <v>45629.41666666666</v>
+        <v>45629.68461805556</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G147" s="2">
-        <v>22.5</v>
+        <v>16</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>163</v>
@@ -5009,25 +5009,25 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B148" s="2">
-        <v>45629.34231481481</v>
+        <v>45629.53125</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D148" s="2">
-        <v>45629.5600462963</v>
+        <v>45629.68131944445</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G148" s="2">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>163</v>
@@ -5035,16 +5035,16 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B149" s="2">
-        <v>45629.59408564815</v>
+        <v>45629.57854166667</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2">
-        <v>45629.68461805556</v>
+        <v>45629.70986111111</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>10</v>
@@ -5053,7 +5053,7 @@
         <v>162</v>
       </c>
       <c r="G149" s="2">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>163</v>
@@ -5064,13 +5064,13 @@
         <v>168</v>
       </c>
       <c r="B150" s="2">
-        <v>45629.41768518519</v>
+        <v>45629.33680555555</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2">
-        <v>45629.75</v>
+        <v>45629.66792824074</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>10</v>
@@ -5079,7 +5079,7 @@
         <v>169</v>
       </c>
       <c r="G150" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>170</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B151" s="2">
         <v>45629.66780092593</v>
@@ -5113,16 +5113,16 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B152" s="2">
-        <v>45629.33680555555</v>
+        <v>45629.5</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D152" s="2">
-        <v>45629.66792824074</v>
+        <v>45629.68739583333</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>10</v>
@@ -5131,7 +5131,7 @@
         <v>169</v>
       </c>
       <c r="G152" s="2">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>170</v>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B153" s="2">
         <v>45629.33466435185</v>
@@ -5165,16 +5165,16 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B154" s="2">
-        <v>45629.5</v>
+        <v>45629.41768518519</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2">
-        <v>45629.68739583333</v>
+        <v>45629.75</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>10</v>
@@ -5183,7 +5183,7 @@
         <v>169</v>
       </c>
       <c r="G154" s="2">
-        <v>22.5</v>
+        <v>16</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>170</v>
@@ -5191,54 +5191,54 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="2" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B155" s="2">
-        <v>45629.55667824074</v>
+        <v>45629.33333333334</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="D155" s="2">
-        <v>45629.66209490741</v>
+        <v>45629.33333333334</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G155" s="2">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" s="2">
+        <v>45629.55667824074</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" s="2">
+        <v>45629.66209490741</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G156" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="H156" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B156" s="2">
-        <v>45629.33333333334</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D156" s="2">
-        <v>45629.33333333334</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G156" s="2">
-        <v>0</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5246,16 +5246,16 @@
         <v>176</v>
       </c>
       <c r="B157" s="2">
-        <v>45629.36105324074</v>
+        <v>45629.61175925926</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D157" s="2">
-        <v>45629.58984953703</v>
+        <v>45629.66717592593</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>177</v>
@@ -5295,16 +5295,16 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B159" s="2">
-        <v>45629.61175925926</v>
+        <v>45629.34016203704</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2">
-        <v>45629.66717592593</v>
+        <v>45629.69048611111</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>10</v>
@@ -5313,7 +5313,7 @@
         <v>177</v>
       </c>
       <c r="G159" s="2">
-        <v>13.65</v>
+        <v>18</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>178</v>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B160" s="2">
         <v>45629.36200231482</v>
@@ -5347,25 +5347,25 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B161" s="2">
-        <v>45629.34016203704</v>
+        <v>45629.36105324074</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2">
-        <v>45629.69048611111</v>
+        <v>45629.58984953703</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>177</v>
       </c>
       <c r="G161" s="2">
-        <v>18</v>
+        <v>13.65</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>178</v>
@@ -5428,13 +5428,13 @@
         <v>188</v>
       </c>
       <c r="B164" s="2">
-        <v>45629.33864583333</v>
+        <v>45629.37283564815</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2">
-        <v>45629.63356481482</v>
+        <v>45629.62540509259</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>10</v>
@@ -5454,13 +5454,13 @@
         <v>191</v>
       </c>
       <c r="B165" s="2">
-        <v>45629.37283564815</v>
+        <v>45629.37833333333</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2">
-        <v>45629.62540509259</v>
+        <v>45629.64505787037</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>10</v>
@@ -5469,7 +5469,7 @@
         <v>189</v>
       </c>
       <c r="G165" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>190</v>
@@ -5480,13 +5480,13 @@
         <v>192</v>
       </c>
       <c r="B166" s="2">
-        <v>45629.37833333333</v>
+        <v>45629.33864583333</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2">
-        <v>45629.64505787037</v>
+        <v>45629.63356481482</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>10</v>
@@ -5495,7 +5495,7 @@
         <v>189</v>
       </c>
       <c r="G166" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>190</v>
@@ -5506,22 +5506,22 @@
         <v>193</v>
       </c>
       <c r="B167" s="2">
-        <v>45629.40662037037</v>
+        <v>45629.53819444445</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D167" s="2">
-        <v>45629.53141203704</v>
+        <v>45629.65527777778</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>189</v>
       </c>
       <c r="G167" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>190</v>
@@ -5532,22 +5532,22 @@
         <v>193</v>
       </c>
       <c r="B168" s="2">
-        <v>45629.53819444445</v>
+        <v>45629.40662037037</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2">
-        <v>45629.65527777778</v>
+        <v>45629.53141203704</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>189</v>
       </c>
       <c r="G168" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>190</v>
@@ -5558,13 +5558,13 @@
         <v>194</v>
       </c>
       <c r="B169" s="2">
-        <v>45629.62159722222</v>
+        <v>45629.37258101852</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2">
-        <v>45629.74519675926</v>
+        <v>45629.68666666667</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>10</v>
@@ -5584,22 +5584,22 @@
         <v>197</v>
       </c>
       <c r="B170" s="2">
-        <v>45629.41784722222</v>
+        <v>45629.62159722222</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2">
-        <v>45629.58401620371</v>
+        <v>45629.74519675926</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>195</v>
       </c>
       <c r="G170" s="2">
-        <v>15</v>
+        <v>13.65</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>196</v>
@@ -5610,13 +5610,13 @@
         <v>198</v>
       </c>
       <c r="B171" s="2">
-        <v>45629.6208912037</v>
+        <v>45629.37378472222</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2">
-        <v>45629.88541666666</v>
+        <v>45629.43315972222</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>10</v>
@@ -5636,16 +5636,16 @@
         <v>198</v>
       </c>
       <c r="B172" s="2">
-        <v>45629.62081018519</v>
+        <v>45629.33333333334</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D172" s="2">
-        <v>45629.6208449074</v>
+        <v>45629.33333333334</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>195</v>
@@ -5662,22 +5662,22 @@
         <v>199</v>
       </c>
       <c r="B173" s="2">
-        <v>45629.33333333334</v>
+        <v>45629.60532407407</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="D173" s="2">
-        <v>45629.33333333334</v>
+        <v>45629.66614583333</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>195</v>
       </c>
       <c r="G173" s="2">
-        <v>13.65</v>
+        <v>15</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>196</v>
@@ -5685,16 +5685,16 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B174" s="2">
-        <v>45629.37378472222</v>
+        <v>45629.40144675926</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2">
-        <v>45629.43315972222</v>
+        <v>45629.66671296296</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>10</v>
@@ -5703,7 +5703,7 @@
         <v>195</v>
       </c>
       <c r="G174" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>196</v>
@@ -5711,16 +5711,16 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B175" s="2">
-        <v>45629.37258101852</v>
+        <v>45629.6208912037</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2">
-        <v>45629.68666666667</v>
+        <v>45629.88541666666</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>10</v>
@@ -5729,7 +5729,7 @@
         <v>195</v>
       </c>
       <c r="G175" s="2">
-        <v>13.65</v>
+        <v>20</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>196</v>
@@ -5737,16 +5737,16 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B176" s="2">
-        <v>45629.60532407407</v>
+        <v>45629.57829861111</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2">
-        <v>45629.66614583333</v>
+        <v>45629.87193287037</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>10</v>
@@ -5755,7 +5755,7 @@
         <v>195</v>
       </c>
       <c r="G176" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>196</v>
@@ -5763,16 +5763,16 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B177" s="2">
-        <v>45629.57829861111</v>
+        <v>45629.37265046296</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2">
-        <v>45629.87193287037</v>
+        <v>45629.6875462963</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>10</v>
@@ -5781,7 +5781,7 @@
         <v>195</v>
       </c>
       <c r="G177" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>196</v>
@@ -5789,16 +5789,16 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B178" s="2">
-        <v>45629.40144675926</v>
+        <v>45629.62081018519</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2">
-        <v>45629.66671296296</v>
+        <v>45629.6208449074</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>10</v>
@@ -5807,7 +5807,7 @@
         <v>195</v>
       </c>
       <c r="G178" s="2">
-        <v>15</v>
+        <v>13.65</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>196</v>
@@ -5815,19 +5815,19 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B179" s="2">
-        <v>45629.37265046296</v>
+        <v>45629.41784722222</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2">
-        <v>45629.6875462963</v>
+        <v>45629.58401620371</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>195</v>
@@ -5844,13 +5844,13 @@
         <v>204</v>
       </c>
       <c r="B180" s="2">
-        <v>45629.29056712963</v>
+        <v>45629.33733796296</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2">
-        <v>45629.6875</v>
+        <v>45629.6686574074</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>10</v>
@@ -5859,7 +5859,7 @@
         <v>205</v>
       </c>
       <c r="G180" s="2">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="H180" s="2" t="s">
         <v>206</v>
@@ -5870,13 +5870,13 @@
         <v>207</v>
       </c>
       <c r="B181" s="2">
-        <v>45629.33733796296</v>
+        <v>45629.29056712963</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2">
-        <v>45629.6686574074</v>
+        <v>45629.6875</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>10</v>
@@ -5885,7 +5885,7 @@
         <v>205</v>
       </c>
       <c r="G181" s="2">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="H181" s="2" t="s">
         <v>206</v>
@@ -5896,13 +5896,13 @@
         <v>208</v>
       </c>
       <c r="B182" s="2">
-        <v>45629.34673611111</v>
+        <v>45629.62113425926</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2">
-        <v>45629.66907407407</v>
+        <v>45629.95541666666</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>10</v>
@@ -5911,7 +5911,7 @@
         <v>209</v>
       </c>
       <c r="G182" s="2">
-        <v>15</v>
+        <v>17.25</v>
       </c>
       <c r="H182" s="2" t="s">
         <v>210</v>
@@ -5922,13 +5922,13 @@
         <v>211</v>
       </c>
       <c r="B183" s="2">
-        <v>45629.94799768519</v>
+        <v>45629.34673611111</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2">
-        <v>45630.29813657407</v>
+        <v>45629.66907407407</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>10</v>
@@ -5937,7 +5937,7 @@
         <v>209</v>
       </c>
       <c r="G183" s="2">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="H183" s="2" t="s">
         <v>210</v>
@@ -5948,13 +5948,13 @@
         <v>212</v>
       </c>
       <c r="B184" s="2">
-        <v>45629.34182870371</v>
+        <v>45629.94799768519</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2">
-        <v>45629.63018518518</v>
+        <v>45630.29813657407</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>10</v>
@@ -5963,7 +5963,7 @@
         <v>209</v>
       </c>
       <c r="G184" s="2">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="H184" s="2" t="s">
         <v>210</v>
@@ -6000,13 +6000,13 @@
         <v>214</v>
       </c>
       <c r="B186" s="2">
-        <v>45629.62113425926</v>
+        <v>45629.34182870371</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2">
-        <v>45629.95541666666</v>
+        <v>45629.63018518518</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>10</v>
@@ -6015,7 +6015,7 @@
         <v>209</v>
       </c>
       <c r="G186" s="2">
-        <v>17.25</v>
+        <v>22</v>
       </c>
       <c r="H186" s="2" t="s">
         <v>210</v>
@@ -6026,13 +6026,13 @@
         <v>215</v>
       </c>
       <c r="B187" s="2">
-        <v>45629.40035879629</v>
+        <v>45629.3308912037</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2">
-        <v>45629.56696759259</v>
+        <v>45629.6669212963</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>10</v>
@@ -6041,7 +6041,7 @@
         <v>216</v>
       </c>
       <c r="G187" s="2">
-        <v>15</v>
+        <v>21.96</v>
       </c>
       <c r="H187" s="2" t="s">
         <v>217</v>
@@ -6052,16 +6052,16 @@
         <v>218</v>
       </c>
       <c r="B188" s="2">
-        <v>45629.39275462963</v>
+        <v>45629.66666666666</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D188" s="2">
-        <v>45629.63232638889</v>
+        <v>45629.66666666666</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>216</v>
@@ -6078,16 +6078,16 @@
         <v>218</v>
       </c>
       <c r="B189" s="2">
-        <v>45629.66666666666</v>
+        <v>45629.39275462963</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2">
-        <v>45629.66666666666</v>
+        <v>45629.63232638889</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>216</v>
@@ -6104,22 +6104,22 @@
         <v>219</v>
       </c>
       <c r="B190" s="2">
-        <v>45629.33333333334</v>
+        <v>45629.31221064815</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2">
-        <v>45629.33333333334</v>
+        <v>45629.55863425926</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G190" s="2">
-        <v>16.61</v>
+        <v>16</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>217</v>
@@ -6130,13 +6130,13 @@
         <v>220</v>
       </c>
       <c r="B191" s="2">
-        <v>45629.3308912037</v>
+        <v>45629.40035879629</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2">
-        <v>45629.6669212963</v>
+        <v>45629.56696759259</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>10</v>
@@ -6145,7 +6145,7 @@
         <v>216</v>
       </c>
       <c r="G191" s="2">
-        <v>21.96</v>
+        <v>15</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>217</v>
@@ -6156,22 +6156,22 @@
         <v>221</v>
       </c>
       <c r="B192" s="2">
-        <v>45629.31221064815</v>
+        <v>45629.33333333334</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D192" s="2">
-        <v>45629.55863425926</v>
+        <v>45629.33333333334</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G192" s="2">
-        <v>16</v>
+        <v>16.61</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>217</v>
@@ -6205,13 +6205,13 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B194" s="2">
         <v>45629.50883101852</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D194" s="2">
         <v>45629.58449074074</v>
@@ -6243,7 +6243,7 @@
         <v>45629.5</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>225</v>
@@ -6390,22 +6390,22 @@
         <v>239</v>
       </c>
       <c r="B201" s="2">
-        <v>45629.31268518518</v>
+        <v>45629.32731481481</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2">
-        <v>45629.47756944445</v>
+        <v>45629.51201388889</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>240</v>
       </c>
       <c r="G201" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H201" s="2" t="s">
         <v>241</v>
@@ -6413,16 +6413,16 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="2" t="s">
-        <v>242</v>
+        <v>122</v>
       </c>
       <c r="B202" s="2">
-        <v>45629.50064814815</v>
+        <v>45629.52083333334</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D202" s="2">
-        <v>45629.67574074074</v>
+        <v>45629.69444444445</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>10</v>
@@ -6431,7 +6431,7 @@
         <v>240</v>
       </c>
       <c r="G202" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H202" s="2" t="s">
         <v>241</v>
@@ -6439,16 +6439,16 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="2" t="s">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="B203" s="2">
-        <v>45629.52083333334</v>
+        <v>45629.55542824074</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D203" s="2">
-        <v>45629.69444444445</v>
+        <v>45629.67590277778</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>10</v>
@@ -6457,7 +6457,7 @@
         <v>240</v>
       </c>
       <c r="G203" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H203" s="2" t="s">
         <v>241</v>
@@ -6465,25 +6465,25 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B204" s="2">
-        <v>45629.32731481481</v>
+        <v>45629.31773148148</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2">
-        <v>45629.51201388889</v>
+        <v>45629.63546296296</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>240</v>
       </c>
       <c r="G204" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H204" s="2" t="s">
         <v>241</v>
@@ -6494,13 +6494,13 @@
         <v>243</v>
       </c>
       <c r="B205" s="2">
-        <v>45629.55542824074</v>
+        <v>45629.33283564815</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2">
-        <v>45629.67590277778</v>
+        <v>45629.50179398148</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>10</v>
@@ -6509,7 +6509,7 @@
         <v>240</v>
       </c>
       <c r="G205" s="2">
-        <v>17</v>
+        <v>18.55</v>
       </c>
       <c r="H205" s="2" t="s">
         <v>241</v>
@@ -6517,25 +6517,25 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="2" t="s">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="B206" s="2">
-        <v>45629.31773148148</v>
+        <v>45629.33810185185</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2">
-        <v>45629.63546296296</v>
+        <v>45629.50878472222</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>240</v>
       </c>
       <c r="G206" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H206" s="2" t="s">
         <v>241</v>
@@ -6543,16 +6543,16 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="2" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B207" s="2">
-        <v>45629.33283564815</v>
+        <v>45629.52083333334</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D207" s="2">
-        <v>45629.50179398148</v>
+        <v>45629.69791666666</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>10</v>
@@ -6561,7 +6561,7 @@
         <v>240</v>
       </c>
       <c r="G207" s="2">
-        <v>18.55</v>
+        <v>18</v>
       </c>
       <c r="H207" s="2" t="s">
         <v>241</v>
@@ -6569,19 +6569,19 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B208" s="2">
-        <v>45629.32603009259</v>
+        <v>45629.50064814815</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D208" s="2">
-        <v>45629.48259259259</v>
+        <v>45629.67574074074</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>240</v>
@@ -6595,25 +6595,25 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="2" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="B209" s="2">
-        <v>45629.52083333334</v>
+        <v>45629.32603009259</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2">
-        <v>45629.69791666666</v>
+        <v>45629.48259259259</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>240</v>
       </c>
       <c r="G209" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H209" s="2" t="s">
         <v>241</v>
@@ -6621,16 +6621,16 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B210" s="2">
-        <v>45629.32215277778</v>
+        <v>45629.31268518518</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2">
-        <v>45629.70288194445</v>
+        <v>45629.47756944445</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>10</v>
@@ -6639,7 +6639,7 @@
         <v>240</v>
       </c>
       <c r="G210" s="2">
-        <v>20.5</v>
+        <v>16</v>
       </c>
       <c r="H210" s="2" t="s">
         <v>241</v>
@@ -6647,25 +6647,25 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="2" t="s">
-        <v>57</v>
+        <v>246</v>
       </c>
       <c r="B211" s="2">
-        <v>45629.33810185185</v>
+        <v>45629.32215277778</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2">
-        <v>45629.50878472222</v>
+        <v>45629.70288194445</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>240</v>
       </c>
       <c r="G211" s="2">
-        <v>16</v>
+        <v>20.5</v>
       </c>
       <c r="H211" s="2" t="s">
         <v>241</v>
@@ -6679,7 +6679,7 @@
         <v>45629.56255787037</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D212" s="2">
         <v>45629.76052083333</v>
@@ -6699,25 +6699,25 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B213" s="2">
-        <v>45629.27158564814</v>
+        <v>45629.276875</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2">
-        <v>45629.37204861111</v>
+        <v>45629.5456712963</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>248</v>
       </c>
       <c r="G213" s="2">
-        <v>20</v>
+        <v>17.72</v>
       </c>
       <c r="H213" s="2" t="s">
         <v>249</v>
@@ -6731,7 +6731,7 @@
         <v>45629.40923611111</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D214" s="2">
         <v>45629.51766203704</v>
@@ -6754,22 +6754,22 @@
         <v>251</v>
       </c>
       <c r="B215" s="2">
-        <v>45629.34896990741</v>
+        <v>45629.50074074074</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2">
-        <v>45629.56137731481</v>
+        <v>45629.6700462963</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>248</v>
       </c>
       <c r="G215" s="2">
-        <v>23</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H215" s="2" t="s">
         <v>249</v>
@@ -6777,13 +6777,13 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B216" s="2">
         <v>45629.5822337963</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D216" s="2">
         <v>45629.69362268518</v>
@@ -6803,25 +6803,25 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B217" s="2">
-        <v>45629.50074074074</v>
+        <v>45629.27158564814</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2">
-        <v>45629.6700462963</v>
+        <v>45629.37204861111</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>248</v>
       </c>
       <c r="G217" s="2">
-        <v>9.300000000000001</v>
+        <v>20</v>
       </c>
       <c r="H217" s="2" t="s">
         <v>249</v>
@@ -6829,25 +6829,25 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B218" s="2">
-        <v>45629.276875</v>
+        <v>45629.34896990741</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2">
-        <v>45629.5456712963</v>
+        <v>45629.56137731481</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>248</v>
       </c>
       <c r="G218" s="2">
-        <v>17.72</v>
+        <v>23</v>
       </c>
       <c r="H218" s="2" t="s">
         <v>249</v>
@@ -6945,7 +6945,7 @@
         <v>45629.50576388889</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>260</v>
@@ -6959,25 +6959,25 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B223" s="2">
-        <v>45629.53954861111</v>
+        <v>45629.33333333334</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="D223" s="2">
-        <v>45629.71548611111</v>
+        <v>45629.33333333334</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>260</v>
       </c>
       <c r="G223" s="2">
-        <v>23.27</v>
+        <v>0</v>
       </c>
       <c r="H223" s="2" t="s">
         <v>261</v>
@@ -6985,25 +6985,25 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B224" s="2">
-        <v>45629.33333333334</v>
+        <v>45629.53954861111</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="D224" s="2">
-        <v>45629.33333333334</v>
+        <v>45629.71548611111</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>260</v>
       </c>
       <c r="G224" s="2">
-        <v>0</v>
+        <v>23.27</v>
       </c>
       <c r="H224" s="2" t="s">
         <v>261</v>
@@ -7014,13 +7014,13 @@
         <v>263</v>
       </c>
       <c r="B225" s="2">
-        <v>45629.34313657408</v>
+        <v>45629.4172337963</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2">
-        <v>45629.67185185185</v>
+        <v>45629.79166666666</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>10</v>
@@ -7029,7 +7029,7 @@
         <v>264</v>
       </c>
       <c r="G225" s="2">
-        <v>26.45</v>
+        <v>16</v>
       </c>
       <c r="H225" s="2" t="s">
         <v>127</v>
@@ -7040,13 +7040,13 @@
         <v>265</v>
       </c>
       <c r="B226" s="2">
-        <v>45629.375</v>
+        <v>45629.34313657408</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2">
-        <v>45629.79166666666</v>
+        <v>45629.67185185185</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>10</v>
@@ -7055,7 +7055,7 @@
         <v>264</v>
       </c>
       <c r="G226" s="2">
-        <v>24.04</v>
+        <v>26.45</v>
       </c>
       <c r="H226" s="2" t="s">
         <v>127</v>
@@ -7066,7 +7066,7 @@
         <v>266</v>
       </c>
       <c r="B227" s="2">
-        <v>45629.4172337963</v>
+        <v>45629.375</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
@@ -7081,7 +7081,7 @@
         <v>264</v>
       </c>
       <c r="G227" s="2">
-        <v>16</v>
+        <v>24.04</v>
       </c>
       <c r="H227" s="2" t="s">
         <v>127</v>

--- a/reports/For The Day (Prior Year)_Payroll.xlsx
+++ b/reports/For The Day (Prior Year)_Payroll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="200">
   <si>
     <t>eecode</t>
   </si>
@@ -46,7 +46,7 @@
     <t>DepartmentTitle</t>
   </si>
   <si>
-    <t>A0P4</t>
+    <t>A607</t>
   </si>
   <si>
     <t>ID</t>
@@ -61,244 +61,229 @@
     <t>Lift Operations</t>
   </si>
   <si>
-    <t>B746</t>
-  </si>
-  <si>
-    <t>G125</t>
-  </si>
-  <si>
-    <t>A25Z</t>
-  </si>
-  <si>
-    <t>A2AN</t>
-  </si>
-  <si>
-    <t>A1ZJ</t>
-  </si>
-  <si>
-    <t>H665</t>
-  </si>
-  <si>
-    <t>A2G3</t>
-  </si>
-  <si>
-    <t>D399</t>
-  </si>
-  <si>
-    <t>A0QF</t>
-  </si>
-  <si>
-    <t>A2FO</t>
-  </si>
-  <si>
-    <t>A20Y</t>
-  </si>
-  <si>
-    <t>A28D</t>
-  </si>
-  <si>
-    <t>A2G2</t>
-  </si>
-  <si>
-    <t>A2G4</t>
-  </si>
-  <si>
-    <t>I342</t>
-  </si>
-  <si>
-    <t>A2FM</t>
-  </si>
-  <si>
-    <t>B778</t>
-  </si>
-  <si>
-    <t>B197</t>
-  </si>
-  <si>
-    <t>A27B</t>
-  </si>
-  <si>
-    <t>A28L</t>
-  </si>
-  <si>
-    <t>D519</t>
+    <t>J559</t>
+  </si>
+  <si>
+    <t>A2CL</t>
+  </si>
+  <si>
+    <t>A280</t>
+  </si>
+  <si>
+    <t>A0OV</t>
+  </si>
+  <si>
+    <t>A2DR</t>
+  </si>
+  <si>
+    <t>A0QB</t>
+  </si>
+  <si>
+    <t>A2BX</t>
+  </si>
+  <si>
+    <t>J323</t>
+  </si>
+  <si>
+    <t>D816</t>
+  </si>
+  <si>
+    <t>A0Q5</t>
+  </si>
+  <si>
+    <t>F058</t>
+  </si>
+  <si>
+    <t>I304</t>
+  </si>
+  <si>
+    <t>A161</t>
+  </si>
+  <si>
+    <t>C282</t>
+  </si>
+  <si>
+    <t>H632</t>
+  </si>
+  <si>
+    <t>A0BS</t>
+  </si>
+  <si>
+    <t>A2CJ</t>
+  </si>
+  <si>
+    <t>B202</t>
+  </si>
+  <si>
+    <t>G138</t>
+  </si>
+  <si>
+    <t>D776</t>
+  </si>
+  <si>
+    <t>H777</t>
+  </si>
+  <si>
+    <t>D954</t>
+  </si>
+  <si>
+    <t>A1VF</t>
+  </si>
+  <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>Lift Maintenance</t>
+  </si>
+  <si>
+    <t>E657</t>
+  </si>
+  <si>
+    <t>B221</t>
+  </si>
+  <si>
+    <t>H095</t>
+  </si>
+  <si>
+    <t>I384</t>
+  </si>
+  <si>
+    <t>A20W</t>
+  </si>
+  <si>
+    <t>D1030</t>
+  </si>
+  <si>
+    <t>Snowmaking</t>
+  </si>
+  <si>
+    <t>A0QK</t>
+  </si>
+  <si>
+    <t>J561</t>
+  </si>
+  <si>
+    <t>A13B</t>
+  </si>
+  <si>
+    <t>A675</t>
+  </si>
+  <si>
+    <t>A2QO</t>
+  </si>
+  <si>
+    <t>A2DK</t>
+  </si>
+  <si>
+    <t>A0QH</t>
+  </si>
+  <si>
+    <t>I305</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>Trail Maintenance</t>
+  </si>
+  <si>
+    <t>I806</t>
+  </si>
+  <si>
+    <t>C349</t>
+  </si>
+  <si>
+    <t>A468</t>
+  </si>
+  <si>
+    <t>E420</t>
+  </si>
+  <si>
+    <t>A20A</t>
+  </si>
+  <si>
+    <t>D1100</t>
+  </si>
+  <si>
+    <t>Vehicle Maintenance</t>
+  </si>
+  <si>
+    <t>B567</t>
+  </si>
+  <si>
+    <t>A1OP</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>Ski Patrol</t>
+  </si>
+  <si>
+    <t>A400</t>
+  </si>
+  <si>
+    <t>D619</t>
+  </si>
+  <si>
+    <t>G573</t>
+  </si>
+  <si>
+    <t>F124</t>
+  </si>
+  <si>
+    <t>E835</t>
+  </si>
+  <si>
+    <t>D576</t>
+  </si>
+  <si>
+    <t>E660</t>
+  </si>
+  <si>
+    <t>A235</t>
+  </si>
+  <si>
+    <t>F013</t>
+  </si>
+  <si>
+    <t>G381</t>
+  </si>
+  <si>
+    <t>F959</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t>A2H6</t>
+  </si>
+  <si>
+    <t>A24L</t>
+  </si>
+  <si>
+    <t>A2FK</t>
+  </si>
+  <si>
+    <t>A1F9</t>
+  </si>
+  <si>
+    <t>G675</t>
   </si>
   <si>
     <t>HR</t>
   </si>
   <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>Lift Maintenance</t>
-  </si>
-  <si>
-    <t>C492</t>
-  </si>
-  <si>
-    <t>E270</t>
-  </si>
-  <si>
-    <t>A22D</t>
-  </si>
-  <si>
-    <t>E302</t>
-  </si>
-  <si>
-    <t>H931</t>
-  </si>
-  <si>
-    <t>D1030</t>
-  </si>
-  <si>
-    <t>Snowmaking</t>
-  </si>
-  <si>
-    <t>A23C</t>
-  </si>
-  <si>
-    <t>A1ZX</t>
-  </si>
-  <si>
-    <t>F787</t>
-  </si>
-  <si>
-    <t>C666</t>
-  </si>
-  <si>
-    <t>A449</t>
-  </si>
-  <si>
-    <t>A20O</t>
-  </si>
-  <si>
-    <t>I238</t>
-  </si>
-  <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>Terrain Park</t>
-  </si>
-  <si>
-    <t>F499</t>
-  </si>
-  <si>
-    <t>H125</t>
-  </si>
-  <si>
-    <t>H731</t>
-  </si>
-  <si>
-    <t>D941</t>
-  </si>
-  <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>Trail Maintenance</t>
-  </si>
-  <si>
-    <t>A1T8</t>
-  </si>
-  <si>
-    <t>J169</t>
-  </si>
-  <si>
-    <t>A2UN</t>
-  </si>
-  <si>
-    <t>A0H1</t>
-  </si>
-  <si>
-    <t>C653</t>
-  </si>
-  <si>
-    <t>A22N</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>Vehicle Maintenance</t>
-  </si>
-  <si>
-    <t>A0RD</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>E471</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>Ski Patrol</t>
-  </si>
-  <si>
-    <t>H620</t>
-  </si>
-  <si>
-    <t>H474</t>
-  </si>
-  <si>
-    <t>E520</t>
-  </si>
-  <si>
-    <t>D494</t>
-  </si>
-  <si>
-    <t>A0JG</t>
-  </si>
-  <si>
-    <t>F946</t>
-  </si>
-  <si>
-    <t>J024</t>
-  </si>
-  <si>
-    <t>B878</t>
-  </si>
-  <si>
-    <t>G076</t>
-  </si>
-  <si>
-    <t>B162</t>
-  </si>
-  <si>
-    <t>B898</t>
-  </si>
-  <si>
-    <t>I403</t>
-  </si>
-  <si>
-    <t>A2O6</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>Tickets</t>
-  </si>
-  <si>
-    <t>A0DP</t>
-  </si>
-  <si>
-    <t>A1BR</t>
-  </si>
-  <si>
-    <t>A511</t>
-  </si>
-  <si>
-    <t>G910</t>
-  </si>
-  <si>
-    <t>G292</t>
+    <t>A25J</t>
+  </si>
+  <si>
+    <t>E721</t>
+  </si>
+  <si>
+    <t>A0ZW</t>
   </si>
   <si>
     <t>D2000</t>
@@ -307,106 +292,19 @@
     <t>Ski School</t>
   </si>
   <si>
-    <t>E715</t>
-  </si>
-  <si>
-    <t>F361</t>
-  </si>
-  <si>
-    <t>A196</t>
-  </si>
-  <si>
-    <t>A0D7</t>
-  </si>
-  <si>
-    <t>A27U</t>
-  </si>
-  <si>
-    <t>A27C</t>
-  </si>
-  <si>
-    <t>F403</t>
-  </si>
-  <si>
-    <t>A26E</t>
-  </si>
-  <si>
-    <t>I932</t>
-  </si>
-  <si>
-    <t>A2AH</t>
-  </si>
-  <si>
-    <t>A2J8</t>
-  </si>
-  <si>
-    <t>J038</t>
-  </si>
-  <si>
-    <t>F596</t>
-  </si>
-  <si>
-    <t>D407</t>
-  </si>
-  <si>
-    <t>J352</t>
-  </si>
-  <si>
-    <t>A2AK</t>
-  </si>
-  <si>
-    <t>H440</t>
-  </si>
-  <si>
-    <t>A2AI</t>
-  </si>
-  <si>
-    <t>A29N</t>
-  </si>
-  <si>
-    <t>C655</t>
-  </si>
-  <si>
-    <t>A24M</t>
-  </si>
-  <si>
-    <t>A2SF</t>
-  </si>
-  <si>
-    <t>A2G8</t>
-  </si>
-  <si>
-    <t>A24U</t>
-  </si>
-  <si>
-    <t>A2TX</t>
-  </si>
-  <si>
-    <t>A27J</t>
-  </si>
-  <si>
-    <t>G179</t>
-  </si>
-  <si>
-    <t>A1KS</t>
-  </si>
-  <si>
-    <t>A0FQ</t>
-  </si>
-  <si>
-    <t>A2W1</t>
-  </si>
-  <si>
-    <t>D2200</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>A2W0</t>
-  </si>
-  <si>
-    <t>A0SZ</t>
+    <t>A197</t>
+  </si>
+  <si>
+    <t>G605</t>
+  </si>
+  <si>
+    <t>F894</t>
+  </si>
+  <si>
+    <t>E190</t>
+  </si>
+  <si>
+    <t>A2OJ</t>
   </si>
   <si>
     <t>D3000</t>
@@ -415,223 +313,178 @@
     <t>Rentals</t>
   </si>
   <si>
-    <t>A1CS</t>
-  </si>
-  <si>
-    <t>A2AA</t>
-  </si>
-  <si>
-    <t>D126</t>
-  </si>
-  <si>
-    <t>E582</t>
-  </si>
-  <si>
-    <t>B637</t>
-  </si>
-  <si>
-    <t>A0XT</t>
-  </si>
-  <si>
-    <t>J071</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
-  </si>
-  <si>
-    <t>D510</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>A2HI</t>
-  </si>
-  <si>
-    <t>C173</t>
-  </si>
-  <si>
-    <t>G111</t>
-  </si>
-  <si>
-    <t>E547</t>
-  </si>
-  <si>
-    <t>D224</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>A2JC</t>
-  </si>
-  <si>
-    <t>A15G</t>
-  </si>
-  <si>
-    <t>I552</t>
-  </si>
-  <si>
-    <t>A332</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>I308</t>
-  </si>
-  <si>
-    <t>E655</t>
-  </si>
-  <si>
-    <t>A1KM</t>
-  </si>
-  <si>
-    <t>E051</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t>C557</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>C149</t>
-  </si>
-  <si>
-    <t>A2U7</t>
-  </si>
-  <si>
-    <t>A2U8</t>
-  </si>
-  <si>
-    <t>I216</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>Paradise</t>
-  </si>
-  <si>
-    <t>A22O</t>
-  </si>
-  <si>
-    <t>A20D</t>
-  </si>
-  <si>
-    <t>A739</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>E296</t>
-  </si>
-  <si>
-    <t>D499</t>
-  </si>
-  <si>
-    <t>A2HM</t>
-  </si>
-  <si>
-    <t>E437</t>
-  </si>
-  <si>
-    <t>A2I0</t>
-  </si>
-  <si>
-    <t>A2JB</t>
-  </si>
-  <si>
-    <t>C516</t>
-  </si>
-  <si>
-    <t>A0T1</t>
-  </si>
-  <si>
-    <t>A18A</t>
-  </si>
-  <si>
-    <t>A2US</t>
-  </si>
-  <si>
-    <t>H608</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>A2I4</t>
-  </si>
-  <si>
-    <t>J434</t>
-  </si>
-  <si>
-    <t>J465</t>
-  </si>
-  <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>Functions</t>
-  </si>
-  <si>
-    <t>D283</t>
-  </si>
-  <si>
-    <t>D6212</t>
-  </si>
-  <si>
-    <t>Purgatory</t>
-  </si>
-  <si>
-    <t>F298</t>
-  </si>
-  <si>
-    <t>A0AQ</t>
-  </si>
-  <si>
-    <t>F423</t>
-  </si>
-  <si>
-    <t>A22R</t>
-  </si>
-  <si>
-    <t>B276</t>
-  </si>
-  <si>
-    <t>A1N1</t>
-  </si>
-  <si>
-    <t>J492</t>
+    <t>A2BQ</t>
+  </si>
+  <si>
+    <t>A842</t>
+  </si>
+  <si>
+    <t>A2PN</t>
+  </si>
+  <si>
+    <t>A2PM</t>
+  </si>
+  <si>
+    <t>A2I3</t>
+  </si>
+  <si>
+    <t>A2IB</t>
+  </si>
+  <si>
+    <t>A2I9</t>
+  </si>
+  <si>
+    <t>A0RX</t>
+  </si>
+  <si>
+    <t>I424</t>
+  </si>
+  <si>
+    <t>A2PL</t>
+  </si>
+  <si>
+    <t>D259</t>
+  </si>
+  <si>
+    <t>H439</t>
+  </si>
+  <si>
+    <t>E825</t>
+  </si>
+  <si>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>Rental Repair Shop</t>
+  </si>
+  <si>
+    <t>G987</t>
+  </si>
+  <si>
+    <t>B622</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t>A2IE</t>
+  </si>
+  <si>
+    <t>A2L1</t>
+  </si>
+  <si>
+    <t>C217</t>
+  </si>
+  <si>
+    <t>A2TC</t>
+  </si>
+  <si>
+    <t>D4034</t>
+  </si>
+  <si>
+    <t>Fort Valley Lodge</t>
+  </si>
+  <si>
+    <t>A2KU</t>
+  </si>
+  <si>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t>A464</t>
+  </si>
+  <si>
+    <t>A0TT</t>
+  </si>
+  <si>
+    <t>A1K2</t>
+  </si>
+  <si>
+    <t>F486</t>
+  </si>
+  <si>
+    <t>D676</t>
+  </si>
+  <si>
+    <t>A2KI</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t>A2K5</t>
+  </si>
+  <si>
+    <t>A0VA</t>
+  </si>
+  <si>
+    <t>B302</t>
+  </si>
+  <si>
+    <t>F346</t>
+  </si>
+  <si>
+    <t>A2KK</t>
+  </si>
+  <si>
+    <t>B006</t>
+  </si>
+  <si>
+    <t>G515</t>
+  </si>
+  <si>
+    <t>C926</t>
+  </si>
+  <si>
+    <t>H310</t>
+  </si>
+  <si>
+    <t>H848</t>
+  </si>
+  <si>
+    <t>A04U</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t>A1K9</t>
+  </si>
+  <si>
+    <t>A22Z</t>
+  </si>
+  <si>
+    <t>C348</t>
+  </si>
+  <si>
+    <t>D6030</t>
+  </si>
+  <si>
+    <t>Base Camp Hotel</t>
+  </si>
+  <si>
+    <t>A542</t>
+  </si>
+  <si>
+    <t>H083</t>
+  </si>
+  <si>
+    <t>E926</t>
+  </si>
+  <si>
+    <t>A27Z</t>
   </si>
   <si>
     <t>D6215</t>
@@ -640,37 +493,10 @@
     <t>Housekeeping</t>
   </si>
   <si>
-    <t>G955</t>
-  </si>
-  <si>
-    <t>I060</t>
-  </si>
-  <si>
-    <t>G956</t>
-  </si>
-  <si>
-    <t>J489</t>
-  </si>
-  <si>
-    <t>C825</t>
-  </si>
-  <si>
-    <t>D6700</t>
-  </si>
-  <si>
-    <t>Resort Services G&amp;A</t>
-  </si>
-  <si>
-    <t>A2S6</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>Guest Services</t>
-  </si>
-  <si>
-    <t>E877</t>
+    <t>A2HX</t>
+  </si>
+  <si>
+    <t>A0RB</t>
   </si>
   <si>
     <t>D6721</t>
@@ -679,7 +505,13 @@
     <t>Parking</t>
   </si>
   <si>
-    <t>I836</t>
+    <t>B2SP</t>
+  </si>
+  <si>
+    <t>A0R9</t>
+  </si>
+  <si>
+    <t>A1SS</t>
   </si>
   <si>
     <t>D6730</t>
@@ -688,22 +520,37 @@
     <t>Security</t>
   </si>
   <si>
-    <t>A976</t>
-  </si>
-  <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>A2DH</t>
-  </si>
-  <si>
-    <t>A28C</t>
-  </si>
-  <si>
-    <t>A2JA</t>
+    <t>B322</t>
+  </si>
+  <si>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>Janitorial</t>
+  </si>
+  <si>
+    <t>A2GP</t>
+  </si>
+  <si>
+    <t>C947</t>
+  </si>
+  <si>
+    <t>A2GO</t>
+  </si>
+  <si>
+    <t>A1YM</t>
+  </si>
+  <si>
+    <t>A0IJ</t>
+  </si>
+  <si>
+    <t>D6760</t>
+  </si>
+  <si>
+    <t>Facilities Maintenance</t>
+  </si>
+  <si>
+    <t>A173</t>
   </si>
   <si>
     <t>D6780</t>
@@ -712,22 +559,7 @@
     <t>Grounds Maintenance</t>
   </si>
   <si>
-    <t>A605</t>
-  </si>
-  <si>
-    <t>A0HT</t>
-  </si>
-  <si>
-    <t>A2N0</t>
-  </si>
-  <si>
-    <t>E609</t>
-  </si>
-  <si>
-    <t>G859</t>
-  </si>
-  <si>
-    <t>A26A</t>
+    <t>H094</t>
   </si>
   <si>
     <t>D6790</t>
@@ -736,37 +568,7 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>A03K</t>
-  </si>
-  <si>
-    <t>J483</t>
-  </si>
-  <si>
-    <t>A0ZP</t>
-  </si>
-  <si>
-    <t>A2BI</t>
-  </si>
-  <si>
-    <t>A1Z8</t>
-  </si>
-  <si>
-    <t>D7000</t>
-  </si>
-  <si>
-    <t>Marketing G&amp;A</t>
-  </si>
-  <si>
-    <t>A492</t>
-  </si>
-  <si>
-    <t>D7010</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>D737</t>
+    <t>A393</t>
   </si>
   <si>
     <t>D8020</t>
@@ -775,22 +577,19 @@
     <t>Accounting</t>
   </si>
   <si>
-    <t>A2KR</t>
+    <t>G582</t>
+  </si>
+  <si>
+    <t>D575</t>
   </si>
   <si>
     <t>D8040</t>
   </si>
   <si>
-    <t>A0Q0</t>
-  </si>
-  <si>
-    <t>A02N</t>
-  </si>
-  <si>
-    <t>H962</t>
-  </si>
-  <si>
-    <t>A23L</t>
+    <t>A523</t>
+  </si>
+  <si>
+    <t>B785</t>
   </si>
   <si>
     <t>D8060</t>
@@ -799,7 +598,22 @@
     <t>IT Services</t>
   </si>
   <si>
-    <t>A1ZP</t>
+    <t>F295</t>
+  </si>
+  <si>
+    <t>E684</t>
+  </si>
+  <si>
+    <t>D9007</t>
+  </si>
+  <si>
+    <t>Capital Project 8</t>
+  </si>
+  <si>
+    <t>F514</t>
+  </si>
+  <si>
+    <t>F703</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +976,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J208"/>
+  <dimension ref="A1:J156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1176,7 +990,7 @@
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1216,13 +1030,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>45636.31260416667</v>
+        <v>45636.32416666667</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>45636.71636574074</v>
+        <v>45636.69243055556</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -1231,7 +1045,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="2">
-        <v>15.5</v>
+        <v>17.75</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -1248,13 +1062,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>45636.3018287037</v>
+        <v>45636.32331018519</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>45636.72489583334</v>
+        <v>45636.69197916667</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1263,7 +1077,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="2">
-        <v>19</v>
+        <v>17.75</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1280,13 +1094,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>45636.31579861111</v>
+        <v>45636.32956018519</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>45636.70833333334</v>
+        <v>45636.69137731481</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -1295,7 +1109,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="2">
-        <v>15.5</v>
+        <v>17.85</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1312,13 +1126,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>45636.32291666666</v>
+        <v>45636.33333333334</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>45636.6875</v>
+        <v>45636.71527777778</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -1327,7 +1141,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="2">
-        <v>15.5</v>
+        <v>19.15</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1344,13 +1158,13 @@
         <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>45636.32291666666</v>
+        <v>45636.32376157407</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>45636.71875</v>
+        <v>45636.69775462963</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -1359,7 +1173,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="2">
-        <v>14.5</v>
+        <v>17.4</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1376,13 +1190,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>45636.32232638889</v>
+        <v>45636.32743055555</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>45636.66362268518</v>
+        <v>45636.68295138889</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -1391,7 +1205,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="2">
-        <v>14.5</v>
+        <v>17.85</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1408,13 +1222,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>45636.30189814815</v>
+        <v>45636.32335648148</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2">
-        <v>45636.72474537037</v>
+        <v>45636.69202546297</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -1423,7 +1237,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="2">
-        <v>20.57</v>
+        <v>17.4</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1440,13 +1254,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>45636.3184375</v>
+        <v>45636.32848379629</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>45636.6733912037</v>
+        <v>45636.69791666666</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -1455,7 +1269,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="2">
-        <v>15</v>
+        <v>17.85</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1472,13 +1286,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>45636.30212962963</v>
+        <v>45636.33333333334</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2">
-        <v>45636.72452546296</v>
+        <v>45636.69791666666</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
@@ -1487,7 +1301,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="2">
-        <v>21.68</v>
+        <v>16.8</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1504,13 +1318,13 @@
         <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>45636.31243055555</v>
+        <v>45636.3250462963</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2">
-        <v>45636.72060185186</v>
+        <v>45636.69918981481</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
@@ -1519,7 +1333,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="2">
-        <v>15.5</v>
+        <v>17.65</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1536,13 +1350,13 @@
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>45636.31111111111</v>
+        <v>45636.32508101852</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>45636.72040509259</v>
+        <v>45636.69851851852</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
@@ -1551,7 +1365,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="2">
-        <v>15.5</v>
+        <v>17.4</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1568,13 +1382,13 @@
         <v>25</v>
       </c>
       <c r="B13" s="2">
-        <v>45636.37512731482</v>
+        <v>45636.33070601852</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>45636.68212962963</v>
+        <v>45636.70157407408</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
@@ -1583,7 +1397,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="2">
-        <v>15.5</v>
+        <v>18.25</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1600,13 +1414,13 @@
         <v>26</v>
       </c>
       <c r="B14" s="2">
-        <v>45636.32753472222</v>
+        <v>45636.32291666666</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="2">
-        <v>45636.72046296296</v>
+        <v>45636.7059837963</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
@@ -1615,7 +1429,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="2">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1632,13 +1446,13 @@
         <v>27</v>
       </c>
       <c r="B15" s="2">
-        <v>45636.31932870371</v>
+        <v>45636.32291666666</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>45636.72189814815</v>
+        <v>45636.69444444445</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -1664,13 +1478,13 @@
         <v>28</v>
       </c>
       <c r="B16" s="2">
-        <v>45636.31662037037</v>
+        <v>45636.31857638889</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="2">
-        <v>45636.72222222222</v>
+        <v>45636.70447916666</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>12</v>
@@ -1679,7 +1493,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="2">
-        <v>15.5</v>
+        <v>17.75</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1696,13 +1510,13 @@
         <v>29</v>
       </c>
       <c r="B17" s="2">
-        <v>45636.30200231481</v>
+        <v>45636.32197916666</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="2">
-        <v>45636.72464120371</v>
+        <v>45636.71009259259</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -1711,7 +1525,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="2">
-        <v>19</v>
+        <v>24.35</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1728,13 +1542,13 @@
         <v>30</v>
       </c>
       <c r="B18" s="2">
-        <v>45636.31168981481</v>
+        <v>45636.32818287037</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="2">
-        <v>45636.52083333334</v>
+        <v>45636.69041666666</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
@@ -1743,7 +1557,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="2">
-        <v>15</v>
+        <v>17.4</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1760,13 +1574,13 @@
         <v>31</v>
       </c>
       <c r="B19" s="2">
-        <v>45636.31302083333</v>
+        <v>45636.32291666666</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="2">
-        <v>45636.68563657408</v>
+        <v>45636.69145833333</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
@@ -1775,7 +1589,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="2">
-        <v>15.5</v>
+        <v>17.85</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1792,13 +1606,13 @@
         <v>32</v>
       </c>
       <c r="B20" s="2">
-        <v>45636.29642361111</v>
+        <v>45636.32638888889</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="2">
-        <v>45636.68305555556</v>
+        <v>45636.70138888889</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>12</v>
@@ -1807,7 +1621,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="2">
-        <v>19.57</v>
+        <v>17.75</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1824,13 +1638,13 @@
         <v>33</v>
       </c>
       <c r="B21" s="2">
-        <v>45636.30349537037</v>
+        <v>45636.33363425926</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="2">
-        <v>45636.71599537037</v>
+        <v>45636.69797453703</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>12</v>
@@ -1839,7 +1653,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="2">
-        <v>15.5</v>
+        <v>17.4</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1856,13 +1670,13 @@
         <v>34</v>
       </c>
       <c r="B22" s="2">
-        <v>45636.3128125</v>
+        <v>45636.32362268519</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2">
-        <v>45636.68703703704</v>
+        <v>45636.70743055556</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>12</v>
@@ -1871,7 +1685,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="2">
-        <v>15.5</v>
+        <v>18.25</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1888,54 +1702,54 @@
         <v>35</v>
       </c>
       <c r="B23" s="2">
-        <v>45636.33333333334</v>
+        <v>45636.56762731481</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D23" s="2">
-        <v>45636.33333333334</v>
+        <v>45636.70916666667</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G23" s="2">
-        <v>21.57</v>
+        <v>18.25</v>
       </c>
       <c r="H23" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2">
-        <v>45636.27017361111</v>
+        <v>45636.32445601852</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="2">
-        <v>45636.68987268519</v>
+        <v>45636.56759259259</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G24" s="2">
-        <v>21.56</v>
+        <v>18.25</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1944,30 +1758,30 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2">
-        <v>45636.23392361111</v>
+        <v>45636.33208333333</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="2">
-        <v>45636.69648148148</v>
+        <v>45636.70186342593</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G25" s="2">
-        <v>35.43</v>
+        <v>17.4</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1976,30 +1790,30 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2">
-        <v>45636.2803587963</v>
+        <v>45636.29034722222</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="2">
-        <v>45636.68621527778</v>
+        <v>45636.70989583333</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26" s="2">
-        <v>18.5</v>
+        <v>18.25</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -2008,30 +1822,30 @@
         <v>0</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2">
-        <v>45636.26077546296</v>
+        <v>45636.67708333334</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2">
-        <v>45636.69511574074</v>
+        <v>45636.78819444445</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" s="2">
-        <v>29.87</v>
+        <v>45.68</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -2040,30 +1854,30 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2">
-        <v>45636.44912037037</v>
+        <v>45636.2899537037</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="2">
-        <v>45637</v>
+        <v>45636.70980324074</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G28" s="2">
-        <v>23.75</v>
+        <v>22.1</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -2072,30 +1886,30 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2">
-        <v>45636.64583333334</v>
+        <v>45636.28795138889</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="2">
-        <v>45636.95972222222</v>
+        <v>45636.71109953704</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G29" s="2">
-        <v>18.36</v>
+        <v>21.85</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -2104,30 +1918,30 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2">
-        <v>45636.94791666666</v>
+        <v>45636.28824074074</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="2">
-        <v>45637.45833333334</v>
+        <v>45636.71467592593</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G30" s="2">
-        <v>18</v>
+        <v>21.85</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -2136,30 +1950,30 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2">
-        <v>45636.4662962963</v>
+        <v>45636.50032407408</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="2">
-        <v>45636.99679398148</v>
+        <v>45637.0625</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G31" s="2">
-        <v>24.72</v>
+        <v>25.1</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -2168,30 +1982,30 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2">
-        <v>45636.94288194444</v>
+        <v>45636.59898148148</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="2">
-        <v>45637.48015046296</v>
+        <v>45637.01388888889</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G32" s="2">
-        <v>22.7</v>
+        <v>19.15</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -2200,30 +2014,30 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2">
-        <v>45636.96018518518</v>
+        <v>45636.59883101852</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="2">
-        <v>45637.46802083333</v>
+        <v>45637.01388888889</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G33" s="2">
-        <v>21.8</v>
+        <v>15.5</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2232,30 +2046,30 @@
         <v>0</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2">
-        <v>45636.94297453704</v>
+        <v>45636.00859953704</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="2">
-        <v>45637.47623842592</v>
+        <v>45636.4991087963</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G34" s="2">
-        <v>18.36</v>
+        <v>17.4</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -2264,30 +2078,30 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2">
-        <v>45636.31087962963</v>
+        <v>45636.47765046296</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="2">
-        <v>45636.73657407407</v>
+        <v>45637.02173611111</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G35" s="2">
-        <v>16</v>
+        <v>21.25</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2296,30 +2110,30 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2">
-        <v>45636.31521990741</v>
+        <v>45636.50270833333</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="2">
-        <v>45636.73981481481</v>
+        <v>45637.01449074074</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G36" s="2">
-        <v>16.5</v>
+        <v>19.65</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -2328,30 +2142,30 @@
         <v>0</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2">
-        <v>45636.64027777778</v>
+        <v>45636.99332175926</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="2">
-        <v>45636.9278125</v>
+        <v>45637.51924768519</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G37" s="2">
-        <v>19</v>
+        <v>19.65</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -2360,30 +2174,30 @@
         <v>0</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2">
-        <v>45636.3125</v>
+        <v>45636.0042824074</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="2">
-        <v>45636.74011574074</v>
+        <v>45636.53032407408</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G38" s="2">
-        <v>22.66</v>
+        <v>19.15</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2392,30 +2206,30 @@
         <v>0</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2">
-        <v>45636.74009259259</v>
+        <v>45636.04581018518</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="2">
-        <v>45636.74011574074</v>
+        <v>45636.39085648148</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G39" s="2">
-        <v>22.66</v>
+        <v>18.6</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2424,30 +2238,30 @@
         <v>0</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2">
-        <v>45636.46637731481</v>
+        <v>45636.68407407407</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="2">
-        <v>45636.98658564815</v>
+        <v>45637.05872685185</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G40" s="2">
-        <v>18.55</v>
+        <v>21</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2456,30 +2270,30 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2">
-        <v>45636.6265162037</v>
+        <v>45636.68376157407</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="2">
-        <v>45636.99038194444</v>
+        <v>45636.94846064815</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G41" s="2">
-        <v>22.66</v>
+        <v>27.81</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2488,30 +2302,30 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B42" s="2">
-        <v>45636.46739583334</v>
+        <v>45636.68398148148</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="2">
-        <v>45636.98958333334</v>
+        <v>45636.89265046296</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G42" s="2">
-        <v>18.55</v>
+        <v>22.2</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2520,30 +2334,30 @@
         <v>0</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2">
-        <v>45636</v>
+        <v>45636.0341550926</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="2">
-        <v>45636.41666666666</v>
+        <v>45636.39613425926</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G43" s="2">
-        <v>23.33</v>
+        <v>30</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2552,30 +2366,30 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2">
-        <v>45636.3125</v>
+        <v>45636.52103009259</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="2">
-        <v>45636.76041666666</v>
+        <v>45636.68787037037</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G44" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2584,30 +2398,30 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45" s="2">
-        <v>45636.6391087963</v>
+        <v>45636.33094907407</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="2">
-        <v>45637.01263888889</v>
+        <v>45636.50760416667</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G45" s="2">
-        <v>21</v>
+        <v>31.83</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2616,30 +2430,30 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B46" s="2">
-        <v>45636.2928587963</v>
+        <v>45636.5275</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="2">
-        <v>45636.5344675926</v>
+        <v>45636.6982175926</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G46" s="2">
-        <v>29</v>
+        <v>31.83</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2648,30 +2462,30 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2">
-        <v>45636.27396990741</v>
+        <v>45636.33320601852</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="2">
-        <v>45636.52314814815</v>
+        <v>45636.50055555555</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G47" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2680,30 +2494,30 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B48" s="2">
-        <v>45636.56725694444</v>
+        <v>45636.31878472222</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D48" s="2">
-        <v>45636.74444444444</v>
+        <v>45636.71003472222</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G48" s="2">
-        <v>17</v>
+        <v>18.4</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2712,30 +2526,30 @@
         <v>0</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45636.326875</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="2">
+        <v>45636.71875</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="2">
-        <v>45636.55524305555</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="2">
-        <v>45636.74097222222</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="G49" s="2">
-        <v>29</v>
+        <v>21.5</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2744,30 +2558,30 @@
         <v>0</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2">
-        <v>45636.31081018518</v>
+        <v>45636.32071759259</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="2">
-        <v>45636.7059837963</v>
+        <v>45636.72844907407</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G50" s="2">
-        <v>24.59</v>
+        <v>21.2</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2776,30 +2590,30 @@
         <v>0</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2">
-        <v>45636.3164699074</v>
+        <v>45636.72769675926</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="2">
-        <v>45636.70631944444</v>
+        <v>45636.7277662037</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G51" s="2">
-        <v>22.34</v>
+        <v>22.5</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2808,30 +2622,30 @@
         <v>0</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B52" s="2">
-        <v>45636.31114583334</v>
+        <v>45636.53871527778</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="2">
-        <v>45636.70690972222</v>
+        <v>45636.66130787037</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G52" s="2">
-        <v>21.34</v>
+        <v>20.5</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2840,30 +2654,30 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B53" s="2">
-        <v>45636.31059027778</v>
+        <v>45636.31967592592</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="2">
-        <v>45636.70649305556</v>
+        <v>45636.72778935185</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G53" s="2">
-        <v>19.06</v>
+        <v>19.5</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2872,30 +2686,30 @@
         <v>0</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B54" s="2">
-        <v>45636.31219907408</v>
+        <v>45636.32291666666</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="2">
-        <v>45636.70611111111</v>
+        <v>45636.72222222222</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G54" s="2">
-        <v>20.06</v>
+        <v>19</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2904,30 +2718,30 @@
         <v>0</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B55" s="2">
-        <v>45636.31631944444</v>
+        <v>45636.32506944444</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="2">
-        <v>45636.7066550926</v>
+        <v>45636.72325231481</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G55" s="2">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2936,30 +2750,30 @@
         <v>0</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B56" s="2">
-        <v>45636.31092592593</v>
+        <v>45636.31983796296</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="2">
-        <v>45636.70550925926</v>
+        <v>45636.72746527778</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G56" s="2">
-        <v>19.27</v>
+        <v>19.35</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2968,30 +2782,30 @@
         <v>0</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B57" s="2">
-        <v>45636.3175462963</v>
+        <v>45636.31944444445</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="2">
-        <v>45636.70109953704</v>
+        <v>45636.7277662037</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G57" s="2">
-        <v>24.09</v>
+        <v>22.5</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -3000,30 +2814,30 @@
         <v>0</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B58" s="2">
-        <v>45636.31128472222</v>
+        <v>45636.32119212963</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="2">
-        <v>45636.70578703703</v>
+        <v>45636.71780092592</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G58" s="2">
-        <v>25.84</v>
+        <v>19.5</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -3032,30 +2846,30 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B59" s="2">
-        <v>45636.31420138889</v>
+        <v>45636.31979166667</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="2">
-        <v>45636.70134259259</v>
+        <v>45636.7190162037</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G59" s="2">
-        <v>23.84</v>
+        <v>21</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -3064,30 +2878,30 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B60" s="2">
-        <v>45636.31619212963</v>
+        <v>45636.31748842593</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="2">
-        <v>45636.70494212963</v>
+        <v>45636.58034722223</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G60" s="2">
-        <v>16.63</v>
+        <v>18.6</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -3096,30 +2910,30 @@
         <v>0</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B61" s="2">
-        <v>45636.31604166667</v>
+        <v>45636.30857638889</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D61" s="2">
-        <v>45636.70677083333</v>
+        <v>45636.77231481481</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G61" s="2">
-        <v>25.09</v>
+        <v>21.8</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -3128,30 +2942,30 @@
         <v>0</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2">
-        <v>45636.31070601852</v>
+        <v>45636.32140046296</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="2">
-        <v>45636.705625</v>
+        <v>45636.54431712963</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G62" s="2">
-        <v>20.06</v>
+        <v>18.25</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -3160,30 +2974,30 @@
         <v>0</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B63" s="2">
-        <v>45636.32799768518</v>
+        <v>45636.63680555556</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="2">
-        <v>45636.5122337963</v>
+        <v>45636.63747685185</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G63" s="2">
-        <v>15</v>
+        <v>18.75</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -3192,30 +3006,30 @@
         <v>0</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B64" s="2">
-        <v>45636.33369212963</v>
+        <v>45636.31976851852</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="2">
-        <v>45636.70866898148</v>
+        <v>45636.63747685185</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G64" s="2">
-        <v>18.5</v>
+        <v>18.75</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -3224,30 +3038,30 @@
         <v>0</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2">
-        <v>45636.35731481481</v>
+        <v>45636.32615740741</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="2">
-        <v>45636.55023148148</v>
+        <v>45636.66666666666</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G65" s="2">
-        <v>15</v>
+        <v>18.25</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
@@ -3256,62 +3070,62 @@
         <v>0</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B66" s="2">
-        <v>45636.34170138889</v>
+        <v>45636.33333333334</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="D66" s="2">
-        <v>45636.52436342592</v>
+        <v>45636.33333333334</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G66" s="2">
-        <v>21.44</v>
+        <v>0</v>
       </c>
       <c r="H66" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I66" s="2">
         <v>0</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2">
-        <v>45636.53776620371</v>
+        <v>45636.55548611111</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D67" s="2">
-        <v>45636.70052083334</v>
+        <v>45636.61667824074</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G67" s="2">
-        <v>21.44</v>
+        <v>18.75</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
@@ -3320,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3328,22 +3142,22 @@
         <v>87</v>
       </c>
       <c r="B68" s="2">
-        <v>45636.5175</v>
+        <v>45636.31962962963</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D68" s="2">
-        <v>45636.68555555555</v>
+        <v>45636.53645833334</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G68" s="2">
-        <v>15</v>
+        <v>18.75</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -3352,30 +3166,30 @@
         <v>0</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2">
-        <v>45636.5029050926</v>
+        <v>45636.33331018518</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D69" s="2">
-        <v>45636.6712962963</v>
+        <v>45636.68347222222</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G69" s="2">
-        <v>16</v>
+        <v>17.4</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -3384,30 +3198,30 @@
         <v>0</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2">
-        <v>45636.34130787037</v>
+        <v>45636.32332175926</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D70" s="2">
-        <v>45636.48215277777</v>
+        <v>45636.46158564815</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G70" s="2">
-        <v>16</v>
+        <v>19.15</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -3416,254 +3230,254 @@
         <v>0</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2">
-        <v>45636</v>
+        <v>45636.41666666666</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D71" s="2">
-        <v>45636</v>
+        <v>45636.5</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G71" s="2">
-        <v>13.1</v>
+        <v>18.75</v>
       </c>
       <c r="H71" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I71" s="2">
         <v>0</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2">
-        <v>45636</v>
+        <v>45636.31842592593</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D72" s="2">
-        <v>45636</v>
+        <v>45636.6907175926</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G72" s="2">
-        <v>22.07</v>
+        <v>19.15</v>
       </c>
       <c r="H72" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I72" s="2">
         <v>0</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2">
-        <v>45636</v>
+        <v>45636.32337962963</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D73" s="2">
-        <v>45636</v>
+        <v>45636.69065972222</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G73" s="2">
-        <v>14.5</v>
+        <v>25.45</v>
       </c>
       <c r="H73" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I73" s="2">
         <v>0</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2">
-        <v>45636</v>
+        <v>45636.3232175926</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D74" s="2">
-        <v>45636</v>
+        <v>45636.6908912037</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G74" s="2">
-        <v>16.22</v>
+        <v>25.35</v>
       </c>
       <c r="H74" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I74" s="2">
         <v>0</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2">
-        <v>45636</v>
+        <v>45636.52787037037</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D75" s="2">
-        <v>45636</v>
+        <v>45636.77245370371</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G75" s="2">
-        <v>18.5</v>
+        <v>17.85</v>
       </c>
       <c r="H75" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I75" s="2">
         <v>0</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2">
-        <v>45636</v>
+        <v>45636.32168981482</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D76" s="2">
-        <v>45636</v>
+        <v>45636.51019675926</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G76" s="2">
-        <v>16</v>
+        <v>17.85</v>
       </c>
       <c r="H76" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I76" s="2">
         <v>0</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2">
-        <v>45636</v>
+        <v>45636.71344907407</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D77" s="2">
-        <v>45636</v>
+        <v>45636.79861111111</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G77" s="2">
-        <v>16</v>
+        <v>17.85</v>
       </c>
       <c r="H77" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I77" s="2">
         <v>0</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2">
-        <v>45636.35671296297</v>
+        <v>45636.31184027778</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D78" s="2">
-        <v>45636.70833333334</v>
+        <v>45636.68813657408</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G78" s="2">
-        <v>18.72</v>
+        <v>18.6</v>
       </c>
       <c r="H78" s="2">
         <v>0</v>
@@ -3672,551 +3486,551 @@
         <v>0</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2">
-        <v>45636</v>
+        <v>45636.32331018519</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D79" s="2">
-        <v>45636</v>
+        <v>45636.60435185185</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G79" s="2">
-        <v>16</v>
+        <v>17.85</v>
       </c>
       <c r="H79" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I79" s="2">
         <v>0</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2">
-        <v>45636</v>
+        <v>45636.54164351852</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D80" s="2">
-        <v>45636</v>
+        <v>45636.54233796296</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G80" s="2">
-        <v>22.46</v>
+        <v>17.85</v>
       </c>
       <c r="H80" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" s="2">
         <v>0</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2">
-        <v>45636</v>
+        <v>45636.62202546297</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D81" s="2">
-        <v>45636</v>
+        <v>45636.62211805556</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G81" s="2">
-        <v>16</v>
+        <v>17.85</v>
       </c>
       <c r="H81" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I81" s="2">
         <v>0</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2">
-        <v>45636</v>
+        <v>45636.7078125</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D82" s="2">
-        <v>45636</v>
+        <v>45636.77248842592</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G82" s="2">
-        <v>16</v>
+        <v>17.85</v>
       </c>
       <c r="H82" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I82" s="2">
         <v>0</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2">
-        <v>45636</v>
+        <v>45636.70878472222</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D83" s="2">
-        <v>45636</v>
+        <v>45636.79833333333</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G83" s="2">
-        <v>14.92</v>
+        <v>17.85</v>
       </c>
       <c r="H83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" s="2">
         <v>0</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2">
-        <v>45636</v>
+        <v>45636.70833333334</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D84" s="2">
-        <v>45636</v>
+        <v>45636.8125</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G84" s="2">
-        <v>18.72</v>
+        <v>17.85</v>
       </c>
       <c r="H84" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I84" s="2">
         <v>0</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2">
-        <v>45636</v>
+        <v>45636.63563657407</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D85" s="2">
-        <v>45636</v>
+        <v>45636.70621527778</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G85" s="2">
-        <v>18.02</v>
+        <v>17.85</v>
       </c>
       <c r="H85" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I85" s="2">
         <v>0</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2">
-        <v>45636</v>
+        <v>45636.56318287037</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D86" s="2">
-        <v>45636</v>
+        <v>45636.7746875</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G86" s="2">
-        <v>16.83</v>
+        <v>17.85</v>
       </c>
       <c r="H86" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" s="2">
         <v>0</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2">
-        <v>45636</v>
+        <v>45636.70833333334</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D87" s="2">
-        <v>45636</v>
+        <v>45636.8125</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G87" s="2">
-        <v>17</v>
+        <v>17.4</v>
       </c>
       <c r="H87" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I87" s="2">
         <v>0</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2">
-        <v>45636</v>
+        <v>45636.32223379629</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D88" s="2">
-        <v>45636</v>
+        <v>45636.54233796296</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G88" s="2">
-        <v>16.83</v>
+        <v>17.85</v>
       </c>
       <c r="H88" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" s="2">
         <v>0</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2">
-        <v>45636</v>
+        <v>45636.31832175926</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D89" s="2">
-        <v>45636</v>
+        <v>45636.53472222222</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G89" s="2">
-        <v>21.78</v>
+        <v>18.75</v>
       </c>
       <c r="H89" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I89" s="2">
         <v>0</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2">
-        <v>45636</v>
+        <v>45636.5558912037</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D90" s="2">
-        <v>45636</v>
+        <v>45636.70224537037</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G90" s="2">
-        <v>30</v>
+        <v>18.75</v>
       </c>
       <c r="H90" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I90" s="2">
         <v>0</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2">
-        <v>45636</v>
+        <v>45636.57762731481</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D91" s="2">
-        <v>45636</v>
+        <v>45636.77083333334</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G91" s="2">
-        <v>54</v>
+        <v>17.85</v>
       </c>
       <c r="H91" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I91" s="2">
         <v>0</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2">
-        <v>45636</v>
+        <v>45636.69474537037</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D92" s="2">
-        <v>45636</v>
+        <v>45636.83177083333</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G92" s="2">
-        <v>17.3</v>
+        <v>18.6</v>
       </c>
       <c r="H92" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I92" s="2">
         <v>0</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2">
-        <v>45636</v>
+        <v>45636.32668981481</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D93" s="2">
-        <v>45636</v>
+        <v>45636.56491898148</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G93" s="2">
-        <v>16</v>
+        <v>18.25</v>
       </c>
       <c r="H93" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I93" s="2">
         <v>0</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2">
-        <v>45636</v>
+        <v>45636.63878472222</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D94" s="2">
-        <v>45636</v>
+        <v>45636.70518518519</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G94" s="2">
-        <v>30</v>
+        <v>18.25</v>
       </c>
       <c r="H94" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I94" s="2">
         <v>0</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B95" s="2">
-        <v>45636</v>
+        <v>45636.31921296296</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D95" s="2">
-        <v>45636</v>
+        <v>45636.55751157407</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G95" s="2">
-        <v>30</v>
+        <v>17.85</v>
       </c>
       <c r="H95" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I95" s="2">
         <v>0</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -4224,246 +4038,246 @@
         <v>111</v>
       </c>
       <c r="B96" s="2">
-        <v>45636</v>
+        <v>45636.33288194444</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D96" s="2">
-        <v>45636</v>
+        <v>45636.68951388889</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="G96" s="2">
-        <v>16.83</v>
+        <v>22.2</v>
       </c>
       <c r="H96" s="2">
         <v>0</v>
       </c>
       <c r="I96" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2">
-        <v>45636</v>
+        <v>45636.35725694444</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D97" s="2">
-        <v>45636</v>
+        <v>45636.57550925926</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="G97" s="2">
-        <v>16</v>
+        <v>18.75</v>
       </c>
       <c r="H97" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I97" s="2">
         <v>0</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" s="2">
+        <v>45636.71520833333</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="2">
+        <v>45636.77152777778</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B98" s="2">
-        <v>45636</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D98" s="2">
-        <v>45636</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="G98" s="2">
-        <v>17.3</v>
+        <v>18.25</v>
       </c>
       <c r="H98" s="2">
         <v>0</v>
       </c>
       <c r="I98" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B99" s="2">
-        <v>45636</v>
+        <v>45636.70585648148</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D99" s="2">
-        <v>45636</v>
+        <v>45636.81111111111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="G99" s="2">
-        <v>15</v>
+        <v>17.85</v>
       </c>
       <c r="H99" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I99" s="2">
         <v>0</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2">
-        <v>45636</v>
+        <v>45636.69539351852</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D100" s="2">
-        <v>45636</v>
+        <v>45636.69540509259</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="G100" s="2">
-        <v>30</v>
+        <v>17.85</v>
       </c>
       <c r="H100" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I100" s="2">
         <v>0</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2">
-        <v>45636</v>
+        <v>45636.32123842592</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D101" s="2">
-        <v>45636</v>
+        <v>45636.70351851852</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="G101" s="2">
-        <v>24.16</v>
+        <v>18.25</v>
       </c>
       <c r="H101" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I101" s="2">
         <v>0</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B102" s="2">
-        <v>45636</v>
+        <v>45636.34721064815</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D102" s="2">
-        <v>45636</v>
+        <v>45636.68766203704</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="G102" s="2">
-        <v>15.5</v>
+        <v>17.65</v>
       </c>
       <c r="H102" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I102" s="2">
         <v>0</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2">
-        <v>45636.33333333334</v>
+        <v>45636.37596064815</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D103" s="2">
-        <v>45636.68055555555</v>
+        <v>45636.7371412037</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="G103" s="2">
-        <v>16.5</v>
+        <v>17.85</v>
       </c>
       <c r="H103" s="2">
         <v>0</v>
@@ -4472,62 +4286,62 @@
         <v>0</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B104" s="2">
+        <v>45636.35510416667</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="2">
+        <v>45636.68700231481</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G104" s="2">
+        <v>17.85</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0</v>
+      </c>
+      <c r="I104" s="2">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B104" s="2">
-        <v>45636.35763888889</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104" s="2">
-        <v>45636.42858796296</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G104" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="H104" s="2">
-        <v>0</v>
-      </c>
-      <c r="I104" s="2">
-        <v>0</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B105" s="2">
-        <v>45636.37141203704</v>
+        <v>45636.37056712963</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D105" s="2">
-        <v>45636.45457175926</v>
+        <v>45636.45869212963</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G105" s="2">
-        <v>16.5</v>
+        <v>17.65</v>
       </c>
       <c r="H105" s="2">
         <v>0</v>
@@ -4536,30 +4350,30 @@
         <v>0</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B106" s="2">
-        <v>45636.33356481481</v>
+        <v>45636.36086805556</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D106" s="2">
-        <v>45636.43430555556</v>
+        <v>45636.67290509259</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G106" s="2">
-        <v>15</v>
+        <v>17.4</v>
       </c>
       <c r="H106" s="2">
         <v>0</v>
@@ -4568,30 +4382,30 @@
         <v>0</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B107" s="2">
-        <v>45636.63359953704</v>
+        <v>45636.24604166667</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D107" s="2">
-        <v>45636.70626157407</v>
+        <v>45636.41709490741</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G107" s="2">
-        <v>15</v>
+        <v>17.4</v>
       </c>
       <c r="H107" s="2">
         <v>0</v>
@@ -4600,30 +4414,30 @@
         <v>0</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B108" s="2">
-        <v>45636.32879629629</v>
+        <v>45636.378125</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D108" s="2">
-        <v>45636.55631944445</v>
+        <v>45636.73008101852</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G108" s="2">
-        <v>15</v>
+        <v>15.9</v>
       </c>
       <c r="H108" s="2">
         <v>0</v>
@@ -4632,30 +4446,30 @@
         <v>0</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B109" s="2">
-        <v>45636.6619212963</v>
+        <v>45636.36385416667</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D109" s="2">
-        <v>45636.70858796296</v>
+        <v>45636.67344907407</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G109" s="2">
-        <v>15</v>
+        <v>19.65</v>
       </c>
       <c r="H109" s="2">
         <v>0</v>
@@ -4664,39 +4478,39 @@
         <v>0</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B110" s="2">
+        <v>45636.3334837963</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="2">
+        <v>45636.53353009259</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G110" s="2">
+        <v>17.85</v>
+      </c>
+      <c r="H110" s="2">
+        <v>0</v>
+      </c>
+      <c r="I110" s="2">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B110" s="2">
-        <v>45636.32717592592</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" s="2">
-        <v>45636.55222222222</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G110" s="2">
-        <v>15</v>
-      </c>
-      <c r="H110" s="2">
-        <v>0</v>
-      </c>
-      <c r="I110" s="2">
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -4704,22 +4518,22 @@
         <v>135</v>
       </c>
       <c r="B111" s="2">
-        <v>45636.53321759259</v>
+        <v>45636.45322916667</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D111" s="2">
-        <v>45636.68628472222</v>
+        <v>45636.68809027778</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G111" s="2">
-        <v>18</v>
+        <v>17.85</v>
       </c>
       <c r="H111" s="2">
         <v>0</v>
@@ -4728,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -4736,22 +4550,22 @@
         <v>136</v>
       </c>
       <c r="B112" s="2">
-        <v>45636.32726851852</v>
+        <v>45636.30494212963</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D112" s="2">
-        <v>45636.55732638889</v>
+        <v>45636.54369212963</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G112" s="2">
-        <v>15</v>
+        <v>17.4</v>
       </c>
       <c r="H112" s="2">
         <v>0</v>
@@ -4760,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4768,22 +4582,22 @@
         <v>137</v>
       </c>
       <c r="B113" s="2">
-        <v>45636.53943287037</v>
+        <v>45636.41386574074</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D113" s="2">
-        <v>45636.70577546296</v>
+        <v>45636.71236111111</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G113" s="2">
-        <v>18</v>
+        <v>15.9</v>
       </c>
       <c r="H113" s="2">
         <v>0</v>
@@ -4792,30 +4606,30 @@
         <v>0</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B114" s="2">
-        <v>45636.32739583333</v>
+        <v>45636.45371527778</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D114" s="2">
-        <v>45636.42896990741</v>
+        <v>45636.69118055556</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G114" s="2">
-        <v>18</v>
+        <v>18.6</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
@@ -4824,30 +4638,30 @@
         <v>0</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B115" s="2">
-        <v>45636.33475694444</v>
+        <v>45636.41355324074</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D115" s="2">
-        <v>45636.42340277778</v>
+        <v>45636.685</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G115" s="2">
-        <v>18</v>
+        <v>17.85</v>
       </c>
       <c r="H115" s="2">
         <v>0</v>
@@ -4856,30 +4670,30 @@
         <v>0</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B116" s="2">
-        <v>45636.66429398148</v>
+        <v>45636.40738425926</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D116" s="2">
-        <v>45636.70930555555</v>
+        <v>45636.68643518518</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G116" s="2">
-        <v>15</v>
+        <v>19.15</v>
       </c>
       <c r="H116" s="2">
         <v>0</v>
@@ -4888,30 +4702,30 @@
         <v>0</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B117" s="2">
-        <v>45636.53638888889</v>
+        <v>45636.33983796297</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D117" s="2">
-        <v>45636.70945601852</v>
+        <v>45636.54166666666</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G117" s="2">
-        <v>15</v>
+        <v>17.65</v>
       </c>
       <c r="H117" s="2">
         <v>0</v>
@@ -4920,30 +4734,30 @@
         <v>0</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B118" s="2">
-        <v>45636.33510416667</v>
+        <v>45636.27287037037</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D118" s="2">
-        <v>45636.42238425926</v>
+        <v>45636.56302083333</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G118" s="2">
-        <v>17</v>
+        <v>19.65</v>
       </c>
       <c r="H118" s="2">
         <v>0</v>
@@ -4952,30 +4766,30 @@
         <v>0</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B119" s="2">
-        <v>45636.55274305555</v>
+        <v>45636.27119212963</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D119" s="2">
-        <v>45636.67065972222</v>
+        <v>45636.47226851852</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G119" s="2">
-        <v>16.5</v>
+        <v>19.15</v>
       </c>
       <c r="H119" s="2">
         <v>0</v>
@@ -4984,30 +4798,30 @@
         <v>0</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B120" s="2">
-        <v>45636.49908564815</v>
+        <v>45636.46003472222</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D120" s="2">
-        <v>45636.68842592592</v>
+        <v>45636.68231481482</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G120" s="2">
-        <v>16.5</v>
+        <v>19.65</v>
       </c>
       <c r="H120" s="2">
         <v>0</v>
@@ -5016,30 +4830,30 @@
         <v>0</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B121" s="2">
-        <v>45636.33413194444</v>
+        <v>45636.43684027778</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D121" s="2">
-        <v>45636.46030092592</v>
+        <v>45636.62899305556</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G121" s="2">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="H121" s="2">
         <v>0</v>
@@ -5048,30 +4862,30 @@
         <v>0</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B122" s="2">
-        <v>45636.3394212963</v>
+        <v>45636.59701388889</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D122" s="2">
-        <v>45636.62188657407</v>
+        <v>45636.889375</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G122" s="2">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="H122" s="2">
         <v>0</v>
@@ -5080,30 +4894,30 @@
         <v>0</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B123" s="2">
-        <v>45636.33712962963</v>
+        <v>45636.53390046296</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D123" s="2">
-        <v>45636.51795138889</v>
+        <v>45636.87833333333</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G123" s="2">
-        <v>16.5</v>
+        <v>18.25</v>
       </c>
       <c r="H123" s="2">
         <v>0</v>
@@ -5112,30 +4926,30 @@
         <v>0</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2">
-        <v>45636.33387731481</v>
+        <v>45636.43361111111</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D124" s="2">
-        <v>45636.705625</v>
+        <v>45636.76736111111</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G124" s="2">
-        <v>22.5</v>
+        <v>25.1</v>
       </c>
       <c r="H124" s="2">
         <v>0</v>
@@ -5144,30 +4958,30 @@
         <v>0</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B125" s="2">
-        <v>45636.34503472222</v>
+        <v>45636.26952546297</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D125" s="2">
-        <v>45636.69976851852</v>
+        <v>45636.52246527778</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G125" s="2">
-        <v>17</v>
+        <v>17.65</v>
       </c>
       <c r="H125" s="2">
         <v>0</v>
@@ -5176,30 +4990,30 @@
         <v>0</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B126" s="2">
-        <v>45636.33006944445</v>
+        <v>45636.63174768518</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D126" s="2">
-        <v>45636.70541666666</v>
+        <v>45636.91756944444</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G126" s="2">
-        <v>22.5</v>
+        <v>17.75</v>
       </c>
       <c r="H126" s="2">
         <v>0</v>
@@ -5208,30 +5022,30 @@
         <v>0</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B127" s="2">
-        <v>45636.32462962963</v>
+        <v>45636.9377662037</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D127" s="2">
-        <v>45636.67077546296</v>
+        <v>45637.26694444445</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G127" s="2">
-        <v>18</v>
+        <v>17.65</v>
       </c>
       <c r="H127" s="2">
         <v>0</v>
@@ -5240,30 +5054,30 @@
         <v>0</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B128" s="2">
-        <v>45636.32859953704</v>
+        <v>45636.375</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D128" s="2">
-        <v>45636.58625</v>
+        <v>45636.64313657407</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G128" s="2">
-        <v>15</v>
+        <v>19.15</v>
       </c>
       <c r="H128" s="2">
         <v>0</v>
@@ -5272,30 +5086,30 @@
         <v>0</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B129" s="2">
-        <v>45636.33623842592</v>
+        <v>45636.70825231481</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D129" s="2">
-        <v>45636.75381944444</v>
+        <v>45636.77549768519</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G129" s="2">
-        <v>15</v>
+        <v>19.65</v>
       </c>
       <c r="H129" s="2">
         <v>0</v>
@@ -5304,30 +5118,30 @@
         <v>0</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B130" s="2">
-        <v>45636.66416666667</v>
+        <v>45636.34373842592</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D130" s="2">
-        <v>45636.68518518518</v>
+        <v>45636.75168981482</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G130" s="2">
-        <v>15.5</v>
+        <v>21.25</v>
       </c>
       <c r="H130" s="2">
         <v>0</v>
@@ -5336,30 +5150,30 @@
         <v>0</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B131" s="2">
-        <v>45636.33092592593</v>
+        <v>45636.36744212963</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D131" s="2">
-        <v>45636.75252314815</v>
+        <v>45636.51457175926</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G131" s="2">
-        <v>17.5</v>
+        <v>18.75</v>
       </c>
       <c r="H131" s="2">
         <v>0</v>
@@ -5368,62 +5182,62 @@
         <v>0</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B132" s="2">
-        <v>45636.33333333334</v>
+        <v>45636.31244212963</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D132" s="2">
-        <v>45636.33333333334</v>
+        <v>45636.75502314815</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G132" s="2">
-        <v>17</v>
+        <v>18.25</v>
       </c>
       <c r="H132" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I132" s="2">
         <v>0</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B133" s="2">
-        <v>45636.34195601852</v>
+        <v>45636.30829861111</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D133" s="2">
-        <v>45636.70833333334</v>
+        <v>45636.77969907408</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G133" s="2">
-        <v>18</v>
+        <v>21.25</v>
       </c>
       <c r="H133" s="2">
         <v>0</v>
@@ -5432,30 +5246,26 @@
         <v>0</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B134" s="2">
-        <v>45636.3452662037</v>
+        <v>45636.77986111111</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D134" s="2">
-        <v>45636.69138888889</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
       <c r="F134" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G134" s="2">
-        <v>13.65</v>
+        <v>21.25</v>
       </c>
       <c r="H134" s="2">
         <v>0</v>
@@ -5464,30 +5274,30 @@
         <v>0</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B135" s="2">
-        <v>45636.34532407407</v>
+        <v>45636.68494212963</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D135" s="2">
-        <v>45636.65069444444</v>
+        <v>45636.89045138889</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G135" s="2">
-        <v>20.5</v>
+        <v>20.15</v>
       </c>
       <c r="H135" s="2">
         <v>0</v>
@@ -5496,30 +5306,30 @@
         <v>0</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B136" s="2">
-        <v>45636.68391203704</v>
+        <v>45636.42313657407</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D136" s="2">
-        <v>45636.81388888889</v>
+        <v>45636.77197916667</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G136" s="2">
-        <v>18</v>
+        <v>20.15</v>
       </c>
       <c r="H136" s="2">
         <v>0</v>
@@ -5528,30 +5338,30 @@
         <v>0</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B137" s="2">
-        <v>45636.4375</v>
+        <v>45636.67130787037</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D137" s="2">
-        <v>45636.47222222222</v>
+        <v>45636.90677083333</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G137" s="2">
-        <v>21</v>
+        <v>23.5</v>
       </c>
       <c r="H137" s="2">
         <v>0</v>
@@ -5560,30 +5370,30 @@
         <v>0</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B138" s="2">
-        <v>45636.38378472222</v>
+        <v>45636.53224537037</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D138" s="2">
-        <v>45636.69637731482</v>
+        <v>45636.64930555555</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G138" s="2">
-        <v>17</v>
+        <v>23.5</v>
       </c>
       <c r="H138" s="2">
         <v>0</v>
@@ -5592,30 +5402,30 @@
         <v>0</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B139" s="2">
-        <v>45636.32824074074</v>
+        <v>45636.35306712963</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D139" s="2">
-        <v>45636.70907407408</v>
+        <v>45636.6250462963</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G139" s="2">
-        <v>15</v>
+        <v>20.15</v>
       </c>
       <c r="H139" s="2">
         <v>0</v>
@@ -5624,30 +5434,30 @@
         <v>0</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B140" s="2">
+        <v>45636.43951388889</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="2">
+        <v>45636.6565162037</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B140" s="2">
-        <v>45636.32824074074</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D140" s="2">
-        <v>45636.70924768518</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="G140" s="2">
-        <v>15</v>
+        <v>19.65</v>
       </c>
       <c r="H140" s="2">
         <v>0</v>
@@ -5656,62 +5466,62 @@
         <v>0</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B141" s="2">
+        <v>45636.67231481482</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="2">
+        <v>45636.89097222222</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G141" s="2">
+        <v>19.65</v>
+      </c>
+      <c r="H141" s="2">
+        <v>0</v>
+      </c>
+      <c r="I141" s="2">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B141" s="2">
-        <v>45636.33333333334</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" s="2">
-        <v>45636.52704861111</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G141" s="2">
-        <v>21</v>
-      </c>
-      <c r="H141" s="2">
-        <v>0</v>
-      </c>
-      <c r="I141" s="2">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B142" s="2">
-        <v>45636.34328703704</v>
+        <v>45636.53847222222</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D142" s="2">
-        <v>45636.63996527778</v>
+        <v>45636.69660879629</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G142" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H142" s="2">
         <v>0</v>
@@ -5720,30 +5530,30 @@
         <v>0</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B143" s="2">
-        <v>45636.33878472223</v>
+        <v>45636.33265046297</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D143" s="2">
-        <v>45636.64101851852</v>
+        <v>45636.51693287037</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G143" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H143" s="2">
         <v>0</v>
@@ -5752,30 +5562,30 @@
         <v>0</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B144" s="2">
-        <v>45636.33454861111</v>
+        <v>45636.41023148148</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D144" s="2">
-        <v>45636.68898148148</v>
+        <v>45636.68560185185</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G144" s="2">
-        <v>23.69</v>
+        <v>29.64</v>
       </c>
       <c r="H144" s="2">
         <v>0</v>
@@ -5784,30 +5594,30 @@
         <v>0</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B145" s="2">
-        <v>45636.37261574074</v>
+        <v>45636.29679398148</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D145" s="2">
-        <v>45636.68361111111</v>
+        <v>45636.71726851852</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G145" s="2">
-        <v>23</v>
+        <v>31.9</v>
       </c>
       <c r="H145" s="2">
         <v>0</v>
@@ -5816,30 +5626,30 @@
         <v>0</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B146" s="2">
-        <v>45636.3792824074</v>
+        <v>45636.313125</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D146" s="2">
-        <v>45636.68679398148</v>
+        <v>45636.55328703704</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G146" s="2">
-        <v>13.65</v>
+        <v>26</v>
       </c>
       <c r="H146" s="2">
         <v>0</v>
@@ -5848,30 +5658,30 @@
         <v>0</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B147" s="2">
-        <v>45636.58425925926</v>
+        <v>45636.31819444444</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D147" s="2">
-        <v>45636.875</v>
+        <v>45636.71378472223</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G147" s="2">
-        <v>22</v>
+        <v>21.25</v>
       </c>
       <c r="H147" s="2">
         <v>0</v>
@@ -5880,30 +5690,30 @@
         <v>0</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B148" s="2">
-        <v>45636.62078703703</v>
+        <v>45636.32607638889</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D148" s="2">
-        <v>45636.88146990741</v>
+        <v>45636.64247685186</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="G148" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H148" s="2">
         <v>0</v>
@@ -5912,30 +5722,30 @@
         <v>0</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B149" s="2">
-        <v>45636.34532407407</v>
+        <v>45636.67708333334</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D149" s="2">
-        <v>45636.69119212963</v>
+        <v>45636.6875</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="G149" s="2">
-        <v>13.65</v>
+        <v>51.99</v>
       </c>
       <c r="H149" s="2">
         <v>0</v>
@@ -5944,30 +5754,30 @@
         <v>0</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B150" s="2">
-        <v>45636.62061342593</v>
+        <v>45636.28512731481</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D150" s="2">
-        <v>45636.86548611111</v>
+        <v>45636.6278125</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G150" s="2">
-        <v>13.65</v>
+        <v>32.45</v>
       </c>
       <c r="H150" s="2">
         <v>0</v>
@@ -5976,30 +5786,30 @@
         <v>0</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B151" s="2">
-        <v>45636.36425925926</v>
+        <v>45636.32585648148</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D151" s="2">
-        <v>45636.72892361111</v>
+        <v>45636.69434027778</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G151" s="2">
-        <v>22</v>
+        <v>32.45</v>
       </c>
       <c r="H151" s="2">
         <v>0</v>
@@ -6008,30 +5818,30 @@
         <v>0</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B152" s="2">
-        <v>45636.37665509259</v>
+        <v>45636.33148148148</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D152" s="2">
-        <v>45636.68849537037</v>
+        <v>45636.72966435185</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G152" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H152" s="2">
         <v>0</v>
@@ -6040,30 +5850,30 @@
         <v>0</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="2" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B153" s="2">
-        <v>45636.33467592593</v>
+        <v>45636.52877314815</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D153" s="2">
-        <v>45636.67026620371</v>
+        <v>45636.73453703704</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G153" s="2">
-        <v>15</v>
+        <v>17.75</v>
       </c>
       <c r="H153" s="2">
         <v>0</v>
@@ -6072,30 +5882,30 @@
         <v>0</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="2" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B154" s="2">
-        <v>45636.38645833333</v>
+        <v>45636.33189814815</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D154" s="2">
-        <v>45636.67954861111</v>
+        <v>45636.50875</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G154" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H154" s="2">
         <v>0</v>
@@ -6104,30 +5914,30 @@
         <v>0</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B155" s="2">
-        <v>45636.32125</v>
+        <v>45636.52658564815</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D155" s="2">
-        <v>45636.66868055556</v>
+        <v>45636.73525462963</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G155" s="2">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="H155" s="2">
         <v>0</v>
@@ -6136,30 +5946,30 @@
         <v>0</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B156" s="2">
-        <v>45636.33333333334</v>
+        <v>45636.32104166667</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D156" s="2">
-        <v>45636.66666666666</v>
+        <v>45636.50918981482</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G156" s="2">
-        <v>18</v>
+        <v>17.75</v>
       </c>
       <c r="H156" s="2">
         <v>0</v>
@@ -6168,1671 +5978,7 @@
         <v>0</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10">
-      <c r="A157" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B157" s="2">
-        <v>45636.31484953704</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D157" s="2">
-        <v>45636.52528935186</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G157" s="2">
-        <v>18</v>
-      </c>
-      <c r="H157" s="2">
-        <v>0</v>
-      </c>
-      <c r="I157" s="2">
-        <v>0</v>
-      </c>
-      <c r="J157" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
-      <c r="A158" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B158" s="2">
-        <v>45636.33333333334</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D158" s="2">
-        <v>45636.33333333334</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G158" s="2">
-        <v>0</v>
-      </c>
-      <c r="H158" s="2">
-        <v>8</v>
-      </c>
-      <c r="I158" s="2">
-        <v>0</v>
-      </c>
-      <c r="J158" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10">
-      <c r="A159" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B159" s="2">
-        <v>45636.94976851852</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D159" s="2">
-        <v>45637.29496527778</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F159" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="G159" s="2">
-        <v>18.5</v>
-      </c>
-      <c r="H159" s="2">
-        <v>0</v>
-      </c>
-      <c r="I159" s="2">
-        <v>0</v>
-      </c>
-      <c r="J159" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10">
-      <c r="A160" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B160" s="2">
-        <v>45636.2881712963</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D160" s="2">
-        <v>45636.62640046296</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G160" s="2">
-        <v>16</v>
-      </c>
-      <c r="H160" s="2">
-        <v>0</v>
-      </c>
-      <c r="I160" s="2">
-        <v>0</v>
-      </c>
-      <c r="J160" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10">
-      <c r="A161" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B161" s="2">
-        <v>45636.77354166667</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161" s="2">
-        <v>45636.90623842592</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G161" s="2">
-        <v>16</v>
-      </c>
-      <c r="H161" s="2">
-        <v>0</v>
-      </c>
-      <c r="I161" s="2">
-        <v>0</v>
-      </c>
-      <c r="J161" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10">
-      <c r="A162" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B162" s="2">
-        <v>45636.46730324074</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D162" s="2">
-        <v>45636.7159375</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G162" s="2">
-        <v>16</v>
-      </c>
-      <c r="H162" s="2">
-        <v>0</v>
-      </c>
-      <c r="I162" s="2">
-        <v>0</v>
-      </c>
-      <c r="J162" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10">
-      <c r="A163" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B163" s="2">
-        <v>45636.33333333334</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D163" s="2">
-        <v>45636.57916666667</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G163" s="2">
-        <v>15</v>
-      </c>
-      <c r="H163" s="2">
-        <v>0</v>
-      </c>
-      <c r="I163" s="2">
-        <v>0</v>
-      </c>
-      <c r="J163" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10">
-      <c r="A164" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B164" s="2">
-        <v>45636.41733796296</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D164" s="2">
-        <v>45636.75</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G164" s="2">
-        <v>22</v>
-      </c>
-      <c r="H164" s="2">
-        <v>0</v>
-      </c>
-      <c r="I164" s="2">
-        <v>0</v>
-      </c>
-      <c r="J164" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10">
-      <c r="A165" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B165" s="2">
-        <v>45636.38070601852</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D165" s="2">
-        <v>45636.57916666667</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G165" s="2">
-        <v>15</v>
-      </c>
-      <c r="H165" s="2">
-        <v>0</v>
-      </c>
-      <c r="I165" s="2">
-        <v>0</v>
-      </c>
-      <c r="J165" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10">
-      <c r="A166" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B166" s="2">
-        <v>45636.33333333334</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D166" s="2">
-        <v>45636.33333333334</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G166" s="2">
-        <v>22</v>
-      </c>
-      <c r="H166" s="2">
-        <v>8</v>
-      </c>
-      <c r="I166" s="2">
-        <v>0</v>
-      </c>
-      <c r="J166" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10">
-      <c r="A167" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B167" s="2">
-        <v>45636.61498842593</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D167" s="2">
-        <v>45636.95871527777</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G167" s="2">
-        <v>17.25</v>
-      </c>
-      <c r="H167" s="2">
-        <v>0</v>
-      </c>
-      <c r="I167" s="2">
-        <v>0</v>
-      </c>
-      <c r="J167" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10">
-      <c r="A168" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B168" s="2">
-        <v>45636.40106481482</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D168" s="2">
-        <v>45636.75530092593</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G168" s="2">
-        <v>16.61</v>
-      </c>
-      <c r="H168" s="2">
-        <v>0</v>
-      </c>
-      <c r="I168" s="2">
-        <v>0</v>
-      </c>
-      <c r="J168" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10">
-      <c r="A169" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B169" s="2">
-        <v>45636.39976851852</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D169" s="2">
-        <v>45636.58510416667</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G169" s="2">
-        <v>15</v>
-      </c>
-      <c r="H169" s="2">
-        <v>0</v>
-      </c>
-      <c r="I169" s="2">
-        <v>0</v>
-      </c>
-      <c r="J169" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10">
-      <c r="A170" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B170" s="2">
-        <v>45636.33420138889</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D170" s="2">
-        <v>45636.67060185185</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G170" s="2">
-        <v>21.96</v>
-      </c>
-      <c r="H170" s="2">
-        <v>0</v>
-      </c>
-      <c r="I170" s="2">
-        <v>0</v>
-      </c>
-      <c r="J170" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10">
-      <c r="A171" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B171" s="2">
-        <v>45636.40054398148</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D171" s="2">
-        <v>45636.58287037037</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G171" s="2">
-        <v>15</v>
-      </c>
-      <c r="H171" s="2">
-        <v>0</v>
-      </c>
-      <c r="I171" s="2">
-        <v>0</v>
-      </c>
-      <c r="J171" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10">
-      <c r="A172" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B172" s="2">
-        <v>45636.40091435185</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D172" s="2">
-        <v>45636.72010416666</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G172" s="2">
-        <v>16.61</v>
-      </c>
-      <c r="H172" s="2">
-        <v>0</v>
-      </c>
-      <c r="I172" s="2">
-        <v>0</v>
-      </c>
-      <c r="J172" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10">
-      <c r="A173" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B173" s="2">
-        <v>45636.33954861111</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D173" s="2">
-        <v>45636.6764699074</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G173" s="2">
-        <v>20.68</v>
-      </c>
-      <c r="H173" s="2">
-        <v>0</v>
-      </c>
-      <c r="I173" s="2">
-        <v>0</v>
-      </c>
-      <c r="J173" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10">
-      <c r="A174" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B174" s="2">
-        <v>45636.54172453703</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D174" s="2">
-        <v>45636.67457175926</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G174" s="2">
-        <v>17</v>
-      </c>
-      <c r="H174" s="2">
-        <v>0</v>
-      </c>
-      <c r="I174" s="2">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10">
-      <c r="A175" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B175" s="2">
-        <v>45636.53091435185</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D175" s="2">
-        <v>45636.58344907407</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G175" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="H175" s="2">
-        <v>0</v>
-      </c>
-      <c r="I175" s="2">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
-      <c r="A176" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B176" s="2">
-        <v>45636.49702546297</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D176" s="2">
-        <v>45636.70496527778</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G176" s="2">
-        <v>17</v>
-      </c>
-      <c r="H176" s="2">
-        <v>0</v>
-      </c>
-      <c r="I176" s="2">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10">
-      <c r="A177" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B177" s="2">
-        <v>45636.70502314815</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D177" s="2">
-        <v>45637.12100694444</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G177" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="H177" s="2">
-        <v>0</v>
-      </c>
-      <c r="I177" s="2">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10">
-      <c r="A178" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B178" s="2">
-        <v>45636.33333333334</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D178" s="2">
-        <v>45636.33333333334</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G178" s="2">
-        <v>24.34</v>
-      </c>
-      <c r="H178" s="2">
-        <v>2</v>
-      </c>
-      <c r="I178" s="2">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10">
-      <c r="A179" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B179" s="2">
-        <v>45636.32988425926</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D179" s="2">
-        <v>45636.67089120371</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G179" s="2">
-        <v>22</v>
-      </c>
-      <c r="H179" s="2">
-        <v>0</v>
-      </c>
-      <c r="I179" s="2">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10">
-      <c r="A180" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B180" s="2">
-        <v>45636.32991898148</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D180" s="2">
-        <v>45636.67038194444</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G180" s="2">
-        <v>22</v>
-      </c>
-      <c r="H180" s="2">
-        <v>0</v>
-      </c>
-      <c r="I180" s="2">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10">
-      <c r="A181" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B181" s="2">
-        <v>45636.31297453704</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D181" s="2">
-        <v>45636.50438657407</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G181" s="2">
-        <v>17</v>
-      </c>
-      <c r="H181" s="2">
-        <v>0</v>
-      </c>
-      <c r="I181" s="2">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10">
-      <c r="A182" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B182" s="2">
-        <v>45636.55219907407</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D182" s="2">
-        <v>45636.67238425926</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G182" s="2">
-        <v>18</v>
-      </c>
-      <c r="H182" s="2">
-        <v>0</v>
-      </c>
-      <c r="I182" s="2">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10">
-      <c r="A183" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B183" s="2">
-        <v>45636.31328703704</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D183" s="2">
-        <v>45636.49429398148</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G183" s="2">
-        <v>16</v>
-      </c>
-      <c r="H183" s="2">
-        <v>0</v>
-      </c>
-      <c r="I183" s="2">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10">
-      <c r="A184" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B184" s="2">
-        <v>45636.33333333334</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D184" s="2">
-        <v>45636.54166666666</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G184" s="2">
-        <v>17</v>
-      </c>
-      <c r="H184" s="2">
-        <v>0</v>
-      </c>
-      <c r="I184" s="2">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10">
-      <c r="A185" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B185" s="2">
-        <v>45636.32109953704</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D185" s="2">
-        <v>45636.50231481482</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G185" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="H185" s="2">
-        <v>0</v>
-      </c>
-      <c r="I185" s="2">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10">
-      <c r="A186" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B186" s="2">
-        <v>45636.31070601852</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D186" s="2">
-        <v>45636.46615740741</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G186" s="2">
-        <v>17</v>
-      </c>
-      <c r="H186" s="2">
-        <v>0</v>
-      </c>
-      <c r="I186" s="2">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10">
-      <c r="A187" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B187" s="2">
-        <v>45636.52741898148</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D187" s="2">
-        <v>45636.70350694445</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G187" s="2">
-        <v>20.5</v>
-      </c>
-      <c r="H187" s="2">
-        <v>0</v>
-      </c>
-      <c r="I187" s="2">
-        <v>0</v>
-      </c>
-      <c r="J187" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10">
-      <c r="A188" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B188" s="2">
-        <v>45636.33456018518</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D188" s="2">
-        <v>45636.50194444445</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G188" s="2">
-        <v>20.5</v>
-      </c>
-      <c r="H188" s="2">
-        <v>0</v>
-      </c>
-      <c r="I188" s="2">
-        <v>0</v>
-      </c>
-      <c r="J188" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10">
-      <c r="A189" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B189" s="2">
-        <v>45636.31901620371</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D189" s="2">
-        <v>45636.49361111111</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G189" s="2">
-        <v>18</v>
-      </c>
-      <c r="H189" s="2">
-        <v>0</v>
-      </c>
-      <c r="I189" s="2">
-        <v>0</v>
-      </c>
-      <c r="J189" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10">
-      <c r="A190" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B190" s="2">
-        <v>45636.3125</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D190" s="2">
-        <v>45636.53611111111</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G190" s="2">
-        <v>18.55</v>
-      </c>
-      <c r="H190" s="2">
-        <v>0</v>
-      </c>
-      <c r="I190" s="2">
-        <v>0</v>
-      </c>
-      <c r="J190" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10">
-      <c r="A191" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B191" s="2">
-        <v>45636.27898148148</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D191" s="2">
-        <v>45636.4878587963</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G191" s="2">
-        <v>20</v>
-      </c>
-      <c r="H191" s="2">
-        <v>0</v>
-      </c>
-      <c r="I191" s="2">
-        <v>0</v>
-      </c>
-      <c r="J191" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10">
-      <c r="A192" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B192" s="2">
-        <v>45636.50628472222</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D192" s="2">
-        <v>45636.76445601852</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G192" s="2">
-        <v>20</v>
-      </c>
-      <c r="H192" s="2">
-        <v>0</v>
-      </c>
-      <c r="I192" s="2">
-        <v>0</v>
-      </c>
-      <c r="J192" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10">
-      <c r="A193" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B193" s="2">
-        <v>45636.25866898148</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D193" s="2">
-        <v>45636.6000462963</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G193" s="2">
-        <v>23</v>
-      </c>
-      <c r="H193" s="2">
-        <v>0</v>
-      </c>
-      <c r="I193" s="2">
-        <v>0</v>
-      </c>
-      <c r="J193" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10">
-      <c r="A194" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B194" s="2">
-        <v>45636.49631944444</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D194" s="2">
-        <v>45636.635625</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G194" s="2">
-        <v>17.72</v>
-      </c>
-      <c r="H194" s="2">
-        <v>0</v>
-      </c>
-      <c r="I194" s="2">
-        <v>0</v>
-      </c>
-      <c r="J194" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10">
-      <c r="A195" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B195" s="2">
-        <v>45636.27104166667</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D195" s="2">
-        <v>45636.38328703704</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G195" s="2">
-        <v>16</v>
-      </c>
-      <c r="H195" s="2">
-        <v>0</v>
-      </c>
-      <c r="I195" s="2">
-        <v>0</v>
-      </c>
-      <c r="J195" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10">
-      <c r="A196" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B196" s="2">
-        <v>45636.47790509259</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D196" s="2">
-        <v>45636.5906712963</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G196" s="2">
-        <v>16</v>
-      </c>
-      <c r="H196" s="2">
-        <v>0</v>
-      </c>
-      <c r="I196" s="2">
-        <v>0</v>
-      </c>
-      <c r="J196" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10">
-      <c r="A197" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B197" s="2">
-        <v>45636.27381944445</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D197" s="2">
-        <v>45636.54053240741</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G197" s="2">
-        <v>16</v>
-      </c>
-      <c r="H197" s="2">
-        <v>0</v>
-      </c>
-      <c r="I197" s="2">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10">
-      <c r="A198" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B198" s="2">
-        <v>45636.56111111111</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D198" s="2">
-        <v>45636.76180555556</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G198" s="2">
-        <v>16</v>
-      </c>
-      <c r="H198" s="2">
-        <v>0</v>
-      </c>
-      <c r="I198" s="2">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10">
-      <c r="A199" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B199" s="2">
-        <v>45636.62206018518</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D199" s="2">
-        <v>45636.66364583333</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G199" s="2">
-        <v>23</v>
-      </c>
-      <c r="H199" s="2">
-        <v>0</v>
-      </c>
-      <c r="I199" s="2">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10">
-      <c r="A200" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B200" s="2">
-        <v>45636.34567129629</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D200" s="2">
-        <v>45636.67059027778</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G200" s="2">
-        <v>19.5</v>
-      </c>
-      <c r="H200" s="2">
-        <v>0</v>
-      </c>
-      <c r="I200" s="2">
-        <v>0</v>
-      </c>
-      <c r="J200" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10">
-      <c r="A201" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B201" s="2">
-        <v>45636.20833333334</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D201" s="2">
-        <v>45636.33333333334</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G201" s="2">
-        <v>15</v>
-      </c>
-      <c r="H201" s="2">
-        <v>0</v>
-      </c>
-      <c r="I201" s="2">
-        <v>0</v>
-      </c>
-      <c r="J201" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10">
-      <c r="A202" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B202" s="2">
-        <v>45636.33934027778</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D202" s="2">
-        <v>45636.57457175926</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="G202" s="2">
-        <v>23.27</v>
-      </c>
-      <c r="H202" s="2">
-        <v>0</v>
-      </c>
-      <c r="I202" s="2">
-        <v>0</v>
-      </c>
-      <c r="J202" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10">
-      <c r="A203" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B203" s="2">
-        <v>45636.35328703704</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D203" s="2">
-        <v>45636.70833333334</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G203" s="2">
-        <v>16</v>
-      </c>
-      <c r="H203" s="2">
-        <v>0</v>
-      </c>
-      <c r="I203" s="2">
-        <v>0</v>
-      </c>
-      <c r="J203" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10">
-      <c r="A204" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B204" s="2">
-        <v>45636.34243055555</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D204" s="2">
-        <v>45636.72143518519</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G204" s="2">
-        <v>26.45</v>
-      </c>
-      <c r="H204" s="2">
-        <v>0</v>
-      </c>
-      <c r="I204" s="2">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10">
-      <c r="A205" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B205" s="2">
-        <v>45636.47802083333</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D205" s="2">
-        <v>45636.8125</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G205" s="2">
-        <v>24.04</v>
-      </c>
-      <c r="H205" s="2">
-        <v>0</v>
-      </c>
-      <c r="I205" s="2">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10">
-      <c r="A206" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B206" s="2">
-        <v>45636.32891203704</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D206" s="2">
-        <v>45636.45303240741</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G206" s="2">
-        <v>13.65</v>
-      </c>
-      <c r="H206" s="2">
-        <v>0</v>
-      </c>
-      <c r="I206" s="2">
-        <v>0</v>
-      </c>
-      <c r="J206" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10">
-      <c r="A207" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B207" s="2">
-        <v>45636.33333333334</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D207" s="2">
-        <v>45636.33333333334</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G207" s="2">
-        <v>0</v>
-      </c>
-      <c r="H207" s="2">
-        <v>8</v>
-      </c>
-      <c r="I207" s="2">
-        <v>0</v>
-      </c>
-      <c r="J207" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10">
-      <c r="A208" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B208" s="2">
-        <v>45636.38693287037</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D208" s="2">
-        <v>45636.71399305556</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G208" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="H208" s="2">
-        <v>0</v>
-      </c>
-      <c r="I208" s="2">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Prior Year)_Payroll.xlsx
+++ b/reports/For The Day (Prior Year)_Payroll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="262">
   <si>
     <t>eecode</t>
   </si>
@@ -46,7 +46,7 @@
     <t>DepartmentTitle</t>
   </si>
   <si>
-    <t>A607</t>
+    <t>A1ZJ</t>
   </si>
   <si>
     <t>ID</t>
@@ -61,73 +61,67 @@
     <t>Lift Operations</t>
   </si>
   <si>
-    <t>J559</t>
-  </si>
-  <si>
-    <t>A2CL</t>
-  </si>
-  <si>
-    <t>A280</t>
-  </si>
-  <si>
-    <t>A0OV</t>
-  </si>
-  <si>
-    <t>A2DR</t>
-  </si>
-  <si>
-    <t>A0QB</t>
-  </si>
-  <si>
-    <t>A2BX</t>
-  </si>
-  <si>
-    <t>J323</t>
-  </si>
-  <si>
-    <t>D816</t>
-  </si>
-  <si>
-    <t>A0Q5</t>
-  </si>
-  <si>
-    <t>F058</t>
-  </si>
-  <si>
-    <t>I304</t>
-  </si>
-  <si>
-    <t>A161</t>
-  </si>
-  <si>
-    <t>C282</t>
-  </si>
-  <si>
-    <t>H632</t>
-  </si>
-  <si>
-    <t>A0BS</t>
-  </si>
-  <si>
-    <t>A2CJ</t>
-  </si>
-  <si>
-    <t>B202</t>
-  </si>
-  <si>
-    <t>G138</t>
-  </si>
-  <si>
-    <t>D776</t>
-  </si>
-  <si>
-    <t>H777</t>
-  </si>
-  <si>
-    <t>D954</t>
-  </si>
-  <si>
-    <t>A1VF</t>
+    <t>A2FM</t>
+  </si>
+  <si>
+    <t>A28L</t>
+  </si>
+  <si>
+    <t>A27B</t>
+  </si>
+  <si>
+    <t>A2G4</t>
+  </si>
+  <si>
+    <t>A2G2</t>
+  </si>
+  <si>
+    <t>A28D</t>
+  </si>
+  <si>
+    <t>A20Y</t>
+  </si>
+  <si>
+    <t>A0QF</t>
+  </si>
+  <si>
+    <t>B778</t>
+  </si>
+  <si>
+    <t>B197</t>
+  </si>
+  <si>
+    <t>A2AN</t>
+  </si>
+  <si>
+    <t>A0P4</t>
+  </si>
+  <si>
+    <t>I342</t>
+  </si>
+  <si>
+    <t>G125</t>
+  </si>
+  <si>
+    <t>H665</t>
+  </si>
+  <si>
+    <t>A2G3</t>
+  </si>
+  <si>
+    <t>A25Z</t>
+  </si>
+  <si>
+    <t>B746</t>
+  </si>
+  <si>
+    <t>A2FO</t>
+  </si>
+  <si>
+    <t>D399</t>
+  </si>
+  <si>
+    <t>E270</t>
   </si>
   <si>
     <t>D1020</t>
@@ -136,19 +130,22 @@
     <t>Lift Maintenance</t>
   </si>
   <si>
-    <t>E657</t>
-  </si>
-  <si>
-    <t>B221</t>
-  </si>
-  <si>
-    <t>H095</t>
-  </si>
-  <si>
-    <t>I384</t>
-  </si>
-  <si>
-    <t>A20W</t>
+    <t>D519</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>E302</t>
+  </si>
+  <si>
+    <t>C492</t>
+  </si>
+  <si>
+    <t>A22D</t>
+  </si>
+  <si>
+    <t>F787</t>
   </si>
   <si>
     <t>D1030</t>
@@ -157,28 +154,43 @@
     <t>Snowmaking</t>
   </si>
   <si>
-    <t>A0QK</t>
-  </si>
-  <si>
-    <t>J561</t>
-  </si>
-  <si>
-    <t>A13B</t>
-  </si>
-  <si>
-    <t>A675</t>
-  </si>
-  <si>
-    <t>A2QO</t>
-  </si>
-  <si>
-    <t>A2DK</t>
-  </si>
-  <si>
-    <t>A0QH</t>
-  </si>
-  <si>
-    <t>I305</t>
+    <t>A1ZX</t>
+  </si>
+  <si>
+    <t>A20O</t>
+  </si>
+  <si>
+    <t>C666</t>
+  </si>
+  <si>
+    <t>A449</t>
+  </si>
+  <si>
+    <t>H931</t>
+  </si>
+  <si>
+    <t>A23C</t>
+  </si>
+  <si>
+    <t>H731</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>Terrain Park</t>
+  </si>
+  <si>
+    <t>H125</t>
+  </si>
+  <si>
+    <t>F499</t>
+  </si>
+  <si>
+    <t>I238</t>
+  </si>
+  <si>
+    <t>A0H1</t>
   </si>
   <si>
     <t>D1070</t>
@@ -187,19 +199,25 @@
     <t>Trail Maintenance</t>
   </si>
   <si>
-    <t>I806</t>
-  </si>
-  <si>
-    <t>C349</t>
-  </si>
-  <si>
-    <t>A468</t>
-  </si>
-  <si>
-    <t>E420</t>
-  </si>
-  <si>
-    <t>A20A</t>
+    <t>J169</t>
+  </si>
+  <si>
+    <t>C653</t>
+  </si>
+  <si>
+    <t>A1T8</t>
+  </si>
+  <si>
+    <t>A2UN</t>
+  </si>
+  <si>
+    <t>D941</t>
+  </si>
+  <si>
+    <t>A22N</t>
+  </si>
+  <si>
+    <t>OL</t>
   </si>
   <si>
     <t>D1100</t>
@@ -208,10 +226,13 @@
     <t>Vehicle Maintenance</t>
   </si>
   <si>
-    <t>B567</t>
-  </si>
-  <si>
-    <t>A1OP</t>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>A0RD</t>
+  </si>
+  <si>
+    <t>A0JG</t>
   </si>
   <si>
     <t>D1200</t>
@@ -220,37 +241,43 @@
     <t>Ski Patrol</t>
   </si>
   <si>
-    <t>A400</t>
-  </si>
-  <si>
-    <t>D619</t>
-  </si>
-  <si>
-    <t>G573</t>
-  </si>
-  <si>
-    <t>F124</t>
-  </si>
-  <si>
-    <t>E835</t>
-  </si>
-  <si>
-    <t>D576</t>
-  </si>
-  <si>
-    <t>E660</t>
-  </si>
-  <si>
-    <t>A235</t>
-  </si>
-  <si>
-    <t>F013</t>
-  </si>
-  <si>
-    <t>G381</t>
-  </si>
-  <si>
-    <t>F959</t>
+    <t>H474</t>
+  </si>
+  <si>
+    <t>B162</t>
+  </si>
+  <si>
+    <t>E471</t>
+  </si>
+  <si>
+    <t>J024</t>
+  </si>
+  <si>
+    <t>I403</t>
+  </si>
+  <si>
+    <t>H620</t>
+  </si>
+  <si>
+    <t>E520</t>
+  </si>
+  <si>
+    <t>D494</t>
+  </si>
+  <si>
+    <t>F946</t>
+  </si>
+  <si>
+    <t>B878</t>
+  </si>
+  <si>
+    <t>B898</t>
+  </si>
+  <si>
+    <t>G076</t>
+  </si>
+  <si>
+    <t>A511</t>
   </si>
   <si>
     <t>D1500</t>
@@ -259,31 +286,19 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>A2H6</t>
-  </si>
-  <si>
-    <t>A24L</t>
-  </si>
-  <si>
-    <t>A2FK</t>
-  </si>
-  <si>
-    <t>A1F9</t>
-  </si>
-  <si>
-    <t>G675</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>A25J</t>
-  </si>
-  <si>
-    <t>E721</t>
-  </si>
-  <si>
-    <t>A0ZW</t>
+    <t>G910</t>
+  </si>
+  <si>
+    <t>A0DP</t>
+  </si>
+  <si>
+    <t>A2O6</t>
+  </si>
+  <si>
+    <t>A1BR</t>
+  </si>
+  <si>
+    <t>J352</t>
   </si>
   <si>
     <t>D2000</t>
@@ -292,19 +307,106 @@
     <t>Ski School</t>
   </si>
   <si>
-    <t>A197</t>
-  </si>
-  <si>
-    <t>G605</t>
-  </si>
-  <si>
-    <t>F894</t>
-  </si>
-  <si>
-    <t>E190</t>
-  </si>
-  <si>
-    <t>A2OJ</t>
+    <t>A2J8</t>
+  </si>
+  <si>
+    <t>A2AH</t>
+  </si>
+  <si>
+    <t>G292</t>
+  </si>
+  <si>
+    <t>G179</t>
+  </si>
+  <si>
+    <t>A196</t>
+  </si>
+  <si>
+    <t>F361</t>
+  </si>
+  <si>
+    <t>A2SF</t>
+  </si>
+  <si>
+    <t>F403</t>
+  </si>
+  <si>
+    <t>J038</t>
+  </si>
+  <si>
+    <t>A2G8</t>
+  </si>
+  <si>
+    <t>E715</t>
+  </si>
+  <si>
+    <t>A24M</t>
+  </si>
+  <si>
+    <t>A26E</t>
+  </si>
+  <si>
+    <t>A0D7</t>
+  </si>
+  <si>
+    <t>F596</t>
+  </si>
+  <si>
+    <t>A2AK</t>
+  </si>
+  <si>
+    <t>A2AI</t>
+  </si>
+  <si>
+    <t>A24U</t>
+  </si>
+  <si>
+    <t>A2TX</t>
+  </si>
+  <si>
+    <t>A1KS</t>
+  </si>
+  <si>
+    <t>I932</t>
+  </si>
+  <si>
+    <t>D407</t>
+  </si>
+  <si>
+    <t>H440</t>
+  </si>
+  <si>
+    <t>A27C</t>
+  </si>
+  <si>
+    <t>A27J</t>
+  </si>
+  <si>
+    <t>A27U</t>
+  </si>
+  <si>
+    <t>A29N</t>
+  </si>
+  <si>
+    <t>C655</t>
+  </si>
+  <si>
+    <t>A0FQ</t>
+  </si>
+  <si>
+    <t>A2W1</t>
+  </si>
+  <si>
+    <t>D2200</t>
+  </si>
+  <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>A2W0</t>
+  </si>
+  <si>
+    <t>A0XT</t>
   </si>
   <si>
     <t>D3000</t>
@@ -313,178 +415,223 @@
     <t>Rentals</t>
   </si>
   <si>
-    <t>A2BQ</t>
-  </si>
-  <si>
-    <t>A842</t>
-  </si>
-  <si>
-    <t>A2PN</t>
-  </si>
-  <si>
-    <t>A2PM</t>
-  </si>
-  <si>
-    <t>A2I3</t>
-  </si>
-  <si>
-    <t>A2IB</t>
-  </si>
-  <si>
-    <t>A2I9</t>
-  </si>
-  <si>
-    <t>A0RX</t>
-  </si>
-  <si>
-    <t>I424</t>
-  </si>
-  <si>
-    <t>A2PL</t>
-  </si>
-  <si>
-    <t>D259</t>
-  </si>
-  <si>
-    <t>H439</t>
-  </si>
-  <si>
-    <t>E825</t>
-  </si>
-  <si>
-    <t>D3050</t>
-  </si>
-  <si>
-    <t>Rental Repair Shop</t>
-  </si>
-  <si>
-    <t>G987</t>
-  </si>
-  <si>
-    <t>B622</t>
-  </si>
-  <si>
-    <t>D4032</t>
-  </si>
-  <si>
-    <t>Hart Prairie Retail</t>
-  </si>
-  <si>
-    <t>A2IE</t>
-  </si>
-  <si>
-    <t>A2L1</t>
-  </si>
-  <si>
-    <t>C217</t>
-  </si>
-  <si>
-    <t>A2TC</t>
-  </si>
-  <si>
-    <t>D4034</t>
-  </si>
-  <si>
-    <t>Fort Valley Lodge</t>
-  </si>
-  <si>
-    <t>A2KU</t>
-  </si>
-  <si>
-    <t>D5110</t>
-  </si>
-  <si>
-    <t>Agassiz Restaurant</t>
-  </si>
-  <si>
-    <t>A464</t>
-  </si>
-  <si>
-    <t>A0TT</t>
-  </si>
-  <si>
-    <t>A1K2</t>
-  </si>
-  <si>
-    <t>F486</t>
-  </si>
-  <si>
-    <t>D676</t>
-  </si>
-  <si>
-    <t>A2KI</t>
-  </si>
-  <si>
-    <t>D5111</t>
-  </si>
-  <si>
-    <t>Hart Prairie Restaurant</t>
-  </si>
-  <si>
-    <t>A2K5</t>
-  </si>
-  <si>
-    <t>A0VA</t>
-  </si>
-  <si>
-    <t>B302</t>
-  </si>
-  <si>
-    <t>F346</t>
-  </si>
-  <si>
-    <t>A2KK</t>
-  </si>
-  <si>
-    <t>B006</t>
-  </si>
-  <si>
-    <t>G515</t>
-  </si>
-  <si>
-    <t>C926</t>
-  </si>
-  <si>
-    <t>H310</t>
-  </si>
-  <si>
-    <t>H848</t>
-  </si>
-  <si>
-    <t>A04U</t>
-  </si>
-  <si>
-    <t>D5112</t>
-  </si>
-  <si>
-    <t>Base Camp Restaurant</t>
-  </si>
-  <si>
-    <t>A1K9</t>
-  </si>
-  <si>
-    <t>A22Z</t>
-  </si>
-  <si>
-    <t>C348</t>
-  </si>
-  <si>
-    <t>D6030</t>
-  </si>
-  <si>
-    <t>Base Camp Hotel</t>
-  </si>
-  <si>
-    <t>A542</t>
-  </si>
-  <si>
-    <t>H083</t>
-  </si>
-  <si>
-    <t>E926</t>
-  </si>
-  <si>
-    <t>A27Z</t>
+    <t>B637</t>
+  </si>
+  <si>
+    <t>A1CS</t>
+  </si>
+  <si>
+    <t>A2AA</t>
+  </si>
+  <si>
+    <t>E582</t>
+  </si>
+  <si>
+    <t>A0SZ</t>
+  </si>
+  <si>
+    <t>D126</t>
+  </si>
+  <si>
+    <t>J071</t>
+  </si>
+  <si>
+    <t>D4053</t>
+  </si>
+  <si>
+    <t>Expert Edge</t>
+  </si>
+  <si>
+    <t>C173</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>Purg Sports Resort</t>
+  </si>
+  <si>
+    <t>D510</t>
+  </si>
+  <si>
+    <t>A2HI</t>
+  </si>
+  <si>
+    <t>E547</t>
+  </si>
+  <si>
+    <t>G111</t>
+  </si>
+  <si>
+    <t>I552</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>Purg Sports Main Ave</t>
+  </si>
+  <si>
+    <t>D224</t>
+  </si>
+  <si>
+    <t>A2JC</t>
+  </si>
+  <si>
+    <t>A15G</t>
+  </si>
+  <si>
+    <t>I308</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
+    <t>A1KM</t>
+  </si>
+  <si>
+    <t>A332</t>
+  </si>
+  <si>
+    <t>E655</t>
+  </si>
+  <si>
+    <t>E051</t>
+  </si>
+  <si>
+    <t>D5202</t>
+  </si>
+  <si>
+    <t>Dante's</t>
+  </si>
+  <si>
+    <t>A2U8</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>C149</t>
+  </si>
+  <si>
+    <t>A2U7</t>
+  </si>
+  <si>
+    <t>C557</t>
+  </si>
+  <si>
+    <t>A20D</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>Paradise</t>
+  </si>
+  <si>
+    <t>A22O</t>
+  </si>
+  <si>
+    <t>I216</t>
+  </si>
+  <si>
+    <t>C516</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>A0T1</t>
+  </si>
+  <si>
+    <t>D499</t>
+  </si>
+  <si>
+    <t>A18A</t>
+  </si>
+  <si>
+    <t>A2US</t>
+  </si>
+  <si>
+    <t>E296</t>
+  </si>
+  <si>
+    <t>A2I0</t>
+  </si>
+  <si>
+    <t>A2JB</t>
+  </si>
+  <si>
+    <t>A2HM</t>
+  </si>
+  <si>
+    <t>E437</t>
+  </si>
+  <si>
+    <t>A739</t>
+  </si>
+  <si>
+    <t>A2I4</t>
+  </si>
+  <si>
+    <t>D5209</t>
+  </si>
+  <si>
+    <t>Village Market Deli</t>
+  </si>
+  <si>
+    <t>J434</t>
+  </si>
+  <si>
+    <t>H608</t>
+  </si>
+  <si>
+    <t>J465</t>
+  </si>
+  <si>
+    <t>D5820</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>D283</t>
+  </si>
+  <si>
+    <t>D6212</t>
+  </si>
+  <si>
+    <t>Purgatory</t>
+  </si>
+  <si>
+    <t>B276</t>
+  </si>
+  <si>
+    <t>A1N1</t>
+  </si>
+  <si>
+    <t>A22R</t>
+  </si>
+  <si>
+    <t>F423</t>
+  </si>
+  <si>
+    <t>F298</t>
+  </si>
+  <si>
+    <t>A0AQ</t>
+  </si>
+  <si>
+    <t>G956</t>
   </si>
   <si>
     <t>D6215</t>
@@ -493,10 +640,34 @@
     <t>Housekeeping</t>
   </si>
   <si>
-    <t>A2HX</t>
-  </si>
-  <si>
-    <t>A0RB</t>
+    <t>I060</t>
+  </si>
+  <si>
+    <t>J489</t>
+  </si>
+  <si>
+    <t>G955</t>
+  </si>
+  <si>
+    <t>J492</t>
+  </si>
+  <si>
+    <t>C825</t>
+  </si>
+  <si>
+    <t>D6700</t>
+  </si>
+  <si>
+    <t>Resort Services G&amp;A</t>
+  </si>
+  <si>
+    <t>A2S6</t>
+  </si>
+  <si>
+    <t>D6720</t>
+  </si>
+  <si>
+    <t>Guest Services</t>
   </si>
   <si>
     <t>D6721</t>
@@ -505,13 +676,10 @@
     <t>Parking</t>
   </si>
   <si>
-    <t>B2SP</t>
-  </si>
-  <si>
-    <t>A0R9</t>
-  </si>
-  <si>
-    <t>A1SS</t>
+    <t>E877</t>
+  </si>
+  <si>
+    <t>I836</t>
   </si>
   <si>
     <t>D6730</t>
@@ -520,37 +688,22 @@
     <t>Security</t>
   </si>
   <si>
-    <t>B322</t>
-  </si>
-  <si>
-    <t>D6740</t>
-  </si>
-  <si>
-    <t>Janitorial</t>
-  </si>
-  <si>
-    <t>A2GP</t>
-  </si>
-  <si>
-    <t>C947</t>
-  </si>
-  <si>
-    <t>A2GO</t>
-  </si>
-  <si>
-    <t>A1YM</t>
-  </si>
-  <si>
-    <t>A0IJ</t>
-  </si>
-  <si>
-    <t>D6760</t>
-  </si>
-  <si>
-    <t>Facilities Maintenance</t>
-  </si>
-  <si>
-    <t>A173</t>
+    <t>A28C</t>
+  </si>
+  <si>
+    <t>D6750</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>A2DH</t>
+  </si>
+  <si>
+    <t>A976</t>
+  </si>
+  <si>
+    <t>A0HT</t>
   </si>
   <si>
     <t>D6780</t>
@@ -559,7 +712,22 @@
     <t>Grounds Maintenance</t>
   </si>
   <si>
-    <t>H094</t>
+    <t>A2N0</t>
+  </si>
+  <si>
+    <t>A2JA</t>
+  </si>
+  <si>
+    <t>E609</t>
+  </si>
+  <si>
+    <t>A605</t>
+  </si>
+  <si>
+    <t>G859</t>
+  </si>
+  <si>
+    <t>A0ZP</t>
   </si>
   <si>
     <t>D6790</t>
@@ -568,7 +736,37 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>A393</t>
+    <t>A2BI</t>
+  </si>
+  <si>
+    <t>J483</t>
+  </si>
+  <si>
+    <t>A03K</t>
+  </si>
+  <si>
+    <t>A26A</t>
+  </si>
+  <si>
+    <t>A1Z8</t>
+  </si>
+  <si>
+    <t>D7000</t>
+  </si>
+  <si>
+    <t>Marketing G&amp;A</t>
+  </si>
+  <si>
+    <t>A492</t>
+  </si>
+  <si>
+    <t>D7010</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>D737</t>
   </si>
   <si>
     <t>D8020</t>
@@ -577,19 +775,22 @@
     <t>Accounting</t>
   </si>
   <si>
-    <t>G582</t>
-  </si>
-  <si>
-    <t>D575</t>
+    <t>A2KR</t>
   </si>
   <si>
     <t>D8040</t>
   </si>
   <si>
-    <t>A523</t>
-  </si>
-  <si>
-    <t>B785</t>
+    <t>A02N</t>
+  </si>
+  <si>
+    <t>H962</t>
+  </si>
+  <si>
+    <t>A0Q0</t>
+  </si>
+  <si>
+    <t>A23L</t>
   </si>
   <si>
     <t>D8060</t>
@@ -598,22 +799,7 @@
     <t>IT Services</t>
   </si>
   <si>
-    <t>F295</t>
-  </si>
-  <si>
-    <t>E684</t>
-  </si>
-  <si>
-    <t>D9007</t>
-  </si>
-  <si>
-    <t>Capital Project 8</t>
-  </si>
-  <si>
-    <t>F514</t>
-  </si>
-  <si>
-    <t>F703</t>
+    <t>A1ZP</t>
   </si>
 </sst>
 </file>
@@ -976,7 +1162,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J156"/>
+  <dimension ref="A1:J208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -990,7 +1176,7 @@
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1030,13 +1216,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>45636.32416666667</v>
+        <v>45636.32232638889</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>45636.69243055556</v>
+        <v>45636.66362268518</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -1045,7 +1231,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="2">
-        <v>17.75</v>
+        <v>14.5</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -1062,13 +1248,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>45636.32331018519</v>
+        <v>45636.31168981481</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>45636.69197916667</v>
+        <v>45636.52083333334</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1077,7 +1263,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="2">
-        <v>17.75</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1094,13 +1280,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>45636.32956018519</v>
+        <v>45636.3128125</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>45636.69137731481</v>
+        <v>45636.68703703704</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -1109,7 +1295,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="2">
-        <v>17.85</v>
+        <v>15.5</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1126,13 +1312,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>45636.33333333334</v>
+        <v>45636.30349537037</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>45636.71527777778</v>
+        <v>45636.71599537037</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -1141,7 +1327,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="2">
-        <v>19.15</v>
+        <v>15.5</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1158,13 +1344,13 @@
         <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>45636.32376157407</v>
+        <v>45636.31662037037</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>45636.69775462963</v>
+        <v>45636.72222222222</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -1173,7 +1359,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="2">
-        <v>17.4</v>
+        <v>15.5</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1190,13 +1376,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>45636.32743055555</v>
+        <v>45636.31932870371</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>45636.68295138889</v>
+        <v>45636.72189814815</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -1205,7 +1391,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="2">
-        <v>17.85</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1222,13 +1408,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>45636.32335648148</v>
+        <v>45636.32753472222</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2">
-        <v>45636.69202546297</v>
+        <v>45636.72046296296</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -1237,7 +1423,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="2">
-        <v>17.4</v>
+        <v>14.5</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1254,13 +1440,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>45636.32848379629</v>
+        <v>45636.37512731482</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>45636.69791666666</v>
+        <v>45636.68212962963</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -1269,7 +1455,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="2">
-        <v>17.85</v>
+        <v>15.5</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1286,13 +1472,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>45636.33333333334</v>
+        <v>45636.31243055555</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2">
-        <v>45636.69791666666</v>
+        <v>45636.72060185186</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
@@ -1301,7 +1487,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="2">
-        <v>16.8</v>
+        <v>15.5</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1318,13 +1504,13 @@
         <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>45636.3250462963</v>
+        <v>45636.31302083333</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2">
-        <v>45636.69918981481</v>
+        <v>45636.68563657408</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
@@ -1333,7 +1519,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="2">
-        <v>17.65</v>
+        <v>15.5</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1350,13 +1536,13 @@
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>45636.32508101852</v>
+        <v>45636.29642361111</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>45636.69851851852</v>
+        <v>45636.68305555556</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
@@ -1365,7 +1551,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="2">
-        <v>17.4</v>
+        <v>19.57</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1382,13 +1568,13 @@
         <v>25</v>
       </c>
       <c r="B13" s="2">
-        <v>45636.33070601852</v>
+        <v>45636.32291666666</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>45636.70157407408</v>
+        <v>45636.71875</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
@@ -1397,7 +1583,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="2">
-        <v>18.25</v>
+        <v>14.5</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1414,13 +1600,13 @@
         <v>26</v>
       </c>
       <c r="B14" s="2">
-        <v>45636.32291666666</v>
+        <v>45636.31260416667</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="2">
-        <v>45636.7059837963</v>
+        <v>45636.71636574074</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
@@ -1429,7 +1615,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="2">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1446,13 +1632,13 @@
         <v>27</v>
       </c>
       <c r="B15" s="2">
-        <v>45636.32291666666</v>
+        <v>45636.30200231481</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>45636.69444444445</v>
+        <v>45636.72464120371</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -1461,7 +1647,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1478,13 +1664,13 @@
         <v>28</v>
       </c>
       <c r="B16" s="2">
-        <v>45636.31857638889</v>
+        <v>45636.31579861111</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="2">
-        <v>45636.70447916666</v>
+        <v>45636.70833333334</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>12</v>
@@ -1493,7 +1679,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="2">
-        <v>17.75</v>
+        <v>15.5</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1510,13 +1696,13 @@
         <v>29</v>
       </c>
       <c r="B17" s="2">
-        <v>45636.32197916666</v>
+        <v>45636.30189814815</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="2">
-        <v>45636.71009259259</v>
+        <v>45636.72474537037</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -1525,7 +1711,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="2">
-        <v>24.35</v>
+        <v>20.57</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1542,13 +1728,13 @@
         <v>30</v>
       </c>
       <c r="B18" s="2">
-        <v>45636.32818287037</v>
+        <v>45636.3184375</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="2">
-        <v>45636.69041666666</v>
+        <v>45636.6733912037</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
@@ -1557,7 +1743,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="2">
-        <v>17.4</v>
+        <v>15</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1580,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="2">
-        <v>45636.69145833333</v>
+        <v>45636.6875</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
@@ -1589,7 +1775,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="2">
-        <v>17.85</v>
+        <v>15.5</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1606,13 +1792,13 @@
         <v>32</v>
       </c>
       <c r="B20" s="2">
-        <v>45636.32638888889</v>
+        <v>45636.3018287037</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="2">
-        <v>45636.70138888889</v>
+        <v>45636.72489583334</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>12</v>
@@ -1621,7 +1807,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="2">
-        <v>17.75</v>
+        <v>19</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1638,13 +1824,13 @@
         <v>33</v>
       </c>
       <c r="B21" s="2">
-        <v>45636.33363425926</v>
+        <v>45636.31111111111</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="2">
-        <v>45636.69797453703</v>
+        <v>45636.72040509259</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>12</v>
@@ -1653,7 +1839,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="2">
-        <v>17.4</v>
+        <v>15.5</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1670,13 +1856,13 @@
         <v>34</v>
       </c>
       <c r="B22" s="2">
-        <v>45636.32362268519</v>
+        <v>45636.30212962963</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2">
-        <v>45636.70743055556</v>
+        <v>45636.72452546296</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>12</v>
@@ -1685,7 +1871,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="2">
-        <v>18.25</v>
+        <v>21.68</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1702,22 +1888,22 @@
         <v>35</v>
       </c>
       <c r="B23" s="2">
-        <v>45636.56762731481</v>
+        <v>45636.23392361111</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="2">
-        <v>45636.70916666667</v>
+        <v>45636.69648148148</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G23" s="2">
-        <v>18.25</v>
+        <v>35.43</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1726,62 +1912,62 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2">
-        <v>45636.32445601852</v>
+        <v>45636.33333333334</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2">
-        <v>45636.56759259259</v>
+        <v>45636.33333333334</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G24" s="2">
-        <v>18.25</v>
+        <v>21.57</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45636.26077546296</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45636.69511574074</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="2">
-        <v>45636.33208333333</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="2">
-        <v>45636.70186342593</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="G25" s="2">
-        <v>17.4</v>
+        <v>29.87</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1790,62 +1976,62 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45636.27017361111</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45636.68987268519</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="2">
+        <v>21.56</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B26" s="2">
-        <v>45636.29034722222</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="2">
-        <v>45636.70989583333</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="2">
-        <v>18.25</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2">
-        <v>45636.67708333334</v>
+        <v>45636.2803587963</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2">
-        <v>45636.78819444445</v>
+        <v>45636.68621527778</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G27" s="2">
-        <v>45.68</v>
+        <v>18.5</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1854,30 +2040,30 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2">
-        <v>45636.2899537037</v>
+        <v>45636.4662962963</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="2">
-        <v>45636.70980324074</v>
+        <v>45636.99679398148</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G28" s="2">
-        <v>22.1</v>
+        <v>24.72</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1886,30 +2072,30 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2">
-        <v>45636.28795138889</v>
+        <v>45636.94791666666</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="2">
-        <v>45636.71109953704</v>
+        <v>45637.45833333334</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G29" s="2">
-        <v>21.85</v>
+        <v>18</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1918,30 +2104,30 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2">
-        <v>45636.28824074074</v>
+        <v>45636.94297453704</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="2">
-        <v>45636.71467592593</v>
+        <v>45637.47623842592</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G30" s="2">
-        <v>21.85</v>
+        <v>18.36</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1950,158 +2136,158 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45636.94288194444</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45637.48015046296</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="2">
-        <v>45636.50032407408</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="2">
-        <v>45637.0625</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2">
+        <v>22.7</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="G31" s="2">
-        <v>25.1</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2">
-        <v>45636.59898148148</v>
+        <v>45636.96018518518</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="2">
-        <v>45637.01388888889</v>
+        <v>45637.46802083333</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="2">
+        <v>21.8</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="G32" s="2">
-        <v>19.15</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2">
-        <v>45636.59883101852</v>
+        <v>45636.44912037037</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="2">
-        <v>45637.01388888889</v>
+        <v>45637</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="2">
+        <v>23.75</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="G33" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2">
-        <v>45636.00859953704</v>
+        <v>45636.64583333334</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="2">
-        <v>45636.4991087963</v>
+        <v>45636.95972222222</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="2">
+        <v>18.36</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="G34" s="2">
-        <v>17.4</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2">
-        <v>45636.47765046296</v>
+        <v>45636.3125</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="2">
-        <v>45637.02173611111</v>
+        <v>45636.74011574074</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G35" s="2">
-        <v>21.25</v>
+        <v>22.66</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2110,30 +2296,30 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2">
-        <v>45636.50270833333</v>
+        <v>45636.74009259259</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="2">
-        <v>45637.01449074074</v>
+        <v>45636.74011574074</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G36" s="2">
-        <v>19.65</v>
+        <v>22.66</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -2142,30 +2328,30 @@
         <v>0</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="2">
-        <v>45636.99332175926</v>
+        <v>45636.64027777778</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="2">
-        <v>45637.51924768519</v>
+        <v>45636.9278125</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G37" s="2">
-        <v>19.65</v>
+        <v>19</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -2174,30 +2360,30 @@
         <v>0</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45636.31521990741</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45636.73981481481</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="2">
-        <v>45636.0042824074</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="2">
-        <v>45636.53032407408</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G38" s="2">
-        <v>19.15</v>
+        <v>16.5</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2206,62 +2392,62 @@
         <v>0</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45636.31087962963</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2">
+        <v>45636.73657407407</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="2">
+        <v>16</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B39" s="2">
-        <v>45636.04581018518</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="2">
-        <v>45636.39085648148</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="2">
-        <v>18.6</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2">
-        <v>45636.68407407407</v>
+        <v>45636.3125</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="2">
-        <v>45637.05872685185</v>
+        <v>45636.76041666666</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G40" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2270,30 +2456,30 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B41" s="2">
-        <v>45636.68376157407</v>
+        <v>45636.46739583334</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="2">
-        <v>45636.94846064815</v>
+        <v>45636.98958333334</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G41" s="2">
-        <v>27.81</v>
+        <v>18.55</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2302,30 +2488,30 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45636.6391087963</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="2">
+        <v>45637.01263888889</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="2">
-        <v>45636.68398148148</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="2">
-        <v>45636.89265046296</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="G42" s="2">
-        <v>22.2</v>
+        <v>21</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2334,62 +2520,62 @@
         <v>0</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45636.6265162037</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="2">
+        <v>45636.99038194444</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="2">
+        <v>22.66</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B43" s="2">
-        <v>45636.0341550926</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="2">
-        <v>45636.39613425926</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" s="2">
-        <v>30</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B44" s="2">
-        <v>45636.52103009259</v>
+        <v>45636</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="2">
-        <v>45636.68787037037</v>
+        <v>45636.41666666666</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G44" s="2">
-        <v>35</v>
+        <v>23.33</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2398,30 +2584,30 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B45" s="2">
-        <v>45636.33094907407</v>
+        <v>45636.46637731481</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="2">
-        <v>45636.50760416667</v>
+        <v>45636.98658564815</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G45" s="2">
-        <v>31.83</v>
+        <v>18.55</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2430,30 +2616,30 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46" s="2">
-        <v>45636.5275</v>
+        <v>45636.2928587963</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="2">
-        <v>45636.6982175926</v>
+        <v>45636.5344675926</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G46" s="2">
-        <v>31.83</v>
+        <v>29</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2462,30 +2648,30 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B47" s="2">
-        <v>45636.33320601852</v>
+        <v>45636.55524305555</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D47" s="2">
-        <v>45636.50055555555</v>
+        <v>45636.74097222222</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G47" s="2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2494,30 +2680,30 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B48" s="2">
-        <v>45636.31878472222</v>
+        <v>45636.56725694444</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D48" s="2">
-        <v>45636.71003472222</v>
+        <v>45636.74444444444</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G48" s="2">
-        <v>18.4</v>
+        <v>17</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2526,30 +2712,30 @@
         <v>0</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45636.27396990741</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="2">
+        <v>45636.52314814815</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="2">
-        <v>45636.326875</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="2">
-        <v>45636.71875</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G49" s="2">
-        <v>21.5</v>
+        <v>17</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2558,30 +2744,30 @@
         <v>0</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B50" s="2">
-        <v>45636.32071759259</v>
+        <v>45636.31631944444</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="2">
-        <v>45636.72844907407</v>
+        <v>45636.7066550926</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G50" s="2">
-        <v>21.2</v>
+        <v>19</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2590,30 +2776,30 @@
         <v>0</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2">
-        <v>45636.72769675926</v>
+        <v>45636.31114583334</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="2">
-        <v>45636.7277662037</v>
+        <v>45636.70690972222</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G51" s="2">
-        <v>22.5</v>
+        <v>21.34</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2622,30 +2808,30 @@
         <v>0</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B52" s="2">
-        <v>45636.53871527778</v>
+        <v>45636.31619212963</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="2">
-        <v>45636.66130787037</v>
+        <v>45636.70494212963</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G52" s="2">
-        <v>20.5</v>
+        <v>16.63</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2654,30 +2840,30 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2">
-        <v>45636.31967592592</v>
+        <v>45636.31081018518</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="2">
-        <v>45636.72778935185</v>
+        <v>45636.7059837963</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G53" s="2">
-        <v>19.5</v>
+        <v>24.59</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2686,30 +2872,30 @@
         <v>0</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="2">
+        <v>45636.3175462963</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="2">
+        <v>45636.70109953704</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="2">
-        <v>45636.32291666666</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="2">
-        <v>45636.72222222222</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G54" s="2">
-        <v>19</v>
+        <v>24.09</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2718,62 +2904,62 @@
         <v>0</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="2">
+        <v>45636.31070601852</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="2">
+        <v>45636.705625</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="2">
+        <v>20.06</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B55" s="2">
-        <v>45636.32506944444</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="2">
-        <v>45636.72325231481</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G55" s="2">
-        <v>18.8</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2">
-        <v>45636.31983796296</v>
+        <v>45636.3164699074</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="2">
-        <v>45636.72746527778</v>
+        <v>45636.70631944444</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G56" s="2">
-        <v>19.35</v>
+        <v>22.34</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2782,30 +2968,30 @@
         <v>0</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B57" s="2">
-        <v>45636.31944444445</v>
+        <v>45636.31059027778</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="2">
-        <v>45636.7277662037</v>
+        <v>45636.70649305556</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G57" s="2">
-        <v>22.5</v>
+        <v>19.06</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2814,30 +3000,30 @@
         <v>0</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2">
-        <v>45636.32119212963</v>
+        <v>45636.31219907408</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="2">
-        <v>45636.71780092592</v>
+        <v>45636.70611111111</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G58" s="2">
-        <v>19.5</v>
+        <v>20.06</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -2846,30 +3032,30 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2">
-        <v>45636.31979166667</v>
+        <v>45636.31092592593</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="2">
-        <v>45636.7190162037</v>
+        <v>45636.70550925926</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G59" s="2">
-        <v>21</v>
+        <v>19.27</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -2878,30 +3064,30 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2">
-        <v>45636.31748842593</v>
+        <v>45636.31128472222</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="2">
-        <v>45636.58034722223</v>
+        <v>45636.70578703703</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G60" s="2">
-        <v>18.6</v>
+        <v>25.84</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -2910,30 +3096,30 @@
         <v>0</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2">
-        <v>45636.30857638889</v>
+        <v>45636.31604166667</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D61" s="2">
-        <v>45636.77231481481</v>
+        <v>45636.70677083333</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G61" s="2">
-        <v>21.8</v>
+        <v>25.09</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -2942,30 +3128,30 @@
         <v>0</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2">
-        <v>45636.32140046296</v>
+        <v>45636.31420138889</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="2">
-        <v>45636.54431712963</v>
+        <v>45636.70134259259</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G62" s="2">
-        <v>18.25</v>
+        <v>23.84</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -2974,30 +3160,30 @@
         <v>0</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2">
-        <v>45636.63680555556</v>
+        <v>45636.53776620371</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D63" s="2">
-        <v>45636.63747685185</v>
+        <v>45636.70052083334</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G63" s="2">
-        <v>18.75</v>
+        <v>21.44</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -3006,30 +3192,30 @@
         <v>0</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2">
-        <v>45636.31976851852</v>
+        <v>45636.34130787037</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="2">
-        <v>45636.63747685185</v>
+        <v>45636.48215277777</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G64" s="2">
-        <v>18.75</v>
+        <v>16</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -3038,30 +3224,30 @@
         <v>0</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2">
-        <v>45636.32615740741</v>
+        <v>45636.34170138889</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="2">
-        <v>45636.66666666666</v>
+        <v>45636.52436342592</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G65" s="2">
-        <v>18.25</v>
+        <v>21.44</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
@@ -3070,62 +3256,62 @@
         <v>0</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2">
-        <v>45636.33333333334</v>
+        <v>45636.33369212963</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="D66" s="2">
-        <v>45636.33333333334</v>
+        <v>45636.70866898148</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G66" s="2">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="H66" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I66" s="2">
         <v>0</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2">
-        <v>45636.55548611111</v>
+        <v>45636.5175</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D67" s="2">
-        <v>45636.61667824074</v>
+        <v>45636.68555555555</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G67" s="2">
-        <v>18.75</v>
+        <v>15</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
@@ -3134,30 +3320,30 @@
         <v>0</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2">
-        <v>45636.31962962963</v>
+        <v>45636.32799768518</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="2">
-        <v>45636.53645833334</v>
+        <v>45636.5122337963</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G68" s="2">
-        <v>18.75</v>
+        <v>15</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -3166,30 +3352,30 @@
         <v>0</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45636.5029050926</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="2">
+        <v>45636.6712962963</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="2">
-        <v>45636.33331018518</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="2">
-        <v>45636.68347222222</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="G69" s="2">
-        <v>17.4</v>
+        <v>16</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -3198,103 +3384,103 @@
         <v>0</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="2">
+        <v>45636.35731481481</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="2">
+        <v>45636.55023148148</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G70" s="2">
+        <v>15</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B70" s="2">
-        <v>45636.32332175926</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="2">
-        <v>45636.46158564815</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G70" s="2">
-        <v>19.15</v>
-      </c>
-      <c r="H70" s="2">
-        <v>0</v>
-      </c>
-      <c r="I70" s="2">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2">
-        <v>45636.41666666666</v>
+        <v>45636</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D71" s="2">
-        <v>45636.5</v>
+        <v>45636</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G71" s="2">
-        <v>18.75</v>
+        <v>16.83</v>
       </c>
       <c r="H71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="2">
         <v>0</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2">
-        <v>45636.31842592593</v>
+        <v>45636</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D72" s="2">
-        <v>45636.6907175926</v>
+        <v>45636</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G72" s="2">
-        <v>19.15</v>
+        <v>16</v>
       </c>
       <c r="H72" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I72" s="2">
         <v>0</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3302,278 +3488,278 @@
         <v>94</v>
       </c>
       <c r="B73" s="2">
-        <v>45636.32337962963</v>
+        <v>45636</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D73" s="2">
-        <v>45636.69065972222</v>
+        <v>45636</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G73" s="2">
-        <v>25.45</v>
+        <v>16.83</v>
       </c>
       <c r="H73" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" s="2">
         <v>0</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="2">
+        <v>45636</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" s="2">
+        <v>45636</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B74" s="2">
-        <v>45636.3232175926</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="2">
-        <v>45636.6908912037</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="G74" s="2">
-        <v>25.35</v>
+        <v>16</v>
       </c>
       <c r="H74" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I74" s="2">
         <v>0</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="2">
+        <v>45636</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="2">
+        <v>45636</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G75" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="H75" s="2">
+        <v>6</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B75" s="2">
-        <v>45636.52787037037</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="2">
-        <v>45636.77245370371</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G75" s="2">
-        <v>17.85</v>
-      </c>
-      <c r="H75" s="2">
-        <v>0</v>
-      </c>
-      <c r="I75" s="2">
-        <v>0</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="2">
+        <v>45636</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" s="2">
+        <v>45636</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G76" s="2">
+        <v>16.83</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2">
+        <v>10</v>
+      </c>
+      <c r="J76" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B76" s="2">
-        <v>45636.32168981482</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="2">
-        <v>45636.51019675926</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G76" s="2">
-        <v>17.85</v>
-      </c>
-      <c r="H76" s="2">
-        <v>0</v>
-      </c>
-      <c r="I76" s="2">
-        <v>0</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2">
-        <v>45636.71344907407</v>
+        <v>45636</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D77" s="2">
-        <v>45636.79861111111</v>
+        <v>45636</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G77" s="2">
-        <v>17.85</v>
+        <v>24.16</v>
       </c>
       <c r="H77" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I77" s="2">
         <v>0</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2">
-        <v>45636.31184027778</v>
+        <v>45636</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D78" s="2">
-        <v>45636.68813657408</v>
+        <v>45636</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G78" s="2">
-        <v>18.6</v>
+        <v>16.22</v>
       </c>
       <c r="H78" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I78" s="2">
         <v>0</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2">
-        <v>45636.32331018519</v>
+        <v>45636</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D79" s="2">
-        <v>45636.60435185185</v>
+        <v>45636</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G79" s="2">
-        <v>17.85</v>
+        <v>14.5</v>
       </c>
       <c r="H79" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I79" s="2">
         <v>0</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2">
-        <v>45636.54164351852</v>
+        <v>45636</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D80" s="2">
-        <v>45636.54233796296</v>
+        <v>45636</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G80" s="2">
-        <v>17.85</v>
+        <v>30</v>
       </c>
       <c r="H80" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I80" s="2">
         <v>0</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2">
-        <v>45636.62202546297</v>
+        <v>45636.35671296297</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D81" s="2">
-        <v>45636.62211805556</v>
+        <v>45636.70833333334</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G81" s="2">
-        <v>17.85</v>
+        <v>18.72</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
@@ -3582,702 +3768,702 @@
         <v>0</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2">
-        <v>45636.7078125</v>
+        <v>45636</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D82" s="2">
-        <v>45636.77248842592</v>
+        <v>45636</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G82" s="2">
-        <v>17.85</v>
+        <v>14.92</v>
       </c>
       <c r="H82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="2">
         <v>0</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2">
-        <v>45636.70878472222</v>
+        <v>45636</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D83" s="2">
-        <v>45636.79833333333</v>
+        <v>45636</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G83" s="2">
-        <v>17.85</v>
+        <v>30</v>
       </c>
       <c r="H83" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I83" s="2">
         <v>0</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2">
-        <v>45636.70833333334</v>
+        <v>45636</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D84" s="2">
-        <v>45636.8125</v>
+        <v>45636</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G84" s="2">
-        <v>17.85</v>
+        <v>22.07</v>
       </c>
       <c r="H84" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I84" s="2">
         <v>0</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2">
-        <v>45636.63563657407</v>
+        <v>45636</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D85" s="2">
-        <v>45636.70621527778</v>
+        <v>45636</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G85" s="2">
-        <v>17.85</v>
+        <v>16</v>
       </c>
       <c r="H85" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I85" s="2">
         <v>0</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2">
-        <v>45636.56318287037</v>
+        <v>45636</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D86" s="2">
-        <v>45636.7746875</v>
+        <v>45636</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G86" s="2">
-        <v>17.85</v>
+        <v>16</v>
       </c>
       <c r="H86" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I86" s="2">
         <v>0</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2">
-        <v>45636.70833333334</v>
+        <v>45636</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D87" s="2">
-        <v>45636.8125</v>
+        <v>45636</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G87" s="2">
-        <v>17.4</v>
+        <v>18.5</v>
       </c>
       <c r="H87" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I87" s="2">
         <v>0</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2">
-        <v>45636.32223379629</v>
+        <v>45636</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D88" s="2">
-        <v>45636.54233796296</v>
+        <v>45636</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G88" s="2">
-        <v>17.85</v>
+        <v>18.72</v>
       </c>
       <c r="H88" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I88" s="2">
         <v>0</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2">
-        <v>45636.31832175926</v>
+        <v>45636</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D89" s="2">
-        <v>45636.53472222222</v>
+        <v>45636</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G89" s="2">
-        <v>18.75</v>
+        <v>17</v>
       </c>
       <c r="H89" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I89" s="2">
         <v>0</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2">
-        <v>45636.5558912037</v>
+        <v>45636</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D90" s="2">
-        <v>45636.70224537037</v>
+        <v>45636</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G90" s="2">
-        <v>18.75</v>
+        <v>30</v>
       </c>
       <c r="H90" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I90" s="2">
         <v>0</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B91" s="2">
-        <v>45636.57762731481</v>
+        <v>45636</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D91" s="2">
-        <v>45636.77083333334</v>
+        <v>45636</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G91" s="2">
-        <v>17.85</v>
+        <v>16</v>
       </c>
       <c r="H91" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I91" s="2">
         <v>0</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2">
-        <v>45636.69474537037</v>
+        <v>45636</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D92" s="2">
-        <v>45636.83177083333</v>
+        <v>45636</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G92" s="2">
-        <v>18.6</v>
+        <v>15</v>
       </c>
       <c r="H92" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I92" s="2">
         <v>0</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2">
-        <v>45636.32668981481</v>
+        <v>45636</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D93" s="2">
-        <v>45636.56491898148</v>
+        <v>45636</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G93" s="2">
-        <v>18.25</v>
+        <v>15.5</v>
       </c>
       <c r="H93" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I93" s="2">
         <v>0</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2">
-        <v>45636.63878472222</v>
+        <v>45636</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D94" s="2">
-        <v>45636.70518518519</v>
+        <v>45636</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G94" s="2">
-        <v>18.25</v>
+        <v>22.46</v>
       </c>
       <c r="H94" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" s="2">
         <v>0</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2">
-        <v>45636.31921296296</v>
+        <v>45636</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D95" s="2">
-        <v>45636.55751157407</v>
+        <v>45636</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G95" s="2">
-        <v>17.85</v>
+        <v>18.02</v>
       </c>
       <c r="H95" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I95" s="2">
         <v>0</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B96" s="2">
-        <v>45636.33288194444</v>
+        <v>45636</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D96" s="2">
-        <v>45636.68951388889</v>
+        <v>45636</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="G96" s="2">
-        <v>22.2</v>
+        <v>21.78</v>
       </c>
       <c r="H96" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I96" s="2">
         <v>0</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B97" s="2">
-        <v>45636.35725694444</v>
+        <v>45636</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D97" s="2">
-        <v>45636.57550925926</v>
+        <v>45636</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="G97" s="2">
-        <v>18.75</v>
+        <v>16</v>
       </c>
       <c r="H97" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I97" s="2">
         <v>0</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2">
-        <v>45636.71520833333</v>
+        <v>45636</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D98" s="2">
-        <v>45636.77152777778</v>
+        <v>45636</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="G98" s="2">
-        <v>18.25</v>
+        <v>30</v>
       </c>
       <c r="H98" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I98" s="2">
         <v>0</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B99" s="2">
-        <v>45636.70585648148</v>
+        <v>45636</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D99" s="2">
-        <v>45636.81111111111</v>
+        <v>45636</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="G99" s="2">
-        <v>17.85</v>
+        <v>16</v>
       </c>
       <c r="H99" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I99" s="2">
         <v>0</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B100" s="2">
-        <v>45636.69539351852</v>
+        <v>45636</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D100" s="2">
-        <v>45636.69540509259</v>
+        <v>45636</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="G100" s="2">
-        <v>17.85</v>
+        <v>54</v>
       </c>
       <c r="H100" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I100" s="2">
         <v>0</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B101" s="2">
-        <v>45636.32123842592</v>
+        <v>45636</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D101" s="2">
-        <v>45636.70351851852</v>
+        <v>45636</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="G101" s="2">
-        <v>18.25</v>
+        <v>17.3</v>
       </c>
       <c r="H101" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I101" s="2">
         <v>0</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B102" s="2">
-        <v>45636.34721064815</v>
+        <v>45636</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D102" s="2">
-        <v>45636.68766203704</v>
+        <v>45636</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="G102" s="2">
-        <v>17.65</v>
+        <v>17.3</v>
       </c>
       <c r="H102" s="2">
         <v>0</v>
       </c>
       <c r="I102" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B103" s="2">
-        <v>45636.37596064815</v>
+        <v>45636.33333333334</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D103" s="2">
-        <v>45636.7371412037</v>
+        <v>45636.68055555555</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="G103" s="2">
-        <v>17.85</v>
+        <v>16.5</v>
       </c>
       <c r="H103" s="2">
         <v>0</v>
@@ -4286,30 +4472,30 @@
         <v>0</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B104" s="2">
-        <v>45636.35510416667</v>
+        <v>45636.35763888889</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D104" s="2">
-        <v>45636.68700231481</v>
+        <v>45636.42858796296</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G104" s="2">
-        <v>17.85</v>
+        <v>15.5</v>
       </c>
       <c r="H104" s="2">
         <v>0</v>
@@ -4318,30 +4504,30 @@
         <v>0</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B105" s="2">
+        <v>45636.37141203704</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="2">
+        <v>45636.45457175926</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B105" s="2">
-        <v>45636.37056712963</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105" s="2">
-        <v>45636.45869212963</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="G105" s="2">
-        <v>17.65</v>
+        <v>16.5</v>
       </c>
       <c r="H105" s="2">
         <v>0</v>
@@ -4350,30 +4536,30 @@
         <v>0</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B106" s="2">
-        <v>45636.36086805556</v>
+        <v>45636.33510416667</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D106" s="2">
-        <v>45636.67290509259</v>
+        <v>45636.42238425926</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G106" s="2">
-        <v>17.4</v>
+        <v>17</v>
       </c>
       <c r="H106" s="2">
         <v>0</v>
@@ -4382,30 +4568,30 @@
         <v>0</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2">
-        <v>45636.24604166667</v>
+        <v>45636.33475694444</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D107" s="2">
-        <v>45636.41709490741</v>
+        <v>45636.42340277778</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G107" s="2">
-        <v>17.4</v>
+        <v>18</v>
       </c>
       <c r="H107" s="2">
         <v>0</v>
@@ -4414,30 +4600,30 @@
         <v>0</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B108" s="2">
-        <v>45636.378125</v>
+        <v>45636.32879629629</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D108" s="2">
-        <v>45636.73008101852</v>
+        <v>45636.55631944445</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G108" s="2">
-        <v>15.9</v>
+        <v>15</v>
       </c>
       <c r="H108" s="2">
         <v>0</v>
@@ -4446,30 +4632,30 @@
         <v>0</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B109" s="2">
+        <v>45636.32717592592</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="2">
+        <v>45636.55222222222</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B109" s="2">
-        <v>45636.36385416667</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="2">
-        <v>45636.67344907407</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="G109" s="2">
-        <v>19.65</v>
+        <v>15</v>
       </c>
       <c r="H109" s="2">
         <v>0</v>
@@ -4478,62 +4664,62 @@
         <v>0</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B110" s="2">
+        <v>45636.6619212963</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="2">
+        <v>45636.70858796296</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G110" s="2">
+        <v>15</v>
+      </c>
+      <c r="H110" s="2">
+        <v>0</v>
+      </c>
+      <c r="I110" s="2">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B110" s="2">
-        <v>45636.3334837963</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" s="2">
-        <v>45636.53353009259</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G110" s="2">
-        <v>17.85</v>
-      </c>
-      <c r="H110" s="2">
-        <v>0</v>
-      </c>
-      <c r="I110" s="2">
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B111" s="2">
-        <v>45636.45322916667</v>
+        <v>45636.63359953704</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D111" s="2">
-        <v>45636.68809027778</v>
+        <v>45636.70626157407</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G111" s="2">
-        <v>17.85</v>
+        <v>15</v>
       </c>
       <c r="H111" s="2">
         <v>0</v>
@@ -4542,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -4550,22 +4736,22 @@
         <v>136</v>
       </c>
       <c r="B112" s="2">
-        <v>45636.30494212963</v>
+        <v>45636.32726851852</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D112" s="2">
-        <v>45636.54369212963</v>
+        <v>45636.55732638889</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G112" s="2">
-        <v>17.4</v>
+        <v>15</v>
       </c>
       <c r="H112" s="2">
         <v>0</v>
@@ -4574,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4582,22 +4768,22 @@
         <v>137</v>
       </c>
       <c r="B113" s="2">
-        <v>45636.41386574074</v>
+        <v>45636.33356481481</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D113" s="2">
-        <v>45636.71236111111</v>
+        <v>45636.43430555556</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G113" s="2">
-        <v>15.9</v>
+        <v>15</v>
       </c>
       <c r="H113" s="2">
         <v>0</v>
@@ -4606,30 +4792,30 @@
         <v>0</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B114" s="2">
-        <v>45636.45371527778</v>
+        <v>45636.53638888889</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D114" s="2">
-        <v>45636.69118055556</v>
+        <v>45636.70945601852</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G114" s="2">
-        <v>18.6</v>
+        <v>15</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
@@ -4638,30 +4824,30 @@
         <v>0</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B115" s="2">
-        <v>45636.41355324074</v>
+        <v>45636.53943287037</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D115" s="2">
-        <v>45636.685</v>
+        <v>45636.70577546296</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G115" s="2">
-        <v>17.85</v>
+        <v>18</v>
       </c>
       <c r="H115" s="2">
         <v>0</v>
@@ -4670,30 +4856,30 @@
         <v>0</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B116" s="2">
-        <v>45636.40738425926</v>
+        <v>45636.53321759259</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D116" s="2">
-        <v>45636.68643518518</v>
+        <v>45636.68628472222</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G116" s="2">
-        <v>19.15</v>
+        <v>18</v>
       </c>
       <c r="H116" s="2">
         <v>0</v>
@@ -4702,30 +4888,30 @@
         <v>0</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B117" s="2">
-        <v>45636.33983796297</v>
+        <v>45636.32739583333</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D117" s="2">
-        <v>45636.54166666666</v>
+        <v>45636.42896990741</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G117" s="2">
-        <v>17.65</v>
+        <v>18</v>
       </c>
       <c r="H117" s="2">
         <v>0</v>
@@ -4734,30 +4920,30 @@
         <v>0</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B118" s="2">
-        <v>45636.27287037037</v>
+        <v>45636.66429398148</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D118" s="2">
-        <v>45636.56302083333</v>
+        <v>45636.70930555555</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G118" s="2">
-        <v>19.65</v>
+        <v>15</v>
       </c>
       <c r="H118" s="2">
         <v>0</v>
@@ -4766,30 +4952,30 @@
         <v>0</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B119" s="2">
-        <v>45636.27119212963</v>
+        <v>45636.55274305555</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D119" s="2">
-        <v>45636.47226851852</v>
+        <v>45636.67065972222</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G119" s="2">
-        <v>19.15</v>
+        <v>16.5</v>
       </c>
       <c r="H119" s="2">
         <v>0</v>
@@ -4798,62 +4984,62 @@
         <v>0</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B120" s="2">
+        <v>45636.33387731481</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="2">
+        <v>45636.705625</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G120" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="H120" s="2">
+        <v>0</v>
+      </c>
+      <c r="I120" s="2">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B120" s="2">
-        <v>45636.46003472222</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D120" s="2">
-        <v>45636.68231481482</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G120" s="2">
-        <v>19.65</v>
-      </c>
-      <c r="H120" s="2">
-        <v>0</v>
-      </c>
-      <c r="I120" s="2">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B121" s="2">
-        <v>45636.43684027778</v>
+        <v>45636.33712962963</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D121" s="2">
-        <v>45636.62899305556</v>
+        <v>45636.51795138889</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G121" s="2">
-        <v>15.9</v>
+        <v>16.5</v>
       </c>
       <c r="H121" s="2">
         <v>0</v>
@@ -4862,30 +5048,30 @@
         <v>0</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B122" s="2">
-        <v>45636.59701388889</v>
+        <v>45636.33413194444</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D122" s="2">
-        <v>45636.889375</v>
+        <v>45636.46030092592</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G122" s="2">
-        <v>15.9</v>
+        <v>16.5</v>
       </c>
       <c r="H122" s="2">
         <v>0</v>
@@ -4894,30 +5080,30 @@
         <v>0</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B123" s="2">
-        <v>45636.53390046296</v>
+        <v>45636.3394212963</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D123" s="2">
-        <v>45636.87833333333</v>
+        <v>45636.62188657407</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G123" s="2">
-        <v>18.25</v>
+        <v>15.5</v>
       </c>
       <c r="H123" s="2">
         <v>0</v>
@@ -4926,30 +5112,30 @@
         <v>0</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B124" s="2">
-        <v>45636.43361111111</v>
+        <v>45636.33006944445</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D124" s="2">
-        <v>45636.76736111111</v>
+        <v>45636.70541666666</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G124" s="2">
-        <v>25.1</v>
+        <v>22.5</v>
       </c>
       <c r="H124" s="2">
         <v>0</v>
@@ -4958,30 +5144,30 @@
         <v>0</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B125" s="2">
-        <v>45636.26952546297</v>
+        <v>45636.34503472222</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D125" s="2">
-        <v>45636.52246527778</v>
+        <v>45636.69976851852</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G125" s="2">
-        <v>17.65</v>
+        <v>17</v>
       </c>
       <c r="H125" s="2">
         <v>0</v>
@@ -4990,30 +5176,30 @@
         <v>0</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B126" s="2">
-        <v>45636.63174768518</v>
+        <v>45636.49908564815</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D126" s="2">
-        <v>45636.91756944444</v>
+        <v>45636.68842592592</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G126" s="2">
-        <v>17.75</v>
+        <v>16.5</v>
       </c>
       <c r="H126" s="2">
         <v>0</v>
@@ -5022,62 +5208,62 @@
         <v>0</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2">
-        <v>45636.9377662037</v>
+        <v>45636.33092592593</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D127" s="2">
-        <v>45637.26694444445</v>
+        <v>45636.75252314815</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F127" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G127" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="H127" s="2">
+        <v>0</v>
+      </c>
+      <c r="I127" s="2">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="G127" s="2">
-        <v>17.65</v>
-      </c>
-      <c r="H127" s="2">
-        <v>0</v>
-      </c>
-      <c r="I127" s="2">
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B128" s="2">
-        <v>45636.375</v>
+        <v>45636.32462962963</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D128" s="2">
-        <v>45636.64313657407</v>
+        <v>45636.67077546296</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G128" s="2">
-        <v>19.15</v>
+        <v>18</v>
       </c>
       <c r="H128" s="2">
         <v>0</v>
@@ -5086,30 +5272,30 @@
         <v>0</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B129" s="2">
-        <v>45636.70825231481</v>
+        <v>45636.32859953704</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D129" s="2">
-        <v>45636.77549768519</v>
+        <v>45636.58625</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G129" s="2">
-        <v>19.65</v>
+        <v>15</v>
       </c>
       <c r="H129" s="2">
         <v>0</v>
@@ -5118,30 +5304,30 @@
         <v>0</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B130" s="2">
-        <v>45636.34373842592</v>
+        <v>45636.33623842592</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D130" s="2">
-        <v>45636.75168981482</v>
+        <v>45636.75381944444</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G130" s="2">
-        <v>21.25</v>
+        <v>15</v>
       </c>
       <c r="H130" s="2">
         <v>0</v>
@@ -5150,30 +5336,30 @@
         <v>0</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B131" s="2">
-        <v>45636.36744212963</v>
+        <v>45636.66416666667</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D131" s="2">
-        <v>45636.51457175926</v>
+        <v>45636.68518518518</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G131" s="2">
-        <v>18.75</v>
+        <v>15.5</v>
       </c>
       <c r="H131" s="2">
         <v>0</v>
@@ -5182,30 +5368,30 @@
         <v>0</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B132" s="2">
-        <v>45636.31244212963</v>
+        <v>45636.34195601852</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D132" s="2">
-        <v>45636.75502314815</v>
+        <v>45636.70833333334</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G132" s="2">
-        <v>18.25</v>
+        <v>18</v>
       </c>
       <c r="H132" s="2">
         <v>0</v>
@@ -5214,30 +5400,30 @@
         <v>0</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B133" s="2">
-        <v>45636.30829861111</v>
+        <v>45636.34532407407</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D133" s="2">
-        <v>45636.77969907408</v>
+        <v>45636.65069444444</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G133" s="2">
-        <v>21.25</v>
+        <v>20.5</v>
       </c>
       <c r="H133" s="2">
         <v>0</v>
@@ -5246,58 +5432,62 @@
         <v>0</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B134" s="2">
-        <v>45636.77986111111</v>
+        <v>45636.33333333334</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="D134" s="2">
+        <v>45636.33333333334</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F134" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G134" s="2">
-        <v>21.25</v>
+        <v>17</v>
       </c>
       <c r="H134" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I134" s="2">
         <v>0</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B135" s="2">
-        <v>45636.68494212963</v>
+        <v>45636.3452662037</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D135" s="2">
-        <v>45636.89045138889</v>
+        <v>45636.69138888889</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G135" s="2">
-        <v>20.15</v>
+        <v>13.65</v>
       </c>
       <c r="H135" s="2">
         <v>0</v>
@@ -5306,30 +5496,30 @@
         <v>0</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B136" s="2">
-        <v>45636.42313657407</v>
+        <v>45636.68391203704</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D136" s="2">
-        <v>45636.77197916667</v>
+        <v>45636.81388888889</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G136" s="2">
-        <v>20.15</v>
+        <v>18</v>
       </c>
       <c r="H136" s="2">
         <v>0</v>
@@ -5338,30 +5528,30 @@
         <v>0</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B137" s="2">
-        <v>45636.67130787037</v>
+        <v>45636.32824074074</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D137" s="2">
-        <v>45636.90677083333</v>
+        <v>45636.70924768518</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G137" s="2">
-        <v>23.5</v>
+        <v>15</v>
       </c>
       <c r="H137" s="2">
         <v>0</v>
@@ -5370,30 +5560,30 @@
         <v>0</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B138" s="2">
-        <v>45636.53224537037</v>
+        <v>45636.38378472222</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D138" s="2">
-        <v>45636.64930555555</v>
+        <v>45636.69637731482</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G138" s="2">
-        <v>23.5</v>
+        <v>17</v>
       </c>
       <c r="H138" s="2">
         <v>0</v>
@@ -5402,30 +5592,30 @@
         <v>0</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B139" s="2">
-        <v>45636.35306712963</v>
+        <v>45636.32824074074</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D139" s="2">
-        <v>45636.6250462963</v>
+        <v>45636.70907407408</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G139" s="2">
-        <v>20.15</v>
+        <v>15</v>
       </c>
       <c r="H139" s="2">
         <v>0</v>
@@ -5434,30 +5624,30 @@
         <v>0</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B140" s="2">
-        <v>45636.43951388889</v>
+        <v>45636.4375</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D140" s="2">
-        <v>45636.6565162037</v>
+        <v>45636.47222222222</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G140" s="2">
-        <v>19.65</v>
+        <v>21</v>
       </c>
       <c r="H140" s="2">
         <v>0</v>
@@ -5466,30 +5656,30 @@
         <v>0</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B141" s="2">
-        <v>45636.67231481482</v>
+        <v>45636.33878472223</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D141" s="2">
-        <v>45636.89097222222</v>
+        <v>45636.64101851852</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G141" s="2">
-        <v>19.65</v>
+        <v>20</v>
       </c>
       <c r="H141" s="2">
         <v>0</v>
@@ -5498,30 +5688,30 @@
         <v>0</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B142" s="2">
-        <v>45636.53847222222</v>
+        <v>45636.34328703704</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D142" s="2">
-        <v>45636.69660879629</v>
+        <v>45636.63996527778</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G142" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H142" s="2">
         <v>0</v>
@@ -5530,30 +5720,30 @@
         <v>0</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B143" s="2">
-        <v>45636.33265046297</v>
+        <v>45636.33333333334</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D143" s="2">
-        <v>45636.51693287037</v>
+        <v>45636.52704861111</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G143" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H143" s="2">
         <v>0</v>
@@ -5562,30 +5752,30 @@
         <v>0</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B144" s="2">
-        <v>45636.41023148148</v>
+        <v>45636.36425925926</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D144" s="2">
-        <v>45636.68560185185</v>
+        <v>45636.72892361111</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G144" s="2">
-        <v>29.64</v>
+        <v>22</v>
       </c>
       <c r="H144" s="2">
         <v>0</v>
@@ -5594,30 +5784,30 @@
         <v>0</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B145" s="2">
-        <v>45636.29679398148</v>
+        <v>45636.37665509259</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D145" s="2">
-        <v>45636.71726851852</v>
+        <v>45636.68849537037</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G145" s="2">
-        <v>31.9</v>
+        <v>15</v>
       </c>
       <c r="H145" s="2">
         <v>0</v>
@@ -5626,30 +5816,30 @@
         <v>0</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B146" s="2">
-        <v>45636.313125</v>
+        <v>45636.3792824074</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D146" s="2">
-        <v>45636.55328703704</v>
+        <v>45636.68679398148</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G146" s="2">
-        <v>26</v>
+        <v>13.65</v>
       </c>
       <c r="H146" s="2">
         <v>0</v>
@@ -5658,30 +5848,30 @@
         <v>0</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B147" s="2">
-        <v>45636.31819444444</v>
+        <v>45636.33467592593</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D147" s="2">
-        <v>45636.71378472223</v>
+        <v>45636.67026620371</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G147" s="2">
-        <v>21.25</v>
+        <v>15</v>
       </c>
       <c r="H147" s="2">
         <v>0</v>
@@ -5690,30 +5880,30 @@
         <v>0</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B148" s="2">
-        <v>45636.32607638889</v>
+        <v>45636.38645833333</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D148" s="2">
-        <v>45636.64247685186</v>
+        <v>45636.67954861111</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="G148" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H148" s="2">
         <v>0</v>
@@ -5722,30 +5912,30 @@
         <v>0</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B149" s="2">
-        <v>45636.67708333334</v>
+        <v>45636.37261574074</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D149" s="2">
-        <v>45636.6875</v>
+        <v>45636.68361111111</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="G149" s="2">
-        <v>51.99</v>
+        <v>23</v>
       </c>
       <c r="H149" s="2">
         <v>0</v>
@@ -5754,30 +5944,30 @@
         <v>0</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B150" s="2">
-        <v>45636.28512731481</v>
+        <v>45636.34532407407</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D150" s="2">
-        <v>45636.6278125</v>
+        <v>45636.69119212963</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="G150" s="2">
-        <v>32.45</v>
+        <v>13.65</v>
       </c>
       <c r="H150" s="2">
         <v>0</v>
@@ -5786,30 +5976,30 @@
         <v>0</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B151" s="2">
-        <v>45636.32585648148</v>
+        <v>45636.62061342593</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D151" s="2">
-        <v>45636.69434027778</v>
+        <v>45636.86548611111</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="G151" s="2">
-        <v>32.45</v>
+        <v>13.65</v>
       </c>
       <c r="H151" s="2">
         <v>0</v>
@@ -5818,30 +6008,30 @@
         <v>0</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B152" s="2">
-        <v>45636.33148148148</v>
+        <v>45636.58425925926</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D152" s="2">
-        <v>45636.72966435185</v>
+        <v>45636.875</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="G152" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H152" s="2">
         <v>0</v>
@@ -5850,30 +6040,30 @@
         <v>0</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B153" s="2">
-        <v>45636.52877314815</v>
+        <v>45636.62078703703</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D153" s="2">
-        <v>45636.73453703704</v>
+        <v>45636.88146990741</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="G153" s="2">
-        <v>17.75</v>
+        <v>22</v>
       </c>
       <c r="H153" s="2">
         <v>0</v>
@@ -5882,30 +6072,30 @@
         <v>0</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B154" s="2">
-        <v>45636.33189814815</v>
+        <v>45636.33454861111</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D154" s="2">
-        <v>45636.50875</v>
+        <v>45636.68898148148</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="G154" s="2">
-        <v>22</v>
+        <v>23.69</v>
       </c>
       <c r="H154" s="2">
         <v>0</v>
@@ -5914,30 +6104,30 @@
         <v>0</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B155" s="2">
-        <v>45636.52658564815</v>
+        <v>45636.33333333334</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D155" s="2">
-        <v>45636.73525462963</v>
+        <v>45636.66666666666</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G155" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H155" s="2">
         <v>0</v>
@@ -5946,39 +6136,1703 @@
         <v>0</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B156" s="2">
+        <v>45636.31484953704</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="2">
+        <v>45636.52528935186</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G156" s="2">
+        <v>18</v>
+      </c>
+      <c r="H156" s="2">
+        <v>0</v>
+      </c>
+      <c r="I156" s="2">
+        <v>0</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B157" s="2">
+        <v>45636.32125</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" s="2">
+        <v>45636.66868055556</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G157" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="H157" s="2">
+        <v>0</v>
+      </c>
+      <c r="I157" s="2">
+        <v>0</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B158" s="2">
+        <v>45636.33333333334</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D158" s="2">
+        <v>45636.33333333334</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G158" s="2">
+        <v>0</v>
+      </c>
+      <c r="H158" s="2">
+        <v>8</v>
+      </c>
+      <c r="I158" s="2">
+        <v>0</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B159" s="2">
+        <v>45636.94976851852</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" s="2">
+        <v>45637.29496527778</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G159" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="H159" s="2">
+        <v>0</v>
+      </c>
+      <c r="I159" s="2">
+        <v>0</v>
+      </c>
+      <c r="J159" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B156" s="2">
-        <v>45636.32104166667</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D156" s="2">
-        <v>45636.50918981482</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G156" s="2">
-        <v>17.75</v>
-      </c>
-      <c r="H156" s="2">
-        <v>0</v>
-      </c>
-      <c r="I156" s="2">
-        <v>0</v>
-      </c>
-      <c r="J156" s="2" t="s">
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B160" s="2">
+        <v>45636.33333333334</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D160" s="2">
+        <v>45636.33333333334</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>197</v>
+      </c>
+      <c r="G160" s="2">
+        <v>22</v>
+      </c>
+      <c r="H160" s="2">
+        <v>8</v>
+      </c>
+      <c r="I160" s="2">
+        <v>0</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B161" s="2">
+        <v>45636.61498842593</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="2">
+        <v>45636.95871527777</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G161" s="2">
+        <v>17.25</v>
+      </c>
+      <c r="H161" s="2">
+        <v>0</v>
+      </c>
+      <c r="I161" s="2">
+        <v>0</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B162" s="2">
+        <v>45636.41733796296</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="2">
+        <v>45636.75</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G162" s="2">
+        <v>22</v>
+      </c>
+      <c r="H162" s="2">
+        <v>0</v>
+      </c>
+      <c r="I162" s="2">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B163" s="2">
+        <v>45636.38070601852</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="2">
+        <v>45636.57916666667</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G163" s="2">
+        <v>15</v>
+      </c>
+      <c r="H163" s="2">
+        <v>0</v>
+      </c>
+      <c r="I163" s="2">
+        <v>0</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B164" s="2">
+        <v>45636.2881712963</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="2">
+        <v>45636.62640046296</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G164" s="2">
+        <v>16</v>
+      </c>
+      <c r="H164" s="2">
+        <v>0</v>
+      </c>
+      <c r="I164" s="2">
+        <v>0</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B165" s="2">
+        <v>45636.46730324074</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="2">
+        <v>45636.7159375</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G165" s="2">
+        <v>16</v>
+      </c>
+      <c r="H165" s="2">
+        <v>0</v>
+      </c>
+      <c r="I165" s="2">
+        <v>0</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B166" s="2">
+        <v>45636.77354166667</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="2">
+        <v>45636.90623842592</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G166" s="2">
+        <v>16</v>
+      </c>
+      <c r="H166" s="2">
+        <v>0</v>
+      </c>
+      <c r="I166" s="2">
+        <v>0</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B167" s="2">
+        <v>45636.33333333334</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="2">
+        <v>45636.57916666667</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G167" s="2">
+        <v>15</v>
+      </c>
+      <c r="H167" s="2">
+        <v>0</v>
+      </c>
+      <c r="I167" s="2">
+        <v>0</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B168" s="2">
+        <v>45636.40054398148</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="2">
+        <v>45636.58287037037</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G168" s="2">
+        <v>15</v>
+      </c>
+      <c r="H168" s="2">
+        <v>0</v>
+      </c>
+      <c r="I168" s="2">
+        <v>0</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B169" s="2">
+        <v>45636.33420138889</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="2">
+        <v>45636.67060185185</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G169" s="2">
+        <v>21.96</v>
+      </c>
+      <c r="H169" s="2">
+        <v>0</v>
+      </c>
+      <c r="I169" s="2">
+        <v>0</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B170" s="2">
+        <v>45636.40091435185</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="2">
+        <v>45636.72010416666</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G170" s="2">
+        <v>16.61</v>
+      </c>
+      <c r="H170" s="2">
+        <v>0</v>
+      </c>
+      <c r="I170" s="2">
+        <v>0</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B171" s="2">
+        <v>45636.39976851852</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="2">
+        <v>45636.58510416667</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G171" s="2">
+        <v>15</v>
+      </c>
+      <c r="H171" s="2">
+        <v>0</v>
+      </c>
+      <c r="I171" s="2">
+        <v>0</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B172" s="2">
+        <v>45636.40106481482</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="2">
+        <v>45636.75530092593</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G172" s="2">
+        <v>16.61</v>
+      </c>
+      <c r="H172" s="2">
+        <v>0</v>
+      </c>
+      <c r="I172" s="2">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B173" s="2">
+        <v>45636.33954861111</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="2">
+        <v>45636.6764699074</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G173" s="2">
+        <v>20.68</v>
+      </c>
+      <c r="H173" s="2">
+        <v>0</v>
+      </c>
+      <c r="I173" s="2">
+        <v>0</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B174" s="2">
+        <v>45636.54172453703</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D174" s="2">
+        <v>45636.67457175926</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G174" s="2">
+        <v>17</v>
+      </c>
+      <c r="H174" s="2">
+        <v>0</v>
+      </c>
+      <c r="I174" s="2">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B175" s="2">
+        <v>45636.49702546297</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D175" s="2">
+        <v>45636.70496527778</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G175" s="2">
+        <v>17</v>
+      </c>
+      <c r="H175" s="2">
+        <v>0</v>
+      </c>
+      <c r="I175" s="2">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B176" s="2">
+        <v>45636.53091435185</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D176" s="2">
+        <v>45636.58344907407</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G176" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="H176" s="2">
+        <v>0</v>
+      </c>
+      <c r="I176" s="2">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B177" s="2">
+        <v>45636.70502314815</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="2">
+        <v>45637.12100694444</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G177" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="H177" s="2">
+        <v>0</v>
+      </c>
+      <c r="I177" s="2">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B178" s="2">
+        <v>45636.32991898148</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="2">
+        <v>45636.67038194444</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G178" s="2">
+        <v>22</v>
+      </c>
+      <c r="H178" s="2">
+        <v>0</v>
+      </c>
+      <c r="I178" s="2">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B179" s="2">
+        <v>45636.32988425926</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" s="2">
+        <v>45636.67089120371</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G179" s="2">
+        <v>22</v>
+      </c>
+      <c r="H179" s="2">
+        <v>0</v>
+      </c>
+      <c r="I179" s="2">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B180" s="2">
+        <v>45636.33333333334</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D180" s="2">
+        <v>45636.33333333334</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G180" s="2">
+        <v>24.34</v>
+      </c>
+      <c r="H180" s="2">
+        <v>2</v>
+      </c>
+      <c r="I180" s="2">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B181" s="2">
+        <v>45636.31328703704</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" s="2">
+        <v>45636.49429398148</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G181" s="2">
+        <v>16</v>
+      </c>
+      <c r="H181" s="2">
+        <v>0</v>
+      </c>
+      <c r="I181" s="2">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B182" s="2">
+        <v>45636.33333333334</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="2">
+        <v>45636.54166666666</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G182" s="2">
+        <v>17</v>
+      </c>
+      <c r="H182" s="2">
+        <v>0</v>
+      </c>
+      <c r="I182" s="2">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B183" s="2">
+        <v>45636.31297453704</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="2">
+        <v>45636.50438657407</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G183" s="2">
+        <v>17</v>
+      </c>
+      <c r="H183" s="2">
+        <v>0</v>
+      </c>
+      <c r="I183" s="2">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B184" s="2">
+        <v>45636.52741898148</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D184" s="2">
+        <v>45636.70350694445</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G184" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="H184" s="2">
+        <v>0</v>
+      </c>
+      <c r="I184" s="2">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B185" s="2">
+        <v>45636.33456018518</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" s="2">
+        <v>45636.50194444445</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G185" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="H185" s="2">
+        <v>0</v>
+      </c>
+      <c r="I185" s="2">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B186" s="2">
+        <v>45636.31901620371</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" s="2">
+        <v>45636.49361111111</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G186" s="2">
+        <v>18</v>
+      </c>
+      <c r="H186" s="2">
+        <v>0</v>
+      </c>
+      <c r="I186" s="2">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B187" s="2">
+        <v>45636.31070601852</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" s="2">
+        <v>45636.46615740741</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G187" s="2">
+        <v>17</v>
+      </c>
+      <c r="H187" s="2">
+        <v>0</v>
+      </c>
+      <c r="I187" s="2">
+        <v>0</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B188" s="2">
+        <v>45636.55219907407</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D188" s="2">
+        <v>45636.67238425926</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G188" s="2">
+        <v>18</v>
+      </c>
+      <c r="H188" s="2">
+        <v>0</v>
+      </c>
+      <c r="I188" s="2">
+        <v>0</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B189" s="2">
+        <v>45636.3125</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" s="2">
+        <v>45636.53611111111</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G189" s="2">
+        <v>18.55</v>
+      </c>
+      <c r="H189" s="2">
+        <v>0</v>
+      </c>
+      <c r="I189" s="2">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B190" s="2">
+        <v>45636.32109953704</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" s="2">
+        <v>45636.50231481482</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G190" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="H190" s="2">
+        <v>0</v>
+      </c>
+      <c r="I190" s="2">
+        <v>0</v>
+      </c>
+      <c r="J190" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B191" s="2">
+        <v>45636.27104166667</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D191" s="2">
+        <v>45636.38328703704</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G191" s="2">
+        <v>16</v>
+      </c>
+      <c r="H191" s="2">
+        <v>0</v>
+      </c>
+      <c r="I191" s="2">
+        <v>0</v>
+      </c>
+      <c r="J191" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B192" s="2">
+        <v>45636.47790509259</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D192" s="2">
+        <v>45636.5906712963</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G192" s="2">
+        <v>16</v>
+      </c>
+      <c r="H192" s="2">
+        <v>0</v>
+      </c>
+      <c r="I192" s="2">
+        <v>0</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B193" s="2">
+        <v>45636.27381944445</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" s="2">
+        <v>45636.54053240741</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G193" s="2">
+        <v>16</v>
+      </c>
+      <c r="H193" s="2">
+        <v>0</v>
+      </c>
+      <c r="I193" s="2">
+        <v>0</v>
+      </c>
+      <c r="J193" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B194" s="2">
+        <v>45636.49631944444</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" s="2">
+        <v>45636.635625</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G194" s="2">
+        <v>17.72</v>
+      </c>
+      <c r="H194" s="2">
+        <v>0</v>
+      </c>
+      <c r="I194" s="2">
+        <v>0</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B195" s="2">
+        <v>45636.62206018518</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D195" s="2">
+        <v>45636.66364583333</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G195" s="2">
+        <v>23</v>
+      </c>
+      <c r="H195" s="2">
+        <v>0</v>
+      </c>
+      <c r="I195" s="2">
+        <v>0</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B196" s="2">
+        <v>45636.50628472222</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D196" s="2">
+        <v>45636.76445601852</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G196" s="2">
+        <v>20</v>
+      </c>
+      <c r="H196" s="2">
+        <v>0</v>
+      </c>
+      <c r="I196" s="2">
+        <v>0</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B197" s="2">
+        <v>45636.27898148148</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197" s="2">
+        <v>45636.4878587963</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G197" s="2">
+        <v>20</v>
+      </c>
+      <c r="H197" s="2">
+        <v>0</v>
+      </c>
+      <c r="I197" s="2">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B198" s="2">
+        <v>45636.25866898148</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D198" s="2">
+        <v>45636.6000462963</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G198" s="2">
+        <v>23</v>
+      </c>
+      <c r="H198" s="2">
+        <v>0</v>
+      </c>
+      <c r="I198" s="2">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B199" s="2">
+        <v>45636.56111111111</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D199" s="2">
+        <v>45636.76180555556</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G199" s="2">
+        <v>16</v>
+      </c>
+      <c r="H199" s="2">
+        <v>0</v>
+      </c>
+      <c r="I199" s="2">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B200" s="2">
+        <v>45636.34567129629</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D200" s="2">
+        <v>45636.67059027778</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G200" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="H200" s="2">
+        <v>0</v>
+      </c>
+      <c r="I200" s="2">
+        <v>0</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="A201" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B201" s="2">
+        <v>45636.20833333334</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D201" s="2">
+        <v>45636.33333333334</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G201" s="2">
+        <v>15</v>
+      </c>
+      <c r="H201" s="2">
+        <v>0</v>
+      </c>
+      <c r="I201" s="2">
+        <v>0</v>
+      </c>
+      <c r="J201" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="A202" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B202" s="2">
+        <v>45636.33934027778</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D202" s="2">
+        <v>45636.57457175926</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G202" s="2">
+        <v>23.27</v>
+      </c>
+      <c r="H202" s="2">
+        <v>0</v>
+      </c>
+      <c r="I202" s="2">
+        <v>0</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B203" s="2">
+        <v>45636.35328703704</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D203" s="2">
+        <v>45636.70833333334</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G203" s="2">
+        <v>16</v>
+      </c>
+      <c r="H203" s="2">
+        <v>0</v>
+      </c>
+      <c r="I203" s="2">
+        <v>0</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B204" s="2">
+        <v>45636.47802083333</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D204" s="2">
+        <v>45636.8125</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G204" s="2">
+        <v>24.04</v>
+      </c>
+      <c r="H204" s="2">
+        <v>0</v>
+      </c>
+      <c r="I204" s="2">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B205" s="2">
+        <v>45636.32891203704</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D205" s="2">
+        <v>45636.45303240741</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G205" s="2">
+        <v>13.65</v>
+      </c>
+      <c r="H205" s="2">
+        <v>0</v>
+      </c>
+      <c r="I205" s="2">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B206" s="2">
+        <v>45636.34243055555</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D206" s="2">
+        <v>45636.72143518519</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G206" s="2">
+        <v>26.45</v>
+      </c>
+      <c r="H206" s="2">
+        <v>0</v>
+      </c>
+      <c r="I206" s="2">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B207" s="2">
+        <v>45636.33333333334</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D207" s="2">
+        <v>45636.33333333334</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G207" s="2">
+        <v>0</v>
+      </c>
+      <c r="H207" s="2">
+        <v>8</v>
+      </c>
+      <c r="I207" s="2">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
+      <c r="A208" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B208" s="2">
+        <v>45636.38693287037</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D208" s="2">
+        <v>45636.71399305556</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G208" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="H208" s="2">
+        <v>0</v>
+      </c>
+      <c r="I208" s="2">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Prior Year)_Payroll.xlsx
+++ b/reports/For The Day (Prior Year)_Payroll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="271">
   <si>
     <t>eecode</t>
   </si>
@@ -46,159 +46,180 @@
     <t>DepartmentTitle</t>
   </si>
   <si>
+    <t>B746</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>Lift Operations</t>
+  </si>
+  <si>
+    <t>A0QF</t>
+  </si>
+  <si>
+    <t>A2G4</t>
+  </si>
+  <si>
+    <t>A20Y</t>
+  </si>
+  <si>
+    <t>A2G0</t>
+  </si>
+  <si>
+    <t>A2FY</t>
+  </si>
+  <si>
+    <t>A0AM</t>
+  </si>
+  <si>
     <t>A1ZJ</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>OD</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>Lift Operations</t>
+    <t>A0P4</t>
+  </si>
+  <si>
+    <t>A0AW</t>
+  </si>
+  <si>
+    <t>G125</t>
+  </si>
+  <si>
+    <t>D826</t>
+  </si>
+  <si>
+    <t>A06T</t>
+  </si>
+  <si>
+    <t>A556</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>D399</t>
+  </si>
+  <si>
+    <t>A28F</t>
   </si>
   <si>
     <t>A2FM</t>
   </si>
   <si>
-    <t>A28L</t>
-  </si>
-  <si>
-    <t>A27B</t>
-  </si>
-  <si>
-    <t>A2G4</t>
-  </si>
-  <si>
-    <t>A2G2</t>
-  </si>
-  <si>
-    <t>A28D</t>
-  </si>
-  <si>
-    <t>A20Y</t>
-  </si>
-  <si>
-    <t>A0QF</t>
-  </si>
-  <si>
-    <t>B778</t>
-  </si>
-  <si>
-    <t>B197</t>
-  </si>
-  <si>
-    <t>A2AN</t>
-  </si>
-  <si>
-    <t>A0P4</t>
-  </si>
-  <si>
-    <t>I342</t>
-  </si>
-  <si>
-    <t>G125</t>
+    <t>F701</t>
+  </si>
+  <si>
+    <t>A0VU</t>
   </si>
   <si>
     <t>H665</t>
   </si>
   <si>
-    <t>A2G3</t>
-  </si>
-  <si>
-    <t>A25Z</t>
-  </si>
-  <si>
-    <t>B746</t>
-  </si>
-  <si>
-    <t>A2FO</t>
-  </si>
-  <si>
-    <t>D399</t>
+    <t>A0AV</t>
+  </si>
+  <si>
+    <t>A2AO</t>
+  </si>
+  <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>Lift Maintenance</t>
   </si>
   <si>
     <t>E270</t>
   </si>
   <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>Lift Maintenance</t>
+    <t>G789</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>A22D</t>
+  </si>
+  <si>
+    <t>OL</t>
   </si>
   <si>
     <t>D519</t>
   </si>
   <si>
-    <t>HR</t>
-  </si>
-  <si>
     <t>E302</t>
   </si>
   <si>
-    <t>C492</t>
-  </si>
-  <si>
-    <t>A22D</t>
+    <t>B797</t>
+  </si>
+  <si>
+    <t>D1030</t>
+  </si>
+  <si>
+    <t>Snowmaking</t>
   </si>
   <si>
     <t>F787</t>
   </si>
   <si>
-    <t>D1030</t>
-  </si>
-  <si>
-    <t>Snowmaking</t>
+    <t>I828</t>
+  </si>
+  <si>
+    <t>C666</t>
+  </si>
+  <si>
+    <t>A2HF</t>
+  </si>
+  <si>
+    <t>H931</t>
   </si>
   <si>
     <t>A1ZX</t>
   </si>
   <si>
-    <t>A20O</t>
-  </si>
-  <si>
-    <t>C666</t>
-  </si>
-  <si>
-    <t>A449</t>
-  </si>
-  <si>
-    <t>H931</t>
-  </si>
-  <si>
-    <t>A23C</t>
+    <t>H125</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>Terrain Park</t>
+  </si>
+  <si>
+    <t>A29R</t>
+  </si>
+  <si>
+    <t>H101</t>
   </si>
   <si>
     <t>H731</t>
   </si>
   <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>Terrain Park</t>
-  </si>
-  <si>
-    <t>H125</t>
-  </si>
-  <si>
-    <t>F499</t>
-  </si>
-  <si>
     <t>I238</t>
   </si>
   <si>
+    <t>A2UN</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>Trail Maintenance</t>
+  </si>
+  <si>
+    <t>D941</t>
+  </si>
+  <si>
+    <t>I590</t>
+  </si>
+  <si>
     <t>A0H1</t>
   </si>
   <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>Trail Maintenance</t>
-  </si>
-  <si>
     <t>J169</t>
   </si>
   <si>
@@ -208,76 +229,85 @@
     <t>A1T8</t>
   </si>
   <si>
-    <t>A2UN</t>
-  </si>
-  <si>
-    <t>D941</t>
+    <t>E082</t>
+  </si>
+  <si>
+    <t>B254</t>
+  </si>
+  <si>
+    <t>H465</t>
+  </si>
+  <si>
+    <t>A0RD</t>
+  </si>
+  <si>
+    <t>D1100</t>
+  </si>
+  <si>
+    <t>Vehicle Maintenance</t>
   </si>
   <si>
     <t>A22N</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>Vehicle Maintenance</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>A0RD</t>
+    <t>G218</t>
+  </si>
+  <si>
+    <t>I403</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>Ski Patrol</t>
+  </si>
+  <si>
+    <t>B878</t>
+  </si>
+  <si>
+    <t>B924</t>
+  </si>
+  <si>
+    <t>C132</t>
+  </si>
+  <si>
+    <t>A301</t>
+  </si>
+  <si>
+    <t>J471</t>
+  </si>
+  <si>
+    <t>I321</t>
+  </si>
+  <si>
+    <t>B898</t>
+  </si>
+  <si>
+    <t>A673</t>
+  </si>
+  <si>
+    <t>D494</t>
+  </si>
+  <si>
+    <t>E520</t>
+  </si>
+  <si>
+    <t>E682</t>
+  </si>
+  <si>
+    <t>B162</t>
+  </si>
+  <si>
+    <t>F946</t>
+  </si>
+  <si>
+    <t>G076</t>
   </si>
   <si>
     <t>A0JG</t>
   </si>
   <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>Ski Patrol</t>
-  </si>
-  <si>
-    <t>H474</t>
-  </si>
-  <si>
-    <t>B162</t>
-  </si>
-  <si>
-    <t>E471</t>
-  </si>
-  <si>
-    <t>J024</t>
-  </si>
-  <si>
-    <t>I403</t>
-  </si>
-  <si>
-    <t>H620</t>
-  </si>
-  <si>
-    <t>E520</t>
-  </si>
-  <si>
-    <t>D494</t>
-  </si>
-  <si>
-    <t>F946</t>
-  </si>
-  <si>
-    <t>B878</t>
-  </si>
-  <si>
-    <t>B898</t>
-  </si>
-  <si>
-    <t>G076</t>
-  </si>
-  <si>
-    <t>A511</t>
+    <t>A0DP</t>
   </si>
   <si>
     <t>D1500</t>
@@ -286,19 +316,22 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>G910</t>
-  </si>
-  <si>
-    <t>A0DP</t>
-  </si>
-  <si>
-    <t>A2O6</t>
+    <t>A27F</t>
+  </si>
+  <si>
+    <t>A0XF</t>
   </si>
   <si>
     <t>A1BR</t>
   </si>
   <si>
-    <t>J352</t>
+    <t>A1N8</t>
+  </si>
+  <si>
+    <t>E181</t>
+  </si>
+  <si>
+    <t>A632</t>
   </si>
   <si>
     <t>D2000</t>
@@ -307,94 +340,31 @@
     <t>Ski School</t>
   </si>
   <si>
-    <t>A2J8</t>
-  </si>
-  <si>
-    <t>A2AH</t>
-  </si>
-  <si>
-    <t>G292</t>
-  </si>
-  <si>
-    <t>G179</t>
-  </si>
-  <si>
-    <t>A196</t>
-  </si>
-  <si>
-    <t>F361</t>
-  </si>
-  <si>
-    <t>A2SF</t>
+    <t>C655</t>
+  </si>
+  <si>
+    <t>I605</t>
+  </si>
+  <si>
+    <t>A0FQ</t>
+  </si>
+  <si>
+    <t>A0RZ</t>
+  </si>
+  <si>
+    <t>F720</t>
   </si>
   <si>
     <t>F403</t>
   </si>
   <si>
-    <t>J038</t>
-  </si>
-  <si>
-    <t>A2G8</t>
-  </si>
-  <si>
-    <t>E715</t>
-  </si>
-  <si>
-    <t>A24M</t>
-  </si>
-  <si>
-    <t>A26E</t>
-  </si>
-  <si>
     <t>A0D7</t>
   </si>
   <si>
-    <t>F596</t>
-  </si>
-  <si>
-    <t>A2AK</t>
-  </si>
-  <si>
-    <t>A2AI</t>
-  </si>
-  <si>
-    <t>A24U</t>
-  </si>
-  <si>
-    <t>A2TX</t>
-  </si>
-  <si>
-    <t>A1KS</t>
-  </si>
-  <si>
-    <t>I932</t>
-  </si>
-  <si>
-    <t>D407</t>
-  </si>
-  <si>
-    <t>H440</t>
-  </si>
-  <si>
-    <t>A27C</t>
-  </si>
-  <si>
-    <t>A27J</t>
-  </si>
-  <si>
-    <t>A27U</t>
-  </si>
-  <si>
-    <t>A29N</t>
-  </si>
-  <si>
-    <t>C655</t>
-  </si>
-  <si>
-    <t>A0FQ</t>
-  </si>
-  <si>
-    <t>A2W1</t>
+    <t>E587</t>
+  </si>
+  <si>
+    <t>A2W0</t>
   </si>
   <si>
     <t>D2200</t>
@@ -403,103 +373,121 @@
     <t>Child Care</t>
   </si>
   <si>
-    <t>A2W0</t>
+    <t>A2AA</t>
+  </si>
+  <si>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>Rentals</t>
+  </si>
+  <si>
+    <t>A0SZ</t>
+  </si>
+  <si>
+    <t>A1CS</t>
   </si>
   <si>
     <t>A0XT</t>
   </si>
   <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>Rentals</t>
-  </si>
-  <si>
-    <t>B637</t>
-  </si>
-  <si>
-    <t>A1CS</t>
-  </si>
-  <si>
-    <t>A2AA</t>
-  </si>
-  <si>
     <t>E582</t>
   </si>
   <si>
-    <t>A0SZ</t>
-  </si>
-  <si>
     <t>D126</t>
   </si>
   <si>
-    <t>J071</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>Expert Edge</t>
+    <t>I565</t>
+  </si>
+  <si>
+    <t>A1Y7</t>
+  </si>
+  <si>
+    <t>A2DI</t>
+  </si>
+  <si>
+    <t>A2HI</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>Purg Sports Resort</t>
+  </si>
+  <si>
+    <t>J190</t>
+  </si>
+  <si>
+    <t>D510</t>
+  </si>
+  <si>
+    <t>H586</t>
+  </si>
+  <si>
+    <t>G066</t>
+  </si>
+  <si>
+    <t>E547</t>
+  </si>
+  <si>
+    <t>A28K</t>
   </si>
   <si>
     <t>C173</t>
   </si>
   <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>D510</t>
-  </si>
-  <si>
-    <t>A2HI</t>
-  </si>
-  <si>
-    <t>E547</t>
-  </si>
-  <si>
-    <t>G111</t>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>Purg Sports Main Ave</t>
   </si>
   <si>
     <t>I552</t>
   </si>
   <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>D224</t>
-  </si>
-  <si>
-    <t>A2JC</t>
+    <t>A0RO</t>
   </si>
   <si>
     <t>A15G</t>
   </si>
   <si>
+    <t>I003</t>
+  </si>
+  <si>
+    <t>D110</t>
+  </si>
+  <si>
+    <t>E312</t>
+  </si>
+  <si>
+    <t>D5000</t>
+  </si>
+  <si>
+    <t>F&amp;B Admin</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
+    <t>A2LP</t>
+  </si>
+  <si>
+    <t>A2I0</t>
+  </si>
+  <si>
+    <t>E655</t>
+  </si>
+  <si>
     <t>I308</t>
   </si>
   <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>A1KM</t>
-  </si>
-  <si>
     <t>A332</t>
   </si>
   <si>
-    <t>E655</t>
-  </si>
-  <si>
-    <t>E051</t>
+    <t>B518</t>
   </si>
   <si>
     <t>D5202</t>
@@ -508,76 +496,130 @@
     <t>Dante's</t>
   </si>
   <si>
+    <t>F997</t>
+  </si>
+  <si>
+    <t>C988</t>
+  </si>
+  <si>
+    <t>H513</t>
+  </si>
+  <si>
+    <t>D5203</t>
+  </si>
+  <si>
+    <t>Backside Bistro</t>
+  </si>
+  <si>
+    <t>C557</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>J434</t>
+  </si>
+  <si>
+    <t>H428</t>
+  </si>
+  <si>
     <t>A2U8</t>
   </si>
   <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
+    <t>A2U7</t>
   </si>
   <si>
     <t>C149</t>
   </si>
   <si>
-    <t>A2U7</t>
-  </si>
-  <si>
-    <t>C557</t>
+    <t>A18B</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>Paradise</t>
+  </si>
+  <si>
+    <t>A22O</t>
   </si>
   <si>
     <t>A20D</t>
   </si>
   <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>Paradise</t>
-  </si>
-  <si>
-    <t>A22O</t>
-  </si>
-  <si>
-    <t>I216</t>
+    <t>A2HN</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>I517</t>
+  </si>
+  <si>
+    <t>E437</t>
+  </si>
+  <si>
+    <t>A739</t>
+  </si>
+  <si>
+    <t>A2UZ</t>
+  </si>
+  <si>
+    <t>A0XV</t>
+  </si>
+  <si>
+    <t>A0T1</t>
+  </si>
+  <si>
+    <t>A2UR</t>
+  </si>
+  <si>
+    <t>A19I</t>
+  </si>
+  <si>
+    <t>A2JB</t>
+  </si>
+  <si>
+    <t>A31D</t>
+  </si>
+  <si>
+    <t>D330</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>IX</t>
+  </si>
+  <si>
+    <t>OX</t>
+  </si>
+  <si>
+    <t>B207</t>
+  </si>
+  <si>
+    <t>J292</t>
+  </si>
+  <si>
+    <t>A18A</t>
+  </si>
+  <si>
+    <t>A2US</t>
   </si>
   <si>
     <t>C516</t>
   </si>
   <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>A0T1</t>
-  </si>
-  <si>
-    <t>D499</t>
-  </si>
-  <si>
-    <t>A18A</t>
-  </si>
-  <si>
-    <t>A2US</t>
-  </si>
-  <si>
-    <t>E296</t>
-  </si>
-  <si>
-    <t>A2I0</t>
-  </si>
-  <si>
-    <t>A2JB</t>
-  </si>
-  <si>
-    <t>A2HM</t>
-  </si>
-  <si>
-    <t>E437</t>
-  </si>
-  <si>
-    <t>A739</t>
+    <t>A2VB</t>
+  </si>
+  <si>
+    <t>E001</t>
   </si>
   <si>
     <t>A2I4</t>
@@ -589,10 +631,7 @@
     <t>Village Market Deli</t>
   </si>
   <si>
-    <t>J434</t>
-  </si>
-  <si>
-    <t>H608</t>
+    <t>A1NI</t>
   </si>
   <si>
     <t>J465</t>
@@ -604,54 +643,57 @@
     <t>Functions</t>
   </si>
   <si>
+    <t>A22R</t>
+  </si>
+  <si>
+    <t>D6212</t>
+  </si>
+  <si>
+    <t>Purgatory</t>
+  </si>
+  <si>
+    <t>A0AQ</t>
+  </si>
+  <si>
+    <t>B276</t>
+  </si>
+  <si>
+    <t>A1N1</t>
+  </si>
+  <si>
     <t>D283</t>
   </si>
   <si>
-    <t>D6212</t>
-  </si>
-  <si>
-    <t>Purgatory</t>
-  </si>
-  <si>
-    <t>B276</t>
-  </si>
-  <si>
-    <t>A1N1</t>
-  </si>
-  <si>
-    <t>A22R</t>
+    <t>F298</t>
   </si>
   <si>
     <t>F423</t>
   </si>
   <si>
-    <t>F298</t>
-  </si>
-  <si>
-    <t>A0AQ</t>
+    <t>J489</t>
+  </si>
+  <si>
+    <t>D6215</t>
+  </si>
+  <si>
+    <t>Housekeeping</t>
+  </si>
+  <si>
+    <t>I060</t>
+  </si>
+  <si>
+    <t>G955</t>
+  </si>
+  <si>
+    <t>C432</t>
+  </si>
+  <si>
+    <t>J492</t>
   </si>
   <si>
     <t>G956</t>
   </si>
   <si>
-    <t>D6215</t>
-  </si>
-  <si>
-    <t>Housekeeping</t>
-  </si>
-  <si>
-    <t>I060</t>
-  </si>
-  <si>
-    <t>J489</t>
-  </si>
-  <si>
-    <t>G955</t>
-  </si>
-  <si>
-    <t>J492</t>
-  </si>
-  <si>
     <t>C825</t>
   </si>
   <si>
@@ -661,7 +703,7 @@
     <t>Resort Services G&amp;A</t>
   </si>
   <si>
-    <t>A2S6</t>
+    <t>A2RO</t>
   </si>
   <si>
     <t>D6720</t>
@@ -670,16 +712,16 @@
     <t>Guest Services</t>
   </si>
   <si>
+    <t>E877</t>
+  </si>
+  <si>
     <t>D6721</t>
   </si>
   <si>
     <t>Parking</t>
   </si>
   <si>
-    <t>E877</t>
-  </si>
-  <si>
-    <t>I836</t>
+    <t>B421</t>
   </si>
   <si>
     <t>D6730</t>
@@ -688,46 +730,52 @@
     <t>Security</t>
   </si>
   <si>
+    <t>A2DH</t>
+  </si>
+  <si>
+    <t>D6750</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
     <t>A28C</t>
   </si>
   <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>A2DH</t>
-  </si>
-  <si>
-    <t>A976</t>
+    <t>A605</t>
+  </si>
+  <si>
+    <t>D6780</t>
+  </si>
+  <si>
+    <t>Grounds Maintenance</t>
+  </si>
+  <si>
+    <t>G859</t>
+  </si>
+  <si>
+    <t>A2JA</t>
+  </si>
+  <si>
+    <t>A2SE</t>
+  </si>
+  <si>
+    <t>A31O</t>
   </si>
   <si>
     <t>A0HT</t>
   </si>
   <si>
-    <t>D6780</t>
-  </si>
-  <si>
-    <t>Grounds Maintenance</t>
-  </si>
-  <si>
-    <t>A2N0</t>
-  </si>
-  <si>
-    <t>A2JA</t>
-  </si>
-  <si>
-    <t>E609</t>
-  </si>
-  <si>
-    <t>A605</t>
-  </si>
-  <si>
-    <t>G859</t>
-  </si>
-  <si>
-    <t>A0ZP</t>
+    <t>J185</t>
+  </si>
+  <si>
+    <t>D6781</t>
+  </si>
+  <si>
+    <t>Snow Removal</t>
+  </si>
+  <si>
+    <t>A2BI</t>
   </si>
   <si>
     <t>D6790</t>
@@ -736,18 +784,12 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>A2BI</t>
-  </si>
-  <si>
-    <t>J483</t>
-  </si>
-  <si>
-    <t>A03K</t>
-  </si>
-  <si>
     <t>A26A</t>
   </si>
   <si>
+    <t>A21M</t>
+  </si>
+  <si>
     <t>A1Z8</t>
   </si>
   <si>
@@ -757,7 +799,7 @@
     <t>Marketing G&amp;A</t>
   </si>
   <si>
-    <t>A492</t>
+    <t>F033</t>
   </si>
   <si>
     <t>D7010</t>
@@ -766,40 +808,25 @@
     <t>Marketing</t>
   </si>
   <si>
-    <t>D737</t>
-  </si>
-  <si>
-    <t>D8020</t>
-  </si>
-  <si>
-    <t>Accounting</t>
-  </si>
-  <si>
-    <t>A2KR</t>
+    <t>G322</t>
+  </si>
+  <si>
+    <t>A0Q0</t>
   </si>
   <si>
     <t>D8040</t>
   </si>
   <si>
+    <t>H962</t>
+  </si>
+  <si>
     <t>A02N</t>
   </si>
   <si>
-    <t>H962</t>
-  </si>
-  <si>
-    <t>A0Q0</t>
-  </si>
-  <si>
-    <t>A23L</t>
-  </si>
-  <si>
-    <t>D8060</t>
-  </si>
-  <si>
-    <t>IT Services</t>
-  </si>
-  <si>
-    <t>A1ZP</t>
+    <t>D8800</t>
+  </si>
+  <si>
+    <t>Pass-through Accounts</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1189,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J208"/>
+  <dimension ref="A1:J222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1176,7 +1203,7 @@
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1216,13 +1243,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>45636.32232638889</v>
+        <v>45637.3017824074</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>45636.66362268518</v>
+        <v>45637.69791666666</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -1231,7 +1258,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="2">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -1248,13 +1275,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>45636.31168981481</v>
+        <v>45637.31280092592</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>45636.52083333334</v>
+        <v>45637.6875</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1263,7 +1290,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="2">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1280,13 +1307,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>45636.3128125</v>
+        <v>45637.31548611111</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>45636.68703703704</v>
+        <v>45637.66898148148</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -1312,13 +1339,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>45636.30349537037</v>
+        <v>45637.316875</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>45636.71599537037</v>
+        <v>45637.69859953703</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -1344,13 +1371,13 @@
         <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>45636.31662037037</v>
+        <v>45637.32049768518</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>45636.72222222222</v>
+        <v>45637.67987268518</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -1376,13 +1403,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>45636.31932870371</v>
+        <v>45637.31384259259</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>45636.72189814815</v>
+        <v>45637.6875</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -1391,7 +1418,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="2">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1408,13 +1435,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>45636.32753472222</v>
+        <v>45637.31454861111</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2">
-        <v>45636.72046296296</v>
+        <v>45637.6875</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -1423,7 +1450,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="2">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1440,13 +1467,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>45636.37512731482</v>
+        <v>45637.31702546297</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>45636.68212962963</v>
+        <v>45637.69042824074</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -1455,7 +1482,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="2">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1472,13 +1499,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>45636.31243055555</v>
+        <v>45637.31780092593</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2">
-        <v>45636.72060185186</v>
+        <v>45637.6875</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
@@ -1504,13 +1531,13 @@
         <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>45636.31302083333</v>
+        <v>45637.32291666666</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2">
-        <v>45636.68563657408</v>
+        <v>45637.6875</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
@@ -1536,13 +1563,13 @@
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>45636.29642361111</v>
+        <v>45637.30938657407</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>45636.68305555556</v>
+        <v>45637.68055555555</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
@@ -1551,7 +1578,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="2">
-        <v>19.57</v>
+        <v>15.5</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1568,13 +1595,13 @@
         <v>25</v>
       </c>
       <c r="B13" s="2">
-        <v>45636.32291666666</v>
+        <v>45637.29502314814</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>45636.71875</v>
+        <v>45637.67865740741</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
@@ -1583,7 +1610,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="2">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1600,13 +1627,13 @@
         <v>26</v>
       </c>
       <c r="B14" s="2">
-        <v>45636.31260416667</v>
+        <v>45637.31799768518</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="2">
-        <v>45636.71636574074</v>
+        <v>45637.4172800926</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
@@ -1632,13 +1659,13 @@
         <v>27</v>
       </c>
       <c r="B15" s="2">
-        <v>45636.30200231481</v>
+        <v>45637.53655092593</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
-        <v>45636.72464120371</v>
+        <v>45637.66719907407</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -1647,7 +1674,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1661,16 +1688,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2">
-        <v>45636.31579861111</v>
+        <v>45637.30194444444</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="2">
-        <v>45636.70833333334</v>
+        <v>45637.69791666666</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>12</v>
@@ -1679,7 +1706,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="2">
-        <v>15.5</v>
+        <v>21.68</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1693,16 +1720,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2">
-        <v>45636.30189814815</v>
+        <v>45637.32709490741</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="2">
-        <v>45636.72474537037</v>
+        <v>45637.69791666666</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -1711,7 +1738,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="2">
-        <v>20.57</v>
+        <v>15.5</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1725,16 +1752,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2">
-        <v>45636.3184375</v>
+        <v>45637.3140162037</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="2">
-        <v>45636.6733912037</v>
+        <v>45637.6684837963</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
@@ -1757,16 +1784,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2">
-        <v>45636.32291666666</v>
+        <v>45637.33234953704</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="2">
-        <v>45636.6875</v>
+        <v>45637.6875</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
@@ -1775,7 +1802,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="2">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1789,16 +1816,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2">
-        <v>45636.3018287037</v>
+        <v>45637.32126157408</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="2">
-        <v>45636.72489583334</v>
+        <v>45637.67265046296</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>12</v>
@@ -1807,7 +1834,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="2">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1821,16 +1848,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2">
-        <v>45636.31111111111</v>
+        <v>45637.3079050926</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="2">
-        <v>45636.72040509259</v>
+        <v>45637.6909837963</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>12</v>
@@ -1839,7 +1866,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="2">
-        <v>15.5</v>
+        <v>20.57</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1853,16 +1880,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2">
-        <v>45636.30212962963</v>
+        <v>45637.3125</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2">
-        <v>45636.72452546296</v>
+        <v>45637.67425925926</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>12</v>
@@ -1871,7 +1898,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="2">
-        <v>21.68</v>
+        <v>14.5</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1885,25 +1912,25 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2">
-        <v>45636.23392361111</v>
+        <v>45637.25422453704</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="2">
-        <v>45636.69648148148</v>
+        <v>45637.69075231482</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" s="2">
-        <v>35.43</v>
+        <v>30</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1912,39 +1939,39 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45637.23969907407</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2">
+        <v>45637.69791666666</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="2">
+        <v>35.43</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B24" s="2">
-        <v>45636.33333333334</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="2">
-        <v>45636.33333333334</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="2">
-        <v>21.57</v>
-      </c>
-      <c r="H24" s="2">
-        <v>8</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1952,54 +1979,54 @@
         <v>40</v>
       </c>
       <c r="B25" s="2">
-        <v>45636.26077546296</v>
+        <v>45637.33333333334</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2">
-        <v>45636.69511574074</v>
+        <v>45637.33333333334</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G25" s="2">
-        <v>29.87</v>
+        <v>23.69</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2">
-        <v>45636.27017361111</v>
+        <v>45637.54166666666</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
-        <v>45636.68987268519</v>
+        <v>45637.6875</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26" s="2">
-        <v>21.56</v>
+        <v>18.5</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -2008,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2016,19 +2043,19 @@
         <v>42</v>
       </c>
       <c r="B27" s="2">
-        <v>45636.2803587963</v>
+        <v>45637.31472222223</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2">
-        <v>45636.68621527778</v>
+        <v>45637.50256944444</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" s="2">
         <v>18.5</v>
@@ -2040,30 +2067,30 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2">
-        <v>45636.4662962963</v>
+        <v>45637.25403935185</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="2">
-        <v>45636.99679398148</v>
+        <v>45637.69993055556</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G28" s="2">
-        <v>24.72</v>
+        <v>21.57</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -2072,30 +2099,30 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2">
-        <v>45636.94791666666</v>
+        <v>45637.27811342593</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="2">
-        <v>45637.45833333334</v>
+        <v>45637.28164351852</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G29" s="2">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -2104,30 +2131,30 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2">
-        <v>45636.94297453704</v>
+        <v>45637.25097222222</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="2">
-        <v>45637.47623842592</v>
+        <v>45637.70039351852</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G30" s="2">
-        <v>18.36</v>
+        <v>29.87</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -2136,39 +2163,39 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45637.95833333334</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45638.50574074074</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B31" s="2">
-        <v>45636.94288194444</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="2">
-        <v>45637.48015046296</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="2">
-        <v>22.7</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2176,22 +2203,22 @@
         <v>49</v>
       </c>
       <c r="B32" s="2">
-        <v>45636.96018518518</v>
+        <v>45637.45305555555</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="2">
-        <v>45637.46802083333</v>
+        <v>45637.98958333334</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G32" s="2">
-        <v>21.8</v>
+        <v>24.72</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -2200,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2208,22 +2235,22 @@
         <v>50</v>
       </c>
       <c r="B33" s="2">
-        <v>45636.44912037037</v>
+        <v>45637.95138888889</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="2">
-        <v>45637</v>
+        <v>45638.45833333334</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G33" s="2">
-        <v>23.75</v>
+        <v>19.8</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2232,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2240,22 +2267,22 @@
         <v>51</v>
       </c>
       <c r="B34" s="2">
-        <v>45636.64583333334</v>
+        <v>45637.94791666666</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="2">
-        <v>45636.95972222222</v>
+        <v>45638.4862037037</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G34" s="2">
-        <v>18.36</v>
+        <v>22.7</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -2264,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2272,22 +2299,22 @@
         <v>52</v>
       </c>
       <c r="B35" s="2">
-        <v>45636.3125</v>
+        <v>45637.44290509259</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="2">
-        <v>45636.74011574074</v>
+        <v>45637.96875</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G35" s="2">
-        <v>22.66</v>
+        <v>19.1</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2296,30 +2323,30 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2">
-        <v>45636.74009259259</v>
+        <v>45637.45099537037</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="2">
-        <v>45636.74011574074</v>
+        <v>45637.97106481482</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G36" s="2">
-        <v>22.66</v>
+        <v>23.75</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -2328,30 +2355,30 @@
         <v>0</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2">
-        <v>45636.64027777778</v>
+        <v>45637.94791666666</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="2">
-        <v>45636.9278125</v>
+        <v>45638.45833333334</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G37" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -2360,30 +2387,30 @@
         <v>0</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45637.63980324074</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45637.9024074074</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="2">
-        <v>45636.31521990741</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="2">
-        <v>45636.73981481481</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="G38" s="2">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2392,62 +2419,62 @@
         <v>0</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45637.31528935185</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2">
+        <v>45637.73949074074</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B39" s="2">
-        <v>45636.31087962963</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="2">
-        <v>45636.73657407407</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" s="2">
-        <v>16</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" s="2">
-        <v>45636.3125</v>
+        <v>45637.60435185185</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
-        <v>45636.76041666666</v>
+        <v>45637.67126157408</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G40" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2456,30 +2483,30 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="2">
-        <v>45636.46739583334</v>
+        <v>45637.31458333333</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="2">
-        <v>45636.98958333334</v>
+        <v>45637.73974537037</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G41" s="2">
-        <v>18.55</v>
+        <v>22.66</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2488,62 +2515,62 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2">
-        <v>45636.6391087963</v>
+        <v>45637.33333333334</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D42" s="2">
-        <v>45637.01263888889</v>
+        <v>45637.33333333334</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G42" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H42" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I42" s="2">
         <v>0</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45637.00069444445</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="2">
+        <v>45637.41736111111</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="2">
-        <v>45636.6265162037</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="2">
-        <v>45636.99038194444</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="G43" s="2">
-        <v>22.66</v>
+        <v>23.33</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2552,62 +2579,62 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45637.46533564815</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="2">
+        <v>45637.98472222222</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="2">
+        <v>18.55</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B44" s="2">
-        <v>45636</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="2">
-        <v>45636.41666666666</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" s="2">
-        <v>23.33</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B45" s="2">
-        <v>45636.46637731481</v>
+        <v>45637.03230324074</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="2">
-        <v>45636.98658564815</v>
+        <v>45637.39583333334</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G45" s="2">
-        <v>18.55</v>
+        <v>21.8</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2616,30 +2643,30 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46" s="2">
-        <v>45636.2928587963</v>
+        <v>45637.29166666666</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D46" s="2">
-        <v>45636.5344675926</v>
+        <v>45637.75</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G46" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2648,30 +2675,30 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B47" s="2">
-        <v>45636.55524305555</v>
+        <v>45637.45936342593</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D47" s="2">
-        <v>45636.74097222222</v>
+        <v>45637.97222222222</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G47" s="2">
-        <v>29</v>
+        <v>18.55</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2680,30 +2707,30 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2">
-        <v>45636.56725694444</v>
+        <v>45637.66055555556</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D48" s="2">
-        <v>45636.74444444444</v>
+        <v>45638.01530092592</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G48" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2712,30 +2739,30 @@
         <v>0</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2">
-        <v>45636.27396990741</v>
+        <v>45637.6220949074</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="2">
-        <v>45636.52314814815</v>
+        <v>45638</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G49" s="2">
-        <v>17</v>
+        <v>22.66</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2744,30 +2771,30 @@
         <v>0</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B50" s="2">
-        <v>45636.31631944444</v>
+        <v>45637.95833333334</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="2">
-        <v>45636.7066550926</v>
+        <v>45638.45833333334</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G50" s="2">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2776,30 +2803,30 @@
         <v>0</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B51" s="2">
-        <v>45636.31114583334</v>
+        <v>45637.62277777777</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="2">
-        <v>45636.70690972222</v>
+        <v>45638.01552083333</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G51" s="2">
-        <v>21.34</v>
+        <v>24</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2808,30 +2835,30 @@
         <v>0</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B52" s="2">
-        <v>45636.31619212963</v>
+        <v>45637.67420138889</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="2">
-        <v>45636.70494212963</v>
+        <v>45637.84802083333</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G52" s="2">
-        <v>16.63</v>
+        <v>21</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2840,30 +2867,30 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2">
-        <v>45636.31081018518</v>
+        <v>45637.27083333334</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="2">
-        <v>45636.7059837963</v>
+        <v>45637.67111111111</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G53" s="2">
-        <v>24.59</v>
+        <v>17</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2872,30 +2899,30 @@
         <v>0</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2">
-        <v>45636.3175462963</v>
+        <v>45637.68152777778</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
-        <v>45636.70109953704</v>
+        <v>45637.72916666666</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G54" s="2">
-        <v>24.09</v>
+        <v>17</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2904,30 +2931,30 @@
         <v>0</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2">
-        <v>45636.31070601852</v>
+        <v>45637.29652777778</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="2">
-        <v>45636.705625</v>
+        <v>45637.51186342593</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G55" s="2">
-        <v>20.06</v>
+        <v>29</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2936,30 +2963,30 @@
         <v>0</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2">
-        <v>45636.3164699074</v>
+        <v>45637.29555555555</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="2">
-        <v>45636.70631944444</v>
+        <v>45637.51784722223</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G56" s="2">
-        <v>22.34</v>
+        <v>25</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2968,30 +2995,30 @@
         <v>0</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B57" s="2">
-        <v>45636.31059027778</v>
+        <v>45637.53811342592</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
-        <v>45636.70649305556</v>
+        <v>45637.7278125</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G57" s="2">
-        <v>19.06</v>
+        <v>25</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -3000,30 +3027,30 @@
         <v>0</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2">
-        <v>45636.31219907408</v>
+        <v>45637.52445601852</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
-        <v>45636.70611111111</v>
+        <v>45637.72916666666</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G58" s="2">
-        <v>20.06</v>
+        <v>29</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -3032,30 +3059,30 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2">
-        <v>45636.31092592593</v>
+        <v>45637.31024305556</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="2">
-        <v>45636.70550925926</v>
+        <v>45637.70706018519</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G59" s="2">
-        <v>19.27</v>
+        <v>20.06</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -3064,27 +3091,27 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2">
-        <v>45636.31128472222</v>
+        <v>45637.31083333334</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="2">
-        <v>45636.70578703703</v>
+        <v>45637.69756944444</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G60" s="2">
         <v>25.84</v>
@@ -3096,30 +3123,30 @@
         <v>0</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B61" s="2">
-        <v>45636.31604166667</v>
+        <v>45637.31461805556</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D61" s="2">
-        <v>45636.70677083333</v>
+        <v>45637.71061342592</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G61" s="2">
-        <v>25.09</v>
+        <v>18.77</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -3128,30 +3155,30 @@
         <v>0</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2">
-        <v>45636.31420138889</v>
+        <v>45637.31094907408</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="2">
-        <v>45636.70134259259</v>
+        <v>45637.69767361111</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G62" s="2">
-        <v>23.84</v>
+        <v>20.56</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -3160,30 +3187,30 @@
         <v>0</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2">
-        <v>45636.53776620371</v>
+        <v>45637.32103009259</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D63" s="2">
-        <v>45636.70052083334</v>
+        <v>45637.70657407407</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G63" s="2">
-        <v>21.44</v>
+        <v>21.06</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -3192,30 +3219,30 @@
         <v>0</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2">
-        <v>45636.34130787037</v>
+        <v>45637.40924768519</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="2">
-        <v>45636.48215277777</v>
+        <v>45637.60375</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G64" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -3224,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3232,22 +3259,22 @@
         <v>87</v>
       </c>
       <c r="B65" s="2">
-        <v>45636.34170138889</v>
+        <v>45637.31049768518</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="2">
-        <v>45636.52436342592</v>
+        <v>45637.70010416667</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G65" s="2">
-        <v>21.44</v>
+        <v>17.77</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
@@ -3256,30 +3283,30 @@
         <v>0</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2">
-        <v>45636.33369212963</v>
+        <v>45637.3174537037</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="2">
-        <v>45636.70866898148</v>
+        <v>45637.70795138889</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G66" s="2">
-        <v>18.5</v>
+        <v>25.09</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
@@ -3288,30 +3315,30 @@
         <v>0</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2">
-        <v>45636.5175</v>
+        <v>45637.31895833334</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D67" s="2">
-        <v>45636.68555555555</v>
+        <v>45637.70935185185</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G67" s="2">
-        <v>15</v>
+        <v>25.84</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
@@ -3320,30 +3347,30 @@
         <v>0</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2">
-        <v>45636.32799768518</v>
+        <v>45637.31371527778</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="2">
-        <v>45636.5122337963</v>
+        <v>45637.70527777778</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G68" s="2">
-        <v>15</v>
+        <v>20.06</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -3352,30 +3379,30 @@
         <v>0</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2">
-        <v>45636.5029050926</v>
+        <v>45637.31074074074</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D69" s="2">
-        <v>45636.6712962963</v>
+        <v>45637.6978125</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G69" s="2">
-        <v>16</v>
+        <v>19.06</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -3384,30 +3411,30 @@
         <v>0</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2">
-        <v>45636.35731481481</v>
+        <v>45637.30857638889</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D70" s="2">
-        <v>45636.55023148148</v>
+        <v>45637.69799768519</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G70" s="2">
-        <v>15</v>
+        <v>23.34</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -3416,231 +3443,231 @@
         <v>0</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2">
-        <v>45636</v>
+        <v>45637.31792824074</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D71" s="2">
-        <v>45636</v>
+        <v>45637.70768518518</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G71" s="2">
-        <v>16.83</v>
+        <v>16.63</v>
       </c>
       <c r="H71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" s="2">
         <v>0</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2">
-        <v>45636</v>
+        <v>45637.31034722222</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D72" s="2">
-        <v>45636</v>
+        <v>45637.70694444444</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G72" s="2">
-        <v>16</v>
+        <v>19.27</v>
       </c>
       <c r="H72" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I72" s="2">
         <v>0</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2">
-        <v>45636</v>
+        <v>45637.31766203704</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D73" s="2">
-        <v>45636</v>
+        <v>45637.71078703704</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G73" s="2">
-        <v>16.83</v>
+        <v>23.84</v>
       </c>
       <c r="H73" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" s="2">
         <v>0</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2">
-        <v>45636</v>
+        <v>45637.31731481481</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D74" s="2">
-        <v>45636</v>
+        <v>45637.70809027777</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G74" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H74" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I74" s="2">
         <v>0</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" s="2">
+        <v>45637.34353009259</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="2">
+        <v>45637.69791666666</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G75" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B75" s="2">
-        <v>45636</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D75" s="2">
-        <v>45636</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G75" s="2">
-        <v>13.1</v>
-      </c>
-      <c r="H75" s="2">
-        <v>6</v>
-      </c>
-      <c r="I75" s="2">
-        <v>0</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2">
-        <v>45636</v>
+        <v>45637.33844907407</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D76" s="2">
-        <v>45636</v>
+        <v>45637.66525462963</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G76" s="2">
-        <v>16.83</v>
+        <v>16</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
       </c>
       <c r="I76" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2">
-        <v>45636</v>
+        <v>45637.59813657407</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
-        <v>45636</v>
+        <v>45637.67238425926</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G77" s="2">
-        <v>24.16</v>
+        <v>17</v>
       </c>
       <c r="H77" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I77" s="2">
         <v>0</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3648,31 +3675,31 @@
         <v>101</v>
       </c>
       <c r="B78" s="2">
-        <v>45636</v>
+        <v>45637.34199074074</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D78" s="2">
-        <v>45636</v>
+        <v>45637.57880787037</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G78" s="2">
-        <v>16.22</v>
+        <v>17</v>
       </c>
       <c r="H78" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I78" s="2">
         <v>0</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3680,31 +3707,31 @@
         <v>102</v>
       </c>
       <c r="B79" s="2">
-        <v>45636</v>
+        <v>45637.35802083334</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D79" s="2">
-        <v>45636</v>
+        <v>45637.66510416667</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G79" s="2">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="H79" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I79" s="2">
         <v>0</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3712,31 +3739,31 @@
         <v>103</v>
       </c>
       <c r="B80" s="2">
-        <v>45636</v>
+        <v>45637.34215277778</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D80" s="2">
-        <v>45636</v>
+        <v>45637.55002314815</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G80" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H80" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I80" s="2">
         <v>0</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3744,22 +3771,22 @@
         <v>104</v>
       </c>
       <c r="B81" s="2">
-        <v>45636.35671296297</v>
+        <v>45637.33831018519</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D81" s="2">
-        <v>45636.70833333334</v>
+        <v>45637.68679398148</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G81" s="2">
-        <v>18.72</v>
+        <v>17.48</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
@@ -3768,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3776,159 +3803,159 @@
         <v>105</v>
       </c>
       <c r="B82" s="2">
-        <v>45636</v>
+        <v>45637.47237268519</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D82" s="2">
-        <v>45636</v>
+        <v>45637.58402777778</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G82" s="2">
-        <v>14.92</v>
+        <v>16.5</v>
       </c>
       <c r="H82" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" s="2">
         <v>0</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="2">
+        <v>45637</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" s="2">
+        <v>45637</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B83" s="2">
-        <v>45636</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D83" s="2">
-        <v>45636</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="G83" s="2">
-        <v>30</v>
+        <v>17.3</v>
       </c>
       <c r="H83" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I83" s="2">
         <v>0</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="2">
+        <v>45637</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="2">
+        <v>45637</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G84" s="2">
+        <v>18.43</v>
+      </c>
+      <c r="H84" s="2">
+        <v>2</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B84" s="2">
-        <v>45636</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D84" s="2">
-        <v>45636</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G84" s="2">
-        <v>22.07</v>
-      </c>
-      <c r="H84" s="2">
-        <v>6</v>
-      </c>
-      <c r="I84" s="2">
-        <v>0</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D85" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G85" s="2">
-        <v>16</v>
+        <v>18.43</v>
       </c>
       <c r="H85" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I85" s="2">
         <v>0</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D86" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G86" s="2">
-        <v>16</v>
+        <v>17.3</v>
       </c>
       <c r="H86" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I86" s="2">
         <v>0</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3936,31 +3963,31 @@
         <v>110</v>
       </c>
       <c r="B87" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D87" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G87" s="2">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="H87" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I87" s="2">
         <v>0</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3968,31 +3995,31 @@
         <v>111</v>
       </c>
       <c r="B88" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D88" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G88" s="2">
-        <v>18.72</v>
+        <v>15.5</v>
       </c>
       <c r="H88" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I88" s="2">
         <v>0</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -4000,118 +4027,118 @@
         <v>112</v>
       </c>
       <c r="B89" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D89" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G89" s="2">
-        <v>17</v>
+        <v>16.53</v>
       </c>
       <c r="H89" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I89" s="2">
         <v>0</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D90" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G90" s="2">
-        <v>30</v>
+        <v>16.53</v>
       </c>
       <c r="H90" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I90" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2">
-        <v>45636</v>
+        <v>45637.3319212963</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D91" s="2">
-        <v>45636</v>
+        <v>45637.70833333334</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G91" s="2">
-        <v>16</v>
+        <v>18.72</v>
       </c>
       <c r="H91" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I91" s="2">
         <v>0</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B92" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D92" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G92" s="2">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="H92" s="2">
         <v>6</v>
@@ -4120,350 +4147,350 @@
         <v>0</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D93" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G93" s="2">
         <v>15.5</v>
       </c>
       <c r="H93" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I93" s="2">
         <v>0</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94" s="2">
+        <v>45637.37447916667</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45637.54103009259</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B94" s="2">
-        <v>45636</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D94" s="2">
-        <v>45636</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="G94" s="2">
-        <v>22.46</v>
+        <v>16.5</v>
       </c>
       <c r="H94" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" s="2">
         <v>0</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B95" s="2">
-        <v>45636</v>
+        <v>45637.66123842593</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D95" s="2">
-        <v>45636</v>
+        <v>45637.69077546296</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="G95" s="2">
-        <v>18.02</v>
+        <v>15</v>
       </c>
       <c r="H95" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I95" s="2">
         <v>0</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B96" s="2">
-        <v>45636</v>
+        <v>45637.54208333333</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
-        <v>45636</v>
+        <v>45637.54212962963</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="G96" s="2">
-        <v>21.78</v>
+        <v>15</v>
       </c>
       <c r="H96" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I96" s="2">
         <v>0</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="2">
+        <v>45637.33158564815</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="2">
+        <v>45637.42104166667</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B97" s="2">
-        <v>45636</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D97" s="2">
-        <v>45636</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="G97" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H97" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I97" s="2">
         <v>0</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B98" s="2">
+        <v>45637.66101851852</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="2">
+        <v>45637.68981481482</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G98" s="2">
+        <v>15</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0</v>
+      </c>
+      <c r="I98" s="2">
+        <v>0</v>
+      </c>
+      <c r="J98" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B98" s="2">
-        <v>45636</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D98" s="2">
-        <v>45636</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G98" s="2">
-        <v>30</v>
-      </c>
-      <c r="H98" s="2">
-        <v>6</v>
-      </c>
-      <c r="I98" s="2">
-        <v>0</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B99" s="2">
-        <v>45636</v>
+        <v>45637.32978009259</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D99" s="2">
-        <v>45636</v>
+        <v>45637.55636574074</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="G99" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H99" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I99" s="2">
         <v>0</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B100" s="2">
-        <v>45636</v>
+        <v>45637.54166666666</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
-        <v>45636</v>
+        <v>45637.70833333334</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="G100" s="2">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H100" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I100" s="2">
         <v>0</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B101" s="2">
-        <v>45636</v>
+        <v>45637.66697916666</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
-        <v>45636</v>
+        <v>45637.68878472222</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="G101" s="2">
-        <v>17.3</v>
+        <v>15</v>
       </c>
       <c r="H101" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I101" s="2">
         <v>0</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B102" s="2">
-        <v>45636</v>
+        <v>45637.32842592592</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D102" s="2">
-        <v>45636</v>
+        <v>45637.54064814815</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="G102" s="2">
-        <v>17.3</v>
+        <v>18</v>
       </c>
       <c r="H102" s="2">
         <v>0</v>
       </c>
       <c r="I102" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2">
-        <v>45636.33333333334</v>
+        <v>45637.3331712963</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D103" s="2">
-        <v>45636.68055555555</v>
+        <v>45637.43074074074</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="G103" s="2">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="H103" s="2">
         <v>0</v>
@@ -4472,30 +4499,30 @@
         <v>0</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B104" s="2">
-        <v>45636.35763888889</v>
+        <v>45637.34734953703</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D104" s="2">
-        <v>45636.42858796296</v>
+        <v>45637.4375</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G104" s="2">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="H104" s="2">
         <v>0</v>
@@ -4504,30 +4531,30 @@
         <v>0</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B105" s="2">
-        <v>45636.37141203704</v>
+        <v>45637.33193287037</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D105" s="2">
-        <v>45636.45457175926</v>
+        <v>45637.54369212963</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G105" s="2">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="H105" s="2">
         <v>0</v>
@@ -4536,30 +4563,30 @@
         <v>0</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B106" s="2">
-        <v>45636.33510416667</v>
+        <v>45637.63586805556</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
-        <v>45636.42238425926</v>
+        <v>45637.69791666666</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G106" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H106" s="2">
         <v>0</v>
@@ -4568,30 +4595,30 @@
         <v>0</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B107" s="2">
-        <v>45636.33475694444</v>
+        <v>45637.32868055555</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D107" s="2">
-        <v>45636.42340277778</v>
+        <v>45637.54106481482</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G107" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H107" s="2">
         <v>0</v>
@@ -4600,27 +4627,27 @@
         <v>0</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B108" s="2">
-        <v>45636.32879629629</v>
+        <v>45637.33</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D108" s="2">
-        <v>45636.55631944445</v>
+        <v>45637.42960648148</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G108" s="2">
         <v>15</v>
@@ -4632,27 +4659,27 @@
         <v>0</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B109" s="2">
-        <v>45636.32717592592</v>
+        <v>45637.53472222222</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
-        <v>45636.55222222222</v>
+        <v>45637.70833333334</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G109" s="2">
         <v>15</v>
@@ -4664,30 +4691,30 @@
         <v>0</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B110" s="2">
-        <v>45636.6619212963</v>
+        <v>45637.5437037037</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D110" s="2">
-        <v>45636.70858796296</v>
+        <v>45637.67702546297</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G110" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H110" s="2">
         <v>0</v>
@@ -4696,27 +4723,27 @@
         <v>0</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B111" s="2">
-        <v>45636.63359953704</v>
+        <v>45637.32832175926</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D111" s="2">
-        <v>45636.70626157407</v>
+        <v>45637.55190972222</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G111" s="2">
         <v>15</v>
@@ -4728,30 +4755,30 @@
         <v>0</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B112" s="2">
-        <v>45636.32726851852</v>
+        <v>45637.34141203704</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D112" s="2">
-        <v>45636.55732638889</v>
+        <v>45637.41914351852</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>131</v>
       </c>
       <c r="G112" s="2">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="H112" s="2">
         <v>0</v>
@@ -4765,25 +4792,25 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B113" s="2">
-        <v>45636.33356481481</v>
+        <v>45637.53293981482</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D113" s="2">
-        <v>45636.43430555556</v>
+        <v>45637.57886574074</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>131</v>
       </c>
       <c r="G113" s="2">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="H113" s="2">
         <v>0</v>
@@ -4797,16 +4824,16 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B114" s="2">
-        <v>45636.53638888889</v>
+        <v>45637.34112268518</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D114" s="2">
-        <v>45636.70945601852</v>
+        <v>45637.57501157407</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>12</v>
@@ -4815,7 +4842,7 @@
         <v>131</v>
       </c>
       <c r="G114" s="2">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
@@ -4829,25 +4856,25 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B115" s="2">
-        <v>45636.53943287037</v>
+        <v>45637.34265046296</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D115" s="2">
-        <v>45636.70577546296</v>
+        <v>45637.47027777778</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>131</v>
       </c>
       <c r="G115" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H115" s="2">
         <v>0</v>
@@ -4861,16 +4888,16 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B116" s="2">
-        <v>45636.53321759259</v>
+        <v>45637.61805555555</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
-        <v>45636.68628472222</v>
+        <v>45637.6875</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>12</v>
@@ -4879,7 +4906,7 @@
         <v>131</v>
       </c>
       <c r="G116" s="2">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="H116" s="2">
         <v>0</v>
@@ -4893,25 +4920,25 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B117" s="2">
-        <v>45636.32739583333</v>
+        <v>45637.33554398148</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D117" s="2">
-        <v>45636.42896990741</v>
+        <v>45637.56498842593</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>131</v>
       </c>
       <c r="G117" s="2">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="H117" s="2">
         <v>0</v>
@@ -4925,16 +4952,16 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B118" s="2">
-        <v>45636.66429398148</v>
+        <v>45637.33333333334</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D118" s="2">
-        <v>45636.70930555555</v>
+        <v>45637.70138888889</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>12</v>
@@ -4943,7 +4970,7 @@
         <v>131</v>
       </c>
       <c r="G118" s="2">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="H118" s="2">
         <v>0</v>
@@ -4957,25 +4984,25 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B119" s="2">
-        <v>45636.55274305555</v>
+        <v>45637.35028935185</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D119" s="2">
-        <v>45636.67065972222</v>
+        <v>45637.67708333334</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G119" s="2">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="H119" s="2">
         <v>0</v>
@@ -4984,62 +5011,62 @@
         <v>0</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B120" s="2">
-        <v>45636.33387731481</v>
+        <v>45637.33333333334</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D120" s="2">
-        <v>45636.705625</v>
+        <v>45637.33333333334</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G120" s="2">
         <v>22.5</v>
       </c>
       <c r="H120" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I120" s="2">
         <v>0</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B121" s="2">
-        <v>45636.33712962963</v>
+        <v>45637.52083333334</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
-        <v>45636.51795138889</v>
+        <v>45637.69652777778</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G121" s="2">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="H121" s="2">
         <v>0</v>
@@ -5048,30 +5075,30 @@
         <v>0</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B122" s="2">
-        <v>45636.33413194444</v>
+        <v>45637.3125</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D122" s="2">
-        <v>45636.46030092592</v>
+        <v>45637.45833333334</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G122" s="2">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="H122" s="2">
         <v>0</v>
@@ -5080,27 +5107,27 @@
         <v>0</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B123" s="2">
-        <v>45636.3394212963</v>
+        <v>45637.45719907407</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
-        <v>45636.62188657407</v>
+        <v>45637.68958333333</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G123" s="2">
         <v>15.5</v>
@@ -5112,30 +5139,30 @@
         <v>0</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B124" s="2">
-        <v>45636.33006944445</v>
+        <v>45637.51074074074</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
-        <v>45636.70541666666</v>
+        <v>45637.69097222222</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G124" s="2">
-        <v>22.5</v>
+        <v>16</v>
       </c>
       <c r="H124" s="2">
         <v>0</v>
@@ -5144,30 +5171,30 @@
         <v>0</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B125" s="2">
-        <v>45636.34503472222</v>
+        <v>45637.33204861111</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D125" s="2">
-        <v>45636.69976851852</v>
+        <v>45637.75</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G125" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H125" s="2">
         <v>0</v>
@@ -5176,30 +5203,30 @@
         <v>0</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B126" s="2">
-        <v>45636.49908564815</v>
+        <v>45637.33333333334</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D126" s="2">
-        <v>45636.68842592592</v>
+        <v>45637.67847222222</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G126" s="2">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="H126" s="2">
         <v>0</v>
@@ -5208,30 +5235,30 @@
         <v>0</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B127" s="2">
-        <v>45636.33092592593</v>
+        <v>45637.41666666666</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D127" s="2">
-        <v>45636.75252314815</v>
+        <v>45637.75</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G127" s="2">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="H127" s="2">
         <v>0</v>
@@ -5240,30 +5267,30 @@
         <v>0</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B128" s="2">
-        <v>45636.32462962963</v>
+        <v>45637.53819444445</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
-        <v>45636.67077546296</v>
+        <v>45637.66666666666</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G128" s="2">
-        <v>18</v>
+        <v>19.15</v>
       </c>
       <c r="H128" s="2">
         <v>0</v>
@@ -5272,30 +5299,30 @@
         <v>0</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B129" s="2">
-        <v>45636.32859953704</v>
+        <v>45637.33304398148</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D129" s="2">
-        <v>45636.58625</v>
+        <v>45637.50164351852</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G129" s="2">
-        <v>15</v>
+        <v>19.15</v>
       </c>
       <c r="H129" s="2">
         <v>0</v>
@@ -5304,30 +5331,30 @@
         <v>0</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B130" s="2">
-        <v>45636.33623842592</v>
+        <v>45637.34150462963</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D130" s="2">
-        <v>45636.75381944444</v>
+        <v>45637.70833333334</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G130" s="2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H130" s="2">
         <v>0</v>
@@ -5336,30 +5363,30 @@
         <v>0</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="2" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="B131" s="2">
-        <v>45636.66416666667</v>
+        <v>45637.3449537037</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D131" s="2">
-        <v>45636.68518518518</v>
+        <v>45637.58325231481</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G131" s="2">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="H131" s="2">
         <v>0</v>
@@ -5373,25 +5400,25 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B132" s="2">
-        <v>45636.34195601852</v>
+        <v>45637.34521990741</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D132" s="2">
-        <v>45636.70833333334</v>
+        <v>45637.53212962963</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G132" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H132" s="2">
         <v>0</v>
@@ -5400,30 +5427,30 @@
         <v>0</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B133" s="2">
-        <v>45636.34532407407</v>
+        <v>45637.34447916667</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D133" s="2">
-        <v>45636.65069444444</v>
+        <v>45637.6803125</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G133" s="2">
-        <v>20.5</v>
+        <v>23</v>
       </c>
       <c r="H133" s="2">
         <v>0</v>
@@ -5432,62 +5459,62 @@
         <v>0</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B134" s="2">
-        <v>45636.33333333334</v>
+        <v>45637.51033564815</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
-        <v>45636.33333333334</v>
+        <v>45637.68096064815</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G134" s="2">
-        <v>17</v>
+        <v>13.65</v>
       </c>
       <c r="H134" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I134" s="2">
         <v>0</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B135" s="2">
-        <v>45636.3452662037</v>
+        <v>45637.34488425926</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D135" s="2">
-        <v>45636.69138888889</v>
+        <v>45637.48615740741</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G135" s="2">
-        <v>13.65</v>
+        <v>17</v>
       </c>
       <c r="H135" s="2">
         <v>0</v>
@@ -5496,30 +5523,30 @@
         <v>0</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B136" s="2">
-        <v>45636.68391203704</v>
+        <v>45637.34479166667</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D136" s="2">
-        <v>45636.81388888889</v>
+        <v>45637.6875</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G136" s="2">
-        <v>18</v>
+        <v>13.65</v>
       </c>
       <c r="H136" s="2">
         <v>0</v>
@@ -5528,62 +5555,62 @@
         <v>0</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B137" s="2">
-        <v>45636.32824074074</v>
+        <v>45637.33333333334</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D137" s="2">
-        <v>45636.70924768518</v>
+        <v>45637.33333333334</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G137" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H137" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I137" s="2">
         <v>0</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B138" s="2">
-        <v>45636.38378472222</v>
+        <v>45637.33378472222</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D138" s="2">
-        <v>45636.69637731482</v>
+        <v>45637.64662037037</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G138" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H138" s="2">
         <v>0</v>
@@ -5592,30 +5619,30 @@
         <v>0</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B139" s="2">
-        <v>45636.32824074074</v>
+        <v>45637.463125</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D139" s="2">
-        <v>45636.70907407408</v>
+        <v>45637.79166666666</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G139" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H139" s="2">
         <v>0</v>
@@ -5624,30 +5651,30 @@
         <v>0</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B140" s="2">
-        <v>45636.4375</v>
+        <v>45637.38143518518</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D140" s="2">
-        <v>45636.47222222222</v>
+        <v>45637.83333333334</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G140" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H140" s="2">
         <v>0</v>
@@ -5656,30 +5683,30 @@
         <v>0</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B141" s="2">
-        <v>45636.33878472223</v>
+        <v>45637.36414351852</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D141" s="2">
-        <v>45636.64101851852</v>
+        <v>45637.77268518518</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G141" s="2">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="H141" s="2">
         <v>0</v>
@@ -5688,30 +5715,30 @@
         <v>0</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B142" s="2">
-        <v>45636.34328703704</v>
+        <v>45637.49151620371</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D142" s="2">
-        <v>45636.63996527778</v>
+        <v>45637.80208333334</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G142" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H142" s="2">
         <v>0</v>
@@ -5720,30 +5747,30 @@
         <v>0</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B143" s="2">
-        <v>45636.33333333334</v>
+        <v>45637.49579861111</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D143" s="2">
-        <v>45636.52704861111</v>
+        <v>45637.80208333334</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G143" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H143" s="2">
         <v>0</v>
@@ -5752,30 +5779,30 @@
         <v>0</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B144" s="2">
-        <v>45636.36425925926</v>
+        <v>45637.36649305555</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D144" s="2">
-        <v>45636.72892361111</v>
+        <v>45637.77180555555</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G144" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H144" s="2">
         <v>0</v>
@@ -5784,27 +5811,27 @@
         <v>0</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B145" s="2">
-        <v>45636.37665509259</v>
+        <v>45637.33300925926</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D145" s="2">
-        <v>45636.68849537037</v>
+        <v>45637.6875</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G145" s="2">
         <v>15</v>
@@ -5816,30 +5843,30 @@
         <v>0</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B146" s="2">
-        <v>45636.3792824074</v>
+        <v>45637.33298611111</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D146" s="2">
-        <v>45636.68679398148</v>
+        <v>45637.6875</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G146" s="2">
-        <v>13.65</v>
+        <v>15</v>
       </c>
       <c r="H146" s="2">
         <v>0</v>
@@ -5848,30 +5875,30 @@
         <v>0</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B147" s="2">
-        <v>45636.33467592593</v>
+        <v>45637.44333333334</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D147" s="2">
-        <v>45636.67026620371</v>
+        <v>45637.57557870371</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G147" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H147" s="2">
         <v>0</v>
@@ -5880,27 +5907,27 @@
         <v>0</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B148" s="2">
-        <v>45636.38645833333</v>
+        <v>45637.36797453704</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D148" s="2">
-        <v>45636.67954861111</v>
+        <v>45637.6046412037</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G148" s="2">
         <v>15</v>
@@ -5912,30 +5939,30 @@
         <v>0</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B149" s="2">
-        <v>45636.37261574074</v>
+        <v>45637.49444444444</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
-        <v>45636.68361111111</v>
+        <v>45637.61652777778</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G149" s="2">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H149" s="2">
         <v>0</v>
@@ -5944,30 +5971,30 @@
         <v>0</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B150" s="2">
-        <v>45636.34532407407</v>
+        <v>45637.335625</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D150" s="2">
-        <v>45636.69119212963</v>
+        <v>45637.47418981481</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G150" s="2">
-        <v>13.65</v>
+        <v>15</v>
       </c>
       <c r="H150" s="2">
         <v>0</v>
@@ -5976,30 +6003,30 @@
         <v>0</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B151" s="2">
-        <v>45636.62061342593</v>
+        <v>45637.37130787037</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D151" s="2">
-        <v>45636.86548611111</v>
+        <v>45637.69259259259</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G151" s="2">
-        <v>13.65</v>
+        <v>20</v>
       </c>
       <c r="H151" s="2">
         <v>0</v>
@@ -6008,30 +6035,30 @@
         <v>0</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B152" s="2">
-        <v>45636.58425925926</v>
+        <v>45637.55186342593</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D152" s="2">
-        <v>45636.875</v>
+        <v>45637.80208333334</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G152" s="2">
-        <v>22</v>
+        <v>13.65</v>
       </c>
       <c r="H152" s="2">
         <v>0</v>
@@ -6040,30 +6067,30 @@
         <v>0</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B153" s="2">
-        <v>45636.62078703703</v>
+        <v>45637.54409722222</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D153" s="2">
-        <v>45636.88146990741</v>
+        <v>45637.80208333334</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G153" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H153" s="2">
         <v>0</v>
@@ -6072,30 +6099,30 @@
         <v>0</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B154" s="2">
-        <v>45636.33454861111</v>
+        <v>45637.54050925926</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D154" s="2">
-        <v>45636.68898148148</v>
+        <v>45637.84375</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G154" s="2">
-        <v>23.69</v>
+        <v>22</v>
       </c>
       <c r="H154" s="2">
         <v>0</v>
@@ -6104,30 +6131,30 @@
         <v>0</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B155" s="2">
-        <v>45636.33333333334</v>
+        <v>45637.3337962963</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D155" s="2">
-        <v>45636.66666666666</v>
+        <v>45637.60429398148</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G155" s="2">
-        <v>18</v>
+        <v>23.69</v>
       </c>
       <c r="H155" s="2">
         <v>0</v>
@@ -6136,30 +6163,30 @@
         <v>0</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B156" s="2">
-        <v>45636.31484953704</v>
+        <v>45637.36490740741</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D156" s="2">
-        <v>45636.52528935186</v>
+        <v>45637.60414351852</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G156" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H156" s="2">
         <v>0</v>
@@ -6168,30 +6195,30 @@
         <v>0</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B157" s="2">
-        <v>45636.32125</v>
+        <v>45637.31825231481</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D157" s="2">
-        <v>45636.66868055556</v>
+        <v>45637.62107638889</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G157" s="2">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="H157" s="2">
         <v>0</v>
@@ -6200,62 +6227,62 @@
         <v>0</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B158" s="2">
-        <v>45636.33333333334</v>
+        <v>45637.36449074074</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D158" s="2">
-        <v>45636.33333333334</v>
+        <v>45637.68072916667</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="G158" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H158" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I158" s="2">
         <v>0</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B159" s="2">
-        <v>45636.94976851852</v>
+        <v>45637.41038194444</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D159" s="2">
-        <v>45637.29496527778</v>
+        <v>45637.48017361111</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="G159" s="2">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="H159" s="2">
         <v>0</v>
@@ -6264,62 +6291,62 @@
         <v>0</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B160" s="2">
-        <v>45636.33333333334</v>
+        <v>45637.37230324074</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D160" s="2">
-        <v>45636.33333333334</v>
+        <v>45637.60077546296</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="G160" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H160" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I160" s="2">
         <v>0</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B161" s="2">
-        <v>45636.61498842593</v>
+        <v>45637.58048611111</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D161" s="2">
-        <v>45636.95871527777</v>
+        <v>45637.6044675926</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="G161" s="2">
-        <v>17.25</v>
+        <v>13.65</v>
       </c>
       <c r="H161" s="2">
         <v>0</v>
@@ -6328,30 +6355,30 @@
         <v>0</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B162" s="2">
-        <v>45636.41733796296</v>
+        <v>45637.38363425926</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D162" s="2">
-        <v>45636.75</v>
+        <v>45637.66666666666</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="G162" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H162" s="2">
         <v>0</v>
@@ -6360,27 +6387,27 @@
         <v>0</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B163" s="2">
-        <v>45636.38070601852</v>
+        <v>45637.50966435186</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D163" s="2">
-        <v>45636.57916666667</v>
+        <v>45637.58460648148</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="G163" s="2">
         <v>15</v>
@@ -6392,27 +6419,27 @@
         <v>0</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="2" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B164" s="2">
-        <v>45636.2881712963</v>
+        <v>45637.3640625</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D164" s="2">
-        <v>45636.62640046296</v>
+        <v>45637.83333333334</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="G164" s="2">
         <v>16</v>
@@ -6424,30 +6451,30 @@
         <v>0</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B165" s="2">
-        <v>45636.46730324074</v>
+        <v>45637.47806712963</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="D165" s="2">
-        <v>45636.7159375</v>
+        <v>45637.62429398148</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="G165" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H165" s="2">
         <v>0</v>
@@ -6456,30 +6483,30 @@
         <v>0</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B166" s="2">
-        <v>45636.77354166667</v>
+        <v>45637.36297453703</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D166" s="2">
-        <v>45636.90623842592</v>
+        <v>45637.47805555556</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="G166" s="2">
-        <v>16</v>
+        <v>13.65</v>
       </c>
       <c r="H166" s="2">
         <v>0</v>
@@ -6488,30 +6515,30 @@
         <v>0</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B167" s="2">
-        <v>45636.33333333334</v>
+        <v>45637.37359953704</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D167" s="2">
-        <v>45636.57916666667</v>
+        <v>45637.48806712963</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="G167" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H167" s="2">
         <v>0</v>
@@ -6520,30 +6547,30 @@
         <v>0</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:10">
       <c r="A168" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B168" s="2">
-        <v>45636.40054398148</v>
+        <v>45637.535</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D168" s="2">
-        <v>45636.58287037037</v>
+        <v>45637.84375</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="G168" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H168" s="2">
         <v>0</v>
@@ -6552,30 +6579,30 @@
         <v>0</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B169" s="2">
-        <v>45636.33420138889</v>
+        <v>45637.33381944444</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D169" s="2">
-        <v>45636.67060185185</v>
+        <v>45637.60438657407</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="G169" s="2">
-        <v>21.96</v>
+        <v>15</v>
       </c>
       <c r="H169" s="2">
         <v>0</v>
@@ -6584,30 +6611,30 @@
         <v>0</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="A170" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B170" s="2">
-        <v>45636.40091435185</v>
+        <v>45637.44438657408</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D170" s="2">
-        <v>45636.72010416666</v>
+        <v>45637.58524305555</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="G170" s="2">
-        <v>16.61</v>
+        <v>15</v>
       </c>
       <c r="H170" s="2">
         <v>0</v>
@@ -6616,30 +6643,30 @@
         <v>0</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B171" s="2">
-        <v>45636.39976851852</v>
+        <v>45637.4574074074</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D171" s="2">
-        <v>45636.58510416667</v>
+        <v>45637.82291666666</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="G171" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H171" s="2">
         <v>0</v>
@@ -6648,30 +6675,30 @@
         <v>0</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="A172" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B172" s="2">
-        <v>45636.40106481482</v>
+        <v>45637.35413194444</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D172" s="2">
-        <v>45636.75530092593</v>
+        <v>45637.60418981482</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="G172" s="2">
-        <v>16.61</v>
+        <v>15</v>
       </c>
       <c r="H172" s="2">
         <v>0</v>
@@ -6680,30 +6707,30 @@
         <v>0</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="A173" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B173" s="2">
-        <v>45636.33954861111</v>
+        <v>45637.37432870371</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D173" s="2">
-        <v>45636.6764699074</v>
+        <v>45637.70833333334</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="G173" s="2">
-        <v>20.68</v>
+        <v>15</v>
       </c>
       <c r="H173" s="2">
         <v>0</v>
@@ -6712,30 +6739,30 @@
         <v>0</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="2" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="B174" s="2">
-        <v>45636.54172453703</v>
+        <v>45637.56412037037</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D174" s="2">
-        <v>45636.67457175926</v>
+        <v>45637.67094907408</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="G174" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H174" s="2">
         <v>0</v>
@@ -6744,30 +6771,30 @@
         <v>0</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="2" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="B175" s="2">
-        <v>45636.49702546297</v>
+        <v>45637.33333333334</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D175" s="2">
-        <v>45636.70496527778</v>
+        <v>45637.57642361111</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="G175" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H175" s="2">
         <v>0</v>
@@ -6776,30 +6803,30 @@
         <v>0</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B176" s="2">
-        <v>45636.53091435185</v>
+        <v>45637.2908912037</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D176" s="2">
-        <v>45636.58344907407</v>
+        <v>45637.68483796297</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="G176" s="2">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="H176" s="2">
         <v>0</v>
@@ -6808,30 +6835,30 @@
         <v>0</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="2" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="B177" s="2">
-        <v>45636.70502314815</v>
+        <v>45637.33333333334</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D177" s="2">
-        <v>45637.12100694444</v>
+        <v>45637.57642361111</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="G177" s="2">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="H177" s="2">
         <v>0</v>
@@ -6840,59 +6867,59 @@
         <v>0</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="2" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B178" s="2">
-        <v>45636.32991898148</v>
+        <v>45637.33333333334</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D178" s="2">
-        <v>45636.67038194444</v>
+        <v>45637.33333333334</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="G178" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H178" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I178" s="2">
         <v>0</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="2" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B179" s="2">
-        <v>45636.32988425926</v>
+        <v>45637.39118055555</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D179" s="2">
-        <v>45636.67089120371</v>
+        <v>45637.72916666666</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G179" s="2">
         <v>22</v>
@@ -6904,94 +6931,94 @@
         <v>0</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="2" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B180" s="2">
-        <v>45636.33333333334</v>
+        <v>45637.58914351852</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D180" s="2">
-        <v>45636.33333333334</v>
+        <v>45637.91666666666</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G180" s="2">
-        <v>24.34</v>
+        <v>16</v>
       </c>
       <c r="H180" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" s="2">
         <v>0</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="2" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="B181" s="2">
-        <v>45636.31328703704</v>
+        <v>45637.33333333334</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D181" s="2">
-        <v>45636.49429398148</v>
+        <v>45637.33333333334</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="G181" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H181" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I181" s="2">
         <v>0</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="2" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B182" s="2">
-        <v>45636.33333333334</v>
+        <v>45637.62854166667</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D182" s="2">
-        <v>45636.54166666666</v>
+        <v>45637.96347222223</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="G182" s="2">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="H182" s="2">
         <v>0</v>
@@ -7000,30 +7027,30 @@
         <v>0</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="183" spans="1:10">
       <c r="A183" s="2" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="B183" s="2">
-        <v>45636.31297453704</v>
+        <v>45637.9490162037</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D183" s="2">
-        <v>45636.50438657407</v>
+        <v>45638.29736111111</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="G183" s="2">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="H183" s="2">
         <v>0</v>
@@ -7032,30 +7059,30 @@
         <v>0</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="184" spans="1:10">
       <c r="A184" s="2" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B184" s="2">
-        <v>45636.52741898148</v>
+        <v>45637.28846064815</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D184" s="2">
-        <v>45636.70350694445</v>
+        <v>45637.62271990741</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="G184" s="2">
-        <v>20.5</v>
+        <v>16</v>
       </c>
       <c r="H184" s="2">
         <v>0</v>
@@ -7064,30 +7091,30 @@
         <v>0</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="2" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="B185" s="2">
-        <v>45636.33456018518</v>
+        <v>45637.30369212963</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D185" s="2">
-        <v>45636.50194444445</v>
+        <v>45637.72929398148</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="G185" s="2">
-        <v>20.5</v>
+        <v>15</v>
       </c>
       <c r="H185" s="2">
         <v>0</v>
@@ -7096,30 +7123,30 @@
         <v>0</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="2" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B186" s="2">
-        <v>45636.31901620371</v>
+        <v>45637.41744212963</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D186" s="2">
-        <v>45636.49361111111</v>
+        <v>45637.78912037037</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G186" s="2">
-        <v>18</v>
+        <v>16.61</v>
       </c>
       <c r="H186" s="2">
         <v>0</v>
@@ -7128,30 +7155,30 @@
         <v>0</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="187" spans="1:10">
       <c r="A187" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B187" s="2">
-        <v>45636.31070601852</v>
+        <v>45637.3310300926</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D187" s="2">
-        <v>45636.46615740741</v>
+        <v>45637.67046296296</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G187" s="2">
-        <v>17</v>
+        <v>21.96</v>
       </c>
       <c r="H187" s="2">
         <v>0</v>
@@ -7160,30 +7187,30 @@
         <v>0</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B188" s="2">
-        <v>45636.55219907407</v>
+        <v>45637.3783912037</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D188" s="2">
-        <v>45636.67238425926</v>
+        <v>45637.56607638889</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G188" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H188" s="2">
         <v>0</v>
@@ -7192,30 +7219,30 @@
         <v>0</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="2" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B189" s="2">
-        <v>45636.3125</v>
+        <v>45637.31819444444</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D189" s="2">
-        <v>45636.53611111111</v>
+        <v>45637.60972222222</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G189" s="2">
-        <v>18.55</v>
+        <v>15</v>
       </c>
       <c r="H189" s="2">
         <v>0</v>
@@ -7224,62 +7251,62 @@
         <v>0</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B190" s="2">
+        <v>45637.4169675926</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" s="2">
+        <v>45637.78938657408</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G190" s="2">
+        <v>16.61</v>
+      </c>
+      <c r="H190" s="2">
+        <v>0</v>
+      </c>
+      <c r="I190" s="2">
+        <v>0</v>
+      </c>
+      <c r="J190" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B190" s="2">
-        <v>45636.32109953704</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D190" s="2">
-        <v>45636.50231481482</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G190" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="H190" s="2">
-        <v>0</v>
-      </c>
-      <c r="I190" s="2">
-        <v>0</v>
-      </c>
-      <c r="J190" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B191" s="2">
-        <v>45636.27104166667</v>
+        <v>45637.3781712963</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D191" s="2">
-        <v>45636.38328703704</v>
+        <v>45637.57336805556</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="G191" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H191" s="2">
         <v>0</v>
@@ -7288,30 +7315,30 @@
         <v>0</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B192" s="2">
-        <v>45636.47790509259</v>
+        <v>45637.3328587963</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D192" s="2">
-        <v>45636.5906712963</v>
+        <v>45637.67913194445</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="G192" s="2">
-        <v>16</v>
+        <v>20.68</v>
       </c>
       <c r="H192" s="2">
         <v>0</v>
@@ -7320,30 +7347,30 @@
         <v>0</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="193" spans="1:10">
       <c r="A193" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B193" s="2">
-        <v>45636.27381944445</v>
+        <v>45637.51909722222</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D193" s="2">
-        <v>45636.54053240741</v>
+        <v>45637.670625</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G193" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H193" s="2">
         <v>0</v>
@@ -7352,30 +7379,30 @@
         <v>0</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="194" spans="1:10">
       <c r="A194" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B194" s="2">
-        <v>45636.49631944444</v>
+        <v>45637.57954861111</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D194" s="2">
-        <v>45636.635625</v>
+        <v>45637.67547453703</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G194" s="2">
-        <v>17.72</v>
+        <v>16.5</v>
       </c>
       <c r="H194" s="2">
         <v>0</v>
@@ -7384,30 +7411,30 @@
         <v>0</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="195" spans="1:10">
       <c r="A195" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B195" s="2">
-        <v>45636.62206018518</v>
+        <v>45637.71984953704</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D195" s="2">
-        <v>45636.66364583333</v>
+        <v>45638.11537037037</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G195" s="2">
-        <v>23</v>
+        <v>18.54</v>
       </c>
       <c r="H195" s="2">
         <v>0</v>
@@ -7416,30 +7443,30 @@
         <v>0</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="196" spans="1:10">
       <c r="A196" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B196" s="2">
-        <v>45636.50628472222</v>
+        <v>45637.32989583333</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D196" s="2">
-        <v>45636.76445601852</v>
+        <v>45637.66703703703</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G196" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H196" s="2">
         <v>0</v>
@@ -7448,30 +7475,30 @@
         <v>0</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="197" spans="1:10">
       <c r="A197" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B197" s="2">
-        <v>45636.27898148148</v>
+        <v>45637.3305787037</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D197" s="2">
-        <v>45636.4878587963</v>
+        <v>45637.6677662037</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G197" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H197" s="2">
         <v>0</v>
@@ -7480,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -7488,22 +7515,22 @@
         <v>242</v>
       </c>
       <c r="B198" s="2">
-        <v>45636.25866898148</v>
+        <v>45637.33390046296</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D198" s="2">
-        <v>45636.6000462963</v>
+        <v>45637.45806712963</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G198" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H198" s="2">
         <v>0</v>
@@ -7512,30 +7539,30 @@
         <v>0</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="199" spans="1:10">
       <c r="A199" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B199" s="2">
-        <v>45636.56111111111</v>
+        <v>45637.33141203703</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D199" s="2">
-        <v>45636.76180555556</v>
+        <v>45637.55965277777</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G199" s="2">
-        <v>16</v>
+        <v>18.55</v>
       </c>
       <c r="H199" s="2">
         <v>0</v>
@@ -7544,62 +7571,62 @@
         <v>0</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="200" spans="1:10">
       <c r="A200" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B200" s="2">
+        <v>45637.33516203704</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D200" s="2">
+        <v>45637.52925925926</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G200" s="2">
+        <v>17</v>
+      </c>
+      <c r="H200" s="2">
+        <v>0</v>
+      </c>
+      <c r="I200" s="2">
+        <v>0</v>
+      </c>
+      <c r="J200" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="B200" s="2">
-        <v>45636.34567129629</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D200" s="2">
-        <v>45636.67059027778</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G200" s="2">
-        <v>19.5</v>
-      </c>
-      <c r="H200" s="2">
-        <v>0</v>
-      </c>
-      <c r="I200" s="2">
-        <v>0</v>
-      </c>
-      <c r="J200" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="201" spans="1:10">
       <c r="A201" s="2" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B201" s="2">
-        <v>45636.20833333334</v>
+        <v>45637.33482638889</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D201" s="2">
-        <v>45636.33333333334</v>
+        <v>45637.54534722222</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G201" s="2">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="H201" s="2">
         <v>0</v>
@@ -7608,30 +7635,30 @@
         <v>0</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="202" spans="1:10">
       <c r="A202" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B202" s="2">
-        <v>45636.33934027778</v>
+        <v>45637.31140046296</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D202" s="2">
-        <v>45636.57457175926</v>
+        <v>45637.50168981482</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G202" s="2">
-        <v>23.27</v>
+        <v>16</v>
       </c>
       <c r="H202" s="2">
         <v>0</v>
@@ -7640,27 +7667,27 @@
         <v>0</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="203" spans="1:10">
       <c r="A203" s="2" t="s">
-        <v>253</v>
+        <v>27</v>
       </c>
       <c r="B203" s="2">
-        <v>45636.35328703704</v>
+        <v>45637.33650462963</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D203" s="2">
-        <v>45636.70833333334</v>
+        <v>45637.50261574074</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="G203" s="2">
         <v>16</v>
@@ -7672,30 +7699,30 @@
         <v>0</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
     </row>
     <row r="204" spans="1:10">
       <c r="A204" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B204" s="2">
-        <v>45636.47802083333</v>
+        <v>45637.57194444445</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D204" s="2">
-        <v>45636.8125</v>
+        <v>45637.67038194444</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="G204" s="2">
-        <v>24.04</v>
+        <v>16</v>
       </c>
       <c r="H204" s="2">
         <v>0</v>
@@ -7704,30 +7731,30 @@
         <v>0</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
     </row>
     <row r="205" spans="1:10">
       <c r="A205" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B205" s="2">
-        <v>45636.32891203704</v>
+        <v>45637.46236111111</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D205" s="2">
-        <v>45636.45303240741</v>
+        <v>45637.57174768519</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="G205" s="2">
-        <v>13.65</v>
+        <v>16</v>
       </c>
       <c r="H205" s="2">
         <v>0</v>
@@ -7736,30 +7763,30 @@
         <v>0</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
     </row>
     <row r="206" spans="1:10">
       <c r="A206" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B206" s="2">
-        <v>45636.34243055555</v>
+        <v>45637.31396990741</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D206" s="2">
-        <v>45636.72143518519</v>
+        <v>45637.47390046297</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="G206" s="2">
-        <v>26.45</v>
+        <v>16</v>
       </c>
       <c r="H206" s="2">
         <v>0</v>
@@ -7768,71 +7795,519 @@
         <v>0</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
     </row>
     <row r="207" spans="1:10">
       <c r="A207" s="2" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B207" s="2">
-        <v>45636.33333333334</v>
+        <v>45637.57929398148</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D207" s="2">
-        <v>45636.33333333334</v>
+        <v>45637.67195601852</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="G207" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H207" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I207" s="2">
         <v>0</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="208" spans="1:10">
       <c r="A208" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B208" s="2">
+        <v>45637.33017361111</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D208" s="2">
+        <v>45637.49988425926</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G208" s="2">
+        <v>20</v>
+      </c>
+      <c r="H208" s="2">
+        <v>0</v>
+      </c>
+      <c r="I208" s="2">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B209" s="2">
+        <v>45637.5</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D209" s="2">
+        <v>45637.66666666666</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G209" s="2">
+        <v>27</v>
+      </c>
+      <c r="H209" s="2">
+        <v>0</v>
+      </c>
+      <c r="I209" s="2">
+        <v>0</v>
+      </c>
+      <c r="J209" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B210" s="2">
+        <v>45637.27135416667</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D210" s="2">
+        <v>45637.56039351852</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G210" s="2">
+        <v>16</v>
+      </c>
+      <c r="H210" s="2">
+        <v>0</v>
+      </c>
+      <c r="I210" s="2">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B211" s="2">
+        <v>45637.54283564815</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" s="2">
+        <v>45637.76543981482</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G211" s="2">
+        <v>20</v>
+      </c>
+      <c r="H211" s="2">
+        <v>0</v>
+      </c>
+      <c r="I211" s="2">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="A212" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B212" s="2">
+        <v>45637.27387731482</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D212" s="2">
+        <v>45637.52405092592</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G212" s="2">
+        <v>20</v>
+      </c>
+      <c r="H212" s="2">
+        <v>0</v>
+      </c>
+      <c r="I212" s="2">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B213" s="2">
+        <v>45637.58215277778</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" s="2">
+        <v>45637.76444444444</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G213" s="2">
+        <v>16</v>
+      </c>
+      <c r="H213" s="2">
+        <v>0</v>
+      </c>
+      <c r="I213" s="2">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B214" s="2">
+        <v>45637.56296296296</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" s="2">
+        <v>45637.81886574074</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G214" s="2">
+        <v>16</v>
+      </c>
+      <c r="H214" s="2">
+        <v>0</v>
+      </c>
+      <c r="I214" s="2">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B215" s="2">
+        <v>45637.33099537037</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D215" s="2">
+        <v>45637.54197916666</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G215" s="2">
+        <v>16</v>
+      </c>
+      <c r="H215" s="2">
+        <v>0</v>
+      </c>
+      <c r="I215" s="2">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B216" s="2">
+        <v>45637.37795138889</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D216" s="2">
+        <v>45637.7108912037</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G216" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="H216" s="2">
+        <v>0</v>
+      </c>
+      <c r="I216" s="2">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
+      <c r="A217" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B208" s="2">
-        <v>45636.38693287037</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D208" s="2">
-        <v>45636.71399305556</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G208" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="H208" s="2">
-        <v>0</v>
-      </c>
-      <c r="I208" s="2">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2" t="s">
-        <v>260</v>
+      <c r="B217" s="2">
+        <v>45637.18734953704</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D217" s="2">
+        <v>45637.31278935185</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G217" s="2">
+        <v>15</v>
+      </c>
+      <c r="H217" s="2">
+        <v>0</v>
+      </c>
+      <c r="I217" s="2">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="A218" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B218" s="2">
+        <v>45637.375</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D218" s="2">
+        <v>45637.625</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G218" s="2">
+        <v>20.57</v>
+      </c>
+      <c r="H218" s="2">
+        <v>0</v>
+      </c>
+      <c r="I218" s="2">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
+      <c r="A219" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B219" s="2">
+        <v>45637.33677083333</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D219" s="2">
+        <v>45637.54165509259</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G219" s="2">
+        <v>26.45</v>
+      </c>
+      <c r="H219" s="2">
+        <v>0</v>
+      </c>
+      <c r="I219" s="2">
+        <v>0</v>
+      </c>
+      <c r="J219" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="A220" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B220" s="2">
+        <v>45637.33695601852</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D220" s="2">
+        <v>45637.75929398148</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G220" s="2">
+        <v>13.65</v>
+      </c>
+      <c r="H220" s="2">
+        <v>0</v>
+      </c>
+      <c r="I220" s="2">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
+      <c r="A221" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B221" s="2">
+        <v>45637.33333333334</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D221" s="2">
+        <v>45637.70833333334</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G221" s="2">
+        <v>24.04</v>
+      </c>
+      <c r="H221" s="2">
+        <v>0</v>
+      </c>
+      <c r="I221" s="2">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
+      <c r="A222" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B222" s="2">
+        <v>45637.57721064815</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" s="2">
+        <v>45637.68784722222</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G222" s="2">
+        <v>17</v>
+      </c>
+      <c r="H222" s="2">
+        <v>0</v>
+      </c>
+      <c r="I222" s="2">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Day (Prior Year)_Payroll.xlsx
+++ b/reports/For The Day (Prior Year)_Payroll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="224">
   <si>
     <t>eecode</t>
   </si>
@@ -46,7 +46,7 @@
     <t>DepartmentTitle</t>
   </si>
   <si>
-    <t>B746</t>
+    <t>C346</t>
   </si>
   <si>
     <t>ID</t>
@@ -61,70 +61,73 @@
     <t>Lift Operations</t>
   </si>
   <si>
-    <t>A0QF</t>
-  </si>
-  <si>
-    <t>A2G4</t>
-  </si>
-  <si>
-    <t>A20Y</t>
-  </si>
-  <si>
-    <t>A2G0</t>
-  </si>
-  <si>
-    <t>A2FY</t>
-  </si>
-  <si>
-    <t>A0AM</t>
-  </si>
-  <si>
-    <t>A1ZJ</t>
-  </si>
-  <si>
-    <t>A0P4</t>
-  </si>
-  <si>
-    <t>A0AW</t>
-  </si>
-  <si>
-    <t>G125</t>
-  </si>
-  <si>
-    <t>D826</t>
-  </si>
-  <si>
-    <t>A06T</t>
-  </si>
-  <si>
-    <t>A556</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>D399</t>
-  </si>
-  <si>
-    <t>A28F</t>
-  </si>
-  <si>
-    <t>A2FM</t>
-  </si>
-  <si>
-    <t>F701</t>
-  </si>
-  <si>
-    <t>A0VU</t>
-  </si>
-  <si>
-    <t>H665</t>
-  </si>
-  <si>
-    <t>A0AV</t>
-  </si>
-  <si>
-    <t>A2AO</t>
+    <t>G891</t>
+  </si>
+  <si>
+    <t>H777</t>
+  </si>
+  <si>
+    <t>A0AC</t>
+  </si>
+  <si>
+    <t>H632</t>
+  </si>
+  <si>
+    <t>F058</t>
+  </si>
+  <si>
+    <t>A2BL</t>
+  </si>
+  <si>
+    <t>D776</t>
+  </si>
+  <si>
+    <t>A0AF</t>
+  </si>
+  <si>
+    <t>A0P2</t>
+  </si>
+  <si>
+    <t>A2DT</t>
+  </si>
+  <si>
+    <t>I304</t>
+  </si>
+  <si>
+    <t>A2CG</t>
+  </si>
+  <si>
+    <t>A0QB</t>
+  </si>
+  <si>
+    <t>B925</t>
+  </si>
+  <si>
+    <t>C693</t>
+  </si>
+  <si>
+    <t>D273</t>
+  </si>
+  <si>
+    <t>G163</t>
+  </si>
+  <si>
+    <t>J559</t>
+  </si>
+  <si>
+    <t>A046</t>
+  </si>
+  <si>
+    <t>C791</t>
+  </si>
+  <si>
+    <t>D954</t>
+  </si>
+  <si>
+    <t>J323</t>
+  </si>
+  <si>
+    <t>E657</t>
   </si>
   <si>
     <t>D1020</t>
@@ -133,28 +136,22 @@
     <t>Lift Maintenance</t>
   </si>
   <si>
-    <t>E270</t>
-  </si>
-  <si>
-    <t>G789</t>
+    <t>A1VF</t>
   </si>
   <si>
     <t>HR</t>
   </si>
   <si>
-    <t>A22D</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>D519</t>
-  </si>
-  <si>
-    <t>E302</t>
-  </si>
-  <si>
-    <t>B797</t>
+    <t>I384</t>
+  </si>
+  <si>
+    <t>H095</t>
+  </si>
+  <si>
+    <t>A676</t>
+  </si>
+  <si>
+    <t>A2QO</t>
   </si>
   <si>
     <t>D1030</t>
@@ -163,25 +160,28 @@
     <t>Snowmaking</t>
   </si>
   <si>
-    <t>F787</t>
-  </si>
-  <si>
-    <t>I828</t>
-  </si>
-  <si>
-    <t>C666</t>
-  </si>
-  <si>
-    <t>A2HF</t>
-  </si>
-  <si>
-    <t>H931</t>
-  </si>
-  <si>
-    <t>A1ZX</t>
-  </si>
-  <si>
-    <t>H125</t>
+    <t>A1H5</t>
+  </si>
+  <si>
+    <t>A2DK</t>
+  </si>
+  <si>
+    <t>A13B</t>
+  </si>
+  <si>
+    <t>A0QH</t>
+  </si>
+  <si>
+    <t>J561</t>
+  </si>
+  <si>
+    <t>A20W</t>
+  </si>
+  <si>
+    <t>A2DL</t>
+  </si>
+  <si>
+    <t>H929</t>
   </si>
   <si>
     <t>D1060</t>
@@ -190,19 +190,7 @@
     <t>Terrain Park</t>
   </si>
   <si>
-    <t>A29R</t>
-  </si>
-  <si>
-    <t>H101</t>
-  </si>
-  <si>
-    <t>H731</t>
-  </si>
-  <si>
-    <t>I238</t>
-  </si>
-  <si>
-    <t>A2UN</t>
+    <t>F497</t>
   </si>
   <si>
     <t>D1070</t>
@@ -211,34 +199,19 @@
     <t>Trail Maintenance</t>
   </si>
   <si>
-    <t>D941</t>
-  </si>
-  <si>
-    <t>I590</t>
-  </si>
-  <si>
-    <t>A0H1</t>
-  </si>
-  <si>
-    <t>J169</t>
-  </si>
-  <si>
-    <t>C653</t>
-  </si>
-  <si>
-    <t>A1T8</t>
-  </si>
-  <si>
-    <t>E082</t>
-  </si>
-  <si>
-    <t>B254</t>
-  </si>
-  <si>
-    <t>H465</t>
-  </si>
-  <si>
-    <t>A0RD</t>
+    <t>A468</t>
+  </si>
+  <si>
+    <t>C349</t>
+  </si>
+  <si>
+    <t>I305</t>
+  </si>
+  <si>
+    <t>E420</t>
+  </si>
+  <si>
+    <t>B567</t>
   </si>
   <si>
     <t>D1100</t>
@@ -247,13 +220,7 @@
     <t>Vehicle Maintenance</t>
   </si>
   <si>
-    <t>A22N</t>
-  </si>
-  <si>
-    <t>G218</t>
-  </si>
-  <si>
-    <t>I403</t>
+    <t>B313</t>
   </si>
   <si>
     <t>D1200</t>
@@ -262,52 +229,34 @@
     <t>Ski Patrol</t>
   </si>
   <si>
-    <t>B878</t>
-  </si>
-  <si>
-    <t>B924</t>
-  </si>
-  <si>
-    <t>C132</t>
-  </si>
-  <si>
-    <t>A301</t>
-  </si>
-  <si>
-    <t>J471</t>
-  </si>
-  <si>
-    <t>I321</t>
-  </si>
-  <si>
-    <t>B898</t>
-  </si>
-  <si>
-    <t>A673</t>
-  </si>
-  <si>
-    <t>D494</t>
-  </si>
-  <si>
-    <t>E520</t>
-  </si>
-  <si>
-    <t>E682</t>
-  </si>
-  <si>
-    <t>B162</t>
-  </si>
-  <si>
-    <t>F946</t>
-  </si>
-  <si>
-    <t>G076</t>
-  </si>
-  <si>
-    <t>A0JG</t>
-  </si>
-  <si>
-    <t>A0DP</t>
+    <t>D619</t>
+  </si>
+  <si>
+    <t>A278</t>
+  </si>
+  <si>
+    <t>D576</t>
+  </si>
+  <si>
+    <t>E893</t>
+  </si>
+  <si>
+    <t>A1OP</t>
+  </si>
+  <si>
+    <t>A2YN</t>
+  </si>
+  <si>
+    <t>C644</t>
+  </si>
+  <si>
+    <t>G190</t>
+  </si>
+  <si>
+    <t>E835</t>
+  </si>
+  <si>
+    <t>A2CU</t>
   </si>
   <si>
     <t>D1500</t>
@@ -316,22 +265,25 @@
     <t>Tickets</t>
   </si>
   <si>
-    <t>A27F</t>
-  </si>
-  <si>
-    <t>A0XF</t>
-  </si>
-  <si>
-    <t>A1BR</t>
-  </si>
-  <si>
-    <t>A1N8</t>
-  </si>
-  <si>
-    <t>E181</t>
-  </si>
-  <si>
-    <t>A632</t>
+    <t>A25J</t>
+  </si>
+  <si>
+    <t>A2FB</t>
+  </si>
+  <si>
+    <t>A0QI</t>
+  </si>
+  <si>
+    <t>A2H6</t>
+  </si>
+  <si>
+    <t>F510</t>
+  </si>
+  <si>
+    <t>B2UZ</t>
+  </si>
+  <si>
+    <t>A399</t>
   </si>
   <si>
     <t>D2000</t>
@@ -340,40 +292,88 @@
     <t>Ski School</t>
   </si>
   <si>
-    <t>C655</t>
-  </si>
-  <si>
-    <t>I605</t>
-  </si>
-  <si>
-    <t>A0FQ</t>
-  </si>
-  <si>
-    <t>A0RZ</t>
-  </si>
-  <si>
-    <t>F720</t>
-  </si>
-  <si>
-    <t>F403</t>
-  </si>
-  <si>
-    <t>A0D7</t>
-  </si>
-  <si>
-    <t>E587</t>
-  </si>
-  <si>
-    <t>A2W0</t>
-  </si>
-  <si>
-    <t>D2200</t>
-  </si>
-  <si>
-    <t>Child Care</t>
-  </si>
-  <si>
-    <t>A2AA</t>
+    <t>A0DX</t>
+  </si>
+  <si>
+    <t>J420</t>
+  </si>
+  <si>
+    <t>A2XC</t>
+  </si>
+  <si>
+    <t>A1PM</t>
+  </si>
+  <si>
+    <t>A0ZW</t>
+  </si>
+  <si>
+    <t>G605</t>
+  </si>
+  <si>
+    <t>F894</t>
+  </si>
+  <si>
+    <t>A2YS</t>
+  </si>
+  <si>
+    <t>A1HQ</t>
+  </si>
+  <si>
+    <t>A0W2</t>
+  </si>
+  <si>
+    <t>A2XD</t>
+  </si>
+  <si>
+    <t>A2XS</t>
+  </si>
+  <si>
+    <t>A2YK</t>
+  </si>
+  <si>
+    <t>A10G</t>
+  </si>
+  <si>
+    <t>A0ZT</t>
+  </si>
+  <si>
+    <t>E599</t>
+  </si>
+  <si>
+    <t>E295</t>
+  </si>
+  <si>
+    <t>A12H</t>
+  </si>
+  <si>
+    <t>E190</t>
+  </si>
+  <si>
+    <t>A2XQ</t>
+  </si>
+  <si>
+    <t>A2Y4</t>
+  </si>
+  <si>
+    <t>A2U1</t>
+  </si>
+  <si>
+    <t>A1I7</t>
+  </si>
+  <si>
+    <t>A0ZE</t>
+  </si>
+  <si>
+    <t>A2Z2</t>
+  </si>
+  <si>
+    <t>A2GH</t>
+  </si>
+  <si>
+    <t>F275</t>
+  </si>
+  <si>
+    <t>A2PM</t>
   </si>
   <si>
     <t>D3000</t>
@@ -382,259 +382,154 @@
     <t>Rentals</t>
   </si>
   <si>
-    <t>A0SZ</t>
-  </si>
-  <si>
-    <t>A1CS</t>
-  </si>
-  <si>
-    <t>A0XT</t>
-  </si>
-  <si>
-    <t>E582</t>
-  </si>
-  <si>
-    <t>D126</t>
-  </si>
-  <si>
-    <t>I565</t>
-  </si>
-  <si>
-    <t>A1Y7</t>
-  </si>
-  <si>
-    <t>A2DI</t>
-  </si>
-  <si>
-    <t>A2HI</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>Purg Sports Resort</t>
-  </si>
-  <si>
-    <t>J190</t>
-  </si>
-  <si>
-    <t>D510</t>
-  </si>
-  <si>
-    <t>H586</t>
-  </si>
-  <si>
-    <t>G066</t>
-  </si>
-  <si>
-    <t>E547</t>
-  </si>
-  <si>
-    <t>A28K</t>
-  </si>
-  <si>
-    <t>C173</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>Purg Sports Main Ave</t>
-  </si>
-  <si>
-    <t>I552</t>
-  </si>
-  <si>
-    <t>A0RO</t>
-  </si>
-  <si>
-    <t>A15G</t>
-  </si>
-  <si>
-    <t>I003</t>
-  </si>
-  <si>
-    <t>D110</t>
-  </si>
-  <si>
-    <t>E312</t>
-  </si>
-  <si>
-    <t>D5000</t>
-  </si>
-  <si>
-    <t>F&amp;B Admin</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>A2LP</t>
-  </si>
-  <si>
-    <t>A2I0</t>
-  </si>
-  <si>
-    <t>E655</t>
-  </si>
-  <si>
-    <t>I308</t>
-  </si>
-  <si>
-    <t>A332</t>
-  </si>
-  <si>
-    <t>B518</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>Dante's</t>
-  </si>
-  <si>
-    <t>F997</t>
-  </si>
-  <si>
-    <t>C988</t>
-  </si>
-  <si>
-    <t>H513</t>
-  </si>
-  <si>
-    <t>D5203</t>
-  </si>
-  <si>
-    <t>Backside Bistro</t>
-  </si>
-  <si>
-    <t>C557</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>J434</t>
-  </si>
-  <si>
-    <t>H428</t>
-  </si>
-  <si>
-    <t>A2U8</t>
-  </si>
-  <si>
-    <t>A2U7</t>
-  </si>
-  <si>
-    <t>C149</t>
-  </si>
-  <si>
-    <t>A18B</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>Paradise</t>
-  </si>
-  <si>
-    <t>A22O</t>
-  </si>
-  <si>
-    <t>A20D</t>
-  </si>
-  <si>
-    <t>A2HN</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>I517</t>
-  </si>
-  <si>
-    <t>E437</t>
-  </si>
-  <si>
-    <t>A739</t>
-  </si>
-  <si>
-    <t>A2UZ</t>
-  </si>
-  <si>
-    <t>A0XV</t>
-  </si>
-  <si>
-    <t>A0T1</t>
-  </si>
-  <si>
-    <t>A2UR</t>
-  </si>
-  <si>
-    <t>A19I</t>
-  </si>
-  <si>
-    <t>A2JB</t>
-  </si>
-  <si>
-    <t>A31D</t>
-  </si>
-  <si>
-    <t>D330</t>
-  </si>
-  <si>
-    <t>B101</t>
-  </si>
-  <si>
-    <t>IX</t>
-  </si>
-  <si>
-    <t>OX</t>
-  </si>
-  <si>
-    <t>B207</t>
-  </si>
-  <si>
-    <t>J292</t>
-  </si>
-  <si>
-    <t>A18A</t>
-  </si>
-  <si>
-    <t>A2US</t>
-  </si>
-  <si>
-    <t>C516</t>
-  </si>
-  <si>
-    <t>A2VB</t>
-  </si>
-  <si>
-    <t>E001</t>
-  </si>
-  <si>
-    <t>A2I4</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>Village Market Deli</t>
-  </si>
-  <si>
-    <t>A1NI</t>
-  </si>
-  <si>
-    <t>J465</t>
+    <t>D259</t>
+  </si>
+  <si>
+    <t>A2SZ</t>
+  </si>
+  <si>
+    <t>A2PL</t>
+  </si>
+  <si>
+    <t>H654</t>
+  </si>
+  <si>
+    <t>H439</t>
+  </si>
+  <si>
+    <t>A2OJ</t>
+  </si>
+  <si>
+    <t>A2I3</t>
+  </si>
+  <si>
+    <t>A2I9</t>
+  </si>
+  <si>
+    <t>A2CS</t>
+  </si>
+  <si>
+    <t>A0TQ</t>
+  </si>
+  <si>
+    <t>G987</t>
+  </si>
+  <si>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>Rental Repair Shop</t>
+  </si>
+  <si>
+    <t>A0IF</t>
+  </si>
+  <si>
+    <t>A2LG</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>Agassiz Retail</t>
+  </si>
+  <si>
+    <t>A1CI</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t>B622</t>
+  </si>
+  <si>
+    <t>A2TC</t>
+  </si>
+  <si>
+    <t>D4034</t>
+  </si>
+  <si>
+    <t>Fort Valley Lodge</t>
+  </si>
+  <si>
+    <t>A2KU</t>
+  </si>
+  <si>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t>A464</t>
+  </si>
+  <si>
+    <t>A0TT</t>
+  </si>
+  <si>
+    <t>F486</t>
+  </si>
+  <si>
+    <t>D676</t>
+  </si>
+  <si>
+    <t>A0GX</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>Hart Prairie Restaurant</t>
+  </si>
+  <si>
+    <t>C926</t>
+  </si>
+  <si>
+    <t>A2KG</t>
+  </si>
+  <si>
+    <t>J280</t>
+  </si>
+  <si>
+    <t>A2JX</t>
+  </si>
+  <si>
+    <t>B006</t>
+  </si>
+  <si>
+    <t>F346</t>
+  </si>
+  <si>
+    <t>H848</t>
+  </si>
+  <si>
+    <t>A0GK</t>
+  </si>
+  <si>
+    <t>A995</t>
+  </si>
+  <si>
+    <t>A2KK</t>
+  </si>
+  <si>
+    <t>A2KA</t>
+  </si>
+  <si>
+    <t>A1ZD</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t>C409</t>
+  </si>
+  <si>
+    <t>D426</t>
   </si>
   <si>
     <t>D5820</t>
@@ -643,34 +538,25 @@
     <t>Functions</t>
   </si>
   <si>
-    <t>A22R</t>
-  </si>
-  <si>
-    <t>D6212</t>
-  </si>
-  <si>
-    <t>Purgatory</t>
-  </si>
-  <si>
-    <t>A0AQ</t>
-  </si>
-  <si>
-    <t>B276</t>
-  </si>
-  <si>
-    <t>A1N1</t>
-  </si>
-  <si>
-    <t>D283</t>
-  </si>
-  <si>
-    <t>F298</t>
-  </si>
-  <si>
-    <t>F423</t>
-  </si>
-  <si>
-    <t>J489</t>
+    <t>F766</t>
+  </si>
+  <si>
+    <t>C348</t>
+  </si>
+  <si>
+    <t>D6030</t>
+  </si>
+  <si>
+    <t>Base Camp Hotel</t>
+  </si>
+  <si>
+    <t>H751</t>
+  </si>
+  <si>
+    <t>H083</t>
+  </si>
+  <si>
+    <t>A0J5</t>
   </si>
   <si>
     <t>D6215</t>
@@ -679,40 +565,16 @@
     <t>Housekeeping</t>
   </si>
   <si>
-    <t>I060</t>
-  </si>
-  <si>
-    <t>G955</t>
-  </si>
-  <si>
-    <t>C432</t>
-  </si>
-  <si>
-    <t>J492</t>
-  </si>
-  <si>
-    <t>G956</t>
-  </si>
-  <si>
-    <t>C825</t>
-  </si>
-  <si>
-    <t>D6700</t>
-  </si>
-  <si>
-    <t>Resort Services G&amp;A</t>
-  </si>
-  <si>
-    <t>A2RO</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>Guest Services</t>
-  </si>
-  <si>
-    <t>E877</t>
+    <t>A27Z</t>
+  </si>
+  <si>
+    <t>A194</t>
+  </si>
+  <si>
+    <t>A2HX</t>
+  </si>
+  <si>
+    <t>A2O8</t>
   </si>
   <si>
     <t>D6721</t>
@@ -721,28 +583,46 @@
     <t>Parking</t>
   </si>
   <si>
-    <t>B421</t>
-  </si>
-  <si>
-    <t>D6730</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>A2DH</t>
-  </si>
-  <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>A28C</t>
-  </si>
-  <si>
-    <t>A605</t>
+    <t>A1H9</t>
+  </si>
+  <si>
+    <t>A0BO</t>
+  </si>
+  <si>
+    <t>A2GO</t>
+  </si>
+  <si>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>Janitorial</t>
+  </si>
+  <si>
+    <t>A1YM</t>
+  </si>
+  <si>
+    <t>C947</t>
+  </si>
+  <si>
+    <t>A2FP</t>
+  </si>
+  <si>
+    <t>A2GP</t>
+  </si>
+  <si>
+    <t>A0IJ</t>
+  </si>
+  <si>
+    <t>D6760</t>
+  </si>
+  <si>
+    <t>Facilities Maintenance</t>
+  </si>
+  <si>
+    <t>A0IK</t>
+  </si>
+  <si>
+    <t>A987</t>
   </si>
   <si>
     <t>D6780</t>
@@ -751,31 +631,10 @@
     <t>Grounds Maintenance</t>
   </si>
   <si>
-    <t>G859</t>
-  </si>
-  <si>
-    <t>A2JA</t>
-  </si>
-  <si>
-    <t>A2SE</t>
-  </si>
-  <si>
-    <t>A31O</t>
-  </si>
-  <si>
-    <t>A0HT</t>
-  </si>
-  <si>
-    <t>J185</t>
-  </si>
-  <si>
-    <t>D6781</t>
-  </si>
-  <si>
-    <t>Snow Removal</t>
-  </si>
-  <si>
-    <t>A2BI</t>
+    <t>A173</t>
+  </si>
+  <si>
+    <t>H094</t>
   </si>
   <si>
     <t>D6790</t>
@@ -784,49 +643,49 @@
     <t>Transportation</t>
   </si>
   <si>
-    <t>A26A</t>
-  </si>
-  <si>
-    <t>A21M</t>
-  </si>
-  <si>
-    <t>A1Z8</t>
-  </si>
-  <si>
-    <t>D7000</t>
-  </si>
-  <si>
-    <t>Marketing G&amp;A</t>
-  </si>
-  <si>
-    <t>F033</t>
-  </si>
-  <si>
-    <t>D7010</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>G322</t>
-  </si>
-  <si>
-    <t>A0Q0</t>
+    <t>G582</t>
+  </si>
+  <si>
+    <t>D8020</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>A523</t>
   </si>
   <si>
     <t>D8040</t>
   </si>
   <si>
-    <t>H962</t>
-  </si>
-  <si>
-    <t>A02N</t>
-  </si>
-  <si>
-    <t>D8800</t>
-  </si>
-  <si>
-    <t>Pass-through Accounts</t>
+    <t>A049</t>
+  </si>
+  <si>
+    <t>D8050</t>
+  </si>
+  <si>
+    <t>Risk Management</t>
+  </si>
+  <si>
+    <t>B785</t>
+  </si>
+  <si>
+    <t>D8060</t>
+  </si>
+  <si>
+    <t>IT Services</t>
+  </si>
+  <si>
+    <t>F295</t>
+  </si>
+  <si>
+    <t>F703</t>
+  </si>
+  <si>
+    <t>D9007</t>
+  </si>
+  <si>
+    <t>Capital Project 8</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1048,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J222"/>
+  <dimension ref="A1:J188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1203,7 +1062,7 @@
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1243,13 +1102,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>45637.3017824074</v>
+        <v>45637.32696759259</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>45637.69791666666</v>
+        <v>45637.70756944444</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -1258,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="2">
-        <v>19</v>
+        <v>17.65</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -1275,13 +1134,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>45637.31280092592</v>
+        <v>45637.3322800926</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>45637.6875</v>
+        <v>45637.69253472222</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1290,7 +1149,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="2">
-        <v>15.5</v>
+        <v>17.65</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1307,13 +1166,13 @@
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>45637.31548611111</v>
+        <v>45637.32607638889</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>45637.66898148148</v>
+        <v>45637.71167824074</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -1322,7 +1181,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="2">
-        <v>15.5</v>
+        <v>18.25</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1339,13 +1198,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>45637.316875</v>
+        <v>45637.32798611111</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>45637.69859953703</v>
+        <v>45637.69597222222</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -1354,7 +1213,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="2">
-        <v>15.5</v>
+        <v>17.4</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1371,13 +1230,13 @@
         <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>45637.32049768518</v>
+        <v>45637.32260416666</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>45637.67987268518</v>
+        <v>45637.71142361111</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -1386,7 +1245,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="2">
-        <v>15.5</v>
+        <v>24.35</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1403,13 +1262,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>45637.31384259259</v>
+        <v>45637.32313657407</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>45637.6875</v>
+        <v>45637.69609953704</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -1418,7 +1277,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="2">
-        <v>15.5</v>
+        <v>18.25</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1435,13 +1294,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>45637.31454861111</v>
+        <v>45637.33067129629</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2">
-        <v>45637.6875</v>
+        <v>45637.70667824074</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -1450,7 +1309,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="2">
-        <v>15.5</v>
+        <v>17.85</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1467,13 +1326,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>45637.31702546297</v>
+        <v>45637.32386574074</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>45637.69042824074</v>
+        <v>45637.70927083334</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -1482,7 +1341,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="2">
-        <v>14.5</v>
+        <v>18.25</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1499,13 +1358,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>45637.31780092593</v>
+        <v>45637.32295138889</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2">
-        <v>45637.6875</v>
+        <v>45637.69578703704</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
@@ -1514,7 +1373,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="2">
-        <v>15.5</v>
+        <v>17.4</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1531,13 +1390,13 @@
         <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>45637.32291666666</v>
+        <v>45637.33114583333</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2">
-        <v>45637.6875</v>
+        <v>45637.69530092592</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
@@ -1546,7 +1405,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="2">
-        <v>15.5</v>
+        <v>17.4</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1563,13 +1422,13 @@
         <v>24</v>
       </c>
       <c r="B12" s="2">
-        <v>45637.30938657407</v>
+        <v>45637.33048611111</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>45637.68055555555</v>
+        <v>45637.70770833334</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
@@ -1578,7 +1437,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="2">
-        <v>15.5</v>
+        <v>17.85</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1595,13 +1454,13 @@
         <v>25</v>
       </c>
       <c r="B13" s="2">
-        <v>45637.29502314814</v>
+        <v>45637.33333333334</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>45637.67865740741</v>
+        <v>45637.71206018519</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
@@ -1610,7 +1469,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="2">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1627,13 +1486,13 @@
         <v>26</v>
       </c>
       <c r="B14" s="2">
-        <v>45637.31799768518</v>
+        <v>45637.32643518518</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="2">
-        <v>45637.4172800926</v>
+        <v>45637.69609953704</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
@@ -1642,7 +1501,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="2">
-        <v>15.5</v>
+        <v>17.85</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1659,13 +1518,13 @@
         <v>27</v>
       </c>
       <c r="B15" s="2">
-        <v>45637.53655092593</v>
+        <v>45637.32915509259</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>45637.66719907407</v>
+        <v>45637.7059837963</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -1674,7 +1533,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="2">
-        <v>16</v>
+        <v>17.4</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1688,16 +1547,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2">
-        <v>45637.30194444444</v>
+        <v>45637.70611111111</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="2">
-        <v>45637.69791666666</v>
+        <v>45637.70642361111</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>12</v>
@@ -1706,7 +1565,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="2">
-        <v>21.68</v>
+        <v>17.4</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1720,16 +1579,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2">
-        <v>45637.32709490741</v>
+        <v>45637.32291666666</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="2">
-        <v>45637.69791666666</v>
+        <v>45637.70833333334</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -1738,7 +1597,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="2">
-        <v>15.5</v>
+        <v>19.15</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1752,16 +1611,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2">
-        <v>45637.3140162037</v>
+        <v>45637.33256944444</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="2">
-        <v>45637.6684837963</v>
+        <v>45637.69275462963</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
@@ -1770,7 +1629,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="2">
-        <v>15</v>
+        <v>17.65</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1784,16 +1643,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2">
-        <v>45637.33234953704</v>
+        <v>45637.32668981481</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="2">
-        <v>45637.6875</v>
+        <v>45637.70850694444</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
@@ -1802,7 +1661,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>18.25</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1816,16 +1675,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2">
-        <v>45637.32126157408</v>
+        <v>45637.33086805556</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="2">
-        <v>45637.67265046296</v>
+        <v>45637.7016087963</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>12</v>
@@ -1834,7 +1693,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="2">
-        <v>15.5</v>
+        <v>18.25</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1848,16 +1707,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2">
-        <v>45637.3079050926</v>
+        <v>45637.69472222222</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="2">
-        <v>45637.6909837963</v>
+        <v>45637.69474537037</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>12</v>
@@ -1866,7 +1725,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="2">
-        <v>20.57</v>
+        <v>17.75</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1880,16 +1739,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2">
-        <v>45637.3125</v>
+        <v>45637.32098379629</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2">
-        <v>45637.67425925926</v>
+        <v>45637.69366898148</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>12</v>
@@ -1898,7 +1757,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="2">
-        <v>14.5</v>
+        <v>17.65</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1912,25 +1771,25 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2">
-        <v>45637.25422453704</v>
+        <v>45637.32542824074</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="2">
-        <v>45637.69075231482</v>
+        <v>45637.70358796296</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G23" s="2">
-        <v>30</v>
+        <v>18.75</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1939,30 +1798,30 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2">
-        <v>45637.23969907407</v>
+        <v>45637.32824074074</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="2">
-        <v>45637.69791666666</v>
+        <v>45637.7049537037</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G24" s="2">
-        <v>35.43</v>
+        <v>17.4</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1971,62 +1830,62 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2">
         <v>45637.33333333334</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D25" s="2">
-        <v>45637.33333333334</v>
+        <v>45637.69791666666</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G25" s="2">
-        <v>23.69</v>
+        <v>16.8</v>
       </c>
       <c r="H25" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2">
-        <v>45637.54166666666</v>
+        <v>45637.28844907408</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2">
-        <v>45637.6875</v>
+        <v>45637.71818287037</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26" s="2">
-        <v>18.5</v>
+        <v>45.68</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -2035,62 +1894,62 @@
         <v>0</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2">
-        <v>45637.31472222223</v>
+        <v>45637.29166666666</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2">
-        <v>45637.50256944444</v>
+        <v>45637.29166666666</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" s="2">
-        <v>18.5</v>
+        <v>18.25</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2">
-        <v>45637.25403935185</v>
+        <v>45637.71776620371</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="2">
-        <v>45637.69993055556</v>
+        <v>45637.71784722222</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G28" s="2">
-        <v>21.57</v>
+        <v>21.85</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -2099,30 +1958,30 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2">
-        <v>45637.27811342593</v>
+        <v>45637.29012731482</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="2">
-        <v>45637.28164351852</v>
+        <v>45637.71350694444</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G29" s="2">
-        <v>18.5</v>
+        <v>21.85</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -2131,30 +1990,30 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2">
-        <v>45637.25097222222</v>
+        <v>45637.28881944445</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="2">
-        <v>45637.70039351852</v>
+        <v>45637.71349537037</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G30" s="2">
-        <v>29.87</v>
+        <v>22.1</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -2163,254 +2022,254 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45637.50104166667</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45638.02546296296</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="2">
-        <v>45637.95833333334</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="2">
-        <v>45638.50574074074</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2">
+        <v>19.65</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="G31" s="2">
-        <v>19.5</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2">
-        <v>45637.45305555555</v>
+        <v>45637.00557870371</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="2">
-        <v>45637.98958333334</v>
+        <v>45637.52849537037</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="2">
+        <v>19.15</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="G32" s="2">
-        <v>24.72</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2">
-        <v>45637.95138888889</v>
+        <v>45637.99260416667</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="2">
-        <v>45638.45833333334</v>
+        <v>45638.53541666667</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="2">
+        <v>19.65</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="G33" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2">
-        <v>45637.94791666666</v>
+        <v>45637.0037037037</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="2">
-        <v>45638.4862037037</v>
+        <v>45637.52182870371</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="2">
+        <v>17.4</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="G34" s="2">
-        <v>22.7</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2">
-        <v>45637.44290509259</v>
+        <v>45637.00728009259</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="2">
-        <v>45637.96875</v>
+        <v>45637.54957175926</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="2">
+        <v>19.15</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="G35" s="2">
-        <v>19.1</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2">
-        <v>45637.45099537037</v>
+        <v>45637.57805555555</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="2">
-        <v>45637.97106481482</v>
+        <v>45638.02212962963</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="G36" s="2">
-        <v>23.75</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2">
-        <v>45637.94791666666</v>
+        <v>45637.5</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="2">
-        <v>45638.45833333334</v>
+        <v>45638.0625</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="G37" s="2">
-        <v>18</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2">
-        <v>45637.63980324074</v>
+        <v>45637.00837962963</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="2">
-        <v>45637.9024074074</v>
+        <v>45637.32484953704</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G38" s="2">
-        <v>19</v>
+        <v>19.65</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2419,21 +2278,21 @@
         <v>0</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2">
-        <v>45637.31528935185</v>
+        <v>45637.33857638889</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="2">
-        <v>45637.73949074074</v>
+        <v>45637.73321759259</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>12</v>
@@ -2442,7 +2301,7 @@
         <v>56</v>
       </c>
       <c r="G39" s="2">
-        <v>15.5</v>
+        <v>20.75</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2456,25 +2315,25 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45637.07637731481</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="2">
+        <v>45637.35833333333</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="2">
-        <v>45637.60435185185</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="2">
-        <v>45637.67126157408</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="G40" s="2">
-        <v>20</v>
+        <v>21.15</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2483,94 +2342,94 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45637.68559027778</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45637.98378472222</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B41" s="2">
-        <v>45637.31458333333</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="2">
-        <v>45637.73974537037</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" s="2">
-        <v>22.66</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42" s="2">
-        <v>45637.33333333334</v>
+        <v>45637.68743055555</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D42" s="2">
-        <v>45637.33333333334</v>
+        <v>45637.99699074074</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G42" s="2">
-        <v>16</v>
+        <v>27.81</v>
       </c>
       <c r="H42" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2">
         <v>0</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" s="2">
-        <v>45637.00069444445</v>
+        <v>45637.04494212963</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="2">
-        <v>45637.41736111111</v>
+        <v>45637.36248842593</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G43" s="2">
-        <v>23.33</v>
+        <v>18.6</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2579,30 +2438,30 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44" s="2">
-        <v>45637.46533564815</v>
+        <v>45637.03425925926</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="2">
-        <v>45637.98472222222</v>
+        <v>45637.36945601852</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G44" s="2">
-        <v>18.55</v>
+        <v>30</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2611,30 +2470,30 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45637.32805555555</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="2">
+        <v>45637.45244212963</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="2">
-        <v>45637.03230324074</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="2">
-        <v>45637.39583333334</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="G45" s="2">
-        <v>21.8</v>
+        <v>31.83</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2643,39 +2502,39 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45637.45833333334</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45637.45833333334</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" s="2">
+        <v>31.83</v>
+      </c>
+      <c r="H46" s="2">
+        <v>5</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B46" s="2">
-        <v>45637.29166666666</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="2">
-        <v>45637.75</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G46" s="2">
-        <v>25</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2683,22 +2542,22 @@
         <v>68</v>
       </c>
       <c r="B47" s="2">
-        <v>45637.45936342593</v>
+        <v>45637.32146990741</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="2">
-        <v>45637.97222222222</v>
+        <v>45637.71530092593</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G47" s="2">
-        <v>18.55</v>
+        <v>19.25</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2707,30 +2566,30 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45637.32489583334</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="2">
+        <v>45637.72239583333</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="2">
-        <v>45637.66055555556</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="2">
-        <v>45638.01530092592</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="G48" s="2">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2739,62 +2598,62 @@
         <v>0</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45637.32399305556</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="2">
+        <v>45637.71890046296</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="2">
+        <v>19.25</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B49" s="2">
-        <v>45637.6220949074</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="2">
-        <v>45638</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" s="2">
-        <v>22.66</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B50" s="2">
-        <v>45637.95833333334</v>
+        <v>45637.32658564814</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="2">
-        <v>45638.45833333334</v>
+        <v>45637.71537037037</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G50" s="2">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2803,30 +2662,30 @@
         <v>0</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2">
-        <v>45637.62277777777</v>
+        <v>45637.32076388889</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="2">
-        <v>45638.01552083333</v>
+        <v>45637.72105324074</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G51" s="2">
-        <v>24</v>
+        <v>20.45</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2835,30 +2694,30 @@
         <v>0</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B52" s="2">
-        <v>45637.67420138889</v>
+        <v>45637.32417824074</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="2">
-        <v>45637.84802083333</v>
+        <v>45637.71543981481</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G52" s="2">
-        <v>21</v>
+        <v>18.4</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2867,30 +2726,30 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B53" s="2">
-        <v>45637.27083333334</v>
+        <v>45637.33333333334</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="2">
-        <v>45637.67111111111</v>
+        <v>45637.71336805556</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G53" s="2">
-        <v>17</v>
+        <v>18.75</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2899,30 +2758,30 @@
         <v>0</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2">
-        <v>45637.68152777778</v>
+        <v>45637.31971064815</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D54" s="2">
-        <v>45637.72916666666</v>
+        <v>45637.72539351852</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G54" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2931,30 +2790,30 @@
         <v>0</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2">
-        <v>45637.29652777778</v>
+        <v>45637.32285879629</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="2">
-        <v>45637.51186342593</v>
+        <v>45637.72230324074</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G55" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2963,30 +2822,30 @@
         <v>0</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2">
-        <v>45637.29555555555</v>
+        <v>45637.31780092593</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="2">
-        <v>45637.51784722223</v>
+        <v>45637.72996527778</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G56" s="2">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2995,30 +2854,30 @@
         <v>0</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2">
-        <v>45637.53811342592</v>
+        <v>45637.298125</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D57" s="2">
-        <v>45637.7278125</v>
+        <v>45637.48377314815</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G57" s="2">
-        <v>25</v>
+        <v>18.75</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -3027,30 +2886,30 @@
         <v>0</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2">
-        <v>45637.52445601852</v>
+        <v>45637.35410879629</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D58" s="2">
-        <v>45637.72916666666</v>
+        <v>45637.60474537037</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G58" s="2">
-        <v>29</v>
+        <v>18.75</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -3059,30 +2918,30 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2">
-        <v>45637.31024305556</v>
+        <v>45637.32362268519</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="2">
-        <v>45637.70706018519</v>
+        <v>45637.5510300926</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G59" s="2">
-        <v>20.06</v>
+        <v>18.75</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -3091,62 +2950,62 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45637.32363425926</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="2">
+        <v>45637.71875</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G60" s="2">
+        <v>18.25</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B60" s="2">
-        <v>45637.31083333334</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="2">
-        <v>45637.69756944444</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G60" s="2">
-        <v>25.84</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0</v>
-      </c>
-      <c r="I60" s="2">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2">
-        <v>45637.31461805556</v>
+        <v>45637.30824074074</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D61" s="2">
-        <v>45637.71061342592</v>
+        <v>45637.73251157408</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G61" s="2">
-        <v>18.77</v>
+        <v>21.8</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -3155,30 +3014,30 @@
         <v>0</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B62" s="2">
-        <v>45637.31094907408</v>
+        <v>45637.62143518519</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="2">
-        <v>45637.69767361111</v>
+        <v>45637.68047453704</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G62" s="2">
-        <v>20.56</v>
+        <v>18.75</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -3187,30 +3046,30 @@
         <v>0</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2">
-        <v>45637.32103009259</v>
+        <v>45637.31614583333</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="2">
-        <v>45637.70657407407</v>
+        <v>45637.52324074074</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G63" s="2">
-        <v>21.06</v>
+        <v>21.25</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -3219,30 +3078,30 @@
         <v>0</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2">
-        <v>45637.40924768519</v>
+        <v>45637.31944444445</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="2">
-        <v>45637.60375</v>
+        <v>45637.66811342593</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G64" s="2">
-        <v>22</v>
+        <v>18.75</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -3251,30 +3110,30 @@
         <v>0</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2">
-        <v>45637.31049768518</v>
+        <v>45637.33108796296</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="2">
-        <v>45637.70010416667</v>
+        <v>45637.69210648148</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G65" s="2">
-        <v>17.77</v>
+        <v>21.25</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
@@ -3283,222 +3142,222 @@
         <v>0</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2">
-        <v>45637.3174537037</v>
+        <v>45637</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D66" s="2">
-        <v>45637.70795138889</v>
+        <v>45637</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G66" s="2">
-        <v>25.09</v>
+        <v>18.25</v>
       </c>
       <c r="H66" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" s="2">
         <v>0</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2">
-        <v>45637.31895833334</v>
+        <v>45637</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D67" s="2">
-        <v>45637.70935185185</v>
+        <v>45637</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G67" s="2">
-        <v>25.84</v>
+        <v>18.6</v>
       </c>
       <c r="H67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="2">
         <v>0</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="2">
+        <v>45637</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="2">
+        <v>45637</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="2">
-        <v>45637.31371527778</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="2">
-        <v>45637.70527777778</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="G68" s="2">
-        <v>20.06</v>
+        <v>18.6</v>
       </c>
       <c r="H68" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" s="2">
         <v>0</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45637</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="2">
+        <v>45637</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G69" s="2">
+        <v>18.75</v>
+      </c>
+      <c r="H69" s="2">
+        <v>2</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B69" s="2">
-        <v>45637.31074074074</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="2">
-        <v>45637.6978125</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" s="2">
-        <v>19.06</v>
-      </c>
-      <c r="H69" s="2">
-        <v>0</v>
-      </c>
-      <c r="I69" s="2">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2">
-        <v>45637.30857638889</v>
+        <v>45637</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D70" s="2">
-        <v>45637.69799768519</v>
+        <v>45637</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G70" s="2">
-        <v>23.34</v>
+        <v>24.35</v>
       </c>
       <c r="H70" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I70" s="2">
         <v>0</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2">
-        <v>45637.31792824074</v>
+        <v>45637</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D71" s="2">
-        <v>45637.70768518518</v>
+        <v>45637</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G71" s="2">
-        <v>16.63</v>
+        <v>24.35</v>
       </c>
       <c r="H71" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" s="2">
         <v>0</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2">
-        <v>45637.31034722222</v>
+        <v>45637.32275462963</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D72" s="2">
-        <v>45637.70694444444</v>
+        <v>45637.71875</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G72" s="2">
-        <v>19.27</v>
+        <v>19.15</v>
       </c>
       <c r="H72" s="2">
         <v>0</v>
@@ -3507,30 +3366,30 @@
         <v>0</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2">
-        <v>45637.31766203704</v>
+        <v>45637.31340277778</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D73" s="2">
-        <v>45637.71078703704</v>
+        <v>45637.69061342593</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G73" s="2">
-        <v>23.84</v>
+        <v>19.15</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
@@ -3539,30 +3398,30 @@
         <v>0</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2">
-        <v>45637.31731481481</v>
+        <v>45637.32167824074</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="2">
-        <v>45637.70809027777</v>
+        <v>45637.68859953704</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G74" s="2">
-        <v>19</v>
+        <v>25.45</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -3571,39 +3430,39 @@
         <v>0</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2">
-        <v>45637.34353009259</v>
+        <v>45637</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D75" s="2">
-        <v>45637.69791666666</v>
+        <v>45637</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G75" s="2">
-        <v>18.5</v>
+        <v>18.75</v>
       </c>
       <c r="H75" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" s="2">
         <v>0</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3611,63 +3470,63 @@
         <v>100</v>
       </c>
       <c r="B76" s="2">
-        <v>45637.33844907407</v>
+        <v>45637</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D76" s="2">
-        <v>45637.66525462963</v>
+        <v>45637</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G76" s="2">
-        <v>16</v>
+        <v>21.25</v>
       </c>
       <c r="H76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" s="2">
         <v>0</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2">
-        <v>45637.59813657407</v>
+        <v>45637</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D77" s="2">
-        <v>45637.67238425926</v>
+        <v>45637</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G77" s="2">
-        <v>17</v>
+        <v>21.25</v>
       </c>
       <c r="H77" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I77" s="2">
         <v>0</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3675,31 +3534,31 @@
         <v>101</v>
       </c>
       <c r="B78" s="2">
-        <v>45637.34199074074</v>
+        <v>45637</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D78" s="2">
-        <v>45637.57880787037</v>
+        <v>45637</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G78" s="2">
-        <v>17</v>
+        <v>18.25</v>
       </c>
       <c r="H78" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" s="2">
         <v>0</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3707,132 +3566,132 @@
         <v>102</v>
       </c>
       <c r="B79" s="2">
-        <v>45637.35802083334</v>
+        <v>45637</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D79" s="2">
-        <v>45637.66510416667</v>
+        <v>45637</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G79" s="2">
-        <v>15</v>
+        <v>18.75</v>
       </c>
       <c r="H79" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" s="2">
         <v>0</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2">
-        <v>45637.34215277778</v>
+        <v>45637</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D80" s="2">
-        <v>45637.55002314815</v>
+        <v>45637</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G80" s="2">
-        <v>17</v>
+        <v>18.75</v>
       </c>
       <c r="H80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" s="2">
         <v>0</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2">
-        <v>45637.33831018519</v>
+        <v>45637</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D81" s="2">
-        <v>45637.68679398148</v>
+        <v>45637</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G81" s="2">
-        <v>17.48</v>
+        <v>18.75</v>
       </c>
       <c r="H81" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I81" s="2">
         <v>0</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2">
-        <v>45637.47237268519</v>
+        <v>45637</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D82" s="2">
-        <v>45637.58402777778</v>
+        <v>45637</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G82" s="2">
-        <v>16.5</v>
+        <v>18.75</v>
       </c>
       <c r="H82" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I82" s="2">
         <v>0</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2">
         <v>45637</v>
@@ -3847,24 +3706,24 @@
         <v>41</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G83" s="2">
-        <v>17.3</v>
+        <v>19.15</v>
       </c>
       <c r="H83" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83" s="2">
         <v>0</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2">
         <v>45637</v>
@@ -3879,10 +3738,10 @@
         <v>41</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G84" s="2">
-        <v>18.43</v>
+        <v>19.15</v>
       </c>
       <c r="H84" s="2">
         <v>2</v>
@@ -3891,12 +3750,12 @@
         <v>0</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2">
         <v>45637</v>
@@ -3911,10 +3770,10 @@
         <v>41</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G85" s="2">
-        <v>18.43</v>
+        <v>19.15</v>
       </c>
       <c r="H85" s="2">
         <v>3</v>
@@ -3923,12 +3782,12 @@
         <v>0</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B86" s="2">
         <v>45637</v>
@@ -3943,24 +3802,24 @@
         <v>41</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G86" s="2">
-        <v>17.3</v>
+        <v>18.75</v>
       </c>
       <c r="H86" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" s="2">
         <v>0</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2">
         <v>45637</v>
@@ -3975,24 +3834,24 @@
         <v>41</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G87" s="2">
-        <v>16.5</v>
+        <v>25.7</v>
       </c>
       <c r="H87" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I87" s="2">
         <v>0</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2">
         <v>45637</v>
@@ -4007,24 +3866,24 @@
         <v>41</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G88" s="2">
-        <v>15.5</v>
+        <v>28.45</v>
       </c>
       <c r="H88" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I88" s="2">
         <v>0</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2">
         <v>45637</v>
@@ -4039,88 +3898,88 @@
         <v>41</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G89" s="2">
-        <v>16.53</v>
+        <v>18.25</v>
       </c>
       <c r="H89" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I89" s="2">
         <v>0</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2">
-        <v>45637</v>
+        <v>45637.32313657407</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D90" s="2">
-        <v>45637</v>
+        <v>45637.68837962963</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G90" s="2">
-        <v>16.53</v>
+        <v>25.35</v>
       </c>
       <c r="H90" s="2">
         <v>0</v>
       </c>
       <c r="I90" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2">
-        <v>45637.3319212963</v>
+        <v>45637</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D91" s="2">
-        <v>45637.70833333334</v>
+        <v>45637</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G91" s="2">
-        <v>18.72</v>
+        <v>18.75</v>
       </c>
       <c r="H91" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" s="2">
         <v>0</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2">
         <v>45637</v>
@@ -4135,24 +3994,24 @@
         <v>41</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G92" s="2">
-        <v>18.5</v>
+        <v>18.75</v>
       </c>
       <c r="H92" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I92" s="2">
         <v>0</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2">
         <v>45637</v>
@@ -4167,289 +4026,289 @@
         <v>41</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G93" s="2">
-        <v>15.5</v>
+        <v>18.75</v>
       </c>
       <c r="H93" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I93" s="2">
         <v>0</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2">
-        <v>45637.37447916667</v>
+        <v>45637</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D94" s="2">
-        <v>45637.54103009259</v>
+        <v>45637</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="G94" s="2">
-        <v>16.5</v>
+        <v>20.15</v>
       </c>
       <c r="H94" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" s="2">
         <v>0</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2">
-        <v>45637.66123842593</v>
+        <v>45637</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D95" s="2">
-        <v>45637.69077546296</v>
+        <v>45637</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G95" s="2">
-        <v>15</v>
+        <v>21.25</v>
       </c>
       <c r="H95" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" s="2">
         <v>0</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2">
-        <v>45637.54208333333</v>
+        <v>45637</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D96" s="2">
-        <v>45637.54212962963</v>
+        <v>45637</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G96" s="2">
-        <v>15</v>
+        <v>21.25</v>
       </c>
       <c r="H96" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" s="2">
         <v>0</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2">
-        <v>45637.33158564815</v>
+        <v>45637</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D97" s="2">
-        <v>45637.42104166667</v>
+        <v>45637</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G97" s="2">
-        <v>15</v>
+        <v>21.25</v>
       </c>
       <c r="H97" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" s="2">
         <v>0</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2">
-        <v>45637.66101851852</v>
+        <v>45637</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D98" s="2">
-        <v>45637.68981481482</v>
+        <v>45637</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G98" s="2">
-        <v>15</v>
+        <v>18.75</v>
       </c>
       <c r="H98" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I98" s="2">
         <v>0</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2">
-        <v>45637.32978009259</v>
+        <v>45637</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D99" s="2">
-        <v>45637.55636574074</v>
+        <v>45637</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G99" s="2">
-        <v>15</v>
+        <v>18.75</v>
       </c>
       <c r="H99" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I99" s="2">
         <v>0</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2">
-        <v>45637.54166666666</v>
+        <v>45637</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D100" s="2">
-        <v>45637.70833333334</v>
+        <v>45637</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G100" s="2">
-        <v>17</v>
+        <v>20.15</v>
       </c>
       <c r="H100" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I100" s="2">
         <v>0</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B101" s="2">
-        <v>45637.66697916666</v>
+        <v>45637</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D101" s="2">
-        <v>45637.68878472222</v>
+        <v>45637</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G101" s="2">
-        <v>15</v>
+        <v>25.7</v>
       </c>
       <c r="H101" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" s="2">
         <v>0</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2">
-        <v>45637.32842592592</v>
+        <v>45637.34428240741</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D102" s="2">
-        <v>45637.54064814815</v>
+        <v>45637.52394675926</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>12</v>
@@ -4458,7 +4317,7 @@
         <v>120</v>
       </c>
       <c r="G102" s="2">
-        <v>18</v>
+        <v>17.85</v>
       </c>
       <c r="H102" s="2">
         <v>0</v>
@@ -4472,16 +4331,16 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B103" s="2">
-        <v>45637.3331712963</v>
+        <v>45637.30892361111</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D103" s="2">
-        <v>45637.43074074074</v>
+        <v>45637.58802083333</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>12</v>
@@ -4490,7 +4349,7 @@
         <v>120</v>
       </c>
       <c r="G103" s="2">
-        <v>18</v>
+        <v>18.6</v>
       </c>
       <c r="H103" s="2">
         <v>0</v>
@@ -4504,25 +4363,25 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B104" s="2">
-        <v>45637.34734953703</v>
+        <v>45637.5</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D104" s="2">
-        <v>45637.4375</v>
+        <v>45637.71875</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G104" s="2">
-        <v>17</v>
+        <v>17.85</v>
       </c>
       <c r="H104" s="2">
         <v>0</v>
@@ -4536,25 +4395,25 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B105" s="2">
-        <v>45637.33193287037</v>
+        <v>45637.32291666666</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D105" s="2">
-        <v>45637.54369212963</v>
+        <v>45637.48958333334</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G105" s="2">
-        <v>15</v>
+        <v>17.85</v>
       </c>
       <c r="H105" s="2">
         <v>0</v>
@@ -4568,16 +4427,16 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B106" s="2">
-        <v>45637.63586805556</v>
+        <v>45637.51913194444</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D106" s="2">
-        <v>45637.69791666666</v>
+        <v>45637.70621527778</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>12</v>
@@ -4586,7 +4445,7 @@
         <v>120</v>
       </c>
       <c r="G106" s="2">
-        <v>15</v>
+        <v>17.85</v>
       </c>
       <c r="H106" s="2">
         <v>0</v>
@@ -4600,16 +4459,16 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B107" s="2">
-        <v>45637.32868055555</v>
+        <v>45637.31899305555</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D107" s="2">
-        <v>45637.54106481482</v>
+        <v>45637.48979166667</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>12</v>
@@ -4618,7 +4477,7 @@
         <v>120</v>
       </c>
       <c r="G107" s="2">
-        <v>15</v>
+        <v>17.85</v>
       </c>
       <c r="H107" s="2">
         <v>0</v>
@@ -4632,25 +4491,25 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B108" s="2">
-        <v>45637.33</v>
+        <v>45637.56226851852</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D108" s="2">
-        <v>45637.42960648148</v>
+        <v>45637.70828703704</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G108" s="2">
-        <v>15</v>
+        <v>17.65</v>
       </c>
       <c r="H108" s="2">
         <v>0</v>
@@ -4664,16 +4523,16 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B109" s="2">
-        <v>45637.53472222222</v>
+        <v>45637.59840277778</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D109" s="2">
-        <v>45637.70833333334</v>
+        <v>45637.70905092593</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>12</v>
@@ -4682,7 +4541,7 @@
         <v>120</v>
       </c>
       <c r="G109" s="2">
-        <v>15</v>
+        <v>18.25</v>
       </c>
       <c r="H109" s="2">
         <v>0</v>
@@ -4699,13 +4558,13 @@
         <v>127</v>
       </c>
       <c r="B110" s="2">
-        <v>45637.5437037037</v>
+        <v>45637.32082175926</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D110" s="2">
-        <v>45637.67702546297</v>
+        <v>45637.51303240741</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>12</v>
@@ -4714,7 +4573,7 @@
         <v>120</v>
       </c>
       <c r="G110" s="2">
-        <v>18</v>
+        <v>17.85</v>
       </c>
       <c r="H110" s="2">
         <v>0</v>
@@ -4728,25 +4587,25 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B111" s="2">
-        <v>45637.32832175926</v>
+        <v>45637.51934027778</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D111" s="2">
-        <v>45637.55190972222</v>
+        <v>45637.70956018518</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G111" s="2">
-        <v>15</v>
+        <v>17.85</v>
       </c>
       <c r="H111" s="2">
         <v>0</v>
@@ -4760,25 +4619,25 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B112" s="2">
-        <v>45637.34141203704</v>
+        <v>45637.3239699074</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D112" s="2">
-        <v>45637.41914351852</v>
+        <v>45637.52128472222</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G112" s="2">
-        <v>15.5</v>
+        <v>17.65</v>
       </c>
       <c r="H112" s="2">
         <v>0</v>
@@ -4787,30 +4646,30 @@
         <v>0</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B113" s="2">
-        <v>45637.53293981482</v>
+        <v>45637.32263888889</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D113" s="2">
-        <v>45637.57886574074</v>
+        <v>45637.55696759259</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G113" s="2">
-        <v>16.5</v>
+        <v>17.85</v>
       </c>
       <c r="H113" s="2">
         <v>0</v>
@@ -4819,30 +4678,30 @@
         <v>0</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B114" s="2">
-        <v>45637.34112268518</v>
+        <v>45637.58570601852</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D114" s="2">
-        <v>45637.57501157407</v>
+        <v>45637.70547453704</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G114" s="2">
-        <v>16.5</v>
+        <v>17.85</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
@@ -4851,30 +4710,30 @@
         <v>0</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B115" s="2">
-        <v>45637.34265046296</v>
+        <v>45637.31597222222</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D115" s="2">
-        <v>45637.47027777778</v>
+        <v>45637.56493055556</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G115" s="2">
-        <v>16</v>
+        <v>17.85</v>
       </c>
       <c r="H115" s="2">
         <v>0</v>
@@ -4883,30 +4742,30 @@
         <v>0</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B116" s="2">
-        <v>45637.61805555555</v>
+        <v>45637.31475694444</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D116" s="2">
-        <v>45637.6875</v>
+        <v>45637.51619212963</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G116" s="2">
-        <v>15.5</v>
+        <v>18.75</v>
       </c>
       <c r="H116" s="2">
         <v>0</v>
@@ -4915,30 +4774,30 @@
         <v>0</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="2" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B117" s="2">
-        <v>45637.33554398148</v>
+        <v>45637.60320601852</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D117" s="2">
-        <v>45637.56498842593</v>
+        <v>45637.71460648148</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G117" s="2">
-        <v>15.5</v>
+        <v>18.6</v>
       </c>
       <c r="H117" s="2">
         <v>0</v>
@@ -4947,30 +4806,30 @@
         <v>0</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2">
-        <v>45637.33333333334</v>
+        <v>45637.53057870371</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D118" s="2">
-        <v>45637.70138888889</v>
+        <v>45637.71357638889</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G118" s="2">
-        <v>22.5</v>
+        <v>17.4</v>
       </c>
       <c r="H118" s="2">
         <v>0</v>
@@ -4979,30 +4838,30 @@
         <v>0</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2">
-        <v>45637.35028935185</v>
+        <v>45637.37717592593</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D119" s="2">
-        <v>45637.67708333334</v>
+        <v>45637.50625</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G119" s="2">
-        <v>16</v>
+        <v>17.4</v>
       </c>
       <c r="H119" s="2">
         <v>0</v>
@@ -5011,62 +4870,62 @@
         <v>0</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2">
-        <v>45637.33333333334</v>
+        <v>45637.54333333333</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D120" s="2">
-        <v>45637.33333333334</v>
+        <v>45637.72346064815</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G120" s="2">
-        <v>22.5</v>
+        <v>17.85</v>
       </c>
       <c r="H120" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I120" s="2">
         <v>0</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B121" s="2">
-        <v>45637.52083333334</v>
+        <v>45637.58521990741</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D121" s="2">
-        <v>45637.69652777778</v>
+        <v>45637.70774305556</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G121" s="2">
-        <v>17.5</v>
+        <v>17.85</v>
       </c>
       <c r="H121" s="2">
         <v>0</v>
@@ -5075,30 +4934,30 @@
         <v>0</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B122" s="2">
-        <v>45637.3125</v>
+        <v>45637.32766203704</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D122" s="2">
-        <v>45637.45833333334</v>
+        <v>45637.58138888889</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G122" s="2">
-        <v>17.5</v>
+        <v>18.25</v>
       </c>
       <c r="H122" s="2">
         <v>0</v>
@@ -5107,30 +4966,30 @@
         <v>0</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B123" s="2">
-        <v>45637.45719907407</v>
+        <v>45637.35524305556</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D123" s="2">
-        <v>45637.68958333333</v>
+        <v>45637.59936342593</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G123" s="2">
-        <v>15.5</v>
+        <v>18.75</v>
       </c>
       <c r="H123" s="2">
         <v>0</v>
@@ -5139,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -5147,22 +5006,22 @@
         <v>135</v>
       </c>
       <c r="B124" s="2">
-        <v>45637.51074074074</v>
+        <v>45637.35211805555</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D124" s="2">
-        <v>45637.69097222222</v>
+        <v>45637.67238425926</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G124" s="2">
-        <v>16</v>
+        <v>18.25</v>
       </c>
       <c r="H124" s="2">
         <v>0</v>
@@ -5171,30 +5030,30 @@
         <v>0</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B125" s="2">
-        <v>45637.33204861111</v>
+        <v>45637.61005787037</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D125" s="2">
-        <v>45637.75</v>
+        <v>45637.70033564815</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G125" s="2">
-        <v>18</v>
+        <v>17.85</v>
       </c>
       <c r="H125" s="2">
         <v>0</v>
@@ -5203,30 +5062,30 @@
         <v>0</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B126" s="2">
-        <v>45637.33333333334</v>
+        <v>45637.34638888889</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D126" s="2">
-        <v>45637.67847222222</v>
+        <v>45637.59560185186</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G126" s="2">
-        <v>15</v>
+        <v>17.85</v>
       </c>
       <c r="H126" s="2">
         <v>0</v>
@@ -5235,21 +5094,21 @@
         <v>0</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B127" s="2">
-        <v>45637.41666666666</v>
+        <v>45637.34410879629</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D127" s="2">
-        <v>45637.75</v>
+        <v>45637.56887731481</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>12</v>
@@ -5258,7 +5117,7 @@
         <v>140</v>
       </c>
       <c r="G127" s="2">
-        <v>16</v>
+        <v>18.25</v>
       </c>
       <c r="H127" s="2">
         <v>0</v>
@@ -5272,16 +5131,16 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B128" s="2">
-        <v>45637.53819444445</v>
+        <v>45637.58804398148</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D128" s="2">
-        <v>45637.66666666666</v>
+        <v>45637.69773148148</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>12</v>
@@ -5290,7 +5149,7 @@
         <v>140</v>
       </c>
       <c r="G128" s="2">
-        <v>19.15</v>
+        <v>18.25</v>
       </c>
       <c r="H128" s="2">
         <v>0</v>
@@ -5304,25 +5163,25 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B129" s="2">
-        <v>45637.33304398148</v>
+        <v>45637.32211805556</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D129" s="2">
-        <v>45637.50164351852</v>
+        <v>45637.71248842592</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G129" s="2">
-        <v>19.15</v>
+        <v>18.25</v>
       </c>
       <c r="H129" s="2">
         <v>0</v>
@@ -5336,25 +5195,25 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B130" s="2">
-        <v>45637.34150462963</v>
+        <v>45637.73622685186</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D130" s="2">
-        <v>45637.70833333334</v>
+        <v>45637.75306712963</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G130" s="2">
-        <v>24</v>
+        <v>18.25</v>
       </c>
       <c r="H130" s="2">
         <v>0</v>
@@ -5363,30 +5222,30 @@
         <v>0</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="2" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="B131" s="2">
-        <v>45637.3449537037</v>
+        <v>45637.37710648148</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D131" s="2">
-        <v>45637.58325231481</v>
+        <v>45637.71177083333</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G131" s="2">
-        <v>20</v>
+        <v>17.85</v>
       </c>
       <c r="H131" s="2">
         <v>0</v>
@@ -5395,30 +5254,30 @@
         <v>0</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B132" s="2">
-        <v>45637.34521990741</v>
+        <v>45637.33510416667</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D132" s="2">
-        <v>45637.53212962963</v>
+        <v>45637.67891203704</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G132" s="2">
-        <v>15</v>
+        <v>17.85</v>
       </c>
       <c r="H132" s="2">
         <v>0</v>
@@ -5427,30 +5286,30 @@
         <v>0</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B133" s="2">
-        <v>45637.34447916667</v>
+        <v>45637.36973379629</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D133" s="2">
-        <v>45637.6803125</v>
+        <v>45637.6640162037</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G133" s="2">
-        <v>23</v>
+        <v>17.65</v>
       </c>
       <c r="H133" s="2">
         <v>0</v>
@@ -5459,30 +5318,30 @@
         <v>0</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B134" s="2">
-        <v>45637.51033564815</v>
+        <v>45637.36479166667</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D134" s="2">
-        <v>45637.68096064815</v>
+        <v>45637.64046296296</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G134" s="2">
-        <v>13.65</v>
+        <v>17.4</v>
       </c>
       <c r="H134" s="2">
         <v>0</v>
@@ -5491,30 +5350,30 @@
         <v>0</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B135" s="2">
-        <v>45637.34488425926</v>
+        <v>45637.34489583333</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D135" s="2">
-        <v>45637.48615740741</v>
+        <v>45637.75818287037</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G135" s="2">
-        <v>17</v>
+        <v>15.9</v>
       </c>
       <c r="H135" s="2">
         <v>0</v>
@@ -5523,30 +5382,30 @@
         <v>0</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B136" s="2">
-        <v>45637.34479166667</v>
+        <v>45637.35796296296</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D136" s="2">
-        <v>45637.6875</v>
+        <v>45637.63957175926</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G136" s="2">
-        <v>13.65</v>
+        <v>19.65</v>
       </c>
       <c r="H136" s="2">
         <v>0</v>
@@ -5555,62 +5414,62 @@
         <v>0</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B137" s="2">
-        <v>45637.33333333334</v>
+        <v>45637.28815972222</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D137" s="2">
-        <v>45637.33333333334</v>
+        <v>45637.68118055556</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G137" s="2">
-        <v>17</v>
+        <v>17.4</v>
       </c>
       <c r="H137" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I137" s="2">
         <v>0</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B138" s="2">
-        <v>45637.33378472222</v>
+        <v>45637.29993055556</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D138" s="2">
-        <v>45637.64662037037</v>
+        <v>45637.63881944444</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G138" s="2">
-        <v>22</v>
+        <v>19.65</v>
       </c>
       <c r="H138" s="2">
         <v>0</v>
@@ -5619,30 +5478,30 @@
         <v>0</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B139" s="2">
-        <v>45637.463125</v>
+        <v>45637.32775462963</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D139" s="2">
-        <v>45637.79166666666</v>
+        <v>45637.46894675926</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G139" s="2">
-        <v>22</v>
+        <v>17.85</v>
       </c>
       <c r="H139" s="2">
         <v>0</v>
@@ -5651,30 +5510,30 @@
         <v>0</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B140" s="2">
-        <v>45637.38143518518</v>
+        <v>45637.28819444445</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D140" s="2">
-        <v>45637.83333333334</v>
+        <v>45637.43417824074</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G140" s="2">
-        <v>15</v>
+        <v>19.15</v>
       </c>
       <c r="H140" s="2">
         <v>0</v>
@@ -5683,30 +5542,30 @@
         <v>0</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B141" s="2">
-        <v>45637.36414351852</v>
+        <v>45637.45216435185</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D141" s="2">
-        <v>45637.77268518518</v>
+        <v>45637.6918287037</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G141" s="2">
-        <v>16.5</v>
+        <v>17.85</v>
       </c>
       <c r="H141" s="2">
         <v>0</v>
@@ -5715,30 +5574,30 @@
         <v>0</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B142" s="2">
-        <v>45637.49151620371</v>
+        <v>45637.3741087963</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D142" s="2">
-        <v>45637.80208333334</v>
+        <v>45637.62116898148</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G142" s="2">
-        <v>21</v>
+        <v>19.15</v>
       </c>
       <c r="H142" s="2">
         <v>0</v>
@@ -5747,30 +5606,30 @@
         <v>0</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B143" s="2">
-        <v>45637.49579861111</v>
+        <v>45637.45353009259</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D143" s="2">
-        <v>45637.80208333334</v>
+        <v>45637.67541666667</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G143" s="2">
-        <v>18</v>
+        <v>18.6</v>
       </c>
       <c r="H143" s="2">
         <v>0</v>
@@ -5779,30 +5638,30 @@
         <v>0</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B144" s="2">
-        <v>45637.36649305555</v>
+        <v>45637.4580324074</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D144" s="2">
-        <v>45637.77180555555</v>
+        <v>45637.67658564815</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G144" s="2">
-        <v>16</v>
+        <v>19.65</v>
       </c>
       <c r="H144" s="2">
         <v>0</v>
@@ -5811,30 +5670,30 @@
         <v>0</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B145" s="2">
-        <v>45637.33300925926</v>
+        <v>45637.45825231481</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D145" s="2">
-        <v>45637.6875</v>
+        <v>45637.67563657407</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G145" s="2">
-        <v>15</v>
+        <v>17.4</v>
       </c>
       <c r="H145" s="2">
         <v>0</v>
@@ -5843,30 +5702,30 @@
         <v>0</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B146" s="2">
-        <v>45637.33298611111</v>
+        <v>45637.35840277778</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D146" s="2">
-        <v>45637.6875</v>
+        <v>45637.3881712963</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G146" s="2">
-        <v>15</v>
+        <v>15.9</v>
       </c>
       <c r="H146" s="2">
         <v>0</v>
@@ -5875,30 +5734,30 @@
         <v>0</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B147" s="2">
-        <v>45637.44333333334</v>
+        <v>45637.51626157408</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D147" s="2">
-        <v>45637.57557870371</v>
+        <v>45637.68185185185</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G147" s="2">
-        <v>17</v>
+        <v>17.85</v>
       </c>
       <c r="H147" s="2">
         <v>0</v>
@@ -5907,30 +5766,30 @@
         <v>0</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B148" s="2">
-        <v>45637.36797453704</v>
+        <v>45637.41019675926</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D148" s="2">
-        <v>45637.6046412037</v>
+        <v>45637.41244212963</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="G148" s="2">
-        <v>15</v>
+        <v>17.85</v>
       </c>
       <c r="H148" s="2">
         <v>0</v>
@@ -5939,30 +5798,30 @@
         <v>0</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B149" s="2">
-        <v>45637.49444444444</v>
+        <v>45637.41513888889</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D149" s="2">
-        <v>45637.61652777778</v>
+        <v>45637.67063657408</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="G149" s="2">
-        <v>15</v>
+        <v>15.9</v>
       </c>
       <c r="H149" s="2">
         <v>0</v>
@@ -5971,30 +5830,30 @@
         <v>0</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B150" s="2">
-        <v>45637.335625</v>
+        <v>45637.32563657407</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D150" s="2">
-        <v>45637.47418981481</v>
+        <v>45637.4733912037</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="G150" s="2">
-        <v>15</v>
+        <v>17.85</v>
       </c>
       <c r="H150" s="2">
         <v>0</v>
@@ -6003,30 +5862,30 @@
         <v>0</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B151" s="2">
-        <v>45637.37130787037</v>
+        <v>45637.58883101852</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D151" s="2">
-        <v>45637.69259259259</v>
+        <v>45637.89574074074</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G151" s="2">
-        <v>20</v>
+        <v>15.9</v>
       </c>
       <c r="H151" s="2">
         <v>0</v>
@@ -6035,30 +5894,30 @@
         <v>0</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B152" s="2">
-        <v>45637.55186342593</v>
+        <v>45637.55297453704</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D152" s="2">
-        <v>45637.80208333334</v>
+        <v>45637.90130787037</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G152" s="2">
-        <v>13.65</v>
+        <v>18.75</v>
       </c>
       <c r="H152" s="2">
         <v>0</v>
@@ -6067,30 +5926,30 @@
         <v>0</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B153" s="2">
-        <v>45637.54409722222</v>
+        <v>45637.60403935185</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D153" s="2">
-        <v>45637.80208333334</v>
+        <v>45637.64765046296</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G153" s="2">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H153" s="2">
         <v>0</v>
@@ -6099,30 +5958,30 @@
         <v>0</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="2" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="B154" s="2">
-        <v>45637.54050925926</v>
+        <v>45637.43431712963</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D154" s="2">
-        <v>45637.84375</v>
+        <v>45637.61160879629</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G154" s="2">
-        <v>22</v>
+        <v>19.15</v>
       </c>
       <c r="H154" s="2">
         <v>0</v>
@@ -6131,30 +5990,30 @@
         <v>0</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B155" s="2">
-        <v>45637.3337962963</v>
+        <v>45637.66903935185</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D155" s="2">
-        <v>45637.60429398148</v>
+        <v>45637.69709490741</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G155" s="2">
-        <v>23.69</v>
+        <v>21.25</v>
       </c>
       <c r="H155" s="2">
         <v>0</v>
@@ -6163,30 +6022,30 @@
         <v>0</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B156" s="2">
-        <v>45637.36490740741</v>
+        <v>45637.31131944444</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D156" s="2">
-        <v>45637.60414351852</v>
+        <v>45637.66859953704</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G156" s="2">
-        <v>15</v>
+        <v>21.25</v>
       </c>
       <c r="H156" s="2">
         <v>0</v>
@@ -6195,30 +6054,30 @@
         <v>0</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B157" s="2">
-        <v>45637.31825231481</v>
+        <v>45637.42585648148</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D157" s="2">
-        <v>45637.62107638889</v>
+        <v>45637.75554398148</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G157" s="2">
-        <v>21</v>
+        <v>25.1</v>
       </c>
       <c r="H157" s="2">
         <v>0</v>
@@ -6227,30 +6086,30 @@
         <v>0</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B158" s="2">
-        <v>45637.36449074074</v>
+        <v>45637.62126157407</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D158" s="2">
-        <v>45637.68072916667</v>
+        <v>45637.90767361111</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G158" s="2">
-        <v>15</v>
+        <v>18.25</v>
       </c>
       <c r="H158" s="2">
         <v>0</v>
@@ -6259,30 +6118,30 @@
         <v>0</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B159" s="2">
-        <v>45637.41038194444</v>
+        <v>45637.2875</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D159" s="2">
-        <v>45637.48017361111</v>
+        <v>45637.59702546296</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G159" s="2">
-        <v>15</v>
+        <v>17.75</v>
       </c>
       <c r="H159" s="2">
         <v>0</v>
@@ -6291,30 +6150,30 @@
         <v>0</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B160" s="2">
-        <v>45637.37230324074</v>
+        <v>45637.67063657408</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D160" s="2">
-        <v>45637.60077546296</v>
+        <v>45637.88627314815</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G160" s="2">
-        <v>15</v>
+        <v>19.15</v>
       </c>
       <c r="H160" s="2">
         <v>0</v>
@@ -6323,30 +6182,30 @@
         <v>0</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B161" s="2">
-        <v>45637.58048611111</v>
+        <v>45637.38638888889</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D161" s="2">
-        <v>45637.6044675926</v>
+        <v>45637.61074074074</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G161" s="2">
-        <v>13.65</v>
+        <v>19.15</v>
       </c>
       <c r="H161" s="2">
         <v>0</v>
@@ -6355,30 +6214,30 @@
         <v>0</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B162" s="2">
-        <v>45637.38363425926</v>
+        <v>45637.58792824074</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D162" s="2">
-        <v>45637.66666666666</v>
+        <v>45637.66143518518</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G162" s="2">
-        <v>15</v>
+        <v>21.25</v>
       </c>
       <c r="H162" s="2">
         <v>0</v>
@@ -6387,30 +6246,30 @@
         <v>0</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B163" s="2">
-        <v>45637.50966435186</v>
+        <v>45637.66145833334</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D163" s="2">
-        <v>45637.58460648148</v>
+        <v>45637.88792824074</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G163" s="2">
-        <v>15</v>
+        <v>21.25</v>
       </c>
       <c r="H163" s="2">
         <v>0</v>
@@ -6419,30 +6278,30 @@
         <v>0</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B164" s="2">
-        <v>45637.3640625</v>
+        <v>45637.37173611111</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D164" s="2">
-        <v>45637.83333333334</v>
+        <v>45637.67748842593</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G164" s="2">
-        <v>16</v>
+        <v>19.65</v>
       </c>
       <c r="H164" s="2">
         <v>0</v>
@@ -6451,30 +6310,30 @@
         <v>0</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B165" s="2">
-        <v>45637.47806712963</v>
+        <v>45637.3278587963</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="D165" s="2">
-        <v>45637.62429398148</v>
+        <v>45637.51488425926</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G165" s="2">
-        <v>22</v>
+        <v>18.75</v>
       </c>
       <c r="H165" s="2">
         <v>0</v>
@@ -6483,30 +6342,30 @@
         <v>0</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B166" s="2">
-        <v>45637.36297453703</v>
+        <v>45637.32949074074</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D166" s="2">
-        <v>45637.47805555556</v>
+        <v>45637.4727662037</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G166" s="2">
-        <v>13.65</v>
+        <v>18.25</v>
       </c>
       <c r="H166" s="2">
         <v>0</v>
@@ -6515,30 +6374,30 @@
         <v>0</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B167" s="2">
-        <v>45637.37359953704</v>
+        <v>45637.33871527778</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D167" s="2">
-        <v>45637.48806712963</v>
+        <v>45637.4783912037</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G167" s="2">
-        <v>20</v>
+        <v>18.25</v>
       </c>
       <c r="H167" s="2">
         <v>0</v>
@@ -6547,30 +6406,30 @@
         <v>0</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:10">
       <c r="A168" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B168" s="2">
-        <v>45637.535</v>
+        <v>45637.35304398148</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D168" s="2">
-        <v>45637.84375</v>
+        <v>45637.62689814815</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="G168" s="2">
-        <v>20</v>
+        <v>20.15</v>
       </c>
       <c r="H168" s="2">
         <v>0</v>
@@ -6579,30 +6438,30 @@
         <v>0</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B169" s="2">
-        <v>45637.33381944444</v>
+        <v>45637.67935185185</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D169" s="2">
-        <v>45637.60438657407</v>
+        <v>45637.88680555556</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="G169" s="2">
-        <v>15</v>
+        <v>19.65</v>
       </c>
       <c r="H169" s="2">
         <v>0</v>
@@ -6611,30 +6470,30 @@
         <v>0</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="A170" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B170" s="2">
-        <v>45637.44438657408</v>
+        <v>45637.50479166667</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D170" s="2">
-        <v>45637.58524305555</v>
+        <v>45637.66721064815</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="G170" s="2">
-        <v>15</v>
+        <v>19.65</v>
       </c>
       <c r="H170" s="2">
         <v>0</v>
@@ -6643,30 +6502,30 @@
         <v>0</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B171" s="2">
-        <v>45637.4574074074</v>
+        <v>45637.53814814815</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D171" s="2">
-        <v>45637.82291666666</v>
+        <v>45637.88888888889</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="G171" s="2">
-        <v>22</v>
+        <v>23.5</v>
       </c>
       <c r="H171" s="2">
         <v>0</v>
@@ -6675,30 +6534,30 @@
         <v>0</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="A172" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B172" s="2">
-        <v>45637.35413194444</v>
+        <v>45637.45322916667</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D172" s="2">
-        <v>45637.60418981482</v>
+        <v>45637.53811342592</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="G172" s="2">
-        <v>15</v>
+        <v>23.5</v>
       </c>
       <c r="H172" s="2">
         <v>0</v>
@@ -6707,30 +6566,30 @@
         <v>0</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="A173" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B173" s="2">
-        <v>45637.37432870371</v>
+        <v>45637.67784722222</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D173" s="2">
-        <v>45637.70833333334</v>
+        <v>45637.88611111111</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="G173" s="2">
-        <v>15</v>
+        <v>20.15</v>
       </c>
       <c r="H173" s="2">
         <v>0</v>
@@ -6739,30 +6598,30 @@
         <v>0</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="2" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="B174" s="2">
-        <v>45637.56412037037</v>
+        <v>45637.45829861111</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D174" s="2">
-        <v>45637.67094907408</v>
+        <v>45637.67103009259</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="G174" s="2">
-        <v>15</v>
+        <v>20.15</v>
       </c>
       <c r="H174" s="2">
         <v>0</v>
@@ -6771,30 +6630,30 @@
         <v>0</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B175" s="2">
-        <v>45637.33333333334</v>
+        <v>45637.58337962963</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D175" s="2">
-        <v>45637.57642361111</v>
+        <v>45637.71590277777</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G175" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H175" s="2">
         <v>0</v>
@@ -6803,30 +6662,30 @@
         <v>0</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B176" s="2">
-        <v>45637.2908912037</v>
+        <v>45637.3325462963</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D176" s="2">
-        <v>45637.68483796297</v>
+        <v>45637.5625462963</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G176" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H176" s="2">
         <v>0</v>
@@ -6835,30 +6694,30 @@
         <v>0</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B177" s="2">
-        <v>45637.33333333334</v>
+        <v>45637.58018518519</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D177" s="2">
-        <v>45637.57642361111</v>
+        <v>45637.7081712963</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G177" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H177" s="2">
         <v>0</v>
@@ -6867,62 +6726,62 @@
         <v>0</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B178" s="2">
-        <v>45637.33333333334</v>
+        <v>45637.333125</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D178" s="2">
-        <v>45637.33333333334</v>
+        <v>45637.55902777778</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G178" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H178" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I178" s="2">
         <v>0</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B179" s="2">
-        <v>45637.39118055555</v>
+        <v>45637.24471064815</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D179" s="2">
-        <v>45637.72916666666</v>
+        <v>45637.43518518518</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G179" s="2">
-        <v>22</v>
+        <v>29.64</v>
       </c>
       <c r="H179" s="2">
         <v>0</v>
@@ -6931,30 +6790,30 @@
         <v>0</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B180" s="2">
-        <v>45637.58914351852</v>
+        <v>45637.3944212963</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D180" s="2">
-        <v>45637.91666666666</v>
+        <v>45637.63516203704</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G180" s="2">
-        <v>16</v>
+        <v>29.64</v>
       </c>
       <c r="H180" s="2">
         <v>0</v>
@@ -6963,53 +6822,53 @@
         <v>0</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B181" s="2">
-        <v>45637.33333333334</v>
+        <v>45637.30300925926</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D181" s="2">
-        <v>45637.33333333334</v>
+        <v>45637.68253472223</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G181" s="2">
-        <v>22</v>
+        <v>31.9</v>
       </c>
       <c r="H181" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I181" s="2">
         <v>0</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B182" s="2">
-        <v>45637.62854166667</v>
+        <v>45637.31607638889</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D182" s="2">
-        <v>45637.96347222223</v>
+        <v>45637.73435185185</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>12</v>
@@ -7018,7 +6877,7 @@
         <v>210</v>
       </c>
       <c r="G182" s="2">
-        <v>17.25</v>
+        <v>21.25</v>
       </c>
       <c r="H182" s="2">
         <v>0</v>
@@ -7032,25 +6891,25 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B183" s="2">
-        <v>45637.9490162037</v>
+        <v>45637.64583333334</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D183" s="2">
-        <v>45638.29736111111</v>
+        <v>45637.66666666666</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G183" s="2">
-        <v>18.5</v>
+        <v>51.99</v>
       </c>
       <c r="H183" s="2">
         <v>0</v>
@@ -7059,30 +6918,30 @@
         <v>0</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>211</v>
+        <v>41</v>
       </c>
     </row>
     <row r="184" spans="1:10">
       <c r="A184" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B184" s="2">
-        <v>45637.28846064815</v>
+        <v>45637.30208333334</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D184" s="2">
-        <v>45637.62271990741</v>
+        <v>45637.5625</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G184" s="2">
-        <v>16</v>
+        <v>51.99</v>
       </c>
       <c r="H184" s="2">
         <v>0</v>
@@ -7091,30 +6950,30 @@
         <v>0</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>211</v>
+        <v>41</v>
       </c>
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B185" s="2">
-        <v>45637.30369212963</v>
+        <v>45637.36768518519</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D185" s="2">
-        <v>45637.72929398148</v>
+        <v>45637.6812037037</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G185" s="2">
-        <v>15</v>
+        <v>21.8</v>
       </c>
       <c r="H185" s="2">
         <v>0</v>
@@ -7123,94 +6982,94 @@
         <v>0</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B186" s="2">
+        <v>45637.28282407407</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" s="2">
+        <v>45637.67270833333</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B186" s="2">
-        <v>45637.41744212963</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D186" s="2">
-        <v>45637.78912037037</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F186" s="2" t="s">
+      <c r="G186" s="2">
+        <v>32.45</v>
+      </c>
+      <c r="H186" s="2">
+        <v>0</v>
+      </c>
+      <c r="I186" s="2">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="G186" s="2">
-        <v>16.61</v>
-      </c>
-      <c r="H186" s="2">
-        <v>0</v>
-      </c>
-      <c r="I186" s="2">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="187" spans="1:10">
       <c r="A187" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B187" s="2">
-        <v>45637.3310300926</v>
+        <v>45637.33894675926</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D187" s="2">
-        <v>45637.67046296296</v>
+        <v>45637.67244212963</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F187" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G187" s="2">
+        <v>32.45</v>
+      </c>
+      <c r="H187" s="2">
+        <v>0</v>
+      </c>
+      <c r="I187" s="2">
+        <v>0</v>
+      </c>
+      <c r="J187" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="G187" s="2">
-        <v>21.96</v>
-      </c>
-      <c r="H187" s="2">
-        <v>0</v>
-      </c>
-      <c r="I187" s="2">
-        <v>0</v>
-      </c>
-      <c r="J187" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B188" s="2">
+        <v>45637.32493055556</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" s="2">
+        <v>45637.7294212963</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F188" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B188" s="2">
-        <v>45637.3783912037</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D188" s="2">
-        <v>45637.56607638889</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="G188" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H188" s="2">
         <v>0</v>
@@ -7219,1095 +7078,7 @@
         <v>0</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10">
-      <c r="A189" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="B189" s="2">
-        <v>45637.31819444444</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D189" s="2">
-        <v>45637.60972222222</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G189" s="2">
-        <v>15</v>
-      </c>
-      <c r="H189" s="2">
-        <v>0</v>
-      </c>
-      <c r="I189" s="2">
-        <v>0</v>
-      </c>
-      <c r="J189" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10">
-      <c r="A190" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B190" s="2">
-        <v>45637.4169675926</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D190" s="2">
-        <v>45637.78938657408</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G190" s="2">
-        <v>16.61</v>
-      </c>
-      <c r="H190" s="2">
-        <v>0</v>
-      </c>
-      <c r="I190" s="2">
-        <v>0</v>
-      </c>
-      <c r="J190" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10">
-      <c r="A191" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B191" s="2">
-        <v>45637.3781712963</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D191" s="2">
-        <v>45637.57336805556</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G191" s="2">
-        <v>15</v>
-      </c>
-      <c r="H191" s="2">
-        <v>0</v>
-      </c>
-      <c r="I191" s="2">
-        <v>0</v>
-      </c>
-      <c r="J191" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10">
-      <c r="A192" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B192" s="2">
-        <v>45637.3328587963</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D192" s="2">
-        <v>45637.67913194445</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G192" s="2">
-        <v>20.68</v>
-      </c>
-      <c r="H192" s="2">
-        <v>0</v>
-      </c>
-      <c r="I192" s="2">
-        <v>0</v>
-      </c>
-      <c r="J192" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10">
-      <c r="A193" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B193" s="2">
-        <v>45637.51909722222</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D193" s="2">
-        <v>45637.670625</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G193" s="2">
-        <v>20</v>
-      </c>
-      <c r="H193" s="2">
-        <v>0</v>
-      </c>
-      <c r="I193" s="2">
-        <v>0</v>
-      </c>
-      <c r="J193" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10">
-      <c r="A194" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B194" s="2">
-        <v>45637.57954861111</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D194" s="2">
-        <v>45637.67547453703</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G194" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="H194" s="2">
-        <v>0</v>
-      </c>
-      <c r="I194" s="2">
-        <v>0</v>
-      </c>
-      <c r="J194" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10">
-      <c r="A195" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B195" s="2">
-        <v>45637.71984953704</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D195" s="2">
-        <v>45638.11537037037</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G195" s="2">
-        <v>18.54</v>
-      </c>
-      <c r="H195" s="2">
-        <v>0</v>
-      </c>
-      <c r="I195" s="2">
-        <v>0</v>
-      </c>
-      <c r="J195" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10">
-      <c r="A196" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B196" s="2">
-        <v>45637.32989583333</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D196" s="2">
-        <v>45637.66703703703</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G196" s="2">
-        <v>22</v>
-      </c>
-      <c r="H196" s="2">
-        <v>0</v>
-      </c>
-      <c r="I196" s="2">
-        <v>0</v>
-      </c>
-      <c r="J196" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10">
-      <c r="A197" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B197" s="2">
-        <v>45637.3305787037</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D197" s="2">
-        <v>45637.6677662037</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G197" s="2">
-        <v>22</v>
-      </c>
-      <c r="H197" s="2">
-        <v>0</v>
-      </c>
-      <c r="I197" s="2">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10">
-      <c r="A198" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B198" s="2">
-        <v>45637.33390046296</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D198" s="2">
-        <v>45637.45806712963</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G198" s="2">
-        <v>18</v>
-      </c>
-      <c r="H198" s="2">
-        <v>0</v>
-      </c>
-      <c r="I198" s="2">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10">
-      <c r="A199" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B199" s="2">
-        <v>45637.33141203703</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D199" s="2">
-        <v>45637.55965277777</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G199" s="2">
-        <v>18.55</v>
-      </c>
-      <c r="H199" s="2">
-        <v>0</v>
-      </c>
-      <c r="I199" s="2">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10">
-      <c r="A200" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B200" s="2">
-        <v>45637.33516203704</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D200" s="2">
-        <v>45637.52925925926</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G200" s="2">
-        <v>17</v>
-      </c>
-      <c r="H200" s="2">
-        <v>0</v>
-      </c>
-      <c r="I200" s="2">
-        <v>0</v>
-      </c>
-      <c r="J200" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10">
-      <c r="A201" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B201" s="2">
-        <v>45637.33482638889</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D201" s="2">
-        <v>45637.54534722222</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G201" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="H201" s="2">
-        <v>0</v>
-      </c>
-      <c r="I201" s="2">
-        <v>0</v>
-      </c>
-      <c r="J201" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10">
-      <c r="A202" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B202" s="2">
-        <v>45637.31140046296</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D202" s="2">
-        <v>45637.50168981482</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F202" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G202" s="2">
-        <v>16</v>
-      </c>
-      <c r="H202" s="2">
-        <v>0</v>
-      </c>
-      <c r="I202" s="2">
-        <v>0</v>
-      </c>
-      <c r="J202" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10">
-      <c r="A203" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B203" s="2">
-        <v>45637.33650462963</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D203" s="2">
-        <v>45637.50261574074</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F203" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G203" s="2">
-        <v>16</v>
-      </c>
-      <c r="H203" s="2">
-        <v>0</v>
-      </c>
-      <c r="I203" s="2">
-        <v>0</v>
-      </c>
-      <c r="J203" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10">
-      <c r="A204" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B204" s="2">
-        <v>45637.57194444445</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D204" s="2">
-        <v>45637.67038194444</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G204" s="2">
-        <v>16</v>
-      </c>
-      <c r="H204" s="2">
-        <v>0</v>
-      </c>
-      <c r="I204" s="2">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10">
-      <c r="A205" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B205" s="2">
-        <v>45637.46236111111</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D205" s="2">
-        <v>45637.57174768519</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G205" s="2">
-        <v>16</v>
-      </c>
-      <c r="H205" s="2">
-        <v>0</v>
-      </c>
-      <c r="I205" s="2">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10">
-      <c r="A206" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B206" s="2">
-        <v>45637.31396990741</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D206" s="2">
-        <v>45637.47390046297</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G206" s="2">
-        <v>16</v>
-      </c>
-      <c r="H206" s="2">
-        <v>0</v>
-      </c>
-      <c r="I206" s="2">
-        <v>0</v>
-      </c>
-      <c r="J206" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10">
-      <c r="A207" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B207" s="2">
-        <v>45637.57929398148</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D207" s="2">
-        <v>45637.67195601852</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G207" s="2">
-        <v>18</v>
-      </c>
-      <c r="H207" s="2">
-        <v>0</v>
-      </c>
-      <c r="I207" s="2">
-        <v>0</v>
-      </c>
-      <c r="J207" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10">
-      <c r="A208" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B208" s="2">
-        <v>45637.33017361111</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D208" s="2">
-        <v>45637.49988425926</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G208" s="2">
-        <v>20</v>
-      </c>
-      <c r="H208" s="2">
-        <v>0</v>
-      </c>
-      <c r="I208" s="2">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
-      <c r="A209" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B209" s="2">
-        <v>45637.5</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D209" s="2">
-        <v>45637.66666666666</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="G209" s="2">
-        <v>27</v>
-      </c>
-      <c r="H209" s="2">
-        <v>0</v>
-      </c>
-      <c r="I209" s="2">
-        <v>0</v>
-      </c>
-      <c r="J209" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
-      <c r="A210" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B210" s="2">
-        <v>45637.27135416667</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D210" s="2">
-        <v>45637.56039351852</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G210" s="2">
-        <v>16</v>
-      </c>
-      <c r="H210" s="2">
-        <v>0</v>
-      </c>
-      <c r="I210" s="2">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10">
-      <c r="A211" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B211" s="2">
-        <v>45637.54283564815</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D211" s="2">
-        <v>45637.76543981482</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G211" s="2">
-        <v>20</v>
-      </c>
-      <c r="H211" s="2">
-        <v>0</v>
-      </c>
-      <c r="I211" s="2">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
-      <c r="A212" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B212" s="2">
-        <v>45637.27387731482</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D212" s="2">
-        <v>45637.52405092592</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G212" s="2">
-        <v>20</v>
-      </c>
-      <c r="H212" s="2">
-        <v>0</v>
-      </c>
-      <c r="I212" s="2">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10">
-      <c r="A213" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B213" s="2">
-        <v>45637.58215277778</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D213" s="2">
-        <v>45637.76444444444</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G213" s="2">
-        <v>16</v>
-      </c>
-      <c r="H213" s="2">
-        <v>0</v>
-      </c>
-      <c r="I213" s="2">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10">
-      <c r="A214" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B214" s="2">
-        <v>45637.56296296296</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D214" s="2">
-        <v>45637.81886574074</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G214" s="2">
-        <v>16</v>
-      </c>
-      <c r="H214" s="2">
-        <v>0</v>
-      </c>
-      <c r="I214" s="2">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10">
-      <c r="A215" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B215" s="2">
-        <v>45637.33099537037</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D215" s="2">
-        <v>45637.54197916666</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G215" s="2">
-        <v>16</v>
-      </c>
-      <c r="H215" s="2">
-        <v>0</v>
-      </c>
-      <c r="I215" s="2">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10">
-      <c r="A216" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B216" s="2">
-        <v>45637.37795138889</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D216" s="2">
-        <v>45637.7108912037</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G216" s="2">
-        <v>19.5</v>
-      </c>
-      <c r="H216" s="2">
-        <v>0</v>
-      </c>
-      <c r="I216" s="2">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10">
-      <c r="A217" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B217" s="2">
-        <v>45637.18734953704</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D217" s="2">
-        <v>45637.31278935185</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G217" s="2">
-        <v>15</v>
-      </c>
-      <c r="H217" s="2">
-        <v>0</v>
-      </c>
-      <c r="I217" s="2">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10">
-      <c r="A218" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B218" s="2">
-        <v>45637.375</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D218" s="2">
-        <v>45637.625</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G218" s="2">
-        <v>20.57</v>
-      </c>
-      <c r="H218" s="2">
-        <v>0</v>
-      </c>
-      <c r="I218" s="2">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10">
-      <c r="A219" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B219" s="2">
-        <v>45637.33677083333</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D219" s="2">
-        <v>45637.54165509259</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G219" s="2">
-        <v>26.45</v>
-      </c>
-      <c r="H219" s="2">
-        <v>0</v>
-      </c>
-      <c r="I219" s="2">
-        <v>0</v>
-      </c>
-      <c r="J219" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10">
-      <c r="A220" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B220" s="2">
-        <v>45637.33695601852</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D220" s="2">
-        <v>45637.75929398148</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G220" s="2">
-        <v>13.65</v>
-      </c>
-      <c r="H220" s="2">
-        <v>0</v>
-      </c>
-      <c r="I220" s="2">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10">
-      <c r="A221" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B221" s="2">
-        <v>45637.33333333334</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D221" s="2">
-        <v>45637.70833333334</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G221" s="2">
-        <v>24.04</v>
-      </c>
-      <c r="H221" s="2">
-        <v>0</v>
-      </c>
-      <c r="I221" s="2">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10">
-      <c r="A222" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B222" s="2">
-        <v>45637.57721064815</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D222" s="2">
-        <v>45637.68784722222</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G222" s="2">
-        <v>17</v>
-      </c>
-      <c r="H222" s="2">
-        <v>0</v>
-      </c>
-      <c r="I222" s="2">
-        <v>0</v>
-      </c>
-      <c r="J222" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>
